--- a/data/02_intermediate/cleaned_404Billy_songs.xlsx
+++ b/data/02_intermediate/cleaned_404Billy_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yah, yah Yah Yah, yah Yah Les dealers sont d'la partie, pax de vingt g, raclo, racli, bordel, tout l'monde fume de l'herbe Yah, yah, yah Les dealers à peine partis, descente des keufs dans le parking, bordel, font qu'me questionner Yah, yah, yah I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu Sombre haine et violence tout c'que je suscite Bang Négro, pour des passages radio, rien qu't'ingurgites Bang J'instaure une dictature, j'fais plus d'la musique, reflet du biff dans mon iris, autant puriste que futuriste, hey hey, allez zouin Allez zouin J'fais du sale qu'avec les miens, j'irai dans la shnek à ta mère pour mieux savoir d'où tu viens Choush Il m'faudrait du temps, de l'argent, à part ça, j'n'ai b'soin de rien Contradictoire à temps plein, j'peux t'faire du mal pour t'faire du bien Sénégal sur le drapeau, j'ai ma flotte, trop d'fiottes dans le game L'industrie s'ra sous le choc, j'suis différent vu l'époque Fuck Tasse-pé fourrée entraîne échauffourées Sale, sale Faites-le pour la culture Yah, yah, yah, après mourez si vous voulez You might also like Les dealers sont d'la partie, pax de vingt g, raclo, racli, bordel, tout l'monde fume de l'herbe Yah, yah, yah Les dealers à peine partis, descente des keufs dans le parking, bordel, font qu'me questionner Yah, yah, yah I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu Sale, j'ai rien vu, rien entendu, l'agent m'tire quand même dessus J'ai rien dit, rien prétendu, en pleine guerre, j'suis détendu J'y passerai un siècle donc mes péchés, j'vais pas t'énumérer, hey Pute, pendant qu'j'suis dans sa chatte, elle est rémunérée, hey Percé par les grands mais pressé par le temps Innocent, j'ai pas compris qu'l'argent se gagnait par le sang L'heure n'est pas la même, elle est beaucoup plus belle dans l'Audemars Fort Le rap game va rejoindre sa pute de grand-mère dans l'au-delà, hey hey Fils de pute, j'ai descendu Dose, les keufs me questionnent Et les pétasses m'espionnent, j'ai rien vu, rien entendu Hey Il reste des résidus Hey, les keufs me questionnent Et les pétasses m'espionnent Yah, yah, yah, j'ai rien vu, rien entendu Les dealers sont d'la partie, pax de vingt g, raclo, racli, bordel, tout l'monde fume de l'herbe Yah, yah, yah Les dealers à peine partis, descente des keufs dans le parking, bordel, font qu'me questionner Yah, yah, yah I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu Hey, KultureVie Sombre, sale Dems, eh2</t>
+          <t>Yah, yah Yah Yah, yah Yah Les dealers sont d'la partie, pax de vingt g, raclo, racli, bordel, tout l'monde fume de l'herbe Yah, yah, yah Les dealers à peine partis, descente des keufs dans le parking, bordel, font qu'me questionner Yah, yah, yah I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu Sombre haine et violence tout c'que je suscite Bang Négro, pour des passages radio, rien qu't'ingurgites Bang J'instaure une dictature, j'fais plus d'la musique, reflet du biff dans mon iris, autant puriste que futuriste, hey hey, allez zouin Allez zouin J'fais du sale qu'avec les miens, j'irai dans la shnek à ta mère pour mieux savoir d'où tu viens Choush Il m'faudrait du temps, de l'argent, à part ça, j'n'ai b'soin de rien Contradictoire à temps plein, j'peux t'faire du mal pour t'faire du bien Sénégal sur le drapeau, j'ai ma flotte, trop d'fiottes dans le game L'industrie s'ra sous le choc, j'suis différent vu l'époque Fuck Tasse-pé fourrée entraîne échauffourées Sale, sale Faites-le pour la culture Yah, yah, yah, après mourez si vous voulez Les dealers sont d'la partie, pax de vingt g, raclo, racli, bordel, tout l'monde fume de l'herbe Yah, yah, yah Les dealers à peine partis, descente des keufs dans le parking, bordel, font qu'me questionner Yah, yah, yah I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu Sale, j'ai rien vu, rien entendu, l'agent m'tire quand même dessus J'ai rien dit, rien prétendu, en pleine guerre, j'suis détendu J'y passerai un siècle donc mes péchés, j'vais pas t'énumérer, hey Pute, pendant qu'j'suis dans sa chatte, elle est rémunérée, hey Percé par les grands mais pressé par le temps Innocent, j'ai pas compris qu'l'argent se gagnait par le sang L'heure n'est pas la même, elle est beaucoup plus belle dans l'Audemars Fort Le rap game va rejoindre sa pute de grand-mère dans l'au-delà, hey hey Fils de pute, j'ai descendu Dose, les keufs me questionnent Et les pétasses m'espionnent, j'ai rien vu, rien entendu Hey Il reste des résidus Hey, les keufs me questionnent Et les pétasses m'espionnent Yah, yah, yah, j'ai rien vu, rien entendu Les dealers sont d'la partie, pax de vingt g, raclo, racli, bordel, tout l'monde fume de l'herbe Yah, yah, yah Les dealers à peine partis, descente des keufs dans le parking, bordel, font qu'me questionner Yah, yah, yah I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu Hey, KultureVie Sombre, sale Dems, eh2</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4 La chose que j'regrette le plus ? Attends, laisse-moi réfléchir Ok La chose que j'regrette le plus ? Hum, facile Hein C'est quand j'ai fait un freestyle sur une radio d'pédophile J'ai pas confiance en l'être humain, c'est trop dangereux Allez, zouin Y a même des cousins et cousines qui baisent entre eux J'suis pas misogyne, des fois, c'est elle sur moi Des fois, c'est lle J'suis pas homophobe, des fois, j'écout Angèle Ça m'arrive J'passe pas partout, dommage car j'ai des mots cyniques Pendant qu'tu l'aimes, elle s'fait soulever dans un gros Renault Scénic Je sais qu'jamais j'remplis l'Zénith avec mon rap anti-élite Ça c'est sûr Boycotté comme Dieudonné sans faire de blague antisémite J'sais pas pourquoi Chaque jour, j'me lève, j'me dis Aujourd'hui, c'est quel soucis ? C'est quel soucis ? Les jours s'ressemblent comme David Luiz et Guendouzi J'suis métis donc y a des choses que j'suis pas censé voir Ouais J'ai une vision, mes ancêtres blancs fouettaient mes ancêtres noirs Sale Et vu qu'on est toujours des esclaves, mes gosses, j'leur apprends pas les mots, j'leur apprends les pourcentages C'est important Sheitan se ruine pas, leur âme coûte dix balles à Saint-Denis Même pour le troll, j'aurais jamais featé Bilal Hassani Jamais d'la vie A part flamber et faire monter des putes à bord Ouais Tu m'as servi à rien comme théorème de Pythagore J'te jure Tellement l'argent t'a eu, maintenant t'hésites à être pieux Qui est sûr d'être là demain ? Même pas Élisabeth II R.I.P. Alors nique sa grand-mère de partager l'gâteau à dix Donc je suis mon producteur, mon éditeur et mon artiste Cent pour cent Même un mec qui viole sa fille Attends, regarde Hanouna serait capable de l'inviter Ouais Y a des choses à éviter, indécis, rien qu'j'hésite même quand y a pas à hésiter Y a pas, y a pas Vu ta madre, j'aimerais pas sortir du trou par l'quel t'es sorti Woo Quand l'diable s'habille en Prada, j'crois qu'la planète Terre s'assortit J'mets ces bouffons dans l'mur comme Chris Partlow J'baise l'industrie, elle jouit, j'lui dis fais plus d'harmo' Le mot guerre dans nos binks, tu sais qu'c'est plus qu'un mot J'sais qu'un jour, j'serais riche mais p't-être pas plus qu'Arnault J'rêvais d'étrangler l'prof, j'le regardais du fond d'la classe J'suis toujours d'humeur froide, j'crois qu'j'suis né au fond d'la glace Ils veulent nous dresser comme des chiens, j'ai compris leur vice C'est pour ça qu'le vrai rap, ils l'ont appelé rap de niche Woh You might also like Woh Fuck, fuck, fuck, fuck 404</t>
+          <t>4 La chose que j'regrette le plus ? Attends, laisse-moi réfléchir Ok La chose que j'regrette le plus ? Hum, facile Hein C'est quand j'ai fait un freestyle sur une radio d'pédophile J'ai pas confiance en l'être humain, c'est trop dangereux Allez, zouin Y a même des cousins et cousines qui baisent entre eux J'suis pas misogyne, des fois, c'est elle sur moi Des fois, c'est lle J'suis pas homophobe, des fois, j'écout Angèle Ça m'arrive J'passe pas partout, dommage car j'ai des mots cyniques Pendant qu'tu l'aimes, elle s'fait soulever dans un gros Renault Scénic Je sais qu'jamais j'remplis l'Zénith avec mon rap anti-élite Ça c'est sûr Boycotté comme Dieudonné sans faire de blague antisémite J'sais pas pourquoi Chaque jour, j'me lève, j'me dis Aujourd'hui, c'est quel soucis ? C'est quel soucis ? Les jours s'ressemblent comme David Luiz et Guendouzi J'suis métis donc y a des choses que j'suis pas censé voir Ouais J'ai une vision, mes ancêtres blancs fouettaient mes ancêtres noirs Sale Et vu qu'on est toujours des esclaves, mes gosses, j'leur apprends pas les mots, j'leur apprends les pourcentages C'est important Sheitan se ruine pas, leur âme coûte dix balles à Saint-Denis Même pour le troll, j'aurais jamais featé Bilal Hassani Jamais d'la vie A part flamber et faire monter des putes à bord Ouais Tu m'as servi à rien comme théorème de Pythagore J'te jure Tellement l'argent t'a eu, maintenant t'hésites à être pieux Qui est sûr d'être là demain ? Même pas Élisabeth II R.I.P. Alors nique sa grand-mère de partager l'gâteau à dix Donc je suis mon producteur, mon éditeur et mon artiste Cent pour cent Même un mec qui viole sa fille Attends, regarde Hanouna serait capable de l'inviter Ouais Y a des choses à éviter, indécis, rien qu'j'hésite même quand y a pas à hésiter Y a pas, y a pas Vu ta madre, j'aimerais pas sortir du trou par l'quel t'es sorti Woo Quand l'diable s'habille en Prada, j'crois qu'la planète Terre s'assortit J'mets ces bouffons dans l'mur comme Chris Partlow J'baise l'industrie, elle jouit, j'lui dis fais plus d'harmo' Le mot guerre dans nos binks, tu sais qu'c'est plus qu'un mot J'sais qu'un jour, j'serais riche mais p't-être pas plus qu'Arnault J'rêvais d'étrangler l'prof, j'le regardais du fond d'la classe J'suis toujours d'humeur froide, j'crois qu'j'suis né au fond d'la glace Ils veulent nous dresser comme des chiens, j'ai compris leur vice C'est pour ça qu'le vrai rap, ils l'ont appelé rap de niche Woh Woh Fuck, fuck, fuck, fuck 404</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>J'arrive en pyromane Hey, j'arrive en Dracarys Ça nous regarde pas les histoires de l'ex-femme à Kaaris Oh L'industrie veut m'travestir, j'réagis pas à ses combines J'fais pas du rap pour que ma meuf fasse écouter à ses copines Wouh Tu trouves que j'change trop d'style Hey, tu crois qu'c'est fini ? Tu crois ? T'as pas compris, 404 error, j'ai pas d'style défini Tu nous répètes que si t'as pas d'taff, c'est la faute de l'État Et qu'si demain, tu prends dans l'cul, c'est qu'il s'est ouvert tout seul Menteur Ils connaissent rien, c'est eux qui contrôlent ? Faut pas trop cautionner Nan J'suis l'plus talentueux mais j'sais pas trop m'promotionner Wouh J'arrive plus trop à m'concentrer, symptôme de l'ADHD J'le fais pour m'en sortir, tu l'fais pour plaire à Mehdi Maizi Zouin Faut faire tout et tout d'suite, j'ai retenu la leçon J'ai retenu J'devais feat' avec Nekfeu et Damso sur l'même son Vous avez des bons p'tits flows, des bons p'tits lyrics Mais j'peux pas vous prendre au sérieux, vous v'nez d'un concours Netflix Oh Faut souligner les fautes, quelques LGBT ont milité pour leurs droits, pour ensuite l'imposer aux autres C'est vrai Jusqu'à preuve du contraire, j'fais c'que j'veux, j'suis chez moi Si j'veux pas qu'mon marmot soit non binaire, j'ai l'droit Et alors ? Faut arrêter l'cirque, stop l'association Sale Stop les blasphèmes Wouh, faut arrêter l'shirk Zouin J'dis c'que j'ai à dire sur du tempo Griselda Hey Dans la scène, j'suis Brother Mouzone, t'es Idris Elba Tou, tou, tou J'ai appris à vous connaître, vous prenez direction du vent Ouais La culture de l'instant, opinion du moment Je sais Lors d'la polémique, ils ont soutenu Freeze Corleone Si le public le soutenait pas, ils auraient tous fermé leurs gueules Hey Niveau rap féminin, j'suis pas si sexiste Nan Vous sucez tous Diam's alors que Casey existe Hey Ils sont pas passionnés, le font pour draguer des p'tites Hey Vos albums donnent envie d'ronfler, rendent narcoleptique Grosse montée d'adrénaline dans un moment décisif Tu répètes que t'es indé' mais tu parles pas d'ton déficit Jamais J'ai la vingtaine mais j'ai les idées claires J'sais qu'pour sortir d'la merde, j'vais devoir niquer des mères Et c'est c'que j'suis en train d'faire Clairement, clairement, zouin Ok, si tu dis la vérité, ils vont dire que t'es aigri Ils veulent qu'on dise qu'le ciel est bleu, alors qu'le ciel est gris C'est ça, zouin Ok, j'vais les prendre, imminent, intimement, par devant J'suis un négro couleur marron, j'fais l'bilan calmement You might also like 0.4, zouin C'est carré</t>
+          <t>J'arrive en pyromane Hey, j'arrive en Dracarys Ça nous regarde pas les histoires de l'ex-femme à Kaaris Oh L'industrie veut m'travestir, j'réagis pas à ses combines J'fais pas du rap pour que ma meuf fasse écouter à ses copines Wouh Tu trouves que j'change trop d'style Hey, tu crois qu'c'est fini ? Tu crois ? T'as pas compris, 404 error, j'ai pas d'style défini Tu nous répètes que si t'as pas d'taff, c'est la faute de l'État Et qu'si demain, tu prends dans l'cul, c'est qu'il s'est ouvert tout seul Menteur Ils connaissent rien, c'est eux qui contrôlent ? Faut pas trop cautionner Nan J'suis l'plus talentueux mais j'sais pas trop m'promotionner Wouh J'arrive plus trop à m'concentrer, symptôme de l'ADHD J'le fais pour m'en sortir, tu l'fais pour plaire à Mehdi Maizi Zouin Faut faire tout et tout d'suite, j'ai retenu la leçon J'ai retenu J'devais feat' avec Nekfeu et Damso sur l'même son Vous avez des bons p'tits flows, des bons p'tits lyrics Mais j'peux pas vous prendre au sérieux, vous v'nez d'un concours Netflix Oh Faut souligner les fautes, quelques LGBT ont milité pour leurs droits, pour ensuite l'imposer aux autres C'est vrai Jusqu'à preuve du contraire, j'fais c'que j'veux, j'suis chez moi Si j'veux pas qu'mon marmot soit non binaire, j'ai l'droit Et alors ? Faut arrêter l'cirque, stop l'association Sale Stop les blasphèmes Wouh, faut arrêter l'shirk Zouin J'dis c'que j'ai à dire sur du tempo Griselda Hey Dans la scène, j'suis Brother Mouzone, t'es Idris Elba Tou, tou, tou J'ai appris à vous connaître, vous prenez direction du vent Ouais La culture de l'instant, opinion du moment Je sais Lors d'la polémique, ils ont soutenu Freeze Corleone Si le public le soutenait pas, ils auraient tous fermé leurs gueules Hey Niveau rap féminin, j'suis pas si sexiste Nan Vous sucez tous Diam's alors que Casey existe Hey Ils sont pas passionnés, le font pour draguer des p'tites Hey Vos albums donnent envie d'ronfler, rendent narcoleptique Grosse montée d'adrénaline dans un moment décisif Tu répètes que t'es indé' mais tu parles pas d'ton déficit Jamais J'ai la vingtaine mais j'ai les idées claires J'sais qu'pour sortir d'la merde, j'vais devoir niquer des mères Et c'est c'que j'suis en train d'faire Clairement, clairement, zouin Ok, si tu dis la vérité, ils vont dire que t'es aigri Ils veulent qu'on dise qu'le ciel est bleu, alors qu'le ciel est gris C'est ça, zouin Ok, j'vais les prendre, imminent, intimement, par devant J'suis un négro couleur marron, j'fais l'bilan calmement 0.4, zouin C'est carré</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>I don't want peace, I want problems! Always! En tant qu'fouteur de merde, j'étais dans plusieurs sau-auces Zoin Fuck Jon Stryker, Fuck Georges Soros Fuck! 404 404, j'épargne personne à part les bébés No! No! Fuck ces négros qui me parlent de Dieu avec des gri-gri Fuck! Ça existe pas, tout comme le calibre dans ton jean Ou comme la bite imaginaire de Christine And The Queens Elle est où?! Tema l'attitude, comme si j'ai grandi dans l'Queens Ma fille occupe mon cur, poto, j n'ai qu'une seule queen Fort! Maintnant ces putes veulent discuter pour éviter l'drame No! Dans ma tête on est deux, je me sens comme 88Glam On est deux Tu n'vas pas changer le monde, alors vire ton cul d'héros Ma devise suce zéro chibre, sois froid comme Sub-Zero Génération GTA, génération GTO Si l'union fait la force, pourquoi j'suis au-d'ssus de ces négros ? Zoin! Pour qu'les derniers soient premiers, faut leur mettre la tête à l'envers En tant qu'bon français, il m'faut un chargeur camembert Grah! Grah! Grah! Les poukavs, j'leur donne pas l'heure Ce seraient des juifs en 42, ils auraient balancé les leurs Snitch, snitch Méprenez-vous contre vous, j'ressens pas de colère Tant que vous n'mettez pas des mecs qui s'enculent dans manuels scolaires Zoin Si c'est une traître, écarte-toi, si elle est loyale, garde-la De toute façon, on s'barre de là, si passe Jordan Bardella Okay N'fais pas l'bandit de Chicago, ou on va t'mettre toi et tes locks à terre Plusieurs dans ma tête, il faut qu'je calme tous mes locataires Calmez-vous Appelle-moi l'erreur, l'aigri, appelle-moi l'aigreur Appelle-moi Danger, toi Abella Danger Tu fais des films de boule! Vos albums durent 30 titres, ils durent plus longtemps qu'Le Parrain J'vous jure, j'vais vous faire un par un Vos vieux albums qui font chier Pour eux, j'aime trop la sentence Vu que la mode c'est m'détester, ah, j'aime trop la tendance Allez-y! J'ai beau m'instruire, étudier, j'comprends toujours pas c'système Quand j'vois des racistes qui dansent sur des sons d'Magic System J'comprends rien, moi... 95, sur les traces de Passi Driver Mais j'plonge dans la folie, j'suis Travis dans Taxi Driver Massacre de Thiaroye, ici on connaît l'malheur Charles de Gaulle a tué plus de renois que Jeffrey Dahmer Gang! Gang! Gang! J't'annule, si tu m'as pris pour un p'tit Gros, le psy que j'ai consulté, il a lui-même pris un psy Meskine J'suis pas body positive, j'suis pas ce genre de Nizzo Moi, c'est sûr que j'te baise ap, si t'as le corps de Lizzo C'est sûr Moi, j'suis solo, aka l'unique chevalier noir J'suis le nouveau KKK, mais habillé en noir Le génocide amérindien, ils se sont fait racketter Mais comparé à d'autres, ils n'sont pas très bien marketés ... Niger, Mali, Burkina Burkina J'porte pas leur brassard comme Gueye Gana Ces putes dévergondées ne méritent même pas le resto Comme le rap français ne mérite même pas Despo Zoin You might also like Sale Grah! grah! grah! Wouuuuuuuuuuh!</t>
+          <t>I don't want peace, I want problems! Always! En tant qu'fouteur de merde, j'étais dans plusieurs sau-auces Zoin Fuck Jon Stryker, Fuck Georges Soros Fuck! 404 404, j'épargne personne à part les bébés No! No! Fuck ces négros qui me parlent de Dieu avec des gri-gri Fuck! Ça existe pas, tout comme le calibre dans ton jean Ou comme la bite imaginaire de Christine And The Queens Elle est où?! Tema l'attitude, comme si j'ai grandi dans l'Queens Ma fille occupe mon cur, poto, j n'ai qu'une seule queen Fort! Maintnant ces putes veulent discuter pour éviter l'drame No! Dans ma tête on est deux, je me sens comme 88Glam On est deux Tu n'vas pas changer le monde, alors vire ton cul d'héros Ma devise suce zéro chibre, sois froid comme Sub-Zero Génération GTA, génération GTO Si l'union fait la force, pourquoi j'suis au-d'ssus de ces négros ? Zoin! Pour qu'les derniers soient premiers, faut leur mettre la tête à l'envers En tant qu'bon français, il m'faut un chargeur camembert Grah! Grah! Grah! Les poukavs, j'leur donne pas l'heure Ce seraient des juifs en 42, ils auraient balancé les leurs Snitch, snitch Méprenez-vous contre vous, j'ressens pas de colère Tant que vous n'mettez pas des mecs qui s'enculent dans manuels scolaires Zoin Si c'est une traître, écarte-toi, si elle est loyale, garde-la De toute façon, on s'barre de là, si passe Jordan Bardella Okay N'fais pas l'bandit de Chicago, ou on va t'mettre toi et tes locks à terre Plusieurs dans ma tête, il faut qu'je calme tous mes locataires Calmez-vous Appelle-moi l'erreur, l'aigri, appelle-moi l'aigreur Appelle-moi Danger, toi Abella Danger Tu fais des films de boule! Vos albums durent 30 titres, ils durent plus longtemps qu'Le Parrain J'vous jure, j'vais vous faire un par un Vos vieux albums qui font chier Pour eux, j'aime trop la sentence Vu que la mode c'est m'détester, ah, j'aime trop la tendance Allez-y! J'ai beau m'instruire, étudier, j'comprends toujours pas c'système Quand j'vois des racistes qui dansent sur des sons d'Magic System J'comprends rien, moi... 95, sur les traces de Passi Driver Mais j'plonge dans la folie, j'suis Travis dans Taxi Driver Massacre de Thiaroye, ici on connaît l'malheur Charles de Gaulle a tué plus de renois que Jeffrey Dahmer Gang! Gang! Gang! J't'annule, si tu m'as pris pour un p'tit Gros, le psy que j'ai consulté, il a lui-même pris un psy Meskine J'suis pas body positive, j'suis pas ce genre de Nizzo Moi, c'est sûr que j'te baise ap, si t'as le corps de Lizzo C'est sûr Moi, j'suis solo, aka l'unique chevalier noir J'suis le nouveau KKK, mais habillé en noir Le génocide amérindien, ils se sont fait racketter Mais comparé à d'autres, ils n'sont pas très bien marketés ... Niger, Mali, Burkina Burkina J'porte pas leur brassard comme Gueye Gana Ces putes dévergondées ne méritent même pas le resto Comme le rap français ne mérite même pas Despo Zoin Sale Grah! grah! grah! Wouuuuuuuuuuh!</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Eppsito Où es-tu, où es-tu ? Le 4 ZoinGoinZoin Zoin Pour m'clasher faut être sado Fort, tu dois être pas mal soumis Ouais T'as l'syndrome de l'imposteur, Eppsito Epps Chalghoumi Ouf Ah t'as signé chez Sony, c'est p't-être ce qui t'as rendu guez Sûrement J'te clash pendant cinq minutes, c'est déjà plus que quand tu baises Dis au revoir à la gloire Au revoir J'sais pourquoi tu m'traites d'homophobe, pétasse Pétasse T'as le même cul noir que Magloire Peine de mort pour les pédos, mais tu mérites la même peine Fort Quand elle était encore mineure, tu voulais zouker Wejdene C'est toi qui l'a dit J't'ai vu clasher Raplume J't'ai vu, j't'ai vu perdre la raison J't'ai vu Blac'KKK est v'nu pendre ce nègre de maison Blac'KKK T'es pas l'meilleur rappeur de France Non Jamais les rois s'en vantent Jamais T'es l'seul mec qui gagne un BET en faisant trois cents ventes Miskine Mais, dites-moi qui l'connait ? Grah Ils savent que mythonner Grah Pédale pistonné Grah Westside Pistolet Grah Rien qu'j'lui pisse au nez Grah, et j'crache sur cette grosse folle Tiens J'vais pas trop t'terminer ou on va dire qu'j'suis grossophobe Belek Allez j'me lance Allez, tu sais qu'j'suis plein d'défi B2o l'avait prédit, t'es villain comme Ndiefi Puis actualise tes vêtements Fait un effort, il faut changer la donne Faut T'as vingt-sept piges tu mets les mêmes jeans qu'Akhenaton Miskine Range ton bandana Range le, range tes Timberlands Range les T'es qu'un p'tit gosse que l'industrie a violé comme à Neverland Zoin Tu m'dis que j'clash mon propre type Mais tu t'es vanté auprès d'moi d'avoir fumé Dinos sur son propre titre Arh Vu qu'le bro est un vendu, j'vais devoir clash contre le bro C'est petit Boo contre le gros, t'es trop gentil, négro Grah Explique nous cette coïncidence Explique nous T'as remporté un BET et ton manager taff chez BET FRANCE Comment ça s'fait ? Il s'appelle Sindanu Sindanu J'viens niquer ton rêve africain frérot Tu s'ra pas Francis Ngannou Oh, non, non, non On t'as vendu comme le sauveur Promotionné comme une mascotte Zoin Mets une perruque, t'es une pute noir de rue d'Aerschot Tu vaut vingt balles T'es qu'un produit t'es planifié comme aucun gars No, no T'as p't-être vendu ton cul mais pas tes places pour l'Olympia Négro, j'te baise de pleins d'sortes, négro, j'te fume en one shot Ok T'as dis qu'tu venais prendre le trône Zoin, donc j't'ai assis sur un chiotte Zoin J'crois qu'tu vas finir caissier, gros ta carrière est biaisée T'es trop laid, j'sais pas comment ta meuf elle fait pour t'baiser J'ai cru qu'j'étais vraiment intimidant, pour clash, t'as pris du temps Dis moi c'que ça fait d'être industry plant dans une industrie d'blanc Ok Tu joues sur l'dos des indés, du genre tu fuck Polydor Tu fuck Mais tu fais des big photos avec le boss de Capitol Ouh Pourquoi on en est là ? Pourquoi Demande à ton frère Demande lui Ton manager voulait produire et magouiller mon concert Escroc J'ai refusé, mais pour qui vous prenez vous ? Mais pour qui ? C'est votre fin, prenez une corde et pendez vous Pendez vous tous So Index, mais j'm'en bats les couilles que tu l'connaisses T'habites à la campagne, j'peux pas connaître négro d'ton tieks Sur moi t'as fait deux diss track Deux, mais c'est sans impact Sans impact T'as plus l'talent, tu peux pas l'faire sans tricher ou sans un pacte T'as dis qu't'as ramené rap, mais les calculs sont pas bons J'écrivais Hostile, tu mangeais des cailloux au Gabon Miskine Les gens ont besoin d'comprendre Les gens ont besoin d'un contexte Tu m'as invité à ton concert Et t'as oublié tout ton texte T'as répété avec les autres, pas avec nous, t'as pris de haut Bizarrement, la veille j'avais sorti BLKKKK VAN GOGH Bizarrement En interview, tu dis qu'j'suis ton ami, négro, tu sembles fan Faut l'dire, depuis qu'j'suis dans l'Boom bap, négro, tu sembles fade Tu n'es qu'l'ombre de toi même, y a ta carrière à l'hôpital Fais des tiktoks comme Jawad ou va ouvrir un OnlyFans Ahah Parce que le rap c'est cuit C'est cuit, faut relativiser J'ai comme l'impression que ta fan base s'est volatilisée C'que j'voulais tu m'la donné T'as mordu à l'hameçon, t'es l'poisson sur la cover de ISHA et Limsa d'Aulnay Tu voles la voix à Westside Gunn, un BET à Central Cee Tu fais un Olympia à perte, négro mais qui es tu vraiment ? Escroc Range ton gilet pare-balles, jamais d'la vie tu pointes un gun Malgré qu'tu sois industry plant, l'industrie ne veut pas d'ta gueule You might also like ZoinGoinZoin Shoot un industry plant Vas-y shoot un industry plant Sale menteur, sale tricheur, sale voleur Bande d'escrocs Vous trafiquez des dates de concerts Vous trafiquez des BET AWARDS Alors pour la culture j'ai dû te dézinguer Je ne peux pas te signer, comme Jay-Z a signé Nas t'es trop flingué Tu m'avais pourtant dis que tu n'voulais pas d'cette fumée au téléphone Tu m'avais dit qu'il n'y aurait pas de suite t'es un lâche au fait Le 4</t>
+          <t>Eppsito Où es-tu, où es-tu ? Le 4 ZoinGoinZoin Zoin Pour m'clasher faut être sado Fort, tu dois être pas mal soumis Ouais T'as l'syndrome de l'imposteur, Eppsito Epps Chalghoumi Ouf Ah t'as signé chez Sony, c'est p't-être ce qui t'as rendu guez Sûrement J'te clash pendant cinq minutes, c'est déjà plus que quand tu baises Dis au revoir à la gloire Au revoir J'sais pourquoi tu m'traites d'homophobe, pétasse Pétasse T'as le même cul noir que Magloire Peine de mort pour les pédos, mais tu mérites la même peine Fort Quand elle était encore mineure, tu voulais zouker Wejdene C'est toi qui l'a dit J't'ai vu clasher Raplume J't'ai vu, j't'ai vu perdre la raison J't'ai vu Blac'KKK est v'nu pendre ce nègre de maison Blac'KKK T'es pas l'meilleur rappeur de France Non Jamais les rois s'en vantent Jamais T'es l'seul mec qui gagne un BET en faisant trois cents ventes Miskine Mais, dites-moi qui l'connait ? Grah Ils savent que mythonner Grah Pédale pistonné Grah Westside Pistolet Grah Rien qu'j'lui pisse au nez Grah, et j'crache sur cette grosse folle Tiens J'vais pas trop t'terminer ou on va dire qu'j'suis grossophobe Belek Allez j'me lance Allez, tu sais qu'j'suis plein d'défi B2o l'avait prédit, t'es villain comme Ndiefi Puis actualise tes vêtements Fait un effort, il faut changer la donne Faut T'as vingt-sept piges tu mets les mêmes jeans qu'Akhenaton Miskine Range ton bandana Range le, range tes Timberlands Range les T'es qu'un p'tit gosse que l'industrie a violé comme à Neverland Zoin Tu m'dis que j'clash mon propre type Mais tu t'es vanté auprès d'moi d'avoir fumé Dinos sur son propre titre Arh Vu qu'le bro est un vendu, j'vais devoir clash contre le bro C'est petit Boo contre le gros, t'es trop gentil, négro Grah Explique nous cette coïncidence Explique nous T'as remporté un BET et ton manager taff chez BET FRANCE Comment ça s'fait ? Il s'appelle Sindanu Sindanu J'viens niquer ton rêve africain frérot Tu s'ra pas Francis Ngannou Oh, non, non, non On t'as vendu comme le sauveur Promotionné comme une mascotte Zoin Mets une perruque, t'es une pute noir de rue d'Aerschot Tu vaut vingt balles T'es qu'un produit t'es planifié comme aucun gars No, no T'as p't-être vendu ton cul mais pas tes places pour l'Olympia Négro, j'te baise de pleins d'sortes, négro, j'te fume en one shot Ok T'as dis qu'tu venais prendre le trône Zoin, donc j't'ai assis sur un chiotte Zoin J'crois qu'tu vas finir caissier, gros ta carrière est biaisée T'es trop laid, j'sais pas comment ta meuf elle fait pour t'baiser J'ai cru qu'j'étais vraiment intimidant, pour clash, t'as pris du temps Dis moi c'que ça fait d'être industry plant dans une industrie d'blanc Ok Tu joues sur l'dos des indés, du genre tu fuck Polydor Tu fuck Mais tu fais des big photos avec le boss de Capitol Ouh Pourquoi on en est là ? Pourquoi Demande à ton frère Demande lui Ton manager voulait produire et magouiller mon concert Escroc J'ai refusé, mais pour qui vous prenez vous ? Mais pour qui ? C'est votre fin, prenez une corde et pendez vous Pendez vous tous So Index, mais j'm'en bats les couilles que tu l'connaisses T'habites à la campagne, j'peux pas connaître négro d'ton tieks Sur moi t'as fait deux diss track Deux, mais c'est sans impact Sans impact T'as plus l'talent, tu peux pas l'faire sans tricher ou sans un pacte T'as dis qu't'as ramené rap, mais les calculs sont pas bons J'écrivais Hostile, tu mangeais des cailloux au Gabon Miskine Les gens ont besoin d'comprendre Les gens ont besoin d'un contexte Tu m'as invité à ton concert Et t'as oublié tout ton texte T'as répété avec les autres, pas avec nous, t'as pris de haut Bizarrement, la veille j'avais sorti BLKKKK VAN GOGH Bizarrement En interview, tu dis qu'j'suis ton ami, négro, tu sembles fan Faut l'dire, depuis qu'j'suis dans l'Boom bap, négro, tu sembles fade Tu n'es qu'l'ombre de toi même, y a ta carrière à l'hôpital Fais des tiktoks comme Jawad ou va ouvrir un OnlyFans Ahah Parce que le rap c'est cuit C'est cuit, faut relativiser J'ai comme l'impression que ta fan base s'est volatilisée C'que j'voulais tu m'la donné T'as mordu à l'hameçon, t'es l'poisson sur la cover de ISHA et Limsa d'Aulnay Tu voles la voix à Westside Gunn, un BET à Central Cee Tu fais un Olympia à perte, négro mais qui es tu vraiment ? Escroc Range ton gilet pare-balles, jamais d'la vie tu pointes un gun Malgré qu'tu sois industry plant, l'industrie ne veut pas d'ta gueule ZoinGoinZoin Shoot un industry plant Vas-y shoot un industry plant Sale menteur, sale tricheur, sale voleur Bande d'escrocs Vous trafiquez des dates de concerts Vous trafiquez des BET AWARDS Alors pour la culture j'ai dû te dézinguer Je ne peux pas te signer, comme Jay-Z a signé Nas t'es trop flingué Tu m'avais pourtant dis que tu n'voulais pas d'cette fumée au téléphone Tu m'avais dit qu'il n'y aurait pas de suite t'es un lâche au fait Le 4</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Esclaves, nos ancêtres étaient esclaves J'leur coupe les mains, j'les force à faire des gang signs J'veux remplir mon coffre comme si j'revenais d'Espagne C'est pas avec du rap conscient qu'on roule en Tesla Ils m'disent que la richesse est dans l'cur, j'leur réponds qu'avec une black card, j'achèterai un pacemaker J'suis pas mauvais, j'confonds juste le mal et l'bien Si tu fais l'fou, tu disparais comme un avion malaisien, ok J'étais fort à l'école, y a pas plus simple Si l'rap, ça marche pas, j'arrête, j'fais un Bac 5 Sciences Po', Normale Sup', nan, je sais, j'fais dix-sept showcases et j'investis tout à HEC, gros On a pas l'même schéma, en 2018, ils font encore rimer Benzema avec eczéma, terminé, déterminé, La Haine, Vincent Cassel Moi, j'écris des trucs de ouf et j'me demande à quoi ça sert J'fais l'effet d'un tsunami, y a les affiches de mon album dans une gare où j'ai fraudé toute ma vie La drogue devient banale, y a ni bon ni mauvais sens Xanax, à l'envers, ça fait Xanax J'ai vu l'avenir au fond d'une black card, péter les plombs J'ai vu l'espoir avec une carte Electron J'ai vu l'avenir au fond d'un sonotone, c'est la merde mais Dieu a un plan pour moi, ok J'ai vu l'avenir au fond d'un stroboscope, c'est la merde mais Dieu a un plan pour moi que j'm'en bats les couilles de lire ton horoscope J'ai grandi dans les blocs où on vend des glocks L'amour nous mène en bateau car la haine fait le Vendée Globe Embarrassé mais j'suis béni donc j'toucherai pas la C Bataradé, tant que j'peux compter, c'est qu'j'ai pas assez On veut diamant, argent, or, rubis Subhanallah le biff est sale comme Nubi Maman, pardon, ici, la vie m'a rendu malhonnête mais j'f'rai tomber ni la chemise, ni la savonette Ce monde est horrible, j'l'aime peu, plein d'beuh, 22 quand j'vois passer la Mondéo grise J'fais pas trop l'malin, c'trop compliqué d'refaire les lacets d'une Air Max 95 dès l'matin J'tourne dans Paris, sur l'périph', j'écris, j'freestyle C'était Jules, gros, veni, vidi, vici You might also like Fianso, moi wAllah... J'ai braqué ce terrain, j'ai braqué cette fouf Qu'est ce qui m'attend dans la tombe La mort m'appelle pas j'suis toujours dans l'attente On refuse pas les têtes on fait pas de karaté On a perdu des potes on a fait des trucs bêtes Voler, braquer, bicrave la CC Tes rappeurs j'leur fais peur et j'vais pas à la salle Zedia, Dingo, gardez la pêche Avenir désordonné, c'est quel fils de pute qui va m'donner des ordres ? Moi, yeux dans les yeux devant le miroir Fier de moi j'assumerai tous mes choix Sacoche remplie on empire on a peur de nous même les secrets j'emporterai dans la mort T'as pas 1 tu veux 2 va voler J'compte sur mes couilles pas la Française Des Jeux Faut tout baiser quand t'es jeune, le teuchi est vert la CC est jaune Vu que les plus bonnes sont intelligentes, j'envoie la plus conne pour te ligoter Ça fait super longtemps que jm'en fous des gens J'connais la voisine elle pécho des G Ils font les PDG dehors ils prennent des gifles Eh tu vas refaire nos vies Les délits j'les ai fait comme de l'eau Les mots ils sont venus pas besoin d'aller lire des livres J'parle tout seul c'est qui qui me délivre, j'suis un voleur ça s'oublie pas comme le vélo 2.7.0 dans la maison Terrain d'héro sous commission J'suis à pieds mais j'fais la mission, faut du wari pour la maison Wesh c'est qui les méchants ? Fini les barretes, j'remplis les malettes On s'barre où elle a la keuchné remplie de bakhaw Y'a que le petit qui connais ma cachette J'sais où il habite il est pas fou Handek à nous, Sevran 3 tours, la BO, la CP C'est combien sur la sse-pa, celui qui fait des trous il khalass Celui qui m'a pas cru il verra J'suis rentré j'ai juste défoncé la porte M'appelle pas mon frère tu veux juste ma part A l'ancienne j'avais honte d'être un rappeur Demain j'suis fier si ça paye le loyer de ma mère J'raconte ma vie moi j'fais pas semblant J'suis avec mes gars j'cherche un nouveau plan Demain j'suis au mitard la putain de ma mère C'est pas toi qui va faire ma peine Ils m'ont tous dit Ace, crame le cercle, pourquoi ? L'émission est plutôt cool et vous voulez que j'la foudroie J'ai la tech', les punch', le flow, j'crois bien qu'rapper, c'est mon pouvoir L'album est sorti donc bientôt dans l'rap game, il f'ra tout noir J'ai des millions d'vues comme douter, j'vais devoir te raisonner Connard comme Keblack, avoue qu't'as déconné Tocard, j'viens juste de finir de m'échauffer Ola chica, j'te rappelle, ok ? J'détruis juste un freestyle et j'te détruis après Après ma performance, y aura plus d'après pour la concurrence Mmmh, j'ai du mal à la voir en l'occurence Vous prenez trop de place comme les glaçons qu'on fout dans mon verre au resto J'veux gova et dîner dans palace et oublier le sale goût des pâtes au pesto Pourquoi pas faire ça grâce à ma zik ? Mais pour ça, va falloir que je kicke Transpo dans la daronne le rap français, pourtant, quand je pose, on dirait qu'y a un hic Je fais du sale mais les paroles sont sensées Mate l'ascension, j'suis comme Asensio Il est bien trop tard pour se mettre à m'encenser Je brûle les sessions et ne compte pas cesser Ont tous la pression, derrière leur PC, je provoque des lésions MC sont lesés, tous de moi comme la femme de Et ça fait 16 mesures, j'vous laisse les encaisser, cadeau, han Toujours bien entouré, de mes fréquentations, j'suis ravi Si les gens changent après le succès autour de toi, c'est qu't'avais mal choisi tes amis La vie, c'est comme le buis' sélectionne ceux avec qui tu t'allies Ceux avec qui vous pouvez monter tout en haut Pas ces putes qui voudront t'ôter la vie J'ai des rêves de grandeur, des rêves de splendeur J'veux être au rap game, une crèpe à la Chandeleur J'ai trop d'ambition, ça en devient pas très sain J'arrête quand disque d'or remplace mon papier peint Sur ma lancée, bien sûr que j'en fais, des jaloux Premier album, les haters seront à bout En vrai, j'm'en bats les couilles de ceux que tu pense, ton avis ne pèse pas très lourd sur ma balance D. Ace Chez nous ça rap sec On fait pas semblant Ce quon a construit en une décennie Toi Ça tprendrais 100 ans Jai grandi dans la tess On frapper sans gants Jai mis des coups jai pris des coups Wesh on était qudes enfants Pas ltemps dnegocier avec toi Dis moi combien jte dois Tout dsuite jpourrais tparler dbecane Mais là jte parle de moi Jpense a lavenir frère donc jfais les 100 pas Empire Music les autres Fils de pute Jles sent pas Jcontrole ma vie ça décroche pas comme le quattro du Rs6 Jinvestis mes billes dans mon fils parle moi dbenefice Malheureusement les mains sont sales Quand il faut faire les files Obliger drepondre présent quand il y a Fianso au bout du fil Marier à la rue , pour mon cortège on refra TOCA Parlons peu parlons business gros Parlons PROPAL Métissé jai mes ancêtres dans la peau Trop Fier ! Jles renifle ceux qui font qutape dans la coke Noublie pas frero jsuis ltipeu dpersonne Jme suis solo jai attendu gentiment qumon heure sonne Impossible de pas mvoir voler dans lciel Mesdames et messieurs Jsuis rentrer dans lcercle De quelque kilos j'suis en perte Boozoo Bakhaw j'rentre dans le cercle Ferme ta gueule ment pas dans tes texte Dans ton bloc note que du Tipex Tu nous doit va y passe à la caisse Y a Bakary Blancoq 9-3 tu connais l'addresse, T-I-2L-E-U-L-S Champion du monde à finir Pour t'la mettre, y a peu de paramètres Aucune paillette, aucun strass Donc je n'laisse aucune trace On peut pas dire qu'j'suis raciste car je n'aime aucune race Fuck le monde, son visage, il montre Billy, n'a qu'une face Ta zumba d'salope, faut l'éradiquer Quand tu donnes ton cul, faut bien t'appliquer J'ai trop d'haine pour être démagogue, j'viens d'en-bas comme Gog et Magog J'aime violence plus que dialogue J'aime argent plus que salope, hey Le ciel a ses raisons que l'être humain ignore J'vais pas t'tuer d'vant tes enfants, j'vais les buter d'abord Solo, sous l'eau, j'vais partir, personne me follow J'vais partir au Gangster Paradise comme Coolio J'te souhaite de crever dans une vie de rêve J'dresse leurs coups face à leurs glaives, qu'ils m'achèvent Bien placé, mal placé, j'les ken car toujours, ils exploitent les mêmes Dans ta chatte, je voyage partout sans frontière comme l'espace Schengen J'mélange peine et haine J'mélange peine et haine sur BPM, ton sauveur, c'est l'argent ou l'enfant d'Bethléem Cherche ta street cred' dans l'cul d'ta re-s Ils veulent te faire croire que l'argent, c'est Dieu, toz1</t>
+          <t>Esclaves, nos ancêtres étaient esclaves J'leur coupe les mains, j'les force à faire des gang signs J'veux remplir mon coffre comme si j'revenais d'Espagne C'est pas avec du rap conscient qu'on roule en Tesla Ils m'disent que la richesse est dans l'cur, j'leur réponds qu'avec une black card, j'achèterai un pacemaker J'suis pas mauvais, j'confonds juste le mal et l'bien Si tu fais l'fou, tu disparais comme un avion malaisien, ok J'étais fort à l'école, y a pas plus simple Si l'rap, ça marche pas, j'arrête, j'fais un Bac 5 Sciences Po', Normale Sup', nan, je sais, j'fais dix-sept showcases et j'investis tout à HEC, gros On a pas l'même schéma, en 2018, ils font encore rimer Benzema avec eczéma, terminé, déterminé, La Haine, Vincent Cassel Moi, j'écris des trucs de ouf et j'me demande à quoi ça sert J'fais l'effet d'un tsunami, y a les affiches de mon album dans une gare où j'ai fraudé toute ma vie La drogue devient banale, y a ni bon ni mauvais sens Xanax, à l'envers, ça fait Xanax J'ai vu l'avenir au fond d'une black card, péter les plombs J'ai vu l'espoir avec une carte Electron J'ai vu l'avenir au fond d'un sonotone, c'est la merde mais Dieu a un plan pour moi, ok J'ai vu l'avenir au fond d'un stroboscope, c'est la merde mais Dieu a un plan pour moi que j'm'en bats les couilles de lire ton horoscope J'ai grandi dans les blocs où on vend des glocks L'amour nous mène en bateau car la haine fait le Vendée Globe Embarrassé mais j'suis béni donc j'toucherai pas la C Bataradé, tant que j'peux compter, c'est qu'j'ai pas assez On veut diamant, argent, or, rubis Subhanallah le biff est sale comme Nubi Maman, pardon, ici, la vie m'a rendu malhonnête mais j'f'rai tomber ni la chemise, ni la savonette Ce monde est horrible, j'l'aime peu, plein d'beuh, 22 quand j'vois passer la Mondéo grise J'fais pas trop l'malin, c'trop compliqué d'refaire les lacets d'une Air Max 95 dès l'matin J'tourne dans Paris, sur l'périph', j'écris, j'freestyle C'était Jules, gros, veni, vidi, vici Fianso, moi wAllah... J'ai braqué ce terrain, j'ai braqué cette fouf Qu'est ce qui m'attend dans la tombe La mort m'appelle pas j'suis toujours dans l'attente On refuse pas les têtes on fait pas de karaté On a perdu des potes on a fait des trucs bêtes Voler, braquer, bicrave la CC Tes rappeurs j'leur fais peur et j'vais pas à la salle Zedia, Dingo, gardez la pêche Avenir désordonné, c'est quel fils de pute qui va m'donner des ordres ? Moi, yeux dans les yeux devant le miroir Fier de moi j'assumerai tous mes choix Sacoche remplie on empire on a peur de nous même les secrets j'emporterai dans la mort T'as pas 1 tu veux 2 va voler J'compte sur mes couilles pas la Française Des Jeux Faut tout baiser quand t'es jeune, le teuchi est vert la CC est jaune Vu que les plus bonnes sont intelligentes, j'envoie la plus conne pour te ligoter Ça fait super longtemps que jm'en fous des gens J'connais la voisine elle pécho des G Ils font les PDG dehors ils prennent des gifles Eh tu vas refaire nos vies Les délits j'les ai fait comme de l'eau Les mots ils sont venus pas besoin d'aller lire des livres J'parle tout seul c'est qui qui me délivre, j'suis un voleur ça s'oublie pas comme le vélo 2.7.0 dans la maison Terrain d'héro sous commission J'suis à pieds mais j'fais la mission, faut du wari pour la maison Wesh c'est qui les méchants ? Fini les barretes, j'remplis les malettes On s'barre où elle a la keuchné remplie de bakhaw Y'a que le petit qui connais ma cachette J'sais où il habite il est pas fou Handek à nous, Sevran 3 tours, la BO, la CP C'est combien sur la sse-pa, celui qui fait des trous il khalass Celui qui m'a pas cru il verra J'suis rentré j'ai juste défoncé la porte M'appelle pas mon frère tu veux juste ma part A l'ancienne j'avais honte d'être un rappeur Demain j'suis fier si ça paye le loyer de ma mère J'raconte ma vie moi j'fais pas semblant J'suis avec mes gars j'cherche un nouveau plan Demain j'suis au mitard la putain de ma mère C'est pas toi qui va faire ma peine Ils m'ont tous dit Ace, crame le cercle, pourquoi ? L'émission est plutôt cool et vous voulez que j'la foudroie J'ai la tech', les punch', le flow, j'crois bien qu'rapper, c'est mon pouvoir L'album est sorti donc bientôt dans l'rap game, il f'ra tout noir J'ai des millions d'vues comme douter, j'vais devoir te raisonner Connard comme Keblack, avoue qu't'as déconné Tocard, j'viens juste de finir de m'échauffer Ola chica, j'te rappelle, ok ? J'détruis juste un freestyle et j'te détruis après Après ma performance, y aura plus d'après pour la concurrence Mmmh, j'ai du mal à la voir en l'occurence Vous prenez trop de place comme les glaçons qu'on fout dans mon verre au resto J'veux gova et dîner dans palace et oublier le sale goût des pâtes au pesto Pourquoi pas faire ça grâce à ma zik ? Mais pour ça, va falloir que je kicke Transpo dans la daronne le rap français, pourtant, quand je pose, on dirait qu'y a un hic Je fais du sale mais les paroles sont sensées Mate l'ascension, j'suis comme Asensio Il est bien trop tard pour se mettre à m'encenser Je brûle les sessions et ne compte pas cesser Ont tous la pression, derrière leur PC, je provoque des lésions MC sont lesés, tous de moi comme la femme de Et ça fait 16 mesures, j'vous laisse les encaisser, cadeau, han Toujours bien entouré, de mes fréquentations, j'suis ravi Si les gens changent après le succès autour de toi, c'est qu't'avais mal choisi tes amis La vie, c'est comme le buis' sélectionne ceux avec qui tu t'allies Ceux avec qui vous pouvez monter tout en haut Pas ces putes qui voudront t'ôter la vie J'ai des rêves de grandeur, des rêves de splendeur J'veux être au rap game, une crèpe à la Chandeleur J'ai trop d'ambition, ça en devient pas très sain J'arrête quand disque d'or remplace mon papier peint Sur ma lancée, bien sûr que j'en fais, des jaloux Premier album, les haters seront à bout En vrai, j'm'en bats les couilles de ceux que tu pense, ton avis ne pèse pas très lourd sur ma balance D. Ace Chez nous ça rap sec On fait pas semblant Ce quon a construit en une décennie Toi Ça tprendrais 100 ans Jai grandi dans la tess On frapper sans gants Jai mis des coups jai pris des coups Wesh on était qudes enfants Pas ltemps dnegocier avec toi Dis moi combien jte dois Tout dsuite jpourrais tparler dbecane Mais là jte parle de moi Jpense a lavenir frère donc jfais les 100 pas Empire Music les autres Fils de pute Jles sent pas Jcontrole ma vie ça décroche pas comme le quattro du Rs6 Jinvestis mes billes dans mon fils parle moi dbenefice Malheureusement les mains sont sales Quand il faut faire les files Obliger drepondre présent quand il y a Fianso au bout du fil Marier à la rue , pour mon cortège on refra TOCA Parlons peu parlons business gros Parlons PROPAL Métissé jai mes ancêtres dans la peau Trop Fier ! Jles renifle ceux qui font qutape dans la coke Noublie pas frero jsuis ltipeu dpersonne Jme suis solo jai attendu gentiment qumon heure sonne Impossible de pas mvoir voler dans lciel Mesdames et messieurs Jsuis rentrer dans lcercle De quelque kilos j'suis en perte Boozoo Bakhaw j'rentre dans le cercle Ferme ta gueule ment pas dans tes texte Dans ton bloc note que du Tipex Tu nous doit va y passe à la caisse Y a Bakary Blancoq 9-3 tu connais l'addresse, T-I-2L-E-U-L-S Champion du monde à finir Pour t'la mettre, y a peu de paramètres Aucune paillette, aucun strass Donc je n'laisse aucune trace On peut pas dire qu'j'suis raciste car je n'aime aucune race Fuck le monde, son visage, il montre Billy, n'a qu'une face Ta zumba d'salope, faut l'éradiquer Quand tu donnes ton cul, faut bien t'appliquer J'ai trop d'haine pour être démagogue, j'viens d'en-bas comme Gog et Magog J'aime violence plus que dialogue J'aime argent plus que salope, hey Le ciel a ses raisons que l'être humain ignore J'vais pas t'tuer d'vant tes enfants, j'vais les buter d'abord Solo, sous l'eau, j'vais partir, personne me follow J'vais partir au Gangster Paradise comme Coolio J'te souhaite de crever dans une vie de rêve J'dresse leurs coups face à leurs glaives, qu'ils m'achèvent Bien placé, mal placé, j'les ken car toujours, ils exploitent les mêmes Dans ta chatte, je voyage partout sans frontière comme l'espace Schengen J'mélange peine et haine J'mélange peine et haine sur BPM, ton sauveur, c'est l'argent ou l'enfant d'Bethléem Cherche ta street cred' dans l'cul d'ta re-s Ils veulent te faire croire que l'argent, c'est Dieu, toz1</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Pyro Pyroman Junior Alaprod, hé nan, y a rien d'nouveau y a rien d'nouveau Heyn hey 404 Billy, Billy, Billy, Billy, Billy, Billy, hey J'suis rempli d'injures hey J'suis pas v'nu brutaliser l'rap français, je vous le jure Comme dans The Wire, j'ai des cadavres de rappeurs entre mes murs bang J'aimerais être riche, rien qu'une seule fois Une seule journée, être sur le trône, y séjourner J'essaie d'être quelqu'un d'autre mais j'finis par redevenir moi-même L'indécision malmène, mais quand même, mes démons m'engrainent Donc c'est toujours la même Ils font beaucoup d'erreurs, ils appellent leurs projets 404 erreur, suis-je leur géniteur ? Rien d'anodin, j'irai pas vite mais j'irai loin 'vec mes démons, j'fume des joints et j'baise des tchoins Ils méritent la pire des choses pour ce qu'ils proposent Crois pas qu'mon monde est gai, beau, rempli de roses J'y arriverai, c'est promis Ferme ta gueule, fais du biff, fais du chiffre, réussis, homie Ici-bas, personne ne peut fournir ce que l'on fournit J'irai jusqu'à ce putain de sommet car je l'ai promis La vie, j'déshabille, j'la tourne, j'la baise, j'la laisse en folie La vie, c'est dur, mais je m'en bats les couilles, monsieur l'agent Vous avez vu qu'on aime pas trop les fouilles Tard le soir, je cherche le sommeil Négro, j'suis tellement sombre, j'peux cacher la terre du soleil J'irai chier sur leurs tombes c'est immonde, mais c'est réel Client du marchand d'sable, seuls mes cauchemars me réveillent Fuck la hype, le rap de pédale, plein d'matière fécale Sheitan souhaite acheter mon âme, j'attends l'virement par Paypal Fuck l'usine, le leasing, les risibles, leurs castings En confiance, je me sens invincible, j'imagine L'univers ténébreux les fascine J'réalise que l'système nous encule à travers des machines Mais j'peux rien dire Aveuglé par l'argent, par le biff, je ne peux rien lire J'vois cadavres et champ de bataille en feu quand je lis l'avenir Cette vie me fait bander comme grosse poitrine dans pull en cachemire Banlieusard peut finir dans cercueil rempli de saphirs Qu'ils vivent ou qu'ils crèvent, j'vais toujours soutenir ma thèse De très nombreux souvenirs m'apaisent Qu'elle souffre ou qu'elle sourie, j'la baise Faites gaffe, attention, l'hiver vient Les esprits résident sous la neige Et 404, qu'est-ce qu'il devient ? Il va poser l'rap sur sa verge Ferme ta gueule quand le négro cause Mon rap restera dans l'microcosme Vulgaire est mon lexique Je médite, devrais-je faire un holocauste ? Les rappeurs sont vulgaires, misogynes Bref, les médias s'excitent J'suis Néo dans la Matrice Je te prouve que l'Élu existe You might also like Hey Toz 404Billy, Culture1</t>
+          <t>Pyro Pyroman Junior Alaprod, hé nan, y a rien d'nouveau y a rien d'nouveau Heyn hey 404 Billy, Billy, Billy, Billy, Billy, Billy, hey J'suis rempli d'injures hey J'suis pas v'nu brutaliser l'rap français, je vous le jure Comme dans The Wire, j'ai des cadavres de rappeurs entre mes murs bang J'aimerais être riche, rien qu'une seule fois Une seule journée, être sur le trône, y séjourner J'essaie d'être quelqu'un d'autre mais j'finis par redevenir moi-même L'indécision malmène, mais quand même, mes démons m'engrainent Donc c'est toujours la même Ils font beaucoup d'erreurs, ils appellent leurs projets 404 erreur, suis-je leur géniteur ? Rien d'anodin, j'irai pas vite mais j'irai loin 'vec mes démons, j'fume des joints et j'baise des tchoins Ils méritent la pire des choses pour ce qu'ils proposent Crois pas qu'mon monde est gai, beau, rempli de roses J'y arriverai, c'est promis Ferme ta gueule, fais du biff, fais du chiffre, réussis, homie Ici-bas, personne ne peut fournir ce que l'on fournit J'irai jusqu'à ce putain de sommet car je l'ai promis La vie, j'déshabille, j'la tourne, j'la baise, j'la laisse en folie La vie, c'est dur, mais je m'en bats les couilles, monsieur l'agent Vous avez vu qu'on aime pas trop les fouilles Tard le soir, je cherche le sommeil Négro, j'suis tellement sombre, j'peux cacher la terre du soleil J'irai chier sur leurs tombes c'est immonde, mais c'est réel Client du marchand d'sable, seuls mes cauchemars me réveillent Fuck la hype, le rap de pédale, plein d'matière fécale Sheitan souhaite acheter mon âme, j'attends l'virement par Paypal Fuck l'usine, le leasing, les risibles, leurs castings En confiance, je me sens invincible, j'imagine L'univers ténébreux les fascine J'réalise que l'système nous encule à travers des machines Mais j'peux rien dire Aveuglé par l'argent, par le biff, je ne peux rien lire J'vois cadavres et champ de bataille en feu quand je lis l'avenir Cette vie me fait bander comme grosse poitrine dans pull en cachemire Banlieusard peut finir dans cercueil rempli de saphirs Qu'ils vivent ou qu'ils crèvent, j'vais toujours soutenir ma thèse De très nombreux souvenirs m'apaisent Qu'elle souffre ou qu'elle sourie, j'la baise Faites gaffe, attention, l'hiver vient Les esprits résident sous la neige Et 404, qu'est-ce qu'il devient ? Il va poser l'rap sur sa verge Ferme ta gueule quand le négro cause Mon rap restera dans l'microcosme Vulgaire est mon lexique Je médite, devrais-je faire un holocauste ? Les rappeurs sont vulgaires, misogynes Bref, les médias s'excitent J'suis Néo dans la Matrice Je te prouve que l'Élu existe Hey Toz 404Billy, Culture1</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hey Une vie de chien, c'est vivre de rien mais j'me sens bien qu'auprès des miens Différents auprès des autres, j'assume mes fautes, ce que j'deviens me fait du bien Humain mort car sombre route, je lâche tout et je n'sais pas ce que ça me coûte Et quand j'm'envole vers le succès, mes sentiments sont dans la soute, j'vais les crever tous J'ai d'l'espoir d'l'index au pouce, ange du mal, je l'ai aux trousses J'annonce le sale devant eux tous, mauvaise sera la repousse si tous tes frères ont cur en mousse En tant qu'noir, j'ai une colère de couleur, vive la guerre, je n'ai que faire d'la douleur Mauvaise langue te ramène mauvais esprit, vécu sombre donc j'ai très peu de douceur Il me reste que des principes comme les mecs d'antan, séparé, j'vois peu mes enfants J'ai d'la haine dans mes versets, j'n'ai d'l'estime qu'en celle qui m'a bercé Dur pour y arriver, sache-le, au sommet, j'ferai mes adieux Du bonheur pour me mettre à ceux, pas assez d'foi pour le dire à Dieu L'impression qu'la vie va pas m'sourire, que ma passion ne va jamais m'nourrir Que mes récoltes ne vont jamais pourrir, négro, fuck le monde, les curs et les sourires Timide et réservé pour me préserver, fort et énervé, dur de me blesser Dur de m'effacer, dur de me classer, ne crois jamais qu'ton combat, c'est le passé Dose L'amour fait perdre la raison J'agirai selon les saisons J'repars pénard dans les ténèbres Comme si j'retournais à la maison You might also like Mais qu'ils restent en chien, j'suis là pour ma cause Me dis pas qu'tu m'aimes, les épines sur moi proviennent de ta rose Mais qu'ils restent en chien, j'suis là pour ma cause Me dis pas qu'tu m'aimes, les épines sur moi proviennent de ta rose Chienne de vie se met en string, se fait lever, pour le bien, c'est dans le mal que j'dois uvrer Je dois le faire, c'est p't-être demain que j'vais crever, je me demande si dans ma tombe, j'pourrai rêver La vie de rêve, c'est mon but, je ne vois que elle avec le mec dans ma glace, sombre querelle Pas d'excès de zèle sauf quand j'vois le 'seille, j'regarde en bas, je vois le ciel, gros, je vois le ciel Lève ta tête pour savoir où je suis, ouvre ta shnek pour savoir qui je suis Fais-moi la guerre pour savoir si je fuis, donne-moi ton cur pour savoir si je vis Maman, tu veux le monde, j'te le ramène, loyauté vaut vingt points sur le barème Des sentiments dans mon enveloppe charnelle, grâce à mes blessures de guerre, je me rappelle L'amour fait perdre la raison J'agirai selon les saisons J'repars pénard dans les ténèbres Comme si j'retournais à la maison1</t>
+          <t>Hey Une vie de chien, c'est vivre de rien mais j'me sens bien qu'auprès des miens Différents auprès des autres, j'assume mes fautes, ce que j'deviens me fait du bien Humain mort car sombre route, je lâche tout et je n'sais pas ce que ça me coûte Et quand j'm'envole vers le succès, mes sentiments sont dans la soute, j'vais les crever tous J'ai d'l'espoir d'l'index au pouce, ange du mal, je l'ai aux trousses J'annonce le sale devant eux tous, mauvaise sera la repousse si tous tes frères ont cur en mousse En tant qu'noir, j'ai une colère de couleur, vive la guerre, je n'ai que faire d'la douleur Mauvaise langue te ramène mauvais esprit, vécu sombre donc j'ai très peu de douceur Il me reste que des principes comme les mecs d'antan, séparé, j'vois peu mes enfants J'ai d'la haine dans mes versets, j'n'ai d'l'estime qu'en celle qui m'a bercé Dur pour y arriver, sache-le, au sommet, j'ferai mes adieux Du bonheur pour me mettre à ceux, pas assez d'foi pour le dire à Dieu L'impression qu'la vie va pas m'sourire, que ma passion ne va jamais m'nourrir Que mes récoltes ne vont jamais pourrir, négro, fuck le monde, les curs et les sourires Timide et réservé pour me préserver, fort et énervé, dur de me blesser Dur de m'effacer, dur de me classer, ne crois jamais qu'ton combat, c'est le passé Dose L'amour fait perdre la raison J'agirai selon les saisons J'repars pénard dans les ténèbres Comme si j'retournais à la maison Mais qu'ils restent en chien, j'suis là pour ma cause Me dis pas qu'tu m'aimes, les épines sur moi proviennent de ta rose Mais qu'ils restent en chien, j'suis là pour ma cause Me dis pas qu'tu m'aimes, les épines sur moi proviennent de ta rose Chienne de vie se met en string, se fait lever, pour le bien, c'est dans le mal que j'dois uvrer Je dois le faire, c'est p't-être demain que j'vais crever, je me demande si dans ma tombe, j'pourrai rêver La vie de rêve, c'est mon but, je ne vois que elle avec le mec dans ma glace, sombre querelle Pas d'excès de zèle sauf quand j'vois le 'seille, j'regarde en bas, je vois le ciel, gros, je vois le ciel Lève ta tête pour savoir où je suis, ouvre ta shnek pour savoir qui je suis Fais-moi la guerre pour savoir si je fuis, donne-moi ton cur pour savoir si je vis Maman, tu veux le monde, j'te le ramène, loyauté vaut vingt points sur le barème Des sentiments dans mon enveloppe charnelle, grâce à mes blessures de guerre, je me rappelle L'amour fait perdre la raison J'agirai selon les saisons J'repars pénard dans les ténèbres Comme si j'retournais à la maison1</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>J'regarde Miss France et j'm'interroge sur la place de la femme dans l'monde Moi je suis pour l'écologie et puis la fin d'la faim dans l'monde Ecoute ma grosse, pose ton cul, trouve ton combat tranquillement Société d'pédos, bientôt Pinnochio bande quand il ment Qui prend les paris? Qui veut prendre les paris? Ils veulent pervertir nos gosses les enfoirés Pendant qu'ils sexualisent tout moi je contextualise tout Ohlolo! C'qu'il est bon! Tu viens d'quartier t'as pas d'excuses, pour n'avoir rien dans la cervelle Les livres sont disponibles partout, pas juste pour les blancs du 16ème J'ai une grande gueule et je sais bien qu'tout ça peut me causer du tord J'suis fier d'être obèse , non, t'as juste la flemme de faire du sport La rue c'est dangereux une malchance et tu peux dire Adieu au top T'as sommeillé assis sur l'glock et les keufs frappent à 6 o'clock Merde, elles te disent plus je t'aime une fois qu't'as pété 100K Les soldats soutiennent sur Twitter avec des PP d'manga Quand j'me retourne vers l'passé j'me dis j'ai aidé tant d'gars Quand j'me retourne vers l'passé j'me dis j'ai été tendre gars Jeune, mais principes d'avant néo-conservateur Me suivez pas j'suis pas leader j'suis qu'un observateur Mais quand j'dis mes vérités, faut pas m'couper j't'ai dit Mes livres d'entreprenariat, sont les couplets d'Jay Z Tu cherches la vérité, à la place on t'ment Ce monde imaginaire, comme le grand remplacement Le changement vient d'l'opinion publique Alors un peuple qui dort, c'est une liberté qui meurt J'tire pour blesser mais c'est pas forcément les jambes Un artiste mort c'est pas forcément une légende Leurs textes sont pauvres, c'est le Burundi Chaque jour j'me dis, le jour où j'deviens riche c'est aujourd'hui J'arrive à faire c'qu'ils font pas parce que j'ai l'aura qu'ils ont pas Chelou comme ta meuf qui prend des cours de kizomba Parfois j'suis peut-être dans l'abus pourtant j'me contiens Mon style est peut-être déjà vu mais j'le fais trop bien Les noirs vont rien changer avec leurs poings levés dans l'vide Pareil pour les blancs, avec leurs T-shirts babtou solide Flop! Tu m'envoies des piques mais tu dis pas mon blaze Flop! Tu l'as déjà baisée sans qu'elle te dise son âge Flop! Tu mets de l'alcool sur tes plaies à chaque blessure Comme tu mets de l'alcool dans ton sang à chaque blessure Première série de meurtres maintenant j'pense à la prochaine En fumant un cigare comme le vieux sur la pochette BLKKKK Van Gogh 2You might also like</t>
+          <t>J'regarde Miss France et j'm'interroge sur la place de la femme dans l'monde Moi je suis pour l'écologie et puis la fin d'la faim dans l'monde Ecoute ma grosse, pose ton cul, trouve ton combat tranquillement Société d'pédos, bientôt Pinnochio bande quand il ment Qui prend les paris? Qui veut prendre les paris? Ils veulent pervertir nos gosses les enfoirés Pendant qu'ils sexualisent tout moi je contextualise tout Ohlolo! C'qu'il est bon! Tu viens d'quartier t'as pas d'excuses, pour n'avoir rien dans la cervelle Les livres sont disponibles partout, pas juste pour les blancs du 16ème J'ai une grande gueule et je sais bien qu'tout ça peut me causer du tord J'suis fier d'être obèse , non, t'as juste la flemme de faire du sport La rue c'est dangereux une malchance et tu peux dire Adieu au top T'as sommeillé assis sur l'glock et les keufs frappent à 6 o'clock Merde, elles te disent plus je t'aime une fois qu't'as pété 100K Les soldats soutiennent sur Twitter avec des PP d'manga Quand j'me retourne vers l'passé j'me dis j'ai aidé tant d'gars Quand j'me retourne vers l'passé j'me dis j'ai été tendre gars Jeune, mais principes d'avant néo-conservateur Me suivez pas j'suis pas leader j'suis qu'un observateur Mais quand j'dis mes vérités, faut pas m'couper j't'ai dit Mes livres d'entreprenariat, sont les couplets d'Jay Z Tu cherches la vérité, à la place on t'ment Ce monde imaginaire, comme le grand remplacement Le changement vient d'l'opinion publique Alors un peuple qui dort, c'est une liberté qui meurt J'tire pour blesser mais c'est pas forcément les jambes Un artiste mort c'est pas forcément une légende Leurs textes sont pauvres, c'est le Burundi Chaque jour j'me dis, le jour où j'deviens riche c'est aujourd'hui J'arrive à faire c'qu'ils font pas parce que j'ai l'aura qu'ils ont pas Chelou comme ta meuf qui prend des cours de kizomba Parfois j'suis peut-être dans l'abus pourtant j'me contiens Mon style est peut-être déjà vu mais j'le fais trop bien Les noirs vont rien changer avec leurs poings levés dans l'vide Pareil pour les blancs, avec leurs T-shirts babtou solide Flop! Tu m'envoies des piques mais tu dis pas mon blaze Flop! Tu l'as déjà baisée sans qu'elle te dise son âge Flop! Tu mets de l'alcool sur tes plaies à chaque blessure Comme tu mets de l'alcool dans ton sang à chaque blessure Première série de meurtres maintenant j'pense à la prochaine En fumant un cigare comme le vieux sur la pochette BLKKKK Van Gogh 2</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Zoin Y'a pas à dire, t'es un gros cessien Y'a pas à dire Tu fais du rap, tu fais du show, mais tu n'possèdes rien Nada J'veux pas que mon fils soit non-binaire, ça fait d'moi un homophobe J'veux pas que ma fille devienne obèse, ça fait d'moi un grossophobe Ainsi soit-il Ils se servent de nous, nous sucent le sang et basta Comme d'hab Comme Andy Warhol a sucé l'sang de BASQUIAT J'suis le plus grand des féministes, j'te l'prouve avec cette phrase exacte Deux points, guillemets Fais ce que tu veux de ta chatte Tu racontes ta vie, tout l'monde s'en branle, c'est une énigme Tout l'monde s'en branle Tout l'monde s'en bat les couilles comme la coupe du monde féminine Le rap prend un tournant, y'a une drôle d'odeur Les rappeurs d'ienclis s'avèrent être tous des violeurs Bizarre Lomepal, Roméo Elvis, bizarre la p'tite équipe là Alors messieurs, sans autorisation ça sort sa bite ? Avec une sur comme Angèle, engagée et féministe mon ami J'aimerais trop voir vos repas d'famille J'aimerais voir Les démonter, je dois, sans émotions, comme WeRenoi Fort Mes ex sont devenus nazes, j'suis si ému quand j'les revois Taff pour les Majors comme un p'tit Asiat taff pour Nike Meskine J'suis Huxley avec un MIC Okay kay kay Ils n'm'ont jamais mis à terre Fuck leur propagande Fuck, financée par des philanthropes milliardaires Fondation Rockefeller, Tim Gill Faire monter les extrêmes pour une guerre civile Bang, bang, bang Je n'recule devant rien, dans la vie y'a des s'cousses Ouais J'suis pas complotiste, tout c'que j'dis a des sources Viens voir J'ai des rimes glaciales, écriture de l'Antarctique Fuck ces pointeurs, comme militaires français en Centrafrique, Zoin You might also like Ne faites pas confiance à ces mouvements financés par des soi-disant philanthropes milliardaires George Soros a injecté 150 millions d'euros dans des organisations noires de défense des droits civiques Depuis quand les milliardaires en ont quelque chose à foutre des Noirs ? Restons concentrés Zoin ! Zoin ! Zoin ! Zoin !</t>
+          <t>Zoin Y'a pas à dire, t'es un gros cessien Y'a pas à dire Tu fais du rap, tu fais du show, mais tu n'possèdes rien Nada J'veux pas que mon fils soit non-binaire, ça fait d'moi un homophobe J'veux pas que ma fille devienne obèse, ça fait d'moi un grossophobe Ainsi soit-il Ils se servent de nous, nous sucent le sang et basta Comme d'hab Comme Andy Warhol a sucé l'sang de BASQUIAT J'suis le plus grand des féministes, j'te l'prouve avec cette phrase exacte Deux points, guillemets Fais ce que tu veux de ta chatte Tu racontes ta vie, tout l'monde s'en branle, c'est une énigme Tout l'monde s'en branle Tout l'monde s'en bat les couilles comme la coupe du monde féminine Le rap prend un tournant, y'a une drôle d'odeur Les rappeurs d'ienclis s'avèrent être tous des violeurs Bizarre Lomepal, Roméo Elvis, bizarre la p'tite équipe là Alors messieurs, sans autorisation ça sort sa bite ? Avec une sur comme Angèle, engagée et féministe mon ami J'aimerais trop voir vos repas d'famille J'aimerais voir Les démonter, je dois, sans émotions, comme WeRenoi Fort Mes ex sont devenus nazes, j'suis si ému quand j'les revois Taff pour les Majors comme un p'tit Asiat taff pour Nike Meskine J'suis Huxley avec un MIC Okay kay kay Ils n'm'ont jamais mis à terre Fuck leur propagande Fuck, financée par des philanthropes milliardaires Fondation Rockefeller, Tim Gill Faire monter les extrêmes pour une guerre civile Bang, bang, bang Je n'recule devant rien, dans la vie y'a des s'cousses Ouais J'suis pas complotiste, tout c'que j'dis a des sources Viens voir J'ai des rimes glaciales, écriture de l'Antarctique Fuck ces pointeurs, comme militaires français en Centrafrique, Zoin Ne faites pas confiance à ces mouvements financés par des soi-disant philanthropes milliardaires George Soros a injecté 150 millions d'euros dans des organisations noires de défense des droits civiques Depuis quand les milliardaires en ont quelque chose à foutre des Noirs ? Restons concentrés Zoin ! Zoin ! Zoin ! Zoin !</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Gang ZoinGoinZoin Si j'insulte tout le monde, c'est la faute de Fifty Parle-moi strictement business, j'suis en mode EPMD Y a plus rien de happy, fuck leur fake vie Dis leur Joe, tout nous revient On fait pas de fifty-fifty À c'qu'il parait, là d'où je viens, on aime le sang et l'action J'préfère qu'on me dise réactionnaire, qu'on me dise sans réaction Qui a sucé plus de bites de footeux à ton avis ? Entre l'ex-femme de De Bruyne et ce bon vieux Vegedream C'est quoi c'gros merdier, c'est des mi-rappeurs mi-punks J'aime pas trop la new wave, ils ont des voix de Chipmunks Si tu diabolise Hitler, diabolise Léopold II, diabolise Napoléon, diabolise Christophe Colomb Tout le monde revendique un bail, tout l'monde veut tisser sa toile Féministe pour militer, t'as pas besoin te foutre à poil J'dois rapper sous camisole, Hannibal Loup solitaire, j'crois j'suis mi-homme, mi-animal J'arrive à contretemps, So la plug, So 8Ruki J'suis pas l'nouveau Roi sans couronne, ni le nouveau Despo Rutti Dans ma tête, j'suis en duel, personne commune contre autiste Les gens éveillés s'feront passer pour complotiste You might also like Si j'insulte tout le monde, c'est la faute de Fifty Parle moi strictement business, j'suis en mode EPMD Ils nous parlent de progrès, ils en profitent pour enlever nos murs Le style est nonchalant comme dans 0.9, ou Hell on Earth On t'a donné le sein, donc ferme ta gueule, tu crois t'es légitime? J'te vois en piston, un petit cousin, j'te vois en Baby Keem Ils sont très peu d'honneur, et pour cela j'me dois d'les mépriser Pour un petit billet, ils pourraient même rapper à l'Elysée Ma vérité est dans l'Coran Pas dans les protocoles des Sages de Sion, j'conseille de sages décisions J'accumule les briques, et j'me coupe du monde Ça nous blindait de 49.3 pendant la Coupe du Monde Pour ça, qu'ils veulent qu'on soit dans la distraction Fuck les millions d'mots, j'préfère les 10 actions KIDVILLAIN Si j'insulte tout le monde, c'est la faute de Fifty Parle-moi strictement business, j'suis en mode EPMD</t>
+          <t>Gang ZoinGoinZoin Si j'insulte tout le monde, c'est la faute de Fifty Parle-moi strictement business, j'suis en mode EPMD Y a plus rien de happy, fuck leur fake vie Dis leur Joe, tout nous revient On fait pas de fifty-fifty À c'qu'il parait, là d'où je viens, on aime le sang et l'action J'préfère qu'on me dise réactionnaire, qu'on me dise sans réaction Qui a sucé plus de bites de footeux à ton avis ? Entre l'ex-femme de De Bruyne et ce bon vieux Vegedream C'est quoi c'gros merdier, c'est des mi-rappeurs mi-punks J'aime pas trop la new wave, ils ont des voix de Chipmunks Si tu diabolise Hitler, diabolise Léopold II, diabolise Napoléon, diabolise Christophe Colomb Tout le monde revendique un bail, tout l'monde veut tisser sa toile Féministe pour militer, t'as pas besoin te foutre à poil J'dois rapper sous camisole, Hannibal Loup solitaire, j'crois j'suis mi-homme, mi-animal J'arrive à contretemps, So la plug, So 8Ruki J'suis pas l'nouveau Roi sans couronne, ni le nouveau Despo Rutti Dans ma tête, j'suis en duel, personne commune contre autiste Les gens éveillés s'feront passer pour complotiste Si j'insulte tout le monde, c'est la faute de Fifty Parle moi strictement business, j'suis en mode EPMD Ils nous parlent de progrès, ils en profitent pour enlever nos murs Le style est nonchalant comme dans 0.9, ou Hell on Earth On t'a donné le sein, donc ferme ta gueule, tu crois t'es légitime? J'te vois en piston, un petit cousin, j'te vois en Baby Keem Ils sont très peu d'honneur, et pour cela j'me dois d'les mépriser Pour un petit billet, ils pourraient même rapper à l'Elysée Ma vérité est dans l'Coran Pas dans les protocoles des Sages de Sion, j'conseille de sages décisions J'accumule les briques, et j'me coupe du monde Ça nous blindait de 49.3 pendant la Coupe du Monde Pour ça, qu'ils veulent qu'on soit dans la distraction Fuck les millions d'mots, j'préfère les 10 actions KIDVILLAIN Si j'insulte tout le monde, c'est la faute de Fifty Parle-moi strictement business, j'suis en mode EPMD</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>J'ai pas d'chance mais j'vais la saisir, j'vis tous les jours mais y'a plus d'plaisir J'suis à jeun, j'suis jamais fucked up, plus d'émotion, plus rien fait frémir Thunes sur le té-c', que du biff pour m'sortir de la tess, han Seulement l'argent me distrait, han, seulement l'argent me distrait, han J'ai que l'oseille comme cause, hey, en jogging, je n'ai pas d'limite dans l'carré VIP, je me pose Tranquille, des vrais négros dans la pièce, han, elle prend très cher dans les fesses, han Où j'commence, ton histoire s'termine, j'arrive pas à faire mine wow Culture zoin, on nettoie les forceurs, on nettoie la vermine Bey Être vif, j'suis obligé, obligé d'vivre dans l'risque wow Avec mes proches, j'suis très strict, moi, j'veux qu'on devienne riches, wow Moi, j'veux qu'on ouvre des clubs, nous, nous on vise le biff, pas le buzz, hey J'ai beaucoup trop d'fierté mais c'est c'qui m'diffère des suceurs de teub, hey Pas besoin d'amour, j'ai besoin d'oseille Pas besoin d'amour, j'ai besoin d'oseille J'respecte aucune règle, posé sur mon siège J'respecte aucune règle, posé sur mon siège Mais rien n'sert d'en avoir si mes proches manquent à l'appel euros Fuck l'amour et l'eau fraîche, vivre de ça, c'est pas la peine euros Pas besoin d'amour wou, j'ai besoin d'oseille wou Pas besoin d'amour hey, j'ai besoin d'oseille yeah You might also like Fuck les relations virtuelles virtuelles Mes proches, j'ai besoin de vous dans cette vie cette vie J'demande pardon au Très-Haut pardon J'demande pardon au Très-Haut pardon Mon objectif, faire des euros Que des hyènes pour l'euro hey, prennent l'argent comme héro' wou Avant moi, y'a rien, comme zéro près du but comme péno Briller, briller faire du billet, amitiés j'dois trier Priez, fuyez, plus l'temps d'nier, à peu d'gens j'peux m'fier Dans l'couloir de la mort, j'attendrai mes shrabs jusqu'à la fin J'vais m'arranger pour qu'mes enfants ne connaissent jamais la faim jamais Ça dépend d'mes humeurs mais des fois, j'aimerais vous voir du trône J'crois bien qu'j'vais refaire ma vie, que j'vais y mettre du silicone Être vif, j'suis obligé, obligé d'vivre dans l'risque wow Avec mes proches, j'suis très strict, moi, j'veux qu'on devienne riches, wow Moi, j'veux qu'on ouvre des clubs, nous, nous on vise le biff, pas le buzz, hey J'ai beaucoup trop d'fierté mais c'est c'qui m'diffère des sorts de deuil, hey Pas besoin d'amour, j'ai besoin d'oseille Pas besoin d'amour, j'ai besoin d'oseille J'respecte aucune règle, posé sur mon siège J'respecte aucune règle, posé sur mon siège Mais rien n'sert d'en avoir si mes proches manquent à l'appel euros Fuck l'amour et l'eau fraîche, vivre de ça, c'est pas la peine euros Pas besoin d'amour wou, j'ai besoin d'oseille wou Pas besoin d'amour hey, j'ai besoin d'oseille yeah</t>
+          <t>J'ai pas d'chance mais j'vais la saisir, j'vis tous les jours mais y'a plus d'plaisir J'suis à jeun, j'suis jamais fucked up, plus d'émotion, plus rien fait frémir Thunes sur le té-c', que du biff pour m'sortir de la tess, han Seulement l'argent me distrait, han, seulement l'argent me distrait, han J'ai que l'oseille comme cause, hey, en jogging, je n'ai pas d'limite dans l'carré VIP, je me pose Tranquille, des vrais négros dans la pièce, han, elle prend très cher dans les fesses, han Où j'commence, ton histoire s'termine, j'arrive pas à faire mine wow Culture zoin, on nettoie les forceurs, on nettoie la vermine Bey Être vif, j'suis obligé, obligé d'vivre dans l'risque wow Avec mes proches, j'suis très strict, moi, j'veux qu'on devienne riches, wow Moi, j'veux qu'on ouvre des clubs, nous, nous on vise le biff, pas le buzz, hey J'ai beaucoup trop d'fierté mais c'est c'qui m'diffère des suceurs de teub, hey Pas besoin d'amour, j'ai besoin d'oseille Pas besoin d'amour, j'ai besoin d'oseille J'respecte aucune règle, posé sur mon siège J'respecte aucune règle, posé sur mon siège Mais rien n'sert d'en avoir si mes proches manquent à l'appel euros Fuck l'amour et l'eau fraîche, vivre de ça, c'est pas la peine euros Pas besoin d'amour wou, j'ai besoin d'oseille wou Pas besoin d'amour hey, j'ai besoin d'oseille yeah Fuck les relations virtuelles virtuelles Mes proches, j'ai besoin de vous dans cette vie cette vie J'demande pardon au Très-Haut pardon J'demande pardon au Très-Haut pardon Mon objectif, faire des euros Que des hyènes pour l'euro hey, prennent l'argent comme héro' wou Avant moi, y'a rien, comme zéro près du but comme péno Briller, briller faire du billet, amitiés j'dois trier Priez, fuyez, plus l'temps d'nier, à peu d'gens j'peux m'fier Dans l'couloir de la mort, j'attendrai mes shrabs jusqu'à la fin J'vais m'arranger pour qu'mes enfants ne connaissent jamais la faim jamais Ça dépend d'mes humeurs mais des fois, j'aimerais vous voir du trône J'crois bien qu'j'vais refaire ma vie, que j'vais y mettre du silicone Être vif, j'suis obligé, obligé d'vivre dans l'risque wow Avec mes proches, j'suis très strict, moi, j'veux qu'on devienne riches, wow Moi, j'veux qu'on ouvre des clubs, nous, nous on vise le biff, pas le buzz, hey J'ai beaucoup trop d'fierté mais c'est c'qui m'diffère des sorts de deuil, hey Pas besoin d'amour, j'ai besoin d'oseille Pas besoin d'amour, j'ai besoin d'oseille J'respecte aucune règle, posé sur mon siège J'respecte aucune règle, posé sur mon siège Mais rien n'sert d'en avoir si mes proches manquent à l'appel euros Fuck l'amour et l'eau fraîche, vivre de ça, c'est pas la peine euros Pas besoin d'amour wou, j'ai besoin d'oseille wou Pas besoin d'amour hey, j'ai besoin d'oseille yeah</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tu-tu-tu-tu Tu-tu-tu-tu Zoin J'sens plus trop ces négros hey J'cala plus ces négros sheesh Maintenant, j'suis tout seul, en haut de la montagne, j'parle avec mes échos zoin, zoin T'as pas compris, tout chemin mène à Rome, mène à Edin Deko Qu'ils rangent leur egos paw, tous les hommes sont égaux paw Zoin zoin, hey Haut les mains wouh Keufs tirent direct, ne disent même plus haut les mains clic, clic, paw J'suis hood tard tard, BTK, C'est banlieue 13 dans l'block wouh, c'est Zefor, c'est Sidikey 13, 13 Y a pas d'affaires sans payback no, y a pas d'espoir sans Maybach jamais Des vrais Galsen autour du 4 2-2-1, on va l faire sans step back hey Y a pas d'affairs sans payback jamais, y a pas d'espoir sans Maybach jamais Des vrais Galsen autour du 4 2-2-1, on va le faire sans step back Zoin zoin, zoin, zoin, hey Le diable est partout dans ta bouteille de Clan sûr Et vivre vivre sans prier sans prier C'est perdre du temps c'est perdre du temps L'ennemi s'affaiblit à chaque goutte de sang sheesh Mon territoire est un terrain glissant You might also like Dans l'équipe c'est pas moi qui porte le kabouss Tu peux même venir vérifier sous ma blouse J'vais jamais coopérer, fuck leurs médias Tu m'verras jamais sur la une ou la douze J'n'ai pas besoin de collègue Pour les viser, faut l'rocket J'suis dans un excès de colère hey J'suis à moitié bipolaire paw Ils voudraient qu'mon âme sans perdition Ici, pour vivre, faut une permission Moi, dans le jet, eux, dans leur merde Eux dans leur crasse, ma dernière vision S'il y a plus de principe, le monde est rincé Soit tu nous respectes, soit t'es évincé T'attends l'étincelle, mais t'as l'air coincé J'suis dans un cauchemar, t'as beau me pincer Tu n'auras ni Gucci ni Fendi J'suis pas ton pigeon, faut qu'j'nourrisse mes gosses C'est la vie qu'on mène, soucis, on promène C'est la dictature, dernier roi d'Écosse zoin, zoin Tous les p'tits hypocrites, j'arrive à les reconnaitre Ils ne savent pas d'où j'viens, j'arrive tah les comètes Il faut qu'on s'repentisse avant qu'on s'déconnecte fort, hey Le diable est partout dans ta bouteille de Clan sûr Et vivre vivre sans prier sans prier C'est perdre du temps c'est perdre du temps L'ennemi s'affaiblit à chaque goutte de sang sheesh Mon territoire est un terrain glissant</t>
+          <t>Tu-tu-tu-tu Tu-tu-tu-tu Zoin J'sens plus trop ces négros hey J'cala plus ces négros sheesh Maintenant, j'suis tout seul, en haut de la montagne, j'parle avec mes échos zoin, zoin T'as pas compris, tout chemin mène à Rome, mène à Edin Deko Qu'ils rangent leur egos paw, tous les hommes sont égaux paw Zoin zoin, hey Haut les mains wouh Keufs tirent direct, ne disent même plus haut les mains clic, clic, paw J'suis hood tard tard, BTK, C'est banlieue 13 dans l'block wouh, c'est Zefor, c'est Sidikey 13, 13 Y a pas d'affaires sans payback no, y a pas d'espoir sans Maybach jamais Des vrais Galsen autour du 4 2-2-1, on va l faire sans step back hey Y a pas d'affairs sans payback jamais, y a pas d'espoir sans Maybach jamais Des vrais Galsen autour du 4 2-2-1, on va le faire sans step back Zoin zoin, zoin, zoin, hey Le diable est partout dans ta bouteille de Clan sûr Et vivre vivre sans prier sans prier C'est perdre du temps c'est perdre du temps L'ennemi s'affaiblit à chaque goutte de sang sheesh Mon territoire est un terrain glissant Dans l'équipe c'est pas moi qui porte le kabouss Tu peux même venir vérifier sous ma blouse J'vais jamais coopérer, fuck leurs médias Tu m'verras jamais sur la une ou la douze J'n'ai pas besoin de collègue Pour les viser, faut l'rocket J'suis dans un excès de colère hey J'suis à moitié bipolaire paw Ils voudraient qu'mon âme sans perdition Ici, pour vivre, faut une permission Moi, dans le jet, eux, dans leur merde Eux dans leur crasse, ma dernière vision S'il y a plus de principe, le monde est rincé Soit tu nous respectes, soit t'es évincé T'attends l'étincelle, mais t'as l'air coincé J'suis dans un cauchemar, t'as beau me pincer Tu n'auras ni Gucci ni Fendi J'suis pas ton pigeon, faut qu'j'nourrisse mes gosses C'est la vie qu'on mène, soucis, on promène C'est la dictature, dernier roi d'Écosse zoin, zoin Tous les p'tits hypocrites, j'arrive à les reconnaitre Ils ne savent pas d'où j'viens, j'arrive tah les comètes Il faut qu'on s'repentisse avant qu'on s'déconnecte fort, hey Le diable est partout dans ta bouteille de Clan sûr Et vivre vivre sans prier sans prier C'est perdre du temps c'est perdre du temps L'ennemi s'affaiblit à chaque goutte de sang sheesh Mon territoire est un terrain glissant</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L'espoir est grand comme Tyrion, j'bande depuis l'embryon Le triple 6 en physique rôde dans les environs Sont ringards comme Vanilla Ice, mais psahtek ils rappent oldschool Violence en réunion sur Protools, loin d'une vie trop douce Wesh, les humains, j'vous vois du ciel, j'vous aime pas trop Bâtard, je n'ai que des frères, des associés, j'n'ai pas d'patron Vos meufs d'Instagram qui puent d'la chatte Juste deux-trois gouttes de Jack et terminent dans l'clic-clac à quatre pattes tiens C'est ça la vie, oui, je ne sors qu'à minuit Peu d'négros ont ma gamberge, j'n'en suis pas réjoui oh Survet' basket à l'entretien, wallaye, j'veux vraiment l'poste wallaye Influenceuse danse sur mes sons, crois pas que j'vais t'repost, nique ta mère Eh, ient-cli, ton bonheur est dans le 10 Me demande pas d'être peace, dans mon bloc, ça pue la pisse Juste pour qu'tu réfléchisses, une balle logée dans ta cuisse Banlieusards dans faits divers trafiquent coke et cannabis Hey, hey hey, hey, hey, hey hey, hey Eh, ient-cli, ton bonheur est dans le 10 dans le 10 Hey, hey hey, hey, hey, hey hey, hey Banlieusards dans faits divers trafiquent coke et cannabis You might also like Encore le P, le 404, la pression monte, ton cur s'emballe La concurrence, j'vais tout lui prendre, ils vont manger des pâtes sans pâtes Tu fais la tchoin, nous parle de papillonner, eh, eh Tu mets qu'des likes, envoie des nudes si tu veux pas qu'j'continue à t'ignorer Suite logique une meuf qui suce, une meuf qui boite Obligé de faire des polémiques, Ardisson perd de l'audimat' Trop d'principes, elle refusera l'invit', mais avec des regrets Reviendra s'faire soulever ensuite, parce qu'il faut l'feat pour son refré, elle rêve de ça Et ça, tous mes khos le savent, une prod, un feat, Billy, Polak suffiront juste à faire le sale Retourne-toi vers minuit pétante si tu veux pas être descendu Parce que j'arrive, le doigt sur la détente, parfaitement détendu Eh, ient-cli, ton bonheur est dans le 10 Me demande pas d'être peace, dans mon bloc, ça pue la pisse Juste pour qu'tu réfléchisses, une balle logée dans ta cuisse Banlieusards dans faits divers trafiquent coke et cannabis Hey, hey hey, hey, hey, hey hey, hey Eh, ient-cli, ton bonheur est dans le 10 dans le 10 Hey, hey hey, hey, hey, hey hey, hey Banlieusards dans faits divers trafiquent coke et cannabis Eh, ient-cli, ton bonheur est dans le 10</t>
+          <t>L'espoir est grand comme Tyrion, j'bande depuis l'embryon Le triple 6 en physique rôde dans les environs Sont ringards comme Vanilla Ice, mais psahtek ils rappent oldschool Violence en réunion sur Protools, loin d'une vie trop douce Wesh, les humains, j'vous vois du ciel, j'vous aime pas trop Bâtard, je n'ai que des frères, des associés, j'n'ai pas d'patron Vos meufs d'Instagram qui puent d'la chatte Juste deux-trois gouttes de Jack et terminent dans l'clic-clac à quatre pattes tiens C'est ça la vie, oui, je ne sors qu'à minuit Peu d'négros ont ma gamberge, j'n'en suis pas réjoui oh Survet' basket à l'entretien, wallaye, j'veux vraiment l'poste wallaye Influenceuse danse sur mes sons, crois pas que j'vais t'repost, nique ta mère Eh, ient-cli, ton bonheur est dans le 10 Me demande pas d'être peace, dans mon bloc, ça pue la pisse Juste pour qu'tu réfléchisses, une balle logée dans ta cuisse Banlieusards dans faits divers trafiquent coke et cannabis Hey, hey hey, hey, hey, hey hey, hey Eh, ient-cli, ton bonheur est dans le 10 dans le 10 Hey, hey hey, hey, hey, hey hey, hey Banlieusards dans faits divers trafiquent coke et cannabis Encore le P, le 404, la pression monte, ton cur s'emballe La concurrence, j'vais tout lui prendre, ils vont manger des pâtes sans pâtes Tu fais la tchoin, nous parle de papillonner, eh, eh Tu mets qu'des likes, envoie des nudes si tu veux pas qu'j'continue à t'ignorer Suite logique une meuf qui suce, une meuf qui boite Obligé de faire des polémiques, Ardisson perd de l'audimat' Trop d'principes, elle refusera l'invit', mais avec des regrets Reviendra s'faire soulever ensuite, parce qu'il faut l'feat pour son refré, elle rêve de ça Et ça, tous mes khos le savent, une prod, un feat, Billy, Polak suffiront juste à faire le sale Retourne-toi vers minuit pétante si tu veux pas être descendu Parce que j'arrive, le doigt sur la détente, parfaitement détendu Eh, ient-cli, ton bonheur est dans le 10 Me demande pas d'être peace, dans mon bloc, ça pue la pisse Juste pour qu'tu réfléchisses, une balle logée dans ta cuisse Banlieusards dans faits divers trafiquent coke et cannabis Hey, hey hey, hey, hey, hey hey, hey Eh, ient-cli, ton bonheur est dans le 10 dans le 10 Hey, hey hey, hey, hey, hey hey, hey Banlieusards dans faits divers trafiquent coke et cannabis Eh, ient-cli, ton bonheur est dans le 10</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fuck Zoo Hey Des M, j'en veux minimum 13, c'est pour ça qu'des glaives, j'en ai minimum 16 Silencieux, y a que Dieu qui m'connaît, j'déstabilise comme crochet d'Ikoné sheesh En vrai, j'suis Français qu'sur les faffes, si j'le fais, c'est qu'je taffe, j'me déplace pour du flat hey En route vers la guerre, sûr du pacte, j'suis pas seul sur le track, on est 404 pah, pah Pas la même ligue, t'es dans quel district ? Ouh Faut des Loyal, faut des Memphis Bleek sheesh Pas d'RDV sans le 1 plus 8 ouais, t'es en fin d'vi, ça sent l'armistice Ils veulnt ma mort comme Jay avec l'auto-tune, ils pensent que j'fais autant d'thunes Tu te demandes sans cesse où est l'respect, il faut qu'tu cherches dans le fond d'ton cul Pas d'assistance, j'vise le trône tout seul ouh, le destin et moi sommes en pourparlers L'ennemi d'l'Humanité, c'est une femme violée, l'ennemi d'l'État, c'est une femme voilée Zéro tatouage chez nous car on croit, sur ma peau, rien de floqué Faut encore des preuves, ça leur suffit pas d'voir un noir suffoquer J'suis toujours d'la mauvaise espèce, je m'arrache si j'ai le biff d'Oprah L'être humain aime trop l'espèce, il aura quand même une puce dans l'bras zoo J'récupère mon dû et fin d'l'histoire pah, j'vais poser mon cul sur trône d'ivoire paw, paw À la guerre, j'vais jamais t'y voir non, t'es quelqu'un juste devant l'auditoire personne Faut d'la sécu' sous mon lit, faut des nine hey, c'est pas des voyous, c'est des merdes, c'est des blagues Moi, mon terrain, c'est l'parc, pas l'five zoo, j'suis en vitesse fois one point five Loin des putes et d'leurs caprices débiles, noir et blanc, j'suis comme Bad Meets Evil ouais J'vois rouge, j'vois en Gary Neville, le bilan, c'est quand ta vie défile J'ai rien perdu, poto, c'est noir encore sheesh, j'ai pas l'pardon facile, j'suis grave en tort Une fois que j'rentre dans l'jeu, du sale en sort, faut pas que l'ange de gauche me parle fort J'ai pas l'choix, faut qu'j'les baise, j'veux l'trône, prends la chaise Fuck les pokerfaces, en un coup comme ace, j'suis dégouté des traîtres et d'la mort de Ace J'veux calibre comme aux States pour qu'les jaloux s'taisent si jamais y a drah Mon inspi' sort de terre, j'recopie personne, y a jamais d'plagiat jamais Que des négros immortels comme Elizabeth eh, toujours été malchanceux sans vendre de la cess hey Y faut qu'ça cesse, il faut rejoindre la nation avant que ça pèteYou might also like</t>
+          <t>Fuck Zoo Hey Des M, j'en veux minimum 13, c'est pour ça qu'des glaives, j'en ai minimum 16 Silencieux, y a que Dieu qui m'connaît, j'déstabilise comme crochet d'Ikoné sheesh En vrai, j'suis Français qu'sur les faffes, si j'le fais, c'est qu'je taffe, j'me déplace pour du flat hey En route vers la guerre, sûr du pacte, j'suis pas seul sur le track, on est 404 pah, pah Pas la même ligue, t'es dans quel district ? Ouh Faut des Loyal, faut des Memphis Bleek sheesh Pas d'RDV sans le 1 plus 8 ouais, t'es en fin d'vi, ça sent l'armistice Ils veulnt ma mort comme Jay avec l'auto-tune, ils pensent que j'fais autant d'thunes Tu te demandes sans cesse où est l'respect, il faut qu'tu cherches dans le fond d'ton cul Pas d'assistance, j'vise le trône tout seul ouh, le destin et moi sommes en pourparlers L'ennemi d'l'Humanité, c'est une femme violée, l'ennemi d'l'État, c'est une femme voilée Zéro tatouage chez nous car on croit, sur ma peau, rien de floqué Faut encore des preuves, ça leur suffit pas d'voir un noir suffoquer J'suis toujours d'la mauvaise espèce, je m'arrache si j'ai le biff d'Oprah L'être humain aime trop l'espèce, il aura quand même une puce dans l'bras zoo J'récupère mon dû et fin d'l'histoire pah, j'vais poser mon cul sur trône d'ivoire paw, paw À la guerre, j'vais jamais t'y voir non, t'es quelqu'un juste devant l'auditoire personne Faut d'la sécu' sous mon lit, faut des nine hey, c'est pas des voyous, c'est des merdes, c'est des blagues Moi, mon terrain, c'est l'parc, pas l'five zoo, j'suis en vitesse fois one point five Loin des putes et d'leurs caprices débiles, noir et blanc, j'suis comme Bad Meets Evil ouais J'vois rouge, j'vois en Gary Neville, le bilan, c'est quand ta vie défile J'ai rien perdu, poto, c'est noir encore sheesh, j'ai pas l'pardon facile, j'suis grave en tort Une fois que j'rentre dans l'jeu, du sale en sort, faut pas que l'ange de gauche me parle fort J'ai pas l'choix, faut qu'j'les baise, j'veux l'trône, prends la chaise Fuck les pokerfaces, en un coup comme ace, j'suis dégouté des traîtres et d'la mort de Ace J'veux calibre comme aux States pour qu'les jaloux s'taisent si jamais y a drah Mon inspi' sort de terre, j'recopie personne, y a jamais d'plagiat jamais Que des négros immortels comme Elizabeth eh, toujours été malchanceux sans vendre de la cess hey Y faut qu'ça cesse, il faut rejoindre la nation avant que ça pète</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Wooh, hey Quatre zéro quatre Billy Sheeesh Hey, hey Hey, hey Dose, VLB, on s'cane déjà entre nous Pour nous enlever des vies y a pas besoin d'Daesh Faut mamputer les chevilles pour me voir à genoux Le son s'partage tout seul, pas besoin d'faire d'la lèche Hey, p'tit con, réfléchi avant d'sortir le milli' J'donne tout au premier qui m'humilie Paraît qu'ma vie va changer, plein d'thunes et plein d'projets Mon passé est rempli d'rejets J'ai toujours fait l'malin, j'ai jamais perdu Pose-toi des questions j'ai pris l'dessus Un homme ne naît pas pour s'faire tirer dessus Tranquille, posé en bas du bloc, j'attends l'retour de Jésus Tu fais l'intéressant devant les salopes Une gifle, deux gifles, trois gifles, quatre gifles allez galope Après plusieurs coups de reins, j'ai blindé la capote Ma fille n'a aucun prix, tu peux garder ta dote Mon histoire commence, ton histoire s'termine T'es une pute avec ou sans streaming Que les rappeurs se mettent en ligne afin de parier Le kid est mort à 22 balais You might also like 22 22 22 22 J'n'ai aucune pitié pour tous ces négros L'égo, les gos, parle pas, nous on aime pas trop la négo Tout c'que j'dis, j'l'ai vécu fuck ton rap censé J'serai l'côté obscur du rap français Dose, parait qu'le game est corsé Ça marche pas à 25 piges, rien ne sert de forcer J'écris deux trois textes clairs pendant qu'une pute me masturbe Entre pop, rap et zumba, ouais, rien qui bascule J'clash tout l'monde et alors ? Rien n'sert de polémiquer Le R.A.P est un art, j'les laisserai pas le niquer Moi j'rap, ils n'savent plus le faire J'vais leur faire vivre un enfer J'retourne sur lieu du crime pour mieux cacher les douilles T'as pas compris négro j'suis venu au monde pour vous casser les couilles Quand j'écris mes proses, appelle-moi Monsieur J'ai un doigt pour chacune de tes res-soeu Plus nègre que Colomb, plus aigle que colombe Nous donne pas d'rendez-vous afin de parler Le kid est mort à 22 balais 22 22 On rap pas nous ? Hey ! Quatre zéro quatre Hey, hey Hey, hey Hey, hey Hey, hey Hey, hey Hey, hey Hey, hey Hey, hey Hey</t>
+          <t>Wooh, hey Quatre zéro quatre Billy Sheeesh Hey, hey Hey, hey Dose, VLB, on s'cane déjà entre nous Pour nous enlever des vies y a pas besoin d'Daesh Faut mamputer les chevilles pour me voir à genoux Le son s'partage tout seul, pas besoin d'faire d'la lèche Hey, p'tit con, réfléchi avant d'sortir le milli' J'donne tout au premier qui m'humilie Paraît qu'ma vie va changer, plein d'thunes et plein d'projets Mon passé est rempli d'rejets J'ai toujours fait l'malin, j'ai jamais perdu Pose-toi des questions j'ai pris l'dessus Un homme ne naît pas pour s'faire tirer dessus Tranquille, posé en bas du bloc, j'attends l'retour de Jésus Tu fais l'intéressant devant les salopes Une gifle, deux gifles, trois gifles, quatre gifles allez galope Après plusieurs coups de reins, j'ai blindé la capote Ma fille n'a aucun prix, tu peux garder ta dote Mon histoire commence, ton histoire s'termine T'es une pute avec ou sans streaming Que les rappeurs se mettent en ligne afin de parier Le kid est mort à 22 balais 22 22 22 22 J'n'ai aucune pitié pour tous ces négros L'égo, les gos, parle pas, nous on aime pas trop la négo Tout c'que j'dis, j'l'ai vécu fuck ton rap censé J'serai l'côté obscur du rap français Dose, parait qu'le game est corsé Ça marche pas à 25 piges, rien ne sert de forcer J'écris deux trois textes clairs pendant qu'une pute me masturbe Entre pop, rap et zumba, ouais, rien qui bascule J'clash tout l'monde et alors ? Rien n'sert de polémiquer Le R.A.P est un art, j'les laisserai pas le niquer Moi j'rap, ils n'savent plus le faire J'vais leur faire vivre un enfer J'retourne sur lieu du crime pour mieux cacher les douilles T'as pas compris négro j'suis venu au monde pour vous casser les couilles Quand j'écris mes proses, appelle-moi Monsieur J'ai un doigt pour chacune de tes res-soeu Plus nègre que Colomb, plus aigle que colombe Nous donne pas d'rendez-vous afin de parler Le kid est mort à 22 balais 22 22 On rap pas nous ? Hey ! Quatre zéro quatre Hey, hey Hey, hey Hey, hey Hey, hey Hey, hey Hey, hey Hey, hey Hey, hey Hey</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ça devient bressom Qui sont-ils ? gros Dis moi qui sont-ils ? Ey Jveux rien savoir comme Marlo Cest l'avenir cest le cas Jme retire jmet le cap sur le Kilimandjaro Il est temps quon pèse On est méchants comme Jiren Ils sont naïfs comme Goku Jte jure Jcrois ya pas assez de tombes Des ennemis yen a beaucoup trop, Dark On est fils de prisonniers pas fils de diplomates Ils veulent savoir ma vie Savoir où je comat Ils mont sous-estimé Regarde, jvais ls traumatiser Sheesh Je sacrifie comme Griffith Jpisse sur lédifice Ya trop de clones jsuis papa de 10 fils Toutoutoutou Le peuple est manipulé comme une marionnette toute lannée civile toute lannée civile Pas beaucoup drivaux qui vivent rivaux qui vivent Et peu dentre eux qui vivent Sont grave sur le qui-vive Bellek aux meufs Bellek aux penav Ils scroient à Londres Scroient à Tottenham Transaction On remplit 4 Keus Tiako la mélo Jveux me faire Lala Jveux devenir Melo 1 fois tu sors Un conseil laisse ton coeur à la maison Il srait temps quils reviennent à la raison J'apparais que lhiver cest ma saison Elle porte des talons Elle souffle dans des ballons Elle croit quelle côtoie des négros quont le bras long Elle se fera défoncer dans la chambre Pendant que mes galsens toucheront largent dans le salon Yaura jamais de Baby I Got You Fuck le COVID gros la Terre à le sida Jsoulève ta femme comme August Alsina Avec ou sans Alicia jai les Keys Et jsais qudeux mes ennemis mélectrisent Entourés par le biz et les cheese Et ça depuis lépoque où jenvoyais des Wiz Rien quon investi dans la crypto Elle fait des challenges, elle fait la salope Il faut lui mettre dans labricot Jsuis pas prêt daccepter tes méthodes Jvais tfumer comme Redman et M.E.T.H.O.D Même si ten a Tej largent pour esquiver les folles Minuit passé GTA jdéfouraille sur les barrages 221 jen suis fiers tah les arabes Zoooin Toutes mes relations finissent en pur gachi Jai la nation pour défier loligarchie Je vais les prendre par le cou comme Itachi Zoooin You might also likeTooutoooutooutoou</t>
+          <t>Ça devient bressom Qui sont-ils ? gros Dis moi qui sont-ils ? Ey Jveux rien savoir comme Marlo Cest l'avenir cest le cas Jme retire jmet le cap sur le Kilimandjaro Il est temps quon pèse On est méchants comme Jiren Ils sont naïfs comme Goku Jte jure Jcrois ya pas assez de tombes Des ennemis yen a beaucoup trop, Dark On est fils de prisonniers pas fils de diplomates Ils veulent savoir ma vie Savoir où je comat Ils mont sous-estimé Regarde, jvais ls traumatiser Sheesh Je sacrifie comme Griffith Jpisse sur lédifice Ya trop de clones jsuis papa de 10 fils Toutoutoutou Le peuple est manipulé comme une marionnette toute lannée civile toute lannée civile Pas beaucoup drivaux qui vivent rivaux qui vivent Et peu dentre eux qui vivent Sont grave sur le qui-vive Bellek aux meufs Bellek aux penav Ils scroient à Londres Scroient à Tottenham Transaction On remplit 4 Keus Tiako la mélo Jveux me faire Lala Jveux devenir Melo 1 fois tu sors Un conseil laisse ton coeur à la maison Il srait temps quils reviennent à la raison J'apparais que lhiver cest ma saison Elle porte des talons Elle souffle dans des ballons Elle croit quelle côtoie des négros quont le bras long Elle se fera défoncer dans la chambre Pendant que mes galsens toucheront largent dans le salon Yaura jamais de Baby I Got You Fuck le COVID gros la Terre à le sida Jsoulève ta femme comme August Alsina Avec ou sans Alicia jai les Keys Et jsais qudeux mes ennemis mélectrisent Entourés par le biz et les cheese Et ça depuis lépoque où jenvoyais des Wiz Rien quon investi dans la crypto Elle fait des challenges, elle fait la salope Il faut lui mettre dans labricot Jsuis pas prêt daccepter tes méthodes Jvais tfumer comme Redman et M.E.T.H.O.D Même si ten a Tej largent pour esquiver les folles Minuit passé GTA jdéfouraille sur les barrages 221 jen suis fiers tah les arabes Zoooin Toutes mes relations finissent en pur gachi Jai la nation pour défier loligarchie Je vais les prendre par le cou comme Itachi Zoooin Tooutoooutooutoou</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Hey Chaque semaine, on dit qu'j'suis sous-côté oh Mais rien qu'j'm'en bats les reins fuck car j'mène vie d'galérien La haine est dans nos tieks pendant qu'l'amour est dans l'pré hey Tellement j'aime pas ta sale gueule, j'me d'mande comment Dieu t'a créé J'fais des freestyle pendant j'm'ennuie, tous les rappeurs encore en vie, bang-bang ta-ta-ta J'ai oublié d'dire RIP, des billets dans poche du bas chiche, des billets dans poche du haut J'rigole sur les rappeurs du bas yay, c'est pour ça qu'j'fais peu d'duos ouh J'veux pas qu'tu m'prennes pour 2Pac nan, j'suis pas venu pour amener l'boom-bap, pétasse C'est un statut néfaste, tout est sombre comme Peaky Blinders sombre Fuck les haters, j'suis pas dans les meufs, nan, j'suis pas dans les murs hey J'réchauffe les putes cet hiver, j'fais dans l'humanitaire, t'as la grille tarifaire, régime est totalitaire yay T'es stressé comme un rappeur en première semaine bouffon, bouffon Elle garde mon argent, ma pute est sereine chiche Est-ce que j'chante dans lprochain projet ? Bien sûr que oui bien sûr que oui L'industrie, un monde de salopes, tout le monde le nie tout le monde le nie On est tous entourés d'rapaces, protège ton nid fais bellek T'inquiète, Billy va dire oui parce que c'est la famille ta gueule Nan, nique ta mère, on a pas l'même système solaire nan J'te l'dis cette année, y a que du bre-som au sommaire Depuis p'tit, j'n'ai pas changé, les commères m'mettent en colère nique ta mère Bicraveur n'aime pas chômer, garde la drogue sous son polaire Hey, te plains pas, fais du 'seille, tue le game tue le game Sénégal arôme magie dans mon thieb dans mon thieb La ce-Fran paraît si belle vue du bled vue du bled L'être humain paraît si p'tit vu du cielYou might also like</t>
+          <t>Hey Chaque semaine, on dit qu'j'suis sous-côté oh Mais rien qu'j'm'en bats les reins fuck car j'mène vie d'galérien La haine est dans nos tieks pendant qu'l'amour est dans l'pré hey Tellement j'aime pas ta sale gueule, j'me d'mande comment Dieu t'a créé J'fais des freestyle pendant j'm'ennuie, tous les rappeurs encore en vie, bang-bang ta-ta-ta J'ai oublié d'dire RIP, des billets dans poche du bas chiche, des billets dans poche du haut J'rigole sur les rappeurs du bas yay, c'est pour ça qu'j'fais peu d'duos ouh J'veux pas qu'tu m'prennes pour 2Pac nan, j'suis pas venu pour amener l'boom-bap, pétasse C'est un statut néfaste, tout est sombre comme Peaky Blinders sombre Fuck les haters, j'suis pas dans les meufs, nan, j'suis pas dans les murs hey J'réchauffe les putes cet hiver, j'fais dans l'humanitaire, t'as la grille tarifaire, régime est totalitaire yay T'es stressé comme un rappeur en première semaine bouffon, bouffon Elle garde mon argent, ma pute est sereine chiche Est-ce que j'chante dans lprochain projet ? Bien sûr que oui bien sûr que oui L'industrie, un monde de salopes, tout le monde le nie tout le monde le nie On est tous entourés d'rapaces, protège ton nid fais bellek T'inquiète, Billy va dire oui parce que c'est la famille ta gueule Nan, nique ta mère, on a pas l'même système solaire nan J'te l'dis cette année, y a que du bre-som au sommaire Depuis p'tit, j'n'ai pas changé, les commères m'mettent en colère nique ta mère Bicraveur n'aime pas chômer, garde la drogue sous son polaire Hey, te plains pas, fais du 'seille, tue le game tue le game Sénégal arôme magie dans mon thieb dans mon thieb La ce-Fran paraît si belle vue du bled vue du bled L'être humain paraît si p'tit vu du ciel</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Hein, yeah Bij J'roule un pétard de la taille de mes dreads J'roule un pétard de la taille de mes dreads shoo, sous Jack Da' et j'me crois à Kingston shoo Là d'où j'viens, y a des vies qui s'prennent à chaque fois qu'y a des blazes qui s'donnent ouh Ne fais pas l'thug si t'as pris deux mois d'bracelet, hein Mode furtif cracké, la voix dans ma te-tê me dit Écrase-les Mec du 11, obligé d'être au top, en bas, ça revend la mort et ça fait des cro cop, ganja Arnaque, violence, crime, j'ai levé pied comme Mirko Crocop Évidemment, j'pourrais prendre la leur pour celle qui m'a donné la vie Je-, Jeune Boss, toujours à l'heure, pas besoin d'leur demander leurs avis J'fume de l'amnésia et j'bois d'la Jack pure, si t'as pas les épaules, ne fais pas l'dur fais pas l'dur Ça opère dans l'bloc pour soigner fracture car c'est l'argent d'la drogue qui paye les factures Mouvement historique, j'suis dans l'actu', 404, Frenetik, mon négro, fais attention Les rappeurs d'en face ont ressenti la tension, c'est mort c'est dead Il te joue les Tony, mets-lui des CP, prends-lui sa sacoche, prends-lui sa CB Tu connais l'adresse, ça vient des quartiers d'BX à zbe C'est pour l'amour du truc que nos vies on saccage, Dieu merci, à mon actif aucune condamnation shoo, shoo La bête est sortie de sa cage, léopard, j'représente la nation Fuck la chance, tout c'qu'on vise, c'est l'sommet dans l'trafic, fais du fric, on s'en fout d'savoir qui gagne ouh Trop d'avance, trop de vices, trop de fois j'leur fais peur comme bébé noir dans l'palais Buckingham ouh On l'fait on l'fait, on l'vit on l'vit, c'est toujours le sommet qu'on vise qu'on vise Me parle pas comme si j'étais ton fils jamais, j'connais l'tarot, j'connais ton vice You might also like T'es à l'ancienne tah Fubushi miskine, nouveau flow tah 2-2Gz Faut qu'tu ressentes la haine dans l'expression des yeux Il n'y a plus de couleur, c'est l'extinction des feux, Sénégal shoo, shoo En c'moment, y a du sang sur l'étoile, 404 Picasso, y a du sang sur mes toiles eh Ces négros sont vendus comme Ruckus, han, ils pourraient même bosser pour le Ku Klux Klan charcle J'viens détruire la moitié, récup' les six pierres récup' les six pierres Aucun de mes G ne connaît la civière, je rêve de chaos, d'armement militaire tou-tou-tou-tou J'suis dans ma colère colère, j'noircis le ciel et le délire est solaire J'bois plus la pisse du Diable zouin, il a p't-être une infection urinaire eh, eh, eh, zouin Y a qu'ma descendance qu'adoucit mon regard, pas de sottise, non non J'suis venu faire la guerre, pas pour m'faire des amis dans le show biz, no no J'veux la meuf de Flacko, plus une Kalash' Draco, les soldats de Chapo, j'les repeins comme Pablo, billets jaunes comme Vagos, mes peules sont trop chavots hey, hey Tout est dark zouin, wesh, ça sent la rre-gue, ça sent l'Afghanistan boom Si tu l'ouvres, on t'allume comme un manifestant hey, j'viens terminer l'élite et tes amis restants shoo, shoo Regarde mes yeux, c'est le néant dark, j'crois en Dieu, j'crois en l'époque des géants dark J'pense à l'avenir, à ton cas échéant mais désormais, chacun d'mes mouvements est payant, fais du sale envoie J'espère qu't'as des ressources si tu m'passes à tabac ok On ramène les ténèbres dans l'enceinte, Yamaha, t'es qu'un p'tit apprenti t'as un A ouh J'le fais comme si c'était stylé d'craner hey, on vit comme si c'était stylé d'cramer sheesh C'est des heures de travail, c'est des années zouin plus d'savoir et le peuple est désarmé tou-tou-tou-tou J'reviens reprendre la part de mes ancêtres, toutes les lumières éteintes Mode furtif éteint, j'suis dans l'A7, j'suis venu les éteindre Yeah, j'reviens reprendre la part de mes ancêtres, toutes les lumières éteintes Mode furtif éteint, j'suis dans l'A7, j'suis venu les éteindre On appellera jamais le 1.7, nan, jamais J'vais pas laisser de reste, j'vais tout prendre dans l'assiette, coffre plein, chargeur vide On appellera jamais le 1.7, nan, jamais J'vais pas laisser de reste, j'vais tout prendre dans l'assiette, coffre plein, chargeur vide Nan, jamais, coffre plein, chargeur vide Nan, jamais, coffre plein, chargeur vide Tou-tou-tou-tou</t>
+          <t>Hein, yeah Bij J'roule un pétard de la taille de mes dreads J'roule un pétard de la taille de mes dreads shoo, sous Jack Da' et j'me crois à Kingston shoo Là d'où j'viens, y a des vies qui s'prennent à chaque fois qu'y a des blazes qui s'donnent ouh Ne fais pas l'thug si t'as pris deux mois d'bracelet, hein Mode furtif cracké, la voix dans ma te-tê me dit Écrase-les Mec du 11, obligé d'être au top, en bas, ça revend la mort et ça fait des cro cop, ganja Arnaque, violence, crime, j'ai levé pied comme Mirko Crocop Évidemment, j'pourrais prendre la leur pour celle qui m'a donné la vie Je-, Jeune Boss, toujours à l'heure, pas besoin d'leur demander leurs avis J'fume de l'amnésia et j'bois d'la Jack pure, si t'as pas les épaules, ne fais pas l'dur fais pas l'dur Ça opère dans l'bloc pour soigner fracture car c'est l'argent d'la drogue qui paye les factures Mouvement historique, j'suis dans l'actu', 404, Frenetik, mon négro, fais attention Les rappeurs d'en face ont ressenti la tension, c'est mort c'est dead Il te joue les Tony, mets-lui des CP, prends-lui sa sacoche, prends-lui sa CB Tu connais l'adresse, ça vient des quartiers d'BX à zbe C'est pour l'amour du truc que nos vies on saccage, Dieu merci, à mon actif aucune condamnation shoo, shoo La bête est sortie de sa cage, léopard, j'représente la nation Fuck la chance, tout c'qu'on vise, c'est l'sommet dans l'trafic, fais du fric, on s'en fout d'savoir qui gagne ouh Trop d'avance, trop de vices, trop de fois j'leur fais peur comme bébé noir dans l'palais Buckingham ouh On l'fait on l'fait, on l'vit on l'vit, c'est toujours le sommet qu'on vise qu'on vise Me parle pas comme si j'étais ton fils jamais, j'connais l'tarot, j'connais ton vice T'es à l'ancienne tah Fubushi miskine, nouveau flow tah 2-2Gz Faut qu'tu ressentes la haine dans l'expression des yeux Il n'y a plus de couleur, c'est l'extinction des feux, Sénégal shoo, shoo En c'moment, y a du sang sur l'étoile, 404 Picasso, y a du sang sur mes toiles eh Ces négros sont vendus comme Ruckus, han, ils pourraient même bosser pour le Ku Klux Klan charcle J'viens détruire la moitié, récup' les six pierres récup' les six pierres Aucun de mes G ne connaît la civière, je rêve de chaos, d'armement militaire tou-tou-tou-tou J'suis dans ma colère colère, j'noircis le ciel et le délire est solaire J'bois plus la pisse du Diable zouin, il a p't-être une infection urinaire eh, eh, eh, zouin Y a qu'ma descendance qu'adoucit mon regard, pas de sottise, non non J'suis venu faire la guerre, pas pour m'faire des amis dans le show biz, no no J'veux la meuf de Flacko, plus une Kalash' Draco, les soldats de Chapo, j'les repeins comme Pablo, billets jaunes comme Vagos, mes peules sont trop chavots hey, hey Tout est dark zouin, wesh, ça sent la rre-gue, ça sent l'Afghanistan boom Si tu l'ouvres, on t'allume comme un manifestant hey, j'viens terminer l'élite et tes amis restants shoo, shoo Regarde mes yeux, c'est le néant dark, j'crois en Dieu, j'crois en l'époque des géants dark J'pense à l'avenir, à ton cas échéant mais désormais, chacun d'mes mouvements est payant, fais du sale envoie J'espère qu't'as des ressources si tu m'passes à tabac ok On ramène les ténèbres dans l'enceinte, Yamaha, t'es qu'un p'tit apprenti t'as un A ouh J'le fais comme si c'était stylé d'craner hey, on vit comme si c'était stylé d'cramer sheesh C'est des heures de travail, c'est des années zouin plus d'savoir et le peuple est désarmé tou-tou-tou-tou J'reviens reprendre la part de mes ancêtres, toutes les lumières éteintes Mode furtif éteint, j'suis dans l'A7, j'suis venu les éteindre Yeah, j'reviens reprendre la part de mes ancêtres, toutes les lumières éteintes Mode furtif éteint, j'suis dans l'A7, j'suis venu les éteindre On appellera jamais le 1.7, nan, jamais J'vais pas laisser de reste, j'vais tout prendre dans l'assiette, coffre plein, chargeur vide On appellera jamais le 1.7, nan, jamais J'vais pas laisser de reste, j'vais tout prendre dans l'assiette, coffre plein, chargeur vide Nan, jamais, coffre plein, chargeur vide Nan, jamais, coffre plein, chargeur vide Tou-tou-tou-tou</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Il en faut peu pour fumer un homme Mort de l'intérieur, j'confonds l'enfer et l'funérarium Paysage morose Au fond d'moi, j'aimerais faire laumône Du sang, des morts, des mômes, des gnomes Tu crois en Dieu ? Prie pour une seconde vie Quand tu dis qu'tu fais de l'art, même la Joconde rit Vingt-trois piges, j'écris mieux que Baudelaire J'me noie dans l'eau de mer, il m'faut de l'air Le rap a beau me plaire, les codes se perdent J'viens dans leur bureau, négro, j'refuse leur offre de merde Devant ton cadavre tout blanc, j'allume un putain d'cierge Éjectable est le putain d'siège La 'sère s'ressent sur mes bulletins d'paye Hé merde, han L'oseille, l'argent, faut aller où y a À part 404, j'n'ai pas d'autres khoyas, alléluia Dans la vallée d'la mort, j'suis plongé dans mes songes Refais une blague raciste, ton cul sera noir de monde Cruel vécu, me d'mande pas pourquoi j'suis aussi sombre Mercenaire, j'm'en fous d'être roi, j'suis plutôt l'homme de l'ombre J'ai leur sang sur mes phalanges, tu trouves ça étrange ? Dans mon monde, plus de couleurs, le noir est l'nouveau orange Faire tomber les démange car mon franc-parler les dérange Rien ne s'arrange, les douleurs s'mélangent J'ai appris à rapper en traînant dans la rue J'ai connu mon père au parlu, il n'est pas souvent réapparu L'amour rend pas aveugle, la mère de mes gosses m'a rendu la vue J't'écoute rapper, sentiment d'déjà vu À la fin d'la guerre, j'y laisserai des plumes mais j'aurai pris mes thunes Tout c'que j'fais, j'assume, mes choix, mes courtes études J'suis un génie, frotte la lampe, fais tes trois voeux Que du silence, que d'la haine, jamais d'aveux Un peu d'honneur et d'argent, j'serai aze' J'suis pas d'ici, à la Terre j'fais mes adieux, hey You might also like Hey, la street-crédibilité, j'm'en bats les couilles J'l'ai déjà en moi, en cas d'ennui, personne se mouille Par intérêt, les gens se couvrent Noient leur tristesse dans pack de douze Te trahissent pour chatte de zouz' J'cours derrière le flouze Tu vas souffrir si j't'épouse, hey Cette vie d'routine pue la loose Peu d'sentiments face aux hommes, intransigeant face aux normes Y a que d'la haine dans mes larmes, que du savoir dans mes armes Le but n'est plus loin, j'le sens On va faire couler du sang Innocent comme adolescent Je ne parle qu'à bon escient Dose3</t>
+          <t>Il en faut peu pour fumer un homme Mort de l'intérieur, j'confonds l'enfer et l'funérarium Paysage morose Au fond d'moi, j'aimerais faire laumône Du sang, des morts, des mômes, des gnomes Tu crois en Dieu ? Prie pour une seconde vie Quand tu dis qu'tu fais de l'art, même la Joconde rit Vingt-trois piges, j'écris mieux que Baudelaire J'me noie dans l'eau de mer, il m'faut de l'air Le rap a beau me plaire, les codes se perdent J'viens dans leur bureau, négro, j'refuse leur offre de merde Devant ton cadavre tout blanc, j'allume un putain d'cierge Éjectable est le putain d'siège La 'sère s'ressent sur mes bulletins d'paye Hé merde, han L'oseille, l'argent, faut aller où y a À part 404, j'n'ai pas d'autres khoyas, alléluia Dans la vallée d'la mort, j'suis plongé dans mes songes Refais une blague raciste, ton cul sera noir de monde Cruel vécu, me d'mande pas pourquoi j'suis aussi sombre Mercenaire, j'm'en fous d'être roi, j'suis plutôt l'homme de l'ombre J'ai leur sang sur mes phalanges, tu trouves ça étrange ? Dans mon monde, plus de couleurs, le noir est l'nouveau orange Faire tomber les démange car mon franc-parler les dérange Rien ne s'arrange, les douleurs s'mélangent J'ai appris à rapper en traînant dans la rue J'ai connu mon père au parlu, il n'est pas souvent réapparu L'amour rend pas aveugle, la mère de mes gosses m'a rendu la vue J't'écoute rapper, sentiment d'déjà vu À la fin d'la guerre, j'y laisserai des plumes mais j'aurai pris mes thunes Tout c'que j'fais, j'assume, mes choix, mes courtes études J'suis un génie, frotte la lampe, fais tes trois voeux Que du silence, que d'la haine, jamais d'aveux Un peu d'honneur et d'argent, j'serai aze' J'suis pas d'ici, à la Terre j'fais mes adieux, hey Hey, la street-crédibilité, j'm'en bats les couilles J'l'ai déjà en moi, en cas d'ennui, personne se mouille Par intérêt, les gens se couvrent Noient leur tristesse dans pack de douze Te trahissent pour chatte de zouz' J'cours derrière le flouze Tu vas souffrir si j't'épouse, hey Cette vie d'routine pue la loose Peu d'sentiments face aux hommes, intransigeant face aux normes Y a que d'la haine dans mes larmes, que du savoir dans mes armes Le but n'est plus loin, j'le sens On va faire couler du sang Innocent comme adolescent Je ne parle qu'à bon escient Dose3</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Yeah, 404 Billy Trust me Yeah Set up, chiche, yeah Yo, yo D'la weed dans la pocket, j'consomme que d'la moquette Mes négros sont dans la Benz, les O.G. sont dans les dièses 4.0.4, c'est l'anarchie, Gombo sauce arachide Sur l'trône, j'suis avachi, j'suis affranchi, j'suis éméché Moi, c'est la haine qui m'anime, suce-moi la queue si tu aimes J'suis dans mon truc, j'suis dans ma bulle, moi, je n'ai aucune peine Leurs guerres sur Internet ? Nous sommes dans les tranchées Leurs corps dans les planches et noires, noires sont les pensées, yeah On t'égorge mais y a pas mort d'homme Le sang d'l'ennemi est sur la couronne, plus rien n'm'étonne Quand j'coupe des têtes, les oiseaux s'envolent J'irai sur l'trône sans rôle, j'ai même su vivre sans piaule C'qu'il m'reste, c'est les rixes et les risques, pour dix de roro Pour Rolls Royce, on trust pour R, gros, le règne est trop haut Le rap est sous terre, le crime est ouvert Homme froid, même en Enfer, j'irai bien couvert You might also like Mon rap te troue la chair, il t'f'ra la boule à Z Tu finiras poussière même si t'es tout balaise Monnaie dans la tête, je n'fais plus la fête Mes démons me réveillent, j'suis fonce-dé de la veille J'fais du sale, j'déverse ma rage devant leur falche J'dévierge leurs surs et j'me casse, respecte le man Marcheur blanc, pour m'abattre, faut d'l'acier valyrien Vie de galérien car j'vis comme si cette vie ne valait rien Prends ton fils dans tes bras avant qu'la mort ne l'emporte Nos vies sont short, seule la mort m'escorte Crâne de cadavre sur l'appui-tête n'a plus de pouls La Faucheuse me court derrière car cette salope n'a plus d'époux J'veux goûter au succès mais j'vais pas mourir sur scène Le taux de haine est élevé, les pédés ont des ulcères et tu l'sais Pas de 'teille de Grey Goose en cas de coup d'blues Souhaite-nous beaucoup d'flouze et beaucoup d'zoum sans coup d'foudre Mauvais garçon comme Biggie, tu s'ras ma bitch ou ma Lil Kim Tous les rappeurs jouent les bandits, dans les bureaux, sont des victimes J'récolte ce que je sème, rigole lorsque je saigne, j'vais l'faire sans Sensei On sait qu'c'est l'son qui ramène plus d'sexy qui sexhibe Le succès m'envoie des sextos, j'm'enferme dans cette vie J'vais en Enfer à bord d'un GSXR J'ai jeté mes cahiers, j'veux l'salaire de Kanye, plus l'temps de racailler J'vais bientôt caner, j'suis complètement décalé Hey Allez zoin, allez zoin, zoin, zoin, zoin zoin, zoin 404 Chiche</t>
+          <t>Yeah, 404 Billy Trust me Yeah Set up, chiche, yeah Yo, yo D'la weed dans la pocket, j'consomme que d'la moquette Mes négros sont dans la Benz, les O.G. sont dans les dièses 4.0.4, c'est l'anarchie, Gombo sauce arachide Sur l'trône, j'suis avachi, j'suis affranchi, j'suis éméché Moi, c'est la haine qui m'anime, suce-moi la queue si tu aimes J'suis dans mon truc, j'suis dans ma bulle, moi, je n'ai aucune peine Leurs guerres sur Internet ? Nous sommes dans les tranchées Leurs corps dans les planches et noires, noires sont les pensées, yeah On t'égorge mais y a pas mort d'homme Le sang d'l'ennemi est sur la couronne, plus rien n'm'étonne Quand j'coupe des têtes, les oiseaux s'envolent J'irai sur l'trône sans rôle, j'ai même su vivre sans piaule C'qu'il m'reste, c'est les rixes et les risques, pour dix de roro Pour Rolls Royce, on trust pour R, gros, le règne est trop haut Le rap est sous terre, le crime est ouvert Homme froid, même en Enfer, j'irai bien couvert Mon rap te troue la chair, il t'f'ra la boule à Z Tu finiras poussière même si t'es tout balaise Monnaie dans la tête, je n'fais plus la fête Mes démons me réveillent, j'suis fonce-dé de la veille J'fais du sale, j'déverse ma rage devant leur falche J'dévierge leurs surs et j'me casse, respecte le man Marcheur blanc, pour m'abattre, faut d'l'acier valyrien Vie de galérien car j'vis comme si cette vie ne valait rien Prends ton fils dans tes bras avant qu'la mort ne l'emporte Nos vies sont short, seule la mort m'escorte Crâne de cadavre sur l'appui-tête n'a plus de pouls La Faucheuse me court derrière car cette salope n'a plus d'époux J'veux goûter au succès mais j'vais pas mourir sur scène Le taux de haine est élevé, les pédés ont des ulcères et tu l'sais Pas de 'teille de Grey Goose en cas de coup d'blues Souhaite-nous beaucoup d'flouze et beaucoup d'zoum sans coup d'foudre Mauvais garçon comme Biggie, tu s'ras ma bitch ou ma Lil Kim Tous les rappeurs jouent les bandits, dans les bureaux, sont des victimes J'récolte ce que je sème, rigole lorsque je saigne, j'vais l'faire sans Sensei On sait qu'c'est l'son qui ramène plus d'sexy qui sexhibe Le succès m'envoie des sextos, j'm'enferme dans cette vie J'vais en Enfer à bord d'un GSXR J'ai jeté mes cahiers, j'veux l'salaire de Kanye, plus l'temps de racailler J'vais bientôt caner, j'suis complètement décalé Hey Allez zoin, allez zoin, zoin, zoin, zoin zoin, zoin 404 Chiche</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Sur le toit, boy, j'ai le sniper, gros, y a des shooters et des fighters J'roule à 200 dans la Viper, j'ken les trois surs surtout Piper Polo crocodile, elle kiffe, elle veut faire un tour dans le bendo Elle est gée-char comme l'extendo, hey, no extendo J'suis sur l'Macintosh, fin des temps approche J'ai vu toutes les news, que c'est moche, veulnt se mettre l'Afriqu dans la poche J'ai crié, j'ai rodave que dans leur matrice, y a des putains d'failles Fuck la paix, fuck l'amour, j'ai le cur percé comme les tétons d'Shay Ni East Side, ni West Side, mais plutôt Dark Side Dark Side J'demande des nudes comme Martial, l'art est martial, l'éjac' est faciale eh, eh J'ai le truc, j'ai la discipline, en années communes, en années bissextiles J'suis frais, j'suis noir, j'suis comme Michael des années eighties Qu'est-ce qu'alimente l'être-humain pour qu'il face autant d'dingueries ? Oh, gang Des fois, je me demande de qui on vient pour qu'on fasse autant d'singeries j'me demande 404Savage ouh, 404Savage hey, brutal tout l'temps, toujours seven sur seven fouh 404Savage hey, 404Savage ouh, brutal tout l'temps, toujours seven sur seven tou-tou-tou-touh, hey J'suis bien éduqué mais insolent, j'attends que la mort, gros, c'est trop lent J'crois qu'j'ai fait l'tour comme Magellan, j'ai croisé la Faucheuse, elle m'a gué-lan Tu m'ajoutes sur Snap', tu m'observes, j'accomplis quelque chose, t'as l'seum J'crois qu't'es bipolaire, t'es comme Kanye, t'es pas trop stable, j'ai d'jà gagné J'suis un bâtard, l'anti-héros qui gêne, notre relation est juste clitoridienne J'ai bien envie d'investir en dizaines de K, okay Biatch, dis-moi juste si tu baises, j'prends mes cliques et mes claques si tu blablates Produit cellophané sous le canap', j'ai la rage de vaincre, j'ai le panache J'pense à investir dans un FAMAS, j'viserai pas les jambes mais les ganaches On prend notre oseille et on s'arrache, j'nettoie au Kalash' grah, pas au car wash Hallucination, tu m'as pas vu, j'pénètre que les chattes, pas les cavus J'allume comme Taliban, j'ai mon talisman, le monde une prison, les enfants aux arrivants enfants aux arrivants Le monde une prison, les enfants aux arrivants arrivants, ouh You might also like 404Savage ouh, 404Savage hey, brutal tout l'temps, toujours seven sur seven fouh 404Savage hey, 404Savage ouh, brutal tout l'temps, toujours seven sur seven tou-tou-tou-touh C'est sombre C'est comment ? C'est sombre 400, le 4, tu connais déjà</t>
+          <t>Sur le toit, boy, j'ai le sniper, gros, y a des shooters et des fighters J'roule à 200 dans la Viper, j'ken les trois surs surtout Piper Polo crocodile, elle kiffe, elle veut faire un tour dans le bendo Elle est gée-char comme l'extendo, hey, no extendo J'suis sur l'Macintosh, fin des temps approche J'ai vu toutes les news, que c'est moche, veulnt se mettre l'Afriqu dans la poche J'ai crié, j'ai rodave que dans leur matrice, y a des putains d'failles Fuck la paix, fuck l'amour, j'ai le cur percé comme les tétons d'Shay Ni East Side, ni West Side, mais plutôt Dark Side Dark Side J'demande des nudes comme Martial, l'art est martial, l'éjac' est faciale eh, eh J'ai le truc, j'ai la discipline, en années communes, en années bissextiles J'suis frais, j'suis noir, j'suis comme Michael des années eighties Qu'est-ce qu'alimente l'être-humain pour qu'il face autant d'dingueries ? Oh, gang Des fois, je me demande de qui on vient pour qu'on fasse autant d'singeries j'me demande 404Savage ouh, 404Savage hey, brutal tout l'temps, toujours seven sur seven fouh 404Savage hey, 404Savage ouh, brutal tout l'temps, toujours seven sur seven tou-tou-tou-touh, hey J'suis bien éduqué mais insolent, j'attends que la mort, gros, c'est trop lent J'crois qu'j'ai fait l'tour comme Magellan, j'ai croisé la Faucheuse, elle m'a gué-lan Tu m'ajoutes sur Snap', tu m'observes, j'accomplis quelque chose, t'as l'seum J'crois qu't'es bipolaire, t'es comme Kanye, t'es pas trop stable, j'ai d'jà gagné J'suis un bâtard, l'anti-héros qui gêne, notre relation est juste clitoridienne J'ai bien envie d'investir en dizaines de K, okay Biatch, dis-moi juste si tu baises, j'prends mes cliques et mes claques si tu blablates Produit cellophané sous le canap', j'ai la rage de vaincre, j'ai le panache J'pense à investir dans un FAMAS, j'viserai pas les jambes mais les ganaches On prend notre oseille et on s'arrache, j'nettoie au Kalash' grah, pas au car wash Hallucination, tu m'as pas vu, j'pénètre que les chattes, pas les cavus J'allume comme Taliban, j'ai mon talisman, le monde une prison, les enfants aux arrivants enfants aux arrivants Le monde une prison, les enfants aux arrivants arrivants, ouh 404Savage ouh, 404Savage hey, brutal tout l'temps, toujours seven sur seven fouh 404Savage hey, 404Savage ouh, brutal tout l'temps, toujours seven sur seven tou-tou-tou-touh C'est sombre C'est comment ? C'est sombre 400, le 4, tu connais déjà</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Zoo Tou-tou-tou-touh Go go Sheesh sheesh Le quatre quatre Hey hey T'hallucines et tu signes, nous, c'est tout pour la win Ils ont peur de mes G qui consomment la weed J'ai pas l'temps pour les putes, j'aime pas l'temps pour les Kim On s'ennuie dans le binks et ça commet des crimes Oh shit oh shit, ils essayent d'être sombres mais se prennent pour le quatre ils se prennent pour le quatre J'suis du côté obscur, j'crois qu'j'ai passé un cap T'hallucines et tu signs, nous, c'est tout pour la win Ils ont peur de ms G qui consomment la weed J'ai pas l'temps pour les putes, j'aime pas l'temps pour les Kim On s'ennuie dans le binks et ça commet des crimes Oh shit oh shit, ils essayent d'être sombres mais se prennent pour le quatre ils se prennent pour le quatre J'suis du côté obscur, j'crois qu'j'ai passé un cap J'avais l'cur sur la main, puis, j'ai serré des mains donc ce dernier a fini écrasé À leurs yeux, j'suis un bâtard, j'suis un chien parce que ma race est croisée La putain d'destruction, moi, c'est ce que je veux, j'veux la carrière de Diam's et des cailloux de diams T'as l'viseur sur le crâne, dis au revoir à ta tain-p', t'es tombé dans le trou, t'as le flow de Saddam Rien n'est acquis, n'est acquis acquis, j'ai le Haki, le Haki ouh Jouent les Capo dei Capi dei capi, c'est des Tayc de Tayc tou-tou-tou-touh J'aimerai t'éliminer, voir ton visage en sang J'ai le cur d'un monster, le sourire d'un enfant, ça sent plutôt la mort, ça sent pas trop l'encens shee You might also like T'hallucines et tu signes, nous, c'est tout pour la win Ils ont peur de mes G qui consomment la weed J'ai pas l'temps pour les putes, j'aime pas l'temps pour les Kim On s'ennuie dans le binks et ça commet des crimes Oh shit oh shit, ils essayent d'être sombres mais se prennent pour le quatre ils se prennent pour le quatre J'suis du côté obscur, j'crois qu'j'ai passé un cap T'hallucines et tu signes, nous, c'est tout pour la win Ils ont peur de mes G qui consomment la weed J'ai pas l'temps pour les putes, j'aime pas l'temps pour les Kim On s'ennuie dans le binks et ça commet des crimes Oh shit oh shit, ils essayent d'être sombres mais se prennent pour le quatre ils se prennent pour le quatre J'suis du côté obscur, j'crois qu'j'ai passé un cap J'ai l'aura meurtrière comme la police police Fuck les fuck les groupies groupies qui veulent voir comment c'est dans les coulisses ouh Même si t'as l'cul d'un chantier dans Foolish ouh Allergique aux faux négros, pas au pollen sheesh, tu pues ta mère, j't'arrose à l'eau d'Cologne rah J'ai le poids d'mes péchés sur la colonne, j'ai la ppe-fra de l'attaquant d'Pologne Pas besoin d'coop' pour me faire blow up, solo, j'serais à bord du Buggy Quand j'te baise, j'préfère que t'enfiles le masque d'Anonymous si t'es trop ugly Ils savent pas réfléchir, c'est des kodos, il faut qu'ma voix résonne dur dans les autos J'regarde leurs clips et leurs armes, c'est des couteaux rah, j'suis le maître du son, y a pas photo T'hallucines et tu signes, nous, c'est tout pour la win Ils ont peur de mes G qui consomment la weed J'ai pas l'temps pour les putes, j'aime pas l'temps pour les Kim On s'ennuie dans le binks et ça commet des crimes Oh shit oh shit, ils essayent d'être sombres mais se prennent pour le quatre ils se prennent pour le quatre J'suis du côté obscur, j'crois qu'j'ai passé un cap T'hallucines et tu signes, nous, c'est tout pour la win Ils ont peur de mes G qui consomment la weed J'ai pas l'temps pour les putes, j'aime pas l'temps pour les Kim On s'ennuie dans le binks et ça commet des crimes Oh shit oh shit, ils essayent d'être sombres mais se prennent pour le quatre ils se prennent pour le quatre J'suis du côté obscur, j'crois qu'j'ai passé un cap</t>
+          <t>Zoo Tou-tou-tou-touh Go go Sheesh sheesh Le quatre quatre Hey hey T'hallucines et tu signes, nous, c'est tout pour la win Ils ont peur de mes G qui consomment la weed J'ai pas l'temps pour les putes, j'aime pas l'temps pour les Kim On s'ennuie dans le binks et ça commet des crimes Oh shit oh shit, ils essayent d'être sombres mais se prennent pour le quatre ils se prennent pour le quatre J'suis du côté obscur, j'crois qu'j'ai passé un cap T'hallucines et tu signs, nous, c'est tout pour la win Ils ont peur de ms G qui consomment la weed J'ai pas l'temps pour les putes, j'aime pas l'temps pour les Kim On s'ennuie dans le binks et ça commet des crimes Oh shit oh shit, ils essayent d'être sombres mais se prennent pour le quatre ils se prennent pour le quatre J'suis du côté obscur, j'crois qu'j'ai passé un cap J'avais l'cur sur la main, puis, j'ai serré des mains donc ce dernier a fini écrasé À leurs yeux, j'suis un bâtard, j'suis un chien parce que ma race est croisée La putain d'destruction, moi, c'est ce que je veux, j'veux la carrière de Diam's et des cailloux de diams T'as l'viseur sur le crâne, dis au revoir à ta tain-p', t'es tombé dans le trou, t'as le flow de Saddam Rien n'est acquis, n'est acquis acquis, j'ai le Haki, le Haki ouh Jouent les Capo dei Capi dei capi, c'est des Tayc de Tayc tou-tou-tou-touh J'aimerai t'éliminer, voir ton visage en sang J'ai le cur d'un monster, le sourire d'un enfant, ça sent plutôt la mort, ça sent pas trop l'encens shee T'hallucines et tu signes, nous, c'est tout pour la win Ils ont peur de mes G qui consomment la weed J'ai pas l'temps pour les putes, j'aime pas l'temps pour les Kim On s'ennuie dans le binks et ça commet des crimes Oh shit oh shit, ils essayent d'être sombres mais se prennent pour le quatre ils se prennent pour le quatre J'suis du côté obscur, j'crois qu'j'ai passé un cap T'hallucines et tu signes, nous, c'est tout pour la win Ils ont peur de mes G qui consomment la weed J'ai pas l'temps pour les putes, j'aime pas l'temps pour les Kim On s'ennuie dans le binks et ça commet des crimes Oh shit oh shit, ils essayent d'être sombres mais se prennent pour le quatre ils se prennent pour le quatre J'suis du côté obscur, j'crois qu'j'ai passé un cap J'ai l'aura meurtrière comme la police police Fuck les fuck les groupies groupies qui veulent voir comment c'est dans les coulisses ouh Même si t'as l'cul d'un chantier dans Foolish ouh Allergique aux faux négros, pas au pollen sheesh, tu pues ta mère, j't'arrose à l'eau d'Cologne rah J'ai le poids d'mes péchés sur la colonne, j'ai la ppe-fra de l'attaquant d'Pologne Pas besoin d'coop' pour me faire blow up, solo, j'serais à bord du Buggy Quand j'te baise, j'préfère que t'enfiles le masque d'Anonymous si t'es trop ugly Ils savent pas réfléchir, c'est des kodos, il faut qu'ma voix résonne dur dans les autos J'regarde leurs clips et leurs armes, c'est des couteaux rah, j'suis le maître du son, y a pas photo T'hallucines et tu signes, nous, c'est tout pour la win Ils ont peur de mes G qui consomment la weed J'ai pas l'temps pour les putes, j'aime pas l'temps pour les Kim On s'ennuie dans le binks et ça commet des crimes Oh shit oh shit, ils essayent d'être sombres mais se prennent pour le quatre ils se prennent pour le quatre J'suis du côté obscur, j'crois qu'j'ai passé un cap T'hallucines et tu signes, nous, c'est tout pour la win Ils ont peur de mes G qui consomment la weed J'ai pas l'temps pour les putes, j'aime pas l'temps pour les Kim On s'ennuie dans le binks et ça commet des crimes Oh shit oh shit, ils essayent d'être sombres mais se prennent pour le quatre ils se prennent pour le quatre J'suis du côté obscur, j'crois qu'j'ai passé un cap</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>S-V4GE made this shit Faites-moi vos plates excuses ou j'tire dans chaque plexus, faut une black Lexus Pas besoin d'Patek plus un gros bolide pour savoir que ces tasses-pé m'sucent L'arrivage du drone est imminent comme Qassem qui sort de l'aéroport Il faut plus que m'payer pour parler aux porcs parler aux porcs, parler aux porcs Le style est grave si l'animal, quand y a plus à graille, on devient cannibale Quand tu marches ou tu parles, on dirait qu'tu ravitailles toute la capitale Prnds du recul, t'es pas d'ma hauteur, t's assis sur une chaise Avant trente ans, j'suis assis sur le siège, j'fais d'la trap en esquivant les pièges Leurs vies, c'est du cinéma, c'est du pâté, société où c'est dur d'avoir l'ze-n épaté On fait pas d'chrome, c'est pas Cofidis, tu fais toutes les pauses tah les trapézistes Depuis Hostile, j'fais des cicatrices comme si ils avaient l'visage de Sig J'recharge mes piles, tu marches le froc baissé, tu r'cherches un deal Ils ont pas d'culture, avant d'rapper, ils trainaient au skate-park Il suffit pas d'être dark pour moi, pour qu'ma carte soit black C'est des fils de putes, c'est des fils de polythéistes C'est trop noir, j'ramène les ténèbres dans les playlists et ils savent que c'est puissant T'as de la merde dans l'gosier, cours à la scelle pour pénave À moi tout seul, j'suis un mauvais présage T'as de la merde dans l'gosier, cours à la scelle pour pénave À moi tout seul, j'suis un mauvais présage You might also like PDP, j'vais ramener la coupe j'vais ramener la coupe pour tous mes loups dans la vente Pour tous mes loups dans le BTP, aucun cur dans l'scanner T'as cru qu'on allait s'vendre ? Allez, baise ta mère On parle toujours français malgré toutes nos fautes de grammaire Leurs succès sont bizarres, j'ai l'impression qu'ils pactisent Rien de factice dans mes tactiques, on fréquente pas Iblis J'aimerais être un black Leonidas pour les Ouïghours, les Rohingyas L'être-humain n'est qu'une stat, vaut moins qu'une statue Tout repose sur un seul homme comme au FC Barcelone Billy-sama comme ça qu'le gars se nomme, j'vois la vie que d'un seul il Tellement rare, mon cur chevelu c'est du cur véritable Y a plus rien d'évitable, leurs châteaux, c'est du sable, ils vont pas m'faire, j'dors à côté du sabre Le succès, c'est long, il y a plusieurs échelons mais pour m'upgrade, c'est che-lou Même Bernard Arnault n'a aucune richesse si il n'croit pas au Très-Haut sa destinée On s'est décidés pendant qu't'attends un signe, j'rappe pas pour ta pute sur l'siège pass' À la fin, c'est un tir, y a pas d'clap, rideaux fermés, fin du spectacle, zoin T'as de la merde dans l'gosier, cours à la scelle pour pénave À moi tout seul, j'suis un mauvais présage T'as de la merde dans l'gosier, cours à la scelle pour pénave À moi tout seul, j'suis un mauvais présage</t>
+          <t>S-V4GE made this shit Faites-moi vos plates excuses ou j'tire dans chaque plexus, faut une black Lexus Pas besoin d'Patek plus un gros bolide pour savoir que ces tasses-pé m'sucent L'arrivage du drone est imminent comme Qassem qui sort de l'aéroport Il faut plus que m'payer pour parler aux porcs parler aux porcs, parler aux porcs Le style est grave si l'animal, quand y a plus à graille, on devient cannibale Quand tu marches ou tu parles, on dirait qu'tu ravitailles toute la capitale Prnds du recul, t'es pas d'ma hauteur, t's assis sur une chaise Avant trente ans, j'suis assis sur le siège, j'fais d'la trap en esquivant les pièges Leurs vies, c'est du cinéma, c'est du pâté, société où c'est dur d'avoir l'ze-n épaté On fait pas d'chrome, c'est pas Cofidis, tu fais toutes les pauses tah les trapézistes Depuis Hostile, j'fais des cicatrices comme si ils avaient l'visage de Sig J'recharge mes piles, tu marches le froc baissé, tu r'cherches un deal Ils ont pas d'culture, avant d'rapper, ils trainaient au skate-park Il suffit pas d'être dark pour moi, pour qu'ma carte soit black C'est des fils de putes, c'est des fils de polythéistes C'est trop noir, j'ramène les ténèbres dans les playlists et ils savent que c'est puissant T'as de la merde dans l'gosier, cours à la scelle pour pénave À moi tout seul, j'suis un mauvais présage T'as de la merde dans l'gosier, cours à la scelle pour pénave À moi tout seul, j'suis un mauvais présage PDP, j'vais ramener la coupe j'vais ramener la coupe pour tous mes loups dans la vente Pour tous mes loups dans le BTP, aucun cur dans l'scanner T'as cru qu'on allait s'vendre ? Allez, baise ta mère On parle toujours français malgré toutes nos fautes de grammaire Leurs succès sont bizarres, j'ai l'impression qu'ils pactisent Rien de factice dans mes tactiques, on fréquente pas Iblis J'aimerais être un black Leonidas pour les Ouïghours, les Rohingyas L'être-humain n'est qu'une stat, vaut moins qu'une statue Tout repose sur un seul homme comme au FC Barcelone Billy-sama comme ça qu'le gars se nomme, j'vois la vie que d'un seul il Tellement rare, mon cur chevelu c'est du cur véritable Y a plus rien d'évitable, leurs châteaux, c'est du sable, ils vont pas m'faire, j'dors à côté du sabre Le succès, c'est long, il y a plusieurs échelons mais pour m'upgrade, c'est che-lou Même Bernard Arnault n'a aucune richesse si il n'croit pas au Très-Haut sa destinée On s'est décidés pendant qu't'attends un signe, j'rappe pas pour ta pute sur l'siège pass' À la fin, c'est un tir, y a pas d'clap, rideaux fermés, fin du spectacle, zoin T'as de la merde dans l'gosier, cours à la scelle pour pénave À moi tout seul, j'suis un mauvais présage T'as de la merde dans l'gosier, cours à la scelle pour pénave À moi tout seul, j'suis un mauvais présage</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Zoo, hey Laissons l'ego de côté, l'egotrip de côté Ils disent que j'suis sous-coté, si j'perce, ils diront qu'j'ai d'la chatte Cette année, on blague plus, c'est la guerre, il faut sortir les chars C'est pas dur d'baiser cette life, en bas, y a déjà trop d'écart Mon sin-c' m'appelle au téléphone y a des terrains qu'faut acheter Avec les grands, j'traînais dans l'hall mais j'posais sur des phases B J'suis devenu père à quinze piges, quinze ballets À cette période, j'ratais les cours ou j'insultais les instit' Alors, quand elle v'nue m'voir avec son ventre tout rond Qu'est-c'tu voulais qu'j'réponde ? J'avais pas d'cerveau, pas un rond Fallait qu'j'me donne au maximum, puis, les autres, tombés un à un En prison pour mineurs, j'avais clairement pas c'truc-là dans l'viseur Villiers, y avait quelques drah, c'était pas des flingues en plastique Donc j'ai bien fait mon truc pour monter, pas rester statique Mon père sorti du placard, on rattrape le temps avec quelques prières Ouais, j'me dis qu'c'est jamais trop tard J'suis fier de l'homme que j'deviens, j'suis même pas sûr d'être là demain J'fais gaffe à mes fréquentations, mes mots, les interprétations Quand j'ai commencé l'rap, c'était la passion, j'pensais pas au cash Les types commencent le rap, ils pensent aux meufs, au luxe, aux marques de sapes Ma mère blanche, dans son ventre, portait un gosse noir Elle en a bavé, j'aimais pas l'monde avant d'le voir Né en Normandie, v'nu sur Paris, élevé dans l'ghetto Ils pensent que c'est l'contraire, c'est moi j'manie, c'est moi Geppeto You might also like Ils nous demandent d'avoir un cur mais qui a eu un cur pour nous ? La haine que tu nous donnes, on va t'la donner fois mille La haine que tu nous donnes, on va t'la donner fois mille Ils nous demandent d'avoir un cur mais qui a eu un cur pour nous ? La haine que tu nous donnes, on va t'la donner fois mille La haine que tu nous donnes, on va t'la donner fois mille Le talent attire les envieux, la religion attire les gens ieux-v Il faut qu'j'm'éloigne des faux-culs, que j'fasse mon truc, que j'reste focus Certains noirs sont des clowns, ils ont qu'à l'prendre comme une offense C'est soit la guerre ou le silence, nous fais pas l'Black Panther de France On sait qu'faire ça, courber l'échine, on s'est fait racheter par la Chine Parce qu'on pense qu'à danser, chanter, depuis l'époque de Sex Machine Alors pourquoi tu viens t'plaindre ? Ferme ta gueule et fais le job Et si un mec t'insulte de sale noir, mon frère, nique-lui sa mère Fuck les humains, fuck les scientifiques qui voudraient défier Dieu Et tous les autres, ils font la révolution d'chez eux, boy J'répète la haine que tu nous donnes, on va t'la donner fois mille</t>
+          <t>Zoo, hey Laissons l'ego de côté, l'egotrip de côté Ils disent que j'suis sous-coté, si j'perce, ils diront qu'j'ai d'la chatte Cette année, on blague plus, c'est la guerre, il faut sortir les chars C'est pas dur d'baiser cette life, en bas, y a déjà trop d'écart Mon sin-c' m'appelle au téléphone y a des terrains qu'faut acheter Avec les grands, j'traînais dans l'hall mais j'posais sur des phases B J'suis devenu père à quinze piges, quinze ballets À cette période, j'ratais les cours ou j'insultais les instit' Alors, quand elle v'nue m'voir avec son ventre tout rond Qu'est-c'tu voulais qu'j'réponde ? J'avais pas d'cerveau, pas un rond Fallait qu'j'me donne au maximum, puis, les autres, tombés un à un En prison pour mineurs, j'avais clairement pas c'truc-là dans l'viseur Villiers, y avait quelques drah, c'était pas des flingues en plastique Donc j'ai bien fait mon truc pour monter, pas rester statique Mon père sorti du placard, on rattrape le temps avec quelques prières Ouais, j'me dis qu'c'est jamais trop tard J'suis fier de l'homme que j'deviens, j'suis même pas sûr d'être là demain J'fais gaffe à mes fréquentations, mes mots, les interprétations Quand j'ai commencé l'rap, c'était la passion, j'pensais pas au cash Les types commencent le rap, ils pensent aux meufs, au luxe, aux marques de sapes Ma mère blanche, dans son ventre, portait un gosse noir Elle en a bavé, j'aimais pas l'monde avant d'le voir Né en Normandie, v'nu sur Paris, élevé dans l'ghetto Ils pensent que c'est l'contraire, c'est moi j'manie, c'est moi Geppeto Ils nous demandent d'avoir un cur mais qui a eu un cur pour nous ? La haine que tu nous donnes, on va t'la donner fois mille La haine que tu nous donnes, on va t'la donner fois mille Ils nous demandent d'avoir un cur mais qui a eu un cur pour nous ? La haine que tu nous donnes, on va t'la donner fois mille La haine que tu nous donnes, on va t'la donner fois mille Le talent attire les envieux, la religion attire les gens ieux-v Il faut qu'j'm'éloigne des faux-culs, que j'fasse mon truc, que j'reste focus Certains noirs sont des clowns, ils ont qu'à l'prendre comme une offense C'est soit la guerre ou le silence, nous fais pas l'Black Panther de France On sait qu'faire ça, courber l'échine, on s'est fait racheter par la Chine Parce qu'on pense qu'à danser, chanter, depuis l'époque de Sex Machine Alors pourquoi tu viens t'plaindre ? Ferme ta gueule et fais le job Et si un mec t'insulte de sale noir, mon frère, nique-lui sa mère Fuck les humains, fuck les scientifiques qui voudraient défier Dieu Et tous les autres, ils font la révolution d'chez eux, boy J'répète la haine que tu nous donnes, on va t'la donner fois mille</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BLKKKK Van Gogh 2 400 putain de 4 T'as reconnu la signature ZoinGoinZoin Vivre ici-bas c'est comme se baigner dans une flaque d'eau Mouton noir, j'aime pas trop les troupeaux Connaissent aps ni mes origines, ni ma plaque J'viens enculer ton peuple comme l'arrivée du crack J'ai quelques flashbacks, destiné à faire du sale Depuis l'homme des cavernes grandit sur l'tarmac J'rappe comme si j'venais d'avant, comme si on m'avait gelé J'mangeais pas d'argent tout c'tmps c'est comme si j'avais jeûné T's qu'une merde donc j'te salue d'la main gauche J'veux les six pierres comme Thanos, élever mon fils comme Kratos J'ai vu les autres, délaisser leur art Moi perso j'suis venu cracher mon dard, tant qu'le terrain est praticable J'essaie de devenir un homme sage prier mes cinq fois J'suis pas là par hasard, comme les lignes sur mes cinq doigts Ton flow est à verser dans les WC J'prends du recul y a pas de larmes versées lors des décès J'comprends ap, les mecs se mettent à rapper Mais ils sont déjà riches apparemment c'est des artistes On passe le cap on gravit grave, on évolue on s'ravitaille Ils sentent les secousses dans leurs jambes quand j'suis al On s'plaint pour rien Chez nous il pleut des gouttes, dans d'autres bleds il pleut des missiles Parfois, j'suis un peu extrême comme Makala Sur moi l'katana, l'aura d'Madara Joue-t'il la comédie? Est-il fou? Est-il si cinglé? Oublie pas Dieu, même si tu roules dans grosse cylindrée Sois ouvert au monde ne fais pas le jeune chauvin J'me vois à Memphis écoutant jeune Dauphin J'pense à l'enfance, les cris les ceintures J'peints des mots, j'écris des peintures Faut qu'j'leur fasse c'que ces salopes méritent J'les énerve mais l'niveau est stratosphérique You might also like Ils peuvent rien faire 404 BLKKKK Van Gogh 2</t>
+          <t>BLKKKK Van Gogh 2 400 putain de 4 T'as reconnu la signature ZoinGoinZoin Vivre ici-bas c'est comme se baigner dans une flaque d'eau Mouton noir, j'aime pas trop les troupeaux Connaissent aps ni mes origines, ni ma plaque J'viens enculer ton peuple comme l'arrivée du crack J'ai quelques flashbacks, destiné à faire du sale Depuis l'homme des cavernes grandit sur l'tarmac J'rappe comme si j'venais d'avant, comme si on m'avait gelé J'mangeais pas d'argent tout c'tmps c'est comme si j'avais jeûné T's qu'une merde donc j'te salue d'la main gauche J'veux les six pierres comme Thanos, élever mon fils comme Kratos J'ai vu les autres, délaisser leur art Moi perso j'suis venu cracher mon dard, tant qu'le terrain est praticable J'essaie de devenir un homme sage prier mes cinq fois J'suis pas là par hasard, comme les lignes sur mes cinq doigts Ton flow est à verser dans les WC J'prends du recul y a pas de larmes versées lors des décès J'comprends ap, les mecs se mettent à rapper Mais ils sont déjà riches apparemment c'est des artistes On passe le cap on gravit grave, on évolue on s'ravitaille Ils sentent les secousses dans leurs jambes quand j'suis al On s'plaint pour rien Chez nous il pleut des gouttes, dans d'autres bleds il pleut des missiles Parfois, j'suis un peu extrême comme Makala Sur moi l'katana, l'aura d'Madara Joue-t'il la comédie? Est-il fou? Est-il si cinglé? Oublie pas Dieu, même si tu roules dans grosse cylindrée Sois ouvert au monde ne fais pas le jeune chauvin J'me vois à Memphis écoutant jeune Dauphin J'pense à l'enfance, les cris les ceintures J'peints des mots, j'écris des peintures Faut qu'j'leur fasse c'que ces salopes méritent J'les énerve mais l'niveau est stratosphérique Ils peuvent rien faire 404 BLKKKK Van Gogh 2</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Oh my god Ouh hein, hein, hein, hein hein, hein, c'est ton gars Coco Jojo, 404 J'sais qu'ils m'aiment pas mais j'me gare devant eux, ces fils de, flingueurs, sur Champs-Élysées qu'on s'coiffe flingue Depuis qu'on est là, pas de flop, flop nan, j'envoie texto fort, mange au resto han J'gare la Tesla frais, j'fume un joint, joint, joint, couleur pesto kush Et hop, hop, hop, majeur en l'air comme ses jambes ah, han, fuck les cops, cops, cops han En pétard, en pétard, en pétard, en pétard comme Ivar le Désossé violnt, avec que des OG's qu'on s'associ Hein-hein, hein-hein, hein ah, ah, hein-hein-hein, hein-hein-hein On va casser la bouteille sur ta tête, enfoiré pah, t'as l'air un peu trop costaud t'as l'air un peu trop costaud, ouh, ouh T'as l'air un peu trop costaud, tout l'monde sait bien que partout, j'ai riposté brrah J'en ai fait dormir à l'hosto pah, on faisait peur à tous ceux qu'tu détestais ah, ah, ah, ah Mythic ou my G, c'est ton gars Coco Jojo Jo et 404 quatre Grosse réunion flingueur ici pah, quand on tire, on vise pas les pattes mmh, mmh Quand j'aurais plus rien à gratter dans les rues, c'est que j'aurais fait le maximum d'oseille mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Si t'es réglo, tu finiras p't-être déçu, les soucis font que j'peux pas trouver le sommeil mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Han, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh Ah, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh You might also like On rêve de Rolls Royce, de VVS VVS, la peau d'leurs culs sous mes BBS ouh, ouh Tu dis qu'tu nous connais, on dit Qui est-ce ?, fais pas trop l'fan, j'suis pas BTS non, non On connaît pas l'bénévolat, G, c'est comment ? C'est comment my G ? J'arrive à Bezbar oui, on leur laisse aucun espoir hey, hey, Guy, c'est comment ? Flex comme Weezy ou Jeezy, marathonien comme Nipsey, oui, oui Moi, j'oublie rien, c'est physique, ici hey, on m'a fouetté dans l'Mississipi Vas-y, gare-toi d'vant eux, G vroum, vroum, j'encule les envieux, gros, j'encule les envieux j'encule les envieux, gros On encule les envieux on encule les envieux, hey, hey, hey, le bruit d'la mort sort d'un silencieux piou, piou, piou Et ça fait plaisir comme le sang d'un keuf eh, eh, elle veut l'resto, j'l'emmène au 129 fort Salope, choisis ton cheese choisis ton cheese, salope, choisis ton cheese ton cheese Je sais qu'le pain attire les mouettes hein, au studio, p'tite bouteille de Moët han, han On flingue, il n'y aura pas d'SOS non, non, on flingue, il n'y aura pas d'SOS non, non Quand j'aurais plus rien à gratter dans les rues, c'est que j'aurais fait le maximum d'oseille mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Si t'es réglo, tu finiras p't-être déçu, les soucis font que j'peux pas trouver le sommeil mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Han, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh Ah, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh</t>
+          <t>Oh my god Ouh hein, hein, hein, hein hein, hein, c'est ton gars Coco Jojo, 404 J'sais qu'ils m'aiment pas mais j'me gare devant eux, ces fils de, flingueurs, sur Champs-Élysées qu'on s'coiffe flingue Depuis qu'on est là, pas de flop, flop nan, j'envoie texto fort, mange au resto han J'gare la Tesla frais, j'fume un joint, joint, joint, couleur pesto kush Et hop, hop, hop, majeur en l'air comme ses jambes ah, han, fuck les cops, cops, cops han En pétard, en pétard, en pétard, en pétard comme Ivar le Désossé violnt, avec que des OG's qu'on s'associ Hein-hein, hein-hein, hein ah, ah, hein-hein-hein, hein-hein-hein On va casser la bouteille sur ta tête, enfoiré pah, t'as l'air un peu trop costaud t'as l'air un peu trop costaud, ouh, ouh T'as l'air un peu trop costaud, tout l'monde sait bien que partout, j'ai riposté brrah J'en ai fait dormir à l'hosto pah, on faisait peur à tous ceux qu'tu détestais ah, ah, ah, ah Mythic ou my G, c'est ton gars Coco Jojo Jo et 404 quatre Grosse réunion flingueur ici pah, quand on tire, on vise pas les pattes mmh, mmh Quand j'aurais plus rien à gratter dans les rues, c'est que j'aurais fait le maximum d'oseille mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Si t'es réglo, tu finiras p't-être déçu, les soucis font que j'peux pas trouver le sommeil mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Han, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh Ah, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh On rêve de Rolls Royce, de VVS VVS, la peau d'leurs culs sous mes BBS ouh, ouh Tu dis qu'tu nous connais, on dit Qui est-ce ?, fais pas trop l'fan, j'suis pas BTS non, non On connaît pas l'bénévolat, G, c'est comment ? C'est comment my G ? J'arrive à Bezbar oui, on leur laisse aucun espoir hey, hey, Guy, c'est comment ? Flex comme Weezy ou Jeezy, marathonien comme Nipsey, oui, oui Moi, j'oublie rien, c'est physique, ici hey, on m'a fouetté dans l'Mississipi Vas-y, gare-toi d'vant eux, G vroum, vroum, j'encule les envieux, gros, j'encule les envieux j'encule les envieux, gros On encule les envieux on encule les envieux, hey, hey, hey, le bruit d'la mort sort d'un silencieux piou, piou, piou Et ça fait plaisir comme le sang d'un keuf eh, eh, elle veut l'resto, j'l'emmène au 129 fort Salope, choisis ton cheese choisis ton cheese, salope, choisis ton cheese ton cheese Je sais qu'le pain attire les mouettes hein, au studio, p'tite bouteille de Moët han, han On flingue, il n'y aura pas d'SOS non, non, on flingue, il n'y aura pas d'SOS non, non Quand j'aurais plus rien à gratter dans les rues, c'est que j'aurais fait le maximum d'oseille mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Si t'es réglo, tu finiras p't-être déçu, les soucis font que j'peux pas trouver le sommeil mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Han, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh Ah, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ju'-Ju'-Ju'-Ju'-Ju'-Ju'-Ju' Hey, hey, hey Tu peux remballer ton grec, j'veux le homard zoin, j'suis avec le poto Epps mais pas Omar sheesh Du génie, c'est du classique, c'est du Mozart, c'est du sale, c'est du noir, c'est la ZUP, pas les Beaux-Arts gang Eppsito, on les attend dans les bureaux comme Vito hey Tous les investissements sont vitaux hey, faut leur dire qu'j'ai le doigt sur l'clito' yeah Ils ont pas compris, là, c'est next level, gros, des billets d'banqu, moi, je sais c'qu'elles vulent J'suis CR7 chez les Red Devils, tu baises avec l'ennemi, t'es comme Faith Evans J'allume deux-trois bouffons, j'm'endors auprès d'cette pute et puis, je pense à mon fils, négro Quand mon père sort de taule, j'l'ai pas vu d'puis longtemps, j'le r'garde et j'me dis C'est qui c'négro ? Les humains deviennent têtus, j'ai des sombres soupçons sur leur vécu touh Le poto est v'nu du Gabon pour du sale sale, je lui souhaite des belles meufs et des belles vues Costard, j'te braque, le cigare au bout des lèvres et t'as tout d'suite le cigare au bord des lèvres Dégaine d'mauvais élève, y a pas de quiproquo, le boy est grave céleste, j'attends qu'mon âme s'élève Petit métisse, gal'-Séne, 'boula eh, ils hallucinent, j'ai des pouvoirs eh Petit, j'étais méchant sans le savoir eh, j'rackettais des p'tits mecs dans les couloirs eh, zoin On fait même des affaires sur Discord vroum, vroum, j'aime les types qui cherchent pas la discorde zoin C'est pas du rap, j'crois qu'ils font d'la disco' non, non, ils sont ches-lou, ils ont l'swag à Cisco On passe par la window on passe pas la window, on nous a donné l'go grrah, grrah Tou-tou-tou-touh tou-tou-tou-touh, on t'allume dans le dos zoin, zoin On passe par la window on passe pas la window, on nous a donné l'go on nous a donné l'go Tou-tou-tou-touh tou-tou-tou-touh, on t'allume dans le dos on t'allume dans le dos You might also like J'ai les amis dans le club j'ai les amis dans le club, on a reçu le dos' zoin, zoin Donné le go tou-tou-tou-touh, tiens-les au mot hey, hey On passe par la window zoin, zoin, ils ont donné le go ils ont donné le go Tou-tou-tou-touh tou-tou-tou-touh, on t'allume dans le dos on t'allume dans le dos Les maisons d'disques me donnent même pas dix pour cent, ils s'étonnent qu'les négros ne soient même pas à dix pour cent Une musique correcte et y a v'là les jours sans, tu m'regardes de haut, j'te prends à califourchon J'voulais pas le faire, on en a parlé pourtant, j'sais pas pour qui ils m'prennent, nigga Doucement, j'deviens le boss donc j'suis comme Scarface pour ce game, nigga Conscient qu'en playlist, ils vont pas nous rentrer, on va les braquer, arrêtez de parlementer arrêtez de parlementer Ils sont partis, ils vont pas nous manquer let's get it, et c'est pas des monkeys okay Le jeu a besoin de soutien, j'vais le corser, ils me regardent comme si j'étais Condorcet Personne te connaît, re-noi, t'es pas Morsay, tout l'monde s'en bat les couilles, arrête de forcer hey, hey J'ai des trophées pour lesquels j'ai même pas encore fêté Tes négros s'prennent pas pour d'la merde, ils ont même pas encore pété wouh Donne-moi ma pièce donne-moi ma pièce, salope, descend de ma caisse salope, descend de ma caisse J'a-j'arrive en Benz, j'ai pété deux cent mille, la révolution de la tess yeah Deux négros cannibales, voilà le thème, un million d'euros donc voilà le fame Baggy et bandana à la Wu-Tang, tes gens sont tombés comme Saddam Hussein Dis bonjour au bachelor ou je sors le métal comme Arcelor Là, t'assistes au Real contre Barcelone et mes chaînes sont réelles, mon gars, c'est d'l'or, okay On passe par la window on passe pas la window, on nous a donné l'go grrah, grrah Tou-tou-tou-touh tou-tou-tou-touh, on t'allume dans le dos zoin, zoin On passe par la window on passe pas la window, on nous a donné l'go on nous a donné l'go Tou-tou-tou-touh tou-tou-tou-touh, on t'allume dans le dos on t'allume dans le dos J'ai les amis dans le club j'ai les amis dans le club, on a reçu le dos' zoin, zoin Donné le go tou-tou-tou-touh, tiens-les au mot hey, hey On passe par la window zoin, zoin, ils ont donné le go ils ont donné le go Tou-tou-tou-touh tou-tou-tou-touh, on t'allume dans le dos, on t'allume dans le dos On t'allume dans le dos Ju'-Ju'-Ju'-Ju'-Ju'-Ju'-Ju'</t>
+          <t>Ju'-Ju'-Ju'-Ju'-Ju'-Ju'-Ju' Hey, hey, hey Tu peux remballer ton grec, j'veux le homard zoin, j'suis avec le poto Epps mais pas Omar sheesh Du génie, c'est du classique, c'est du Mozart, c'est du sale, c'est du noir, c'est la ZUP, pas les Beaux-Arts gang Eppsito, on les attend dans les bureaux comme Vito hey Tous les investissements sont vitaux hey, faut leur dire qu'j'ai le doigt sur l'clito' yeah Ils ont pas compris, là, c'est next level, gros, des billets d'banqu, moi, je sais c'qu'elles vulent J'suis CR7 chez les Red Devils, tu baises avec l'ennemi, t'es comme Faith Evans J'allume deux-trois bouffons, j'm'endors auprès d'cette pute et puis, je pense à mon fils, négro Quand mon père sort de taule, j'l'ai pas vu d'puis longtemps, j'le r'garde et j'me dis C'est qui c'négro ? Les humains deviennent têtus, j'ai des sombres soupçons sur leur vécu touh Le poto est v'nu du Gabon pour du sale sale, je lui souhaite des belles meufs et des belles vues Costard, j'te braque, le cigare au bout des lèvres et t'as tout d'suite le cigare au bord des lèvres Dégaine d'mauvais élève, y a pas de quiproquo, le boy est grave céleste, j'attends qu'mon âme s'élève Petit métisse, gal'-Séne, 'boula eh, ils hallucinent, j'ai des pouvoirs eh Petit, j'étais méchant sans le savoir eh, j'rackettais des p'tits mecs dans les couloirs eh, zoin On fait même des affaires sur Discord vroum, vroum, j'aime les types qui cherchent pas la discorde zoin C'est pas du rap, j'crois qu'ils font d'la disco' non, non, ils sont ches-lou, ils ont l'swag à Cisco On passe par la window on passe pas la window, on nous a donné l'go grrah, grrah Tou-tou-tou-touh tou-tou-tou-touh, on t'allume dans le dos zoin, zoin On passe par la window on passe pas la window, on nous a donné l'go on nous a donné l'go Tou-tou-tou-touh tou-tou-tou-touh, on t'allume dans le dos on t'allume dans le dos J'ai les amis dans le club j'ai les amis dans le club, on a reçu le dos' zoin, zoin Donné le go tou-tou-tou-touh, tiens-les au mot hey, hey On passe par la window zoin, zoin, ils ont donné le go ils ont donné le go Tou-tou-tou-touh tou-tou-tou-touh, on t'allume dans le dos on t'allume dans le dos Les maisons d'disques me donnent même pas dix pour cent, ils s'étonnent qu'les négros ne soient même pas à dix pour cent Une musique correcte et y a v'là les jours sans, tu m'regardes de haut, j'te prends à califourchon J'voulais pas le faire, on en a parlé pourtant, j'sais pas pour qui ils m'prennent, nigga Doucement, j'deviens le boss donc j'suis comme Scarface pour ce game, nigga Conscient qu'en playlist, ils vont pas nous rentrer, on va les braquer, arrêtez de parlementer arrêtez de parlementer Ils sont partis, ils vont pas nous manquer let's get it, et c'est pas des monkeys okay Le jeu a besoin de soutien, j'vais le corser, ils me regardent comme si j'étais Condorcet Personne te connaît, re-noi, t'es pas Morsay, tout l'monde s'en bat les couilles, arrête de forcer hey, hey J'ai des trophées pour lesquels j'ai même pas encore fêté Tes négros s'prennent pas pour d'la merde, ils ont même pas encore pété wouh Donne-moi ma pièce donne-moi ma pièce, salope, descend de ma caisse salope, descend de ma caisse J'a-j'arrive en Benz, j'ai pété deux cent mille, la révolution de la tess yeah Deux négros cannibales, voilà le thème, un million d'euros donc voilà le fame Baggy et bandana à la Wu-Tang, tes gens sont tombés comme Saddam Hussein Dis bonjour au bachelor ou je sors le métal comme Arcelor Là, t'assistes au Real contre Barcelone et mes chaînes sont réelles, mon gars, c'est d'l'or, okay On passe par la window on passe pas la window, on nous a donné l'go grrah, grrah Tou-tou-tou-touh tou-tou-tou-touh, on t'allume dans le dos zoin, zoin On passe par la window on passe pas la window, on nous a donné l'go on nous a donné l'go Tou-tou-tou-touh tou-tou-tou-touh, on t'allume dans le dos on t'allume dans le dos J'ai les amis dans le club j'ai les amis dans le club, on a reçu le dos' zoin, zoin Donné le go tou-tou-tou-touh, tiens-les au mot hey, hey On passe par la window zoin, zoin, ils ont donné le go ils ont donné le go Tou-tou-tou-touh tou-tou-tou-touh, on t'allume dans le dos, on t'allume dans le dos On t'allume dans le dos Ju'-Ju'-Ju'-Ju'-Ju'-Ju'-Ju'</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>C'est comment ? Boy, c'est comment ? Zoin On a des briques de liasses pour ton équipe de 'tasses équipe de 'tasses Zoin, hey On a des briques de liasses zoin pour ton équipe de 'tasses de 'tasses Ils ne sont bons qu'à parler dans le dos, personne nous pique de face personne 4.0.4, c'est du génocide, c'est du sacrifice de masse go Ils cassent les couills à nous jouer les poètes, ça manqu de kick, de bass go On a des armes, tu crois qu'c'est la Play', on a des armes, tu crois qu'c'est la Play' J'l'ai bloquée d'partout, elle m'envoie des mails, j'l'ai bloquée d'partout, elle m'envoie des mails ouh, ah Paire de Nike, jamais de Yeezy, j'le fais comme personne, j'le fais comme J'ai pas de mentor, j'ai pas de Wheezy ouh Devant le canon, tu capiches, gros, mes cicatrices, c'est tout sauf des caprices hey Rien à foutre de la vie d'artiste, on fait ça pour le beurre, pas pour les papiches On le fait comme Machiavel, tes négros sentent la pisse, on les lave à l'eau d'javel ouh On le fait comme Machiavel, j'ai pas besoin d'la voir, elle mouille quand on s'appelle hey, hey On te paye le Uber et tu crois qu'on va causer, il s'agit de doser il s'agit de doser Tu veux nous comparer, entre nous, y a un fossé, il s'agit de doser doser, doser, doser Tu veux nous attaquer mais sur toi, j'ai des dossiers, il s'agit de doser doser, doser, doser You might also like Billets violets, t'as chez toi donc on passe par la window, on t'a déjà dit mmh, mmh, mmh, mmh Avec que des vrais OG, on s'associe mmh, mmh, mmh, mmh Demande à Frene', coffre plein, chargeur vide, personne peut me freiner flingue L'un des meilleurs de la nouvelle géné', ils sont dans l'déni, j'crois qu'ils sont gênés Je serai toujours sur un terrain glissant, tout pour la nation, c'est l'investissement Regarde la haine que j'vais redonner fois mille, j'regarde en face s'il y a rien d'appétissant J'ai mauvaise présage envers l'oligarchie ouh, ouh, ouh Eux, c'est tout pour la frime, ils sont comme dans un film, ils vont finir infirmes, t'hallucines et tu signes, oh shit oh shit On te paye le Uber et tu crois qu'on va causer, il s'agit de doser il s'agit de doser Tu veux nous comparer, entre nous, y a un fossé, il s'agit de doser doser, doser, doser Tu veux nous attaquer mais sur toi, j'ai des dossiers, il s'agit de doser doser, doser, doser Tu veux nous attaquer mais sur toi, j'ai des dossiers, il s'agit de doser doser, doser, doser On te paye le Uber et tu crois qu'on va causer, il s'agit de doser il s'agit de doser Tu veux nous comparer, entre nous, y a un fossé, il s'agit de doser doser, doser, doser Tu veux nous attaquer mais sur toi, j'ai des dossiers, il s'agit de doser doser, doser, doser Tu veux nous attaquer mais sur toi, j'ai des dossiers, il s'agit de doser Les bras, c'est pas du fun fun, tant que y en a, tu run run Fuck les ballons, les bonbonnes hey, oui, mais tu restes au plug wouh J'avance dans la rue, leur sang sur mes vêtements, ils ont cru qu'j'étais blunt okay On n'est pas venus pour se faire des amis, Yakoro n'a pas d'il J'ai l'impression d'dépenser trop d'énergie, je crois qu'j'ai atteint mon plafond wouh On est restés nous-mêmes, on n'a pas menti, on est venus sans invitation zoin T'as l'boulard en lévitation zoin, tu nous fais croire que tu voles ouh En vérité, t'as donné ton abricot, t'as pas décollé du sol il s'agit de doser Tou-tou-tou-tou-touh Tou-tou-tou-tou-touh Ah, ah</t>
+          <t>C'est comment ? Boy, c'est comment ? Zoin On a des briques de liasses pour ton équipe de 'tasses équipe de 'tasses Zoin, hey On a des briques de liasses zoin pour ton équipe de 'tasses de 'tasses Ils ne sont bons qu'à parler dans le dos, personne nous pique de face personne 4.0.4, c'est du génocide, c'est du sacrifice de masse go Ils cassent les couills à nous jouer les poètes, ça manqu de kick, de bass go On a des armes, tu crois qu'c'est la Play', on a des armes, tu crois qu'c'est la Play' J'l'ai bloquée d'partout, elle m'envoie des mails, j'l'ai bloquée d'partout, elle m'envoie des mails ouh, ah Paire de Nike, jamais de Yeezy, j'le fais comme personne, j'le fais comme J'ai pas de mentor, j'ai pas de Wheezy ouh Devant le canon, tu capiches, gros, mes cicatrices, c'est tout sauf des caprices hey Rien à foutre de la vie d'artiste, on fait ça pour le beurre, pas pour les papiches On le fait comme Machiavel, tes négros sentent la pisse, on les lave à l'eau d'javel ouh On le fait comme Machiavel, j'ai pas besoin d'la voir, elle mouille quand on s'appelle hey, hey On te paye le Uber et tu crois qu'on va causer, il s'agit de doser il s'agit de doser Tu veux nous comparer, entre nous, y a un fossé, il s'agit de doser doser, doser, doser Tu veux nous attaquer mais sur toi, j'ai des dossiers, il s'agit de doser doser, doser, doser Billets violets, t'as chez toi donc on passe par la window, on t'a déjà dit mmh, mmh, mmh, mmh Avec que des vrais OG, on s'associe mmh, mmh, mmh, mmh Demande à Frene', coffre plein, chargeur vide, personne peut me freiner flingue L'un des meilleurs de la nouvelle géné', ils sont dans l'déni, j'crois qu'ils sont gênés Je serai toujours sur un terrain glissant, tout pour la nation, c'est l'investissement Regarde la haine que j'vais redonner fois mille, j'regarde en face s'il y a rien d'appétissant J'ai mauvaise présage envers l'oligarchie ouh, ouh, ouh Eux, c'est tout pour la frime, ils sont comme dans un film, ils vont finir infirmes, t'hallucines et tu signes, oh shit oh shit On te paye le Uber et tu crois qu'on va causer, il s'agit de doser il s'agit de doser Tu veux nous comparer, entre nous, y a un fossé, il s'agit de doser doser, doser, doser Tu veux nous attaquer mais sur toi, j'ai des dossiers, il s'agit de doser doser, doser, doser Tu veux nous attaquer mais sur toi, j'ai des dossiers, il s'agit de doser doser, doser, doser On te paye le Uber et tu crois qu'on va causer, il s'agit de doser il s'agit de doser Tu veux nous comparer, entre nous, y a un fossé, il s'agit de doser doser, doser, doser Tu veux nous attaquer mais sur toi, j'ai des dossiers, il s'agit de doser doser, doser, doser Tu veux nous attaquer mais sur toi, j'ai des dossiers, il s'agit de doser Les bras, c'est pas du fun fun, tant que y en a, tu run run Fuck les ballons, les bonbonnes hey, oui, mais tu restes au plug wouh J'avance dans la rue, leur sang sur mes vêtements, ils ont cru qu'j'étais blunt okay On n'est pas venus pour se faire des amis, Yakoro n'a pas d'il J'ai l'impression d'dépenser trop d'énergie, je crois qu'j'ai atteint mon plafond wouh On est restés nous-mêmes, on n'a pas menti, on est venus sans invitation zoin T'as l'boulard en lévitation zoin, tu nous fais croire que tu voles ouh En vérité, t'as donné ton abricot, t'as pas décollé du sol il s'agit de doser Tou-tou-tou-tou-touh Tou-tou-tou-tou-touh Ah, ah</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Depuis ma naissance, j'suis un rebelle, jai pas eu d'laisse J'ai pas eu dlaisse J'ai une tante qui sort de taule des pays d'l'est Fort Répondez pas à mes clashs, ou à mes provocs Ou vous irez chercher du taff, pour nourrir vos gosses Toh! toh! toh! toh! toh! Excès d'flow, j'mets pas d'Stan Smith J'suis en combat contre le diable, la chatte à Sam Smith La chatte! La chatte à Anton... Anton Lavey, la chatte! Mais je sais qujm'écarte du droit chemin chaque fois quje chantonne Petit costard dans immeuble de la taille du Burj Lets go Déter du banlieusards, maintenant j'veux la maille du Bourges Toujours Hier j'les ignorais Fort, aujourd'hui jles défies blow! blow! blow! blow! blow! Hier ils rigolaient, aujourd'hui ils s'méfient Elle veut sentir ma queue, comme dans Baby Boy Ouf C'est pas des vrais hommes, c'est des faux G, des Lady boy Faux G Ils ont aucun principe, même dans leurs binks ont des idoles Laisse-les...Laisse-les même si j'deviens blindé, j'les laisse au sol On est beaucoup comme le Wu Wu! Wu! Wu! Wu! Wu! L'argent pourrit les gens, j'deviens plus noir à chaque sous A chaque billet Je suis navré, si tu pensais faire l'buzz Orh... Dans l'iPhone j'ai des culs d'meufs que tu pensais sérieuses Orh... Le racisme n'existe plus, m'a-t'on dit hier Alors pourquoi les putes renoies coûtent moins cher Pourquoi? J'fait l'effet, d'un feneu 2M Toh! toh! J'ai l'flow de Em' Toh!, t'as l'flow de M En mode Amin Dada, le dernier roi d'Écosse Dictateur Ils trouvent le rap violent mais dans leur sphère ça viole des gosses Ah, Ah Des fois j'me sens saint, des fois en p'tite colère Des fois j'me sens bien, des fois j'me sens bipolaire Comme Kayne Descendant de Nipsey, descendant de Pimp C Pimp C Humain froid, descendant de Grizzly Laisse-nous écrire l'histoire Go!, t'inquiète on t'racontera Go! En attendant, baisse ton string Go!, va signer des contrats En maison d'disque ils connaissent rien, ils font mal leur job Un jour un mec d'universal m'a dit l'futur c'est Tengo John Damn... L'être humain est dans l'déni, j'ai vu ça Pour être croyant, ils attendent de voir Jésus à travers L'Juda Mon combat au-d'ssus d'l'argent, fuck signer des big deals Toujours en mode Big Drip, depuis l'époque du Bigdil On rends des comptes à personne, on s'autorise à fond Tant qu'il y a Franc CFA, y'a colonisation Zoin. Okay kay kay You might also like Hey salope, avoir un vrai G, c'est c'que j'te propose Pendant qu'ton boug, va regarder Barbie habillée en rose J'ai ton rappeur préféré dans chaque doigts</t>
+          <t>Depuis ma naissance, j'suis un rebelle, jai pas eu d'laisse J'ai pas eu dlaisse J'ai une tante qui sort de taule des pays d'l'est Fort Répondez pas à mes clashs, ou à mes provocs Ou vous irez chercher du taff, pour nourrir vos gosses Toh! toh! toh! toh! toh! Excès d'flow, j'mets pas d'Stan Smith J'suis en combat contre le diable, la chatte à Sam Smith La chatte! La chatte à Anton... Anton Lavey, la chatte! Mais je sais qujm'écarte du droit chemin chaque fois quje chantonne Petit costard dans immeuble de la taille du Burj Lets go Déter du banlieusards, maintenant j'veux la maille du Bourges Toujours Hier j'les ignorais Fort, aujourd'hui jles défies blow! blow! blow! blow! blow! Hier ils rigolaient, aujourd'hui ils s'méfient Elle veut sentir ma queue, comme dans Baby Boy Ouf C'est pas des vrais hommes, c'est des faux G, des Lady boy Faux G Ils ont aucun principe, même dans leurs binks ont des idoles Laisse-les...Laisse-les même si j'deviens blindé, j'les laisse au sol On est beaucoup comme le Wu Wu! Wu! Wu! Wu! Wu! L'argent pourrit les gens, j'deviens plus noir à chaque sous A chaque billet Je suis navré, si tu pensais faire l'buzz Orh... Dans l'iPhone j'ai des culs d'meufs que tu pensais sérieuses Orh... Le racisme n'existe plus, m'a-t'on dit hier Alors pourquoi les putes renoies coûtent moins cher Pourquoi? J'fait l'effet, d'un feneu 2M Toh! toh! J'ai l'flow de Em' Toh!, t'as l'flow de M En mode Amin Dada, le dernier roi d'Écosse Dictateur Ils trouvent le rap violent mais dans leur sphère ça viole des gosses Ah, Ah Des fois j'me sens saint, des fois en p'tite colère Des fois j'me sens bien, des fois j'me sens bipolaire Comme Kayne Descendant de Nipsey, descendant de Pimp C Pimp C Humain froid, descendant de Grizzly Laisse-nous écrire l'histoire Go!, t'inquiète on t'racontera Go! En attendant, baisse ton string Go!, va signer des contrats En maison d'disque ils connaissent rien, ils font mal leur job Un jour un mec d'universal m'a dit l'futur c'est Tengo John Damn... L'être humain est dans l'déni, j'ai vu ça Pour être croyant, ils attendent de voir Jésus à travers L'Juda Mon combat au-d'ssus d'l'argent, fuck signer des big deals Toujours en mode Big Drip, depuis l'époque du Bigdil On rends des comptes à personne, on s'autorise à fond Tant qu'il y a Franc CFA, y'a colonisation Zoin. Okay kay kay Hey salope, avoir un vrai G, c'est c'que j'te propose Pendant qu'ton boug, va regarder Barbie habillée en rose J'ai ton rappeur préféré dans chaque doigts</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tou-tou-tou-touh Zoin J'ai ouvert les yeux, avant d'ouvrir mes cahiers Pas du genre à m'apitoyer, le type est vrai mais j'ai personne à qui parler On connait l'huissier, les retards de loyers, poto, c'est pour ça qu'c'est trop tôt pour festoyer Une fois que j'aurai franchi ligne d'arrivée, on sera toujours ensemble ou du moins, c'est c'qu'on croyait Devant les défaites, faut jamais renoncer, t'es là par intérêt, j'vais jamais t'relancer Ils disent que j'vndrai pas parce que j'fais pas danser, donn-toi les moyens car personne va t'lancer Té-ma mes blessures, j'ai enlevé mes pansements et tout ça, c'est bien plus que du rap Jamais j'oublierai ces traîtres, ma première liasse, ma première chatte On est des sauvages, on est plus d'21, 24 sur 24, j'suis sur mon 31, j'aime pas les vicelards et c'est sûr qu't'en es un Plus le temps passe et plus mes canines sont longues, j'vais t'attraper par la gorge T'as déjà checké ton tueur, fréquenté celui qui va t'envoyer à la morgue C'qui nourrit ma peine, c'est que ma p'tite fille va devoir grandir dans c'monde C'qui nourrit ma haine, c'est qu'j'vais mourir et laisser mes ennemis dans c'monde fort J'aime bien dominer, j'aime me sentir puissant, j'ai le syndrome du mal La mort peut faire du bien toujours, l'amour peut faire du mal toujours, zoin J't'allume comme King Von et le soir même, j'm'endors au Hilton Chez nous, c'est Rio, c'est Kingston, R.V.R.E quand ces bâtards me questionnent Avec nous ne fais pas trop de caprices, j't'écoute as-p, gros, t'es comme l'éducatrice C'est nous les kings, gros, les Capo de Capi, toujours sanglant quand mes bavons décapitent gang, gang, gang J'aime quand on ressent la violence, j'aime quand on ressent la violence j'aime, j'aime Pas d'hypocrites, pas d'accolades, ils ont pas d'équipe, c'est des nomades J'aime quand on ressent la violence, j'aime quand on ressent la violence j'aime, j'aime Y a plus d'retour à la normale, c'est chacun pour soi comme au goulag hey, hey Nous c'est du vrai oui, c'est pas la WWE, si jamais tu le fais, on le fait mieux, le rap est mort, poto, on le fait re Ammu Nation, l'endroit du shooping, le flingue fait partie d'la tenue Alors les fratés, qu'est-ce qui vous arrive ? Vous avez pas l'air contents de ma venue eh, eh, zoin zoin, zoinYou might also like</t>
+          <t>Tou-tou-tou-touh Zoin J'ai ouvert les yeux, avant d'ouvrir mes cahiers Pas du genre à m'apitoyer, le type est vrai mais j'ai personne à qui parler On connait l'huissier, les retards de loyers, poto, c'est pour ça qu'c'est trop tôt pour festoyer Une fois que j'aurai franchi ligne d'arrivée, on sera toujours ensemble ou du moins, c'est c'qu'on croyait Devant les défaites, faut jamais renoncer, t'es là par intérêt, j'vais jamais t'relancer Ils disent que j'vndrai pas parce que j'fais pas danser, donn-toi les moyens car personne va t'lancer Té-ma mes blessures, j'ai enlevé mes pansements et tout ça, c'est bien plus que du rap Jamais j'oublierai ces traîtres, ma première liasse, ma première chatte On est des sauvages, on est plus d'21, 24 sur 24, j'suis sur mon 31, j'aime pas les vicelards et c'est sûr qu't'en es un Plus le temps passe et plus mes canines sont longues, j'vais t'attraper par la gorge T'as déjà checké ton tueur, fréquenté celui qui va t'envoyer à la morgue C'qui nourrit ma peine, c'est que ma p'tite fille va devoir grandir dans c'monde C'qui nourrit ma haine, c'est qu'j'vais mourir et laisser mes ennemis dans c'monde fort J'aime bien dominer, j'aime me sentir puissant, j'ai le syndrome du mal La mort peut faire du bien toujours, l'amour peut faire du mal toujours, zoin J't'allume comme King Von et le soir même, j'm'endors au Hilton Chez nous, c'est Rio, c'est Kingston, R.V.R.E quand ces bâtards me questionnent Avec nous ne fais pas trop de caprices, j't'écoute as-p, gros, t'es comme l'éducatrice C'est nous les kings, gros, les Capo de Capi, toujours sanglant quand mes bavons décapitent gang, gang, gang J'aime quand on ressent la violence, j'aime quand on ressent la violence j'aime, j'aime Pas d'hypocrites, pas d'accolades, ils ont pas d'équipe, c'est des nomades J'aime quand on ressent la violence, j'aime quand on ressent la violence j'aime, j'aime Y a plus d'retour à la normale, c'est chacun pour soi comme au goulag hey, hey Nous c'est du vrai oui, c'est pas la WWE, si jamais tu le fais, on le fait mieux, le rap est mort, poto, on le fait re Ammu Nation, l'endroit du shooping, le flingue fait partie d'la tenue Alors les fratés, qu'est-ce qui vous arrive ? Vous avez pas l'air contents de ma venue eh, eh, zoin zoin, zoin</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>On traîne pas avec les footeux, on les rackette comme négros douteux Ici, que des Z puissants, j'pourrais t'faire un gosse même en ménopause Ma putain de carrière s'ra longue, je vais tous les baiser sans mettre en pause C'est la brigade anti-snitch, plein de frères tombent quand t'ouvres ton gosier J'vais faire pleurer ton baby car je vais te buter comme mère de Bambi bang, bang Dans sombres rêves les plus fous, mon ciel est bleu comme la mer des Antilles On n'est jamais vraiment prudent, déjà petit, j'avais l'arme dans mon cosy J'ai le seul vu d'être unique, j'vais mettre sur la touche tous mes sosies Je n'ai pas d'plan B, j'suis toujours Anti, j'crois qu'tu l'as senti J'te l'dis, j'fais des incendies, j'traîne avec OG, c'est mon seul hobby On s'aime, c'est toujours précis, j'te sors d'la té-ci si je t'apprécie Ok, j'bois de l'Hennessy, pleine est ma vessie, j'suis le grand Messie Trop d'offres woh, woh, j'prends note yeah, yeah Ok woh, woh, ok yeah, yeah Trop d'offres woh, woh, j'prends note yeah, yeah Ok woh, woh, ok woh Tu vas t'déplacer pour ta dose, je suis engagé pour la cause Peser dans l'game comme Mr Jones, nous, on charbonne jusqu'à l'aube Négro, pause, faudrait qu'tu suces avant qu'j'explose Comme toi, j'ai des problèmes mais mes soucis perso' jamais j'expose L'objectif, c'est d'faire du business, j'suis dans le labo comme scientifique Toujours un esprit d'tristesse quand j'pense à l'Afrique, à l'Égypte Antique Deux personnages comme Batman, mon flow vient de la savane Ils ont la bouche ouverte comme Pacman, j'suis engagé comme Tracy Chapman You might also like Je n'ai pas d'plan B, j'suis toujours Anti, j'crois qu'tu l'as senti J'te l'dis, j'fais des incendies, j'traîne avec OG, c'est mon seul hobby On s'aime, c'est toujours précis, j'te sors d'la té-ci si je t'apprécie Ok, j'bois de l'Hennessy, pleine est ma vessie, j'suis le grand Messie Trop d'offres woh, woh, j'prends note yeah, yeah Ok woh, woh, ok yeah, yeah Trop d'offres woh, woh, j'prends note yeah, yeah Ok woh, woh, ok woh</t>
+          <t>On traîne pas avec les footeux, on les rackette comme négros douteux Ici, que des Z puissants, j'pourrais t'faire un gosse même en ménopause Ma putain de carrière s'ra longue, je vais tous les baiser sans mettre en pause C'est la brigade anti-snitch, plein de frères tombent quand t'ouvres ton gosier J'vais faire pleurer ton baby car je vais te buter comme mère de Bambi bang, bang Dans sombres rêves les plus fous, mon ciel est bleu comme la mer des Antilles On n'est jamais vraiment prudent, déjà petit, j'avais l'arme dans mon cosy J'ai le seul vu d'être unique, j'vais mettre sur la touche tous mes sosies Je n'ai pas d'plan B, j'suis toujours Anti, j'crois qu'tu l'as senti J'te l'dis, j'fais des incendies, j'traîne avec OG, c'est mon seul hobby On s'aime, c'est toujours précis, j'te sors d'la té-ci si je t'apprécie Ok, j'bois de l'Hennessy, pleine est ma vessie, j'suis le grand Messie Trop d'offres woh, woh, j'prends note yeah, yeah Ok woh, woh, ok yeah, yeah Trop d'offres woh, woh, j'prends note yeah, yeah Ok woh, woh, ok woh Tu vas t'déplacer pour ta dose, je suis engagé pour la cause Peser dans l'game comme Mr Jones, nous, on charbonne jusqu'à l'aube Négro, pause, faudrait qu'tu suces avant qu'j'explose Comme toi, j'ai des problèmes mais mes soucis perso' jamais j'expose L'objectif, c'est d'faire du business, j'suis dans le labo comme scientifique Toujours un esprit d'tristesse quand j'pense à l'Afrique, à l'Égypte Antique Deux personnages comme Batman, mon flow vient de la savane Ils ont la bouche ouverte comme Pacman, j'suis engagé comme Tracy Chapman Je n'ai pas d'plan B, j'suis toujours Anti, j'crois qu'tu l'as senti J'te l'dis, j'fais des incendies, j'traîne avec OG, c'est mon seul hobby On s'aime, c'est toujours précis, j'te sors d'la té-ci si je t'apprécie Ok, j'bois de l'Hennessy, pleine est ma vessie, j'suis le grand Messie Trop d'offres woh, woh, j'prends note yeah, yeah Ok woh, woh, ok yeah, yeah Trop d'offres woh, woh, j'prends note yeah, yeah Ok woh, woh, ok woh</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Savent pas c'est quoi le dark 404, le vrai dark Zoin Brah Culture Il ne viennent pas d'chez nous, et se sentent obligés d'raconter nos vies 404 Suffit d'un 9 double M, pour éliminer un Kenobi tou-tou-tou-touh J'te souhaite la bienvenue, dans un univers sombre et sans mélodies C'est d'la trap, fils de pute, tu r'connais l'OG Ton vécu est faux comme la mythologie On vis des mauvais jours, pour vivre tranquille putain faut un pass t'as vu ça ? On va t'choper un jour, à la nuit tomber bloqué dans l'impasse, tiens, tiens, tiens Arrête de débattre, putain, rend pas les choses si compliquées, fais pas ça J'connais ton appart', wesh, mes potos bresom t'ont fliqué Suceurs d'aujourd'hui sont les critiques d'hier, j'm'en bat les couilles des suceurs T'es d'la Nation consomme ta meilleure bière et profite du spectacle Le style est macabre et les plus fous d'entre vous m'acclame mais vous êtes des baisés vous êtes des baisés J'le fais pour voyous et enfants aisés, aussi, okay oh shit, oh shit, oh shit Chez nous personnes n'a d'capes, no cap Personne va t'sauver tu captes Chez nous personnes n'a d'capes, no cap Personne va t'sauver tu captes You might also like Petit bouffon petit bouffon, c'est dark, c'est dark woah comme vendredi 13 à Crystal Lake Jason Ta carrière en fin d'vie mais rien qu'tu survies comme Elisabeth wouh Hey, Uzi mode, OG mode, pour faire travaux outil mode brah, brah Négro j'suis toujours aux antipodes de ces pétasses j'ai les billy codes J'ai des tonnes de cadavres enterrés dans l'jardin, c'est pour mon plaisir j'suis un gamin Vaut mieux faire tapis que d'faire le tapin, j'ai retourné cette putain comme Papin tiens Des types solides ont péri, j'sais pas comment ces pédales sont en vie comment ça s'fait Tu mérites d'être dans un cercueil avec les fourmis J'fais une fixette sur les VVS Il m'en faut, trop gang Il m'en faut, trop gang Il m'en faut, trop gang J'fais une fixette sur les VVS Il m'en faut, trop gang Il m'en faut, trop gang Il m'en faut, trop gang Toute ton équipe a la corde au coup, j'crois pas qu'il en reste encore beaucoup nan Y'a pas qu'un cercueil, v'là les corps dans l'trou ouais Y'a plus d'issue, on est fort dans tout ok Regarde dans l'illeton, on est cent On aime le sang d'puis adolescents Tu m'écoute et tu crois qu't'es inconscient J'utilise pas mon don à bon escient Chez nous personnes n'a d'capes, no cap Personne va t'sauver tu captes tu captes ? Chez nous personnes n'a d'capes, no cap Personne va t'sauver tu captes Uzi mode, OG mode, pour faire travaux outil mode Négro j'suis toujours aux antipodes de ces pétasses j'ai les billy codes Chez nous personnes n'a d'capes, no cap Personne va t'sauver tu captes t'as capté ? Chez nous personnes n'a d'capes, no cap Personne va t'sauver tu captes tu captes ? Uzi mode, OG mode, pour faire travaux outil mode Négro j'suis toujours aux antipodes de ces pétasses j'ai les billy codes1</t>
+          <t>Savent pas c'est quoi le dark 404, le vrai dark Zoin Brah Culture Il ne viennent pas d'chez nous, et se sentent obligés d'raconter nos vies 404 Suffit d'un 9 double M, pour éliminer un Kenobi tou-tou-tou-touh J'te souhaite la bienvenue, dans un univers sombre et sans mélodies C'est d'la trap, fils de pute, tu r'connais l'OG Ton vécu est faux comme la mythologie On vis des mauvais jours, pour vivre tranquille putain faut un pass t'as vu ça ? On va t'choper un jour, à la nuit tomber bloqué dans l'impasse, tiens, tiens, tiens Arrête de débattre, putain, rend pas les choses si compliquées, fais pas ça J'connais ton appart', wesh, mes potos bresom t'ont fliqué Suceurs d'aujourd'hui sont les critiques d'hier, j'm'en bat les couilles des suceurs T'es d'la Nation consomme ta meilleure bière et profite du spectacle Le style est macabre et les plus fous d'entre vous m'acclame mais vous êtes des baisés vous êtes des baisés J'le fais pour voyous et enfants aisés, aussi, okay oh shit, oh shit, oh shit Chez nous personnes n'a d'capes, no cap Personne va t'sauver tu captes Chez nous personnes n'a d'capes, no cap Personne va t'sauver tu captes Petit bouffon petit bouffon, c'est dark, c'est dark woah comme vendredi 13 à Crystal Lake Jason Ta carrière en fin d'vie mais rien qu'tu survies comme Elisabeth wouh Hey, Uzi mode, OG mode, pour faire travaux outil mode brah, brah Négro j'suis toujours aux antipodes de ces pétasses j'ai les billy codes J'ai des tonnes de cadavres enterrés dans l'jardin, c'est pour mon plaisir j'suis un gamin Vaut mieux faire tapis que d'faire le tapin, j'ai retourné cette putain comme Papin tiens Des types solides ont péri, j'sais pas comment ces pédales sont en vie comment ça s'fait Tu mérites d'être dans un cercueil avec les fourmis J'fais une fixette sur les VVS Il m'en faut, trop gang Il m'en faut, trop gang Il m'en faut, trop gang J'fais une fixette sur les VVS Il m'en faut, trop gang Il m'en faut, trop gang Il m'en faut, trop gang Toute ton équipe a la corde au coup, j'crois pas qu'il en reste encore beaucoup nan Y'a pas qu'un cercueil, v'là les corps dans l'trou ouais Y'a plus d'issue, on est fort dans tout ok Regarde dans l'illeton, on est cent On aime le sang d'puis adolescents Tu m'écoute et tu crois qu't'es inconscient J'utilise pas mon don à bon escient Chez nous personnes n'a d'capes, no cap Personne va t'sauver tu captes tu captes ? Chez nous personnes n'a d'capes, no cap Personne va t'sauver tu captes Uzi mode, OG mode, pour faire travaux outil mode Négro j'suis toujours aux antipodes de ces pétasses j'ai les billy codes Chez nous personnes n'a d'capes, no cap Personne va t'sauver tu captes t'as capté ? Chez nous personnes n'a d'capes, no cap Personne va t'sauver tu captes tu captes ? Uzi mode, OG mode, pour faire travaux outil mode Négro j'suis toujours aux antipodes de ces pétasses j'ai les billy codes1</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Focus Beatz J'veux ma AP au poignet, flow, tout est soigné, doigt d'honneur au douanier J'vais franchir tous les paliers, fleur du mal ont fané, j'recompte c'que j'ai gagné Hôtel Hilton, paire d'Hilton, j'en fais des tonnes yeah, yeah Sans te mythonne, si t'es pas bonne, j'te Louis Vuitonne j'te Louis Vuitonne J'ai grandi parmi les Hommes, rien ne m'étonne plus rien, plus rien Tout pour la com' au lieu de vivre, j'suis sur mon 'phone allô ? Mais j'vais leur faire payer l'prix, le flingue n'est plus dans l'étui eh Boy, c'que j'te raconte, c'est ce qu'on vit, eh, devant son mari, j'la lève en i, eh J'préfère crever que de vivre dans l'oubli, eh, deux-trois pétasses dans la tchop, allez hop, stop zoin Me faire pas croire qu'mon destin est dans l'horoscope J'ai vécu rempli rempli de fausses notes, nuits au poste J'peux pas repost trop de salopes, faut qu'je trie non-stop Me mets pas de barrière, précis dans mes affaires J'commence sur le corner, j'finis dans ton derrière J'veux ma AP au poignet, flow, tout est soigné, doigt d'honneur au douanier J'vais franchir tous les paliers, fleur du mal ont fané, j'recompte c'que j'ai gagné Tout est soigné, j'veux AP au poignet, doigt d'honneur au douanier Tout est carré, j'franchis tous les paliers, j'recompte c'que j'ai gagné You might also like Sombre est l'homme pour des sommes, Smith Wesson piou, piou Tous les chemins mènent à Rome ou dans ton rectum dans ton rectum Maman est fière, j'lui ai promis que des merveilles, hey, hey Dans mon king bed sur l'océan, je me réveille, hey, hey Jouer mon rôle, j'ai fait c'qu'il fallait, j'suis plutôt discret donc j'fais les choses sans parler no, no Après la rre-gue, j'pourrai enfin m'en aller au revoir Ils veulent pas qu'j'm'en sorte, ils n'aiment pas mon franc-parler fuck you Ils sont dus-per, moi, j'suis mleh pas de boss, pas d'horaire, tout est lég' Six pieds sous terre j'finirai, me suis pas où je vais, marche arrière, j'te vois du ciel de tout là-haut Me mets pas de barrière, précis dans mes affaires J'commence sur le corner, j'finis dans ton derrière J'veux ma AP au poignet, flow, tout est soigné, doigt d'honneur au douanier J'vais franchir tous les paliers, fleur du mal ont fané, j'recompte c'que j'ai gagné Tout est soigné, j'veux AP au poignet, doigt d'honneur au douanier Tout est carré, j'franchis tous les paliers, j'recompte c'que j'ai gagné</t>
+          <t>Focus Beatz J'veux ma AP au poignet, flow, tout est soigné, doigt d'honneur au douanier J'vais franchir tous les paliers, fleur du mal ont fané, j'recompte c'que j'ai gagné Hôtel Hilton, paire d'Hilton, j'en fais des tonnes yeah, yeah Sans te mythonne, si t'es pas bonne, j'te Louis Vuitonne j'te Louis Vuitonne J'ai grandi parmi les Hommes, rien ne m'étonne plus rien, plus rien Tout pour la com' au lieu de vivre, j'suis sur mon 'phone allô ? Mais j'vais leur faire payer l'prix, le flingue n'est plus dans l'étui eh Boy, c'que j'te raconte, c'est ce qu'on vit, eh, devant son mari, j'la lève en i, eh J'préfère crever que de vivre dans l'oubli, eh, deux-trois pétasses dans la tchop, allez hop, stop zoin Me faire pas croire qu'mon destin est dans l'horoscope J'ai vécu rempli rempli de fausses notes, nuits au poste J'peux pas repost trop de salopes, faut qu'je trie non-stop Me mets pas de barrière, précis dans mes affaires J'commence sur le corner, j'finis dans ton derrière J'veux ma AP au poignet, flow, tout est soigné, doigt d'honneur au douanier J'vais franchir tous les paliers, fleur du mal ont fané, j'recompte c'que j'ai gagné Tout est soigné, j'veux AP au poignet, doigt d'honneur au douanier Tout est carré, j'franchis tous les paliers, j'recompte c'que j'ai gagné Sombre est l'homme pour des sommes, Smith Wesson piou, piou Tous les chemins mènent à Rome ou dans ton rectum dans ton rectum Maman est fière, j'lui ai promis que des merveilles, hey, hey Dans mon king bed sur l'océan, je me réveille, hey, hey Jouer mon rôle, j'ai fait c'qu'il fallait, j'suis plutôt discret donc j'fais les choses sans parler no, no Après la rre-gue, j'pourrai enfin m'en aller au revoir Ils veulent pas qu'j'm'en sorte, ils n'aiment pas mon franc-parler fuck you Ils sont dus-per, moi, j'suis mleh pas de boss, pas d'horaire, tout est lég' Six pieds sous terre j'finirai, me suis pas où je vais, marche arrière, j'te vois du ciel de tout là-haut Me mets pas de barrière, précis dans mes affaires J'commence sur le corner, j'finis dans ton derrière J'veux ma AP au poignet, flow, tout est soigné, doigt d'honneur au douanier J'vais franchir tous les paliers, fleur du mal ont fané, j'recompte c'que j'ai gagné Tout est soigné, j'veux AP au poignet, doigt d'honneur au douanier Tout est carré, j'franchis tous les paliers, j'recompte c'que j'ai gagné</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>404 Hey J'vais baiser des chanteuses de la variét', genre les starlettes Nous, on parle en wesh, à quarante dans la charrette, fuck le paraître fuck J'vais t'baiser ta race ou ton groupe ethnique hey Le fait qu'elle m'suce la première fois trop bien, ça m'rend trop sceptique bizarre Tu m'appelles pour d'mander service mais j'te rappelle que tu manques à l'appel quand j'te demande service allô ? Malgré tous mes efforts, j'ai l'impression qu'le problème persiste Une de perdue, dix de retrouvées, j'en baise soixante quand j'en perds six J'suis endormi dans le cockpit, on va s'crasher, on est morbides Plus de totem, plus de collègue, plus de biff, plus de titre Que des racistes hypocrites dans l'élite, pas de mythe Que du réel, que du vrai, pas d'ami, que du bus' Y a peu d'artistes, que du buzz, 404 erreur, j'suis le bug Vu du ciel, je les vois se mentir, se trahir, se haïr, se nuire À part Dieu, pas de Seigneur, c'est l'heure de les saigner Y a pas d'erreur sauf moiYou might also like</t>
+          <t>404 Hey J'vais baiser des chanteuses de la variét', genre les starlettes Nous, on parle en wesh, à quarante dans la charrette, fuck le paraître fuck J'vais t'baiser ta race ou ton groupe ethnique hey Le fait qu'elle m'suce la première fois trop bien, ça m'rend trop sceptique bizarre Tu m'appelles pour d'mander service mais j'te rappelle que tu manques à l'appel quand j'te demande service allô ? Malgré tous mes efforts, j'ai l'impression qu'le problème persiste Une de perdue, dix de retrouvées, j'en baise soixante quand j'en perds six J'suis endormi dans le cockpit, on va s'crasher, on est morbides Plus de totem, plus de collègue, plus de biff, plus de titre Que des racistes hypocrites dans l'élite, pas de mythe Que du réel, que du vrai, pas d'ami, que du bus' Y a peu d'artistes, que du buzz, 404 erreur, j'suis le bug Vu du ciel, je les vois se mentir, se trahir, se haïr, se nuire À part Dieu, pas de Seigneur, c'est l'heure de les saigner Y a pas d'erreur sauf moi</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Monsieur triple A authenticité, art, argent Car c'est tout c'qu'il a Monsieur triple A authenticité, art, argent Car c'est tout c'qu'il a Zoin Bienvenue dans mon monde, là où il n'y a plus d'humanité Là où l'mensonge et lhypocrisie font l'unanimité Là où tous les ignorants se complètent et s'idéalisent Là où l'cauchemar d'MLK se réalise Voici le monde où tout l'monde s'croit éternel, là où le ciel nous tourne le dos parce que l'humain préfère s'perdre On souffre tellement, j'peux pas dire c'que j'ai vu Là où les rappeurs blasphèment mais portent la couronne de Jésus Où tu bosses comme dix pour en valoir deux-trois Là où les racistes dans l'rap sont un Cheval de Troie yeah Là où tout l'monde a un surplus d'informations Mon voisin du haut est muslim, c'lui d'en bas est franc-maçon C'est la folie n'est-ce-pas ? Là où tu t'fais assassiner par un keuf à dix-sept ans Où tout l'monde surfe sur ta mort pour jouer les dissidents Où des stars snappent avec ta mère pour prouver qu'ils sont là S'affichent fièrement avec ta mère sous l'bras Bienvenue dans mon monde, j'espère qu'le tien est mieux R.I.P Là où on m'traite d'homophobe par c'que j'veux pas suivre leur courant Là où on m'traite de nazi parce que j'dis c'qu'il y a dans l'Coran Vous reprochez aux p'tits d'brûler en bas d'chez eux Le cul sur l'canapé à envoyer des tweets J'ai une question êtes-vous sincères ? Les esclaves critiquent les révolutionnaires Là où les hommes se pendent, là où les hommes se rendent Là où les hommes s'achètent, là où les hommes se vendent La politesse s'demande plus, maintenant les balles s'échangent Pourquoi les p'tits se vengent ? La police tue du monde Bien-pensance hypocrite de la gauche Le racisme dégueulasse de la droite Si tu supportes un des deux, t'es un suiveur J'suis pour la pensée libre, j'suis pas des leurs Mélenchon, Zemmour ne qu'sont qu'des Geppetto La gauche essaye encore d'amadouer les ghettos J'aimerais que les nôtres réfléchissent des fois Pour eux, nous sommes que des chiffres, des voix des chiffres, des voix, des chiffres, des voix Dites à Nina Simone que j'vois toujours cet étrange fruit suspendu à l'arbre Mais maintenant, il n'est plus ensanglanté Il a d'l'argent donc ça l'dérange plus d'être pendu devant eux Et de mourir à petit feu sous leurs yeux Un des nôtres qui vend d'la drogue, c'est tolérance zéro Lassassinat d'un p'tit Arabe vaut un million d'euros Mais personne n'échappe à Dieu personne, personne You might also like Ô pécheur, où vas-tu te réfugier ? Pécheur, où vas-tu te réfugier ? Tu d'mandes au rocher d'te cacher Mais il refuse Car tu as tué ce jeune Tu as tué ce jeune Tu as tué ce jeune Tu as tué ce jeune Et tu l'ressens dans ta poitrine Chaque fois que le soleil se lève et se couche Fuck ton insigne</t>
+          <t>Monsieur triple A authenticité, art, argent Car c'est tout c'qu'il a Monsieur triple A authenticité, art, argent Car c'est tout c'qu'il a Zoin Bienvenue dans mon monde, là où il n'y a plus d'humanité Là où l'mensonge et lhypocrisie font l'unanimité Là où tous les ignorants se complètent et s'idéalisent Là où l'cauchemar d'MLK se réalise Voici le monde où tout l'monde s'croit éternel, là où le ciel nous tourne le dos parce que l'humain préfère s'perdre On souffre tellement, j'peux pas dire c'que j'ai vu Là où les rappeurs blasphèment mais portent la couronne de Jésus Où tu bosses comme dix pour en valoir deux-trois Là où les racistes dans l'rap sont un Cheval de Troie yeah Là où tout l'monde a un surplus d'informations Mon voisin du haut est muslim, c'lui d'en bas est franc-maçon C'est la folie n'est-ce-pas ? Là où tu t'fais assassiner par un keuf à dix-sept ans Où tout l'monde surfe sur ta mort pour jouer les dissidents Où des stars snappent avec ta mère pour prouver qu'ils sont là S'affichent fièrement avec ta mère sous l'bras Bienvenue dans mon monde, j'espère qu'le tien est mieux R.I.P Là où on m'traite d'homophobe par c'que j'veux pas suivre leur courant Là où on m'traite de nazi parce que j'dis c'qu'il y a dans l'Coran Vous reprochez aux p'tits d'brûler en bas d'chez eux Le cul sur l'canapé à envoyer des tweets J'ai une question êtes-vous sincères ? Les esclaves critiquent les révolutionnaires Là où les hommes se pendent, là où les hommes se rendent Là où les hommes s'achètent, là où les hommes se vendent La politesse s'demande plus, maintenant les balles s'échangent Pourquoi les p'tits se vengent ? La police tue du monde Bien-pensance hypocrite de la gauche Le racisme dégueulasse de la droite Si tu supportes un des deux, t'es un suiveur J'suis pour la pensée libre, j'suis pas des leurs Mélenchon, Zemmour ne qu'sont qu'des Geppetto La gauche essaye encore d'amadouer les ghettos J'aimerais que les nôtres réfléchissent des fois Pour eux, nous sommes que des chiffres, des voix des chiffres, des voix, des chiffres, des voix Dites à Nina Simone que j'vois toujours cet étrange fruit suspendu à l'arbre Mais maintenant, il n'est plus ensanglanté Il a d'l'argent donc ça l'dérange plus d'être pendu devant eux Et de mourir à petit feu sous leurs yeux Un des nôtres qui vend d'la drogue, c'est tolérance zéro Lassassinat d'un p'tit Arabe vaut un million d'euros Mais personne n'échappe à Dieu personne, personne Ô pécheur, où vas-tu te réfugier ? Pécheur, où vas-tu te réfugier ? Tu d'mandes au rocher d'te cacher Mais il refuse Car tu as tué ce jeune Tu as tué ce jeune Tu as tué ce jeune Tu as tué ce jeune Et tu l'ressens dans ta poitrine Chaque fois que le soleil se lève et se couche Fuck ton insigne</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>J'écris ma peine sur mon Azerty, Azerty J'n'écoute pas tes conseils, tes conseils J'écris ma peine sur mon Azerty, Azerty J'n'écoute pas tes conseils, tes conseils J'écris ma peine sur mon Azerty J'ai rien à faire dans mon cercueil dose, dose On a besoin d'aide, même pour s'faire seul Je suis borné je suis borné Je ne connais rien d'la vie comme un mort-né chiche J'suis étonné j'suis étonné J'ai perdu mon âme quand je dormais L'enfer affiche complet, à part la mort, rien de concret J'aime quand elle jouit, j'vais la sampler bang J'aimerais y voir plus clair dose Soleil et Lune sont mes seules lumières Unique comme l'amour d'une mère yeah C'est le plus fier qui perd yeah Hey, 404, que des challengers que des challengers, que des challengers Le sexe est long et ta sur en pleure Le diable propose des prix mirobolants ouh J'suis sur le siège passager, pendant qu'la Faucheuse est au volant dose J'écris ma peine sur mon Azerty, Azerty yeah J'n'écoute pas tes conseils, tes conseils J'écris ma peine sur mon Azerty, Azerty J'n'écoute pas tes conseils, tes conseils Les erreurs de la vie m'ont servi, m'ont servi J'n'écoute pas tes conseils, tes conseils J'écris ma peine sur mon Azerty, Azerty J'n'écoute pas tes conseils, tes conseils J'écris ma peine sur mon Azerty, Azerty J'n'écoute pas tes conseils, tes conseils J'écris ma peine sur mon Azerty, Azerty You might also like À tous les frères qui n'croient pas en moi fuck Vous savez quoi ? Crucifiez-moi sur une croix en bois hey Il n'y a que des proches qui sont haters Marginal, j'suis pas dans les murs nan Les jeunes de cité sont devant les halls Les politiques sont derrière les meurtres Qui préfère l'honneur que les billets mauves ? Dis-moi nan, négro, dis-moi Si je survis, c'est pour plier l'autre Si je survis, c'est pour plier l'autre Combien de négros, pour un billet, signent ? Pour eux, pour eux, je n'ai pas d'estime Ma race et ma couleur qu'on piétine Au Congo, aussi pire qu'en Palestine Toujours à la recherche d'humilité hey, hey Pendant que mes joues sentent l'humidité 2.0.1.8., trop tard pour militer trop tard On l'a mérité J'écris ma peine sur mon Azerty, Azerty J'n'écoute pas tes conseils, tes conseils J'écris ma peine sur mon Azerty, Azerty J'n'écoute pas tes conseils, tes conseils Les erreurs de la vie m'ont servi, m'ont servi J'n'écoute pas tes conseils, tes conseils J'écris ma peine sur mon Azerty, Azerty J'n'écoute pas tes conseils, tes conseils J'écris ma peine sur mon Azerty, Azerty J'n'écoute pas tes conseils, tes conseils J'écris ma peine sur mon Azerty, Azerty1</t>
+          <t>J'écris ma peine sur mon Azerty, Azerty J'n'écoute pas tes conseils, tes conseils J'écris ma peine sur mon Azerty, Azerty J'n'écoute pas tes conseils, tes conseils J'écris ma peine sur mon Azerty J'ai rien à faire dans mon cercueil dose, dose On a besoin d'aide, même pour s'faire seul Je suis borné je suis borné Je ne connais rien d'la vie comme un mort-né chiche J'suis étonné j'suis étonné J'ai perdu mon âme quand je dormais L'enfer affiche complet, à part la mort, rien de concret J'aime quand elle jouit, j'vais la sampler bang J'aimerais y voir plus clair dose Soleil et Lune sont mes seules lumières Unique comme l'amour d'une mère yeah C'est le plus fier qui perd yeah Hey, 404, que des challengers que des challengers, que des challengers Le sexe est long et ta sur en pleure Le diable propose des prix mirobolants ouh J'suis sur le siège passager, pendant qu'la Faucheuse est au volant dose J'écris ma peine sur mon Azerty, Azerty yeah J'n'écoute pas tes conseils, tes conseils J'écris ma peine sur mon Azerty, Azerty J'n'écoute pas tes conseils, tes conseils Les erreurs de la vie m'ont servi, m'ont servi J'n'écoute pas tes conseils, tes conseils J'écris ma peine sur mon Azerty, Azerty J'n'écoute pas tes conseils, tes conseils J'écris ma peine sur mon Azerty, Azerty J'n'écoute pas tes conseils, tes conseils J'écris ma peine sur mon Azerty, Azerty À tous les frères qui n'croient pas en moi fuck Vous savez quoi ? Crucifiez-moi sur une croix en bois hey Il n'y a que des proches qui sont haters Marginal, j'suis pas dans les murs nan Les jeunes de cité sont devant les halls Les politiques sont derrière les meurtres Qui préfère l'honneur que les billets mauves ? Dis-moi nan, négro, dis-moi Si je survis, c'est pour plier l'autre Si je survis, c'est pour plier l'autre Combien de négros, pour un billet, signent ? Pour eux, pour eux, je n'ai pas d'estime Ma race et ma couleur qu'on piétine Au Congo, aussi pire qu'en Palestine Toujours à la recherche d'humilité hey, hey Pendant que mes joues sentent l'humidité 2.0.1.8., trop tard pour militer trop tard On l'a mérité J'écris ma peine sur mon Azerty, Azerty J'n'écoute pas tes conseils, tes conseils J'écris ma peine sur mon Azerty, Azerty J'n'écoute pas tes conseils, tes conseils Les erreurs de la vie m'ont servi, m'ont servi J'n'écoute pas tes conseils, tes conseils J'écris ma peine sur mon Azerty, Azerty J'n'écoute pas tes conseils, tes conseils J'écris ma peine sur mon Azerty, Azerty J'n'écoute pas tes conseils, tes conseils J'écris ma peine sur mon Azerty, Azerty1</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Stop, stop, négro, pay me wooh Pour t'enculer tout est permis dose, dose Stop, stop, négro, pay me pay me Pour t'enculer tout est permis bang Bang, négro, bang Un négro de plus Mort pour une pute J'espère bien qu'elle suce Toi tu veux m'arrêter, j'te laisse pas le luxe Gros, le sang est cain-f', la mental est russe Pour du biff, je n'donne pas mon arrière-train Je te plains, donne le tien pour Philipp Plein Sombre gosse, j'aime la révolte, la riposte Yo madre, je n'rentre pas car j'suis au poste Fond d'la classe, c'est là-bas que s'trouve ma place Homme froid, rien à foutre, j'fais fondre la glace J'voudrais toute une armée de putes qui me masse On va t'niquer ta mère même si t'es une masse Abandonne, la mort est là avant l'homme Mais malgré ça, l'homme veut mourir pour des sommes J'ai un air de Beerus, puissant quand je somme Quatre zéro quatre, ils n'savent pas qui nous sommes Au lasso, j'les attrape, fuck le ratio, j'trouve ça chelou Donc j'enquête comme Horacio J'pourrais pas passer rivière de feu Faudrait que j'sépare la mer en deux J'fais du rap au lieu de prier Dieu Vais-je devenir pieux ? Le plus tôt s'ra le mieux J'suis comme Khaleesi, je n'crains pas le feu Sauf celui de l'enfer, j'n'en fais pas le voeu Frère, souffre, personne ne te couvre si tes fesses s'ouvrent Comme celles de ta louve Un vrai guerrier ne connait pas la loose En expo' ta chatte est au Musée du Louvre J'les prends par devant, pas de surprise Faut qu'on survivre, nous ont coupé les vivres Parlent d'un pays libre, c'est ce qu'ils nous disent Ne révèle pas ce qu'ils nous brisent You might also like Stop, stop, négro, pay me wooh Pour t'enculer tout est permis dose, dose Stop, stop, négro, pay me pay me Pour t'enculer tout est permis bang</t>
+          <t>Stop, stop, négro, pay me wooh Pour t'enculer tout est permis dose, dose Stop, stop, négro, pay me pay me Pour t'enculer tout est permis bang Bang, négro, bang Un négro de plus Mort pour une pute J'espère bien qu'elle suce Toi tu veux m'arrêter, j'te laisse pas le luxe Gros, le sang est cain-f', la mental est russe Pour du biff, je n'donne pas mon arrière-train Je te plains, donne le tien pour Philipp Plein Sombre gosse, j'aime la révolte, la riposte Yo madre, je n'rentre pas car j'suis au poste Fond d'la classe, c'est là-bas que s'trouve ma place Homme froid, rien à foutre, j'fais fondre la glace J'voudrais toute une armée de putes qui me masse On va t'niquer ta mère même si t'es une masse Abandonne, la mort est là avant l'homme Mais malgré ça, l'homme veut mourir pour des sommes J'ai un air de Beerus, puissant quand je somme Quatre zéro quatre, ils n'savent pas qui nous sommes Au lasso, j'les attrape, fuck le ratio, j'trouve ça chelou Donc j'enquête comme Horacio J'pourrais pas passer rivière de feu Faudrait que j'sépare la mer en deux J'fais du rap au lieu de prier Dieu Vais-je devenir pieux ? Le plus tôt s'ra le mieux J'suis comme Khaleesi, je n'crains pas le feu Sauf celui de l'enfer, j'n'en fais pas le voeu Frère, souffre, personne ne te couvre si tes fesses s'ouvrent Comme celles de ta louve Un vrai guerrier ne connait pas la loose En expo' ta chatte est au Musée du Louvre J'les prends par devant, pas de surprise Faut qu'on survivre, nous ont coupé les vivres Parlent d'un pays libre, c'est ce qu'ils nous disent Ne révèle pas ce qu'ils nous brisent Stop, stop, négro, pay me wooh Pour t'enculer tout est permis dose, dose Stop, stop, négro, pay me pay me Pour t'enculer tout est permis bang</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Big Brother nous regarde tous Bordel Atmosphère Sombre J'suis pas votre ami, mais vous l'saviez déjà Tu serres des Clara Luciani, on serre des Ronisia J'veux qu'la banlieue s'préserve, pour ça qu'j'suis anti-coke La bien-pensance m'énerve, pour ça qu'j'suis anti-Woke On nous a matrixé depuis petit, donc on y croit Mon côté blanc, mon côté noir s'bagarrent comme dans Rocky 3 Trouve une raison de vivre, et ça d'vient presque automatique Depuis mon retour, ils sont en strss post-traumatique Ceux qui pensnt différemment, ça m'intéresse à fond Mais si tu m'parles de reptiliens, j'arrête la conversation En écoutant Enfant Seul, le kid s'est esseulé Reste pas trop dans l'binks, ils vont te Nipsey Hussler Autour de nous, y'a pleins de racistes, c'est comme à Bastia Métisse, putain d'artiste, j'suis comme un Basquiat Pendant qu'la France des soirées mondaines dort On est devant la porte à crier S'il vous plait, open the door Y'a aucun traitre que j'appelle reuf Les rappeurs, j'les appelle meuf Et les bavures des keufs, j'les appelle meurtres Pas besoin de violence on s'règle en versets contre versets Quand je peins mes toiles, j'fais pas exprès d'être controversé J'ai décodé le monde et ça sans décodeur Au fond rien d'méchant j'suis un grand déconneur Tout ce m'as-tu-vu, se montrer, ça faut qu'on laisse Les influenceurs font de l'Islam leur fond de commerce C'est que la famille, j'traine qu'avec mes zincs pur-sang J'valide pas Farrakhan, ni les 5 Quand j'décide d'avoir un cur, j'équivaut à 3 donneur Pendant qu'Big Brother me regarde lui faire des doigts d'honneur Pendant ce temps, à Davos, ils sont en train nous condamner Je lis livre de Klaus Schwab, tout est déjà programmé Ça prend du temps mais ils finiront par tous capter Faut jamais suivre les rappeurs à suivre de Booska P ZoinYou might also like</t>
+          <t>Big Brother nous regarde tous Bordel Atmosphère Sombre J'suis pas votre ami, mais vous l'saviez déjà Tu serres des Clara Luciani, on serre des Ronisia J'veux qu'la banlieue s'préserve, pour ça qu'j'suis anti-coke La bien-pensance m'énerve, pour ça qu'j'suis anti-Woke On nous a matrixé depuis petit, donc on y croit Mon côté blanc, mon côté noir s'bagarrent comme dans Rocky 3 Trouve une raison de vivre, et ça d'vient presque automatique Depuis mon retour, ils sont en strss post-traumatique Ceux qui pensnt différemment, ça m'intéresse à fond Mais si tu m'parles de reptiliens, j'arrête la conversation En écoutant Enfant Seul, le kid s'est esseulé Reste pas trop dans l'binks, ils vont te Nipsey Hussler Autour de nous, y'a pleins de racistes, c'est comme à Bastia Métisse, putain d'artiste, j'suis comme un Basquiat Pendant qu'la France des soirées mondaines dort On est devant la porte à crier S'il vous plait, open the door Y'a aucun traitre que j'appelle reuf Les rappeurs, j'les appelle meuf Et les bavures des keufs, j'les appelle meurtres Pas besoin de violence on s'règle en versets contre versets Quand je peins mes toiles, j'fais pas exprès d'être controversé J'ai décodé le monde et ça sans décodeur Au fond rien d'méchant j'suis un grand déconneur Tout ce m'as-tu-vu, se montrer, ça faut qu'on laisse Les influenceurs font de l'Islam leur fond de commerce C'est que la famille, j'traine qu'avec mes zincs pur-sang J'valide pas Farrakhan, ni les 5 Quand j'décide d'avoir un cur, j'équivaut à 3 donneur Pendant qu'Big Brother me regarde lui faire des doigts d'honneur Pendant ce temps, à Davos, ils sont en train nous condamner Je lis livre de Klaus Schwab, tout est déjà programmé Ça prend du temps mais ils finiront par tous capter Faut jamais suivre les rappeurs à suivre de Booska P Zoin</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Quatre zoin Fuck un colon Fuck un nègre de maison KKK Fuck les mots, les débats constants, fuck les hauts et les bas J'tire sur les opps et l'état, pas d'pouvoir sur les votes et les lois Fuck propagande Goebbelsienne, fuck propagande, chars en scène J'suis bipolaire, Dark Angel, on s'repentit, on part dans l'ciel Fuck le monde et salue la peur, fuck le SMIC, être animateur Fuck ici, c'que ça dit ailleurs, j'veux une femme qui flingu comme Sadie Adler Fuck un Ponzi, fuck Brnard Madoff, on m'traite de nazi mais j'suis plus genre Adolph qu'Adolf Underground king, qu'est j'm'en bats les couilles du top 50 J'pèse pour plusieurs, pour cinquante, réussir ou mourir comme 50 J'vends mes vinyles comme la drogue, j'fais froid dans l'dos comme la morgue Faut juste un black skinhead pour aller kill un new skinhead Black KKK Zoin, zoin, black KKK KKK Black KKK Zoin, black KKK Grrah, grrah Black KKK Grrah, grrah, black KKK Grrah, grrah Black KKK Zoin, zoin, black KKK KKK You might also like Arabe et noir dans l'gris Nardo Tou-tou, faut six balles pour six fachots Tou-tou J'charbonne, j'prie Dieu, j'taffe trop Okay, toi tu crois aux signes astros Ha J'suis un p'tit Wick Nardo, j'suis un crack comme Rivaldo Un million ou dix llars-do Llars-do, si tu m'dois, j'te plie la peau Grrah J'suis serein quand j'dit Allô Allô, mes business sont si légaux Tranquille Les rappeurs sont mes fistons, j'les habille chez P'tit Bateau Sénégal dans l'mental, j'ai la force de bombardier Les racistes se cachent pour faire violence, on les voit pas dans l'quartier Vous êtes où? Les faux crèvent de faim debout et les vrais djo dévorent assis J'fais mon puzzle, hustle comme Gizo Evoracci So J'les chasse comme Sentinel Bang, bang, pas à l'aide d'un opinel Faut juste un black skinhead pour aller kill un new skinhead Black KKK Zoin, zoin, black KKK Grrah, grrah Black KKK Grrah, grrah, black KKK Zoin, zoin Black KKK, black KKK Black KKK, black KKK KKK Zoin1</t>
+          <t>Quatre zoin Fuck un colon Fuck un nègre de maison KKK Fuck les mots, les débats constants, fuck les hauts et les bas J'tire sur les opps et l'état, pas d'pouvoir sur les votes et les lois Fuck propagande Goebbelsienne, fuck propagande, chars en scène J'suis bipolaire, Dark Angel, on s'repentit, on part dans l'ciel Fuck le monde et salue la peur, fuck le SMIC, être animateur Fuck ici, c'que ça dit ailleurs, j'veux une femme qui flingu comme Sadie Adler Fuck un Ponzi, fuck Brnard Madoff, on m'traite de nazi mais j'suis plus genre Adolph qu'Adolf Underground king, qu'est j'm'en bats les couilles du top 50 J'pèse pour plusieurs, pour cinquante, réussir ou mourir comme 50 J'vends mes vinyles comme la drogue, j'fais froid dans l'dos comme la morgue Faut juste un black skinhead pour aller kill un new skinhead Black KKK Zoin, zoin, black KKK KKK Black KKK Zoin, black KKK Grrah, grrah Black KKK Grrah, grrah, black KKK Grrah, grrah Black KKK Zoin, zoin, black KKK KKK Arabe et noir dans l'gris Nardo Tou-tou, faut six balles pour six fachots Tou-tou J'charbonne, j'prie Dieu, j'taffe trop Okay, toi tu crois aux signes astros Ha J'suis un p'tit Wick Nardo, j'suis un crack comme Rivaldo Un million ou dix llars-do Llars-do, si tu m'dois, j'te plie la peau Grrah J'suis serein quand j'dit Allô Allô, mes business sont si légaux Tranquille Les rappeurs sont mes fistons, j'les habille chez P'tit Bateau Sénégal dans l'mental, j'ai la force de bombardier Les racistes se cachent pour faire violence, on les voit pas dans l'quartier Vous êtes où? Les faux crèvent de faim debout et les vrais djo dévorent assis J'fais mon puzzle, hustle comme Gizo Evoracci So J'les chasse comme Sentinel Bang, bang, pas à l'aide d'un opinel Faut juste un black skinhead pour aller kill un new skinhead Black KKK Zoin, zoin, black KKK Grrah, grrah Black KKK Grrah, grrah, black KKK Zoin, zoin Black KKK, black KKK Black KKK, black KKK KKK Zoin1</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Métis noir et blanc comme piano J'suis sur écoute, j'peux pas dire Allô ? Ils n'auront plus rien dans l'assiette quand j'aurais le cul dans l'A7 J'suis pas né pour faire avec, faut disparaître de la tess J'vais pas changer l'monde, j'vais juste changer d'blonde J's'rai pas sauvé par le gong, j'vais crever en quelques s'condes Tu critiques mais aucun retweet, j'crois en Dieu mais j'crois pas aux mythes Y a beaucoup d'artistes dans ma blacklist, j'suis authentique, rien n'est factice J'fais les choses par moi-même, j'attends pas que le Seigneur m'aide Tu es frêle mais t'as rien fait donc m'appelle pas petit frère, hey Différent, j'serai jamais comme les autres, nan J'vais les buter, j'vais pas reproduire leurs fautes, nan Titulaire, à mon poste, personne me saute, nan Malgré ça, fils de pute sont sur mes côtes Métis noir et blanc comme piano J'suis sur écoute, j'peux pas dire Allô ? Métis noir et blanc comme piano J'suis sur écoute, j'peux pas dire Allô ? La mère d'tes gosses suce dans l'Viano Beaucoup d'fils de putain j'me suis mis à dos Métis noir et blanc comme piano J'suis sur écoute, j'peux pas dire Allô ? You might also like Précis dans ma diction, j'esquive malédiction Sexe, drogue, addictions, péchés dans l'addition Vrai soldat d'la Nation, va pas chez Ardisson T'la mettre dans l'fion mon ambition, budget, sombre vision Cadavre dans l'jardin d'la maison, fallait m'donner raison Vie de banlieusard ne change pas, peu importent les saisons Culture sur l'écusson, pas besoin de fusion Protège ton fiston, pervers a pulsions derrière buisson Pas de remords, j'ai caché les corps, ça sent la mort J'connais mes torts, faut qu'j'arrive à bon port, univers gore Sous-estime mais tu vas sucer fort si je m'en sors Marcheur blanc, j'me dirige vers le Nord, j'connais leur sort Différent, j'serai jamais comme les autres, nan J'vais les buter, j'vais pas reproduire leurs fautes, nan Titulaire, à mon poste, personne me saute, nan Malgré ça, fils de pute sont sur mes côtes Métis noir et blanc comme piano J'suis sur écoute, j'peux pas dire Allô ? Métis noir et blanc comme piano J'suis sur écoute, j'peux pas dire Allô ? La mère d'tes gosses suce dans l'Viano Beaucoup d'fils de putain j'me suis mis à dos Métis noir et blanc comme piano J'suis sur écoute, j'peux pas dire Allô ? Métis noir et blanc comme piano J'suis sur écoute, j'peux pas dire Allô ?</t>
+          <t>Métis noir et blanc comme piano J'suis sur écoute, j'peux pas dire Allô ? Ils n'auront plus rien dans l'assiette quand j'aurais le cul dans l'A7 J'suis pas né pour faire avec, faut disparaître de la tess J'vais pas changer l'monde, j'vais juste changer d'blonde J's'rai pas sauvé par le gong, j'vais crever en quelques s'condes Tu critiques mais aucun retweet, j'crois en Dieu mais j'crois pas aux mythes Y a beaucoup d'artistes dans ma blacklist, j'suis authentique, rien n'est factice J'fais les choses par moi-même, j'attends pas que le Seigneur m'aide Tu es frêle mais t'as rien fait donc m'appelle pas petit frère, hey Différent, j'serai jamais comme les autres, nan J'vais les buter, j'vais pas reproduire leurs fautes, nan Titulaire, à mon poste, personne me saute, nan Malgré ça, fils de pute sont sur mes côtes Métis noir et blanc comme piano J'suis sur écoute, j'peux pas dire Allô ? Métis noir et blanc comme piano J'suis sur écoute, j'peux pas dire Allô ? La mère d'tes gosses suce dans l'Viano Beaucoup d'fils de putain j'me suis mis à dos Métis noir et blanc comme piano J'suis sur écoute, j'peux pas dire Allô ? Précis dans ma diction, j'esquive malédiction Sexe, drogue, addictions, péchés dans l'addition Vrai soldat d'la Nation, va pas chez Ardisson T'la mettre dans l'fion mon ambition, budget, sombre vision Cadavre dans l'jardin d'la maison, fallait m'donner raison Vie de banlieusard ne change pas, peu importent les saisons Culture sur l'écusson, pas besoin de fusion Protège ton fiston, pervers a pulsions derrière buisson Pas de remords, j'ai caché les corps, ça sent la mort J'connais mes torts, faut qu'j'arrive à bon port, univers gore Sous-estime mais tu vas sucer fort si je m'en sors Marcheur blanc, j'me dirige vers le Nord, j'connais leur sort Différent, j'serai jamais comme les autres, nan J'vais les buter, j'vais pas reproduire leurs fautes, nan Titulaire, à mon poste, personne me saute, nan Malgré ça, fils de pute sont sur mes côtes Métis noir et blanc comme piano J'suis sur écoute, j'peux pas dire Allô ? Métis noir et blanc comme piano J'suis sur écoute, j'peux pas dire Allô ? La mère d'tes gosses suce dans l'Viano Beaucoup d'fils de putain j'me suis mis à dos Métis noir et blanc comme piano J'suis sur écoute, j'peux pas dire Allô ? Métis noir et blanc comme piano J'suis sur écoute, j'peux pas dire Allô ?</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>T'as reconnu le 4? T'as reconnu ou t'as pas reconnu? Zoin Headshot Grrah, killshot Grrah, gros, y'a plus rien qui m'choque Okay Tout c'que j'dit, je l'assume, tout ces négros peuvent screenshot Ils peuvent G-Unit, Three Six, UGK, D12, j'ai des petits à nourrir, j'm'en bats les couilles de qui crèvent J'm'en bats les couilles Faut qu't'évites l'illégal si ça t'effraie qu'les cops sonnent Dring, dring Dans ma tête c'est l'Bronx, j'me prends pour Fred the Godson R.I.P J'me prends pour Pappy Mason quand j'sors d'chez Ammu Nation Grrah Villiers-le-Bel, Bois d Bléville, j'pense à ms tribulations Grrah 404, j'monte un empire, j'pense à ma tribu, nation Nation À part rap et hustle, j'ai peu d'attributs, j'ai l'seum One on one on one Écoute le avec les yeux, toute les raclis disent pareil Fuck un imam silencieux face aux tueries d'Israël Tou-tou-tou J'ai une autre mentalité, non, j'n'ai pas celle de terrien Non, non Les êtres humains s'entre fument pour des parcelles de terrain Grr, pah J'vois que tout l'monde veut briller, j'vois que tout l'monde veut shine Si ça tire prends mes patins comme Shyne Je marche toujours Toujours, à l'instinct À l'instinct J'me projette pas, j'fais l'truc dans l'instant Zoin Je marche seul le soir, débrouillard KKK J'kill ces nègres et j'disparais dans l'brouillard Zoin Je marche toujours Toujours, à l'instinct À l'instinct J'me projette pas, j'fais l'truc dans l'instant Zoin Je marche seul le soir, débrouillard Débrouillard J'kill ces nègres et j'disparais dans l'brouillard Okay You might also like Tout pour la culture, OKKK comme Lil Scrappy OKKK Faible pourcentage et ces rappeurs se disent happy Ha J'm'assois ou je veux, j'm'en tape la place est prise par qui Bah J'suis le nettoyeur, donc les empreintes sont vite parties Tou-tou-tou Fuck ces vieux rappeurs, on charge le flingue, on vise Carti Grr, grr Salope veut que j'sois juste un ami comme Biz Markie Va là-bas Ennemi me titille donc j'lui envoie un diss gratuit Ha, haha Mec y a pas d'ami, on t'aime lundi, on t'kill mardi Dring, dring Rien qu'ça s'féminise, ça met des jupes, ça kiffe Barbie Tchoin J'suis né au milieu de délinquance, de biz zarre-bi Zoin, gars, zoin Alors j'ai grandi très loin de maison Grimaldi Très loin Assis sous le porche avec mon manteau Rivaldi Grrah, grrah, grrah, grrah Pendant qu'ces négros jouaient du violon comme Vivaldi Mes ainés me faisaient baigner dans son de Kid Capri Grrah Pas le choix pour être un fauve, du coup j'ai vite appris J'suis un boss, à part le mien, j'ai jamais pris d'parti Non, non, non Quatre G-DAY OKKK Zoin1</t>
+          <t>T'as reconnu le 4? T'as reconnu ou t'as pas reconnu? Zoin Headshot Grrah, killshot Grrah, gros, y'a plus rien qui m'choque Okay Tout c'que j'dit, je l'assume, tout ces négros peuvent screenshot Ils peuvent G-Unit, Three Six, UGK, D12, j'ai des petits à nourrir, j'm'en bats les couilles de qui crèvent J'm'en bats les couilles Faut qu't'évites l'illégal si ça t'effraie qu'les cops sonnent Dring, dring Dans ma tête c'est l'Bronx, j'me prends pour Fred the Godson R.I.P J'me prends pour Pappy Mason quand j'sors d'chez Ammu Nation Grrah Villiers-le-Bel, Bois d Bléville, j'pense à ms tribulations Grrah 404, j'monte un empire, j'pense à ma tribu, nation Nation À part rap et hustle, j'ai peu d'attributs, j'ai l'seum One on one on one Écoute le avec les yeux, toute les raclis disent pareil Fuck un imam silencieux face aux tueries d'Israël Tou-tou-tou J'ai une autre mentalité, non, j'n'ai pas celle de terrien Non, non Les êtres humains s'entre fument pour des parcelles de terrain Grr, pah J'vois que tout l'monde veut briller, j'vois que tout l'monde veut shine Si ça tire prends mes patins comme Shyne Je marche toujours Toujours, à l'instinct À l'instinct J'me projette pas, j'fais l'truc dans l'instant Zoin Je marche seul le soir, débrouillard KKK J'kill ces nègres et j'disparais dans l'brouillard Zoin Je marche toujours Toujours, à l'instinct À l'instinct J'me projette pas, j'fais l'truc dans l'instant Zoin Je marche seul le soir, débrouillard Débrouillard J'kill ces nègres et j'disparais dans l'brouillard Okay Tout pour la culture, OKKK comme Lil Scrappy OKKK Faible pourcentage et ces rappeurs se disent happy Ha J'm'assois ou je veux, j'm'en tape la place est prise par qui Bah J'suis le nettoyeur, donc les empreintes sont vite parties Tou-tou-tou Fuck ces vieux rappeurs, on charge le flingue, on vise Carti Grr, grr Salope veut que j'sois juste un ami comme Biz Markie Va là-bas Ennemi me titille donc j'lui envoie un diss gratuit Ha, haha Mec y a pas d'ami, on t'aime lundi, on t'kill mardi Dring, dring Rien qu'ça s'féminise, ça met des jupes, ça kiffe Barbie Tchoin J'suis né au milieu de délinquance, de biz zarre-bi Zoin, gars, zoin Alors j'ai grandi très loin de maison Grimaldi Très loin Assis sous le porche avec mon manteau Rivaldi Grrah, grrah, grrah, grrah Pendant qu'ces négros jouaient du violon comme Vivaldi Mes ainés me faisaient baigner dans son de Kid Capri Grrah Pas le choix pour être un fauve, du coup j'ai vite appris J'suis un boss, à part le mien, j'ai jamais pris d'parti Non, non, non Quatre G-DAY OKKK Zoin1</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>J'suis jamais dans l'superflu Biatch Ton rappeur préf est un junkie, toi aussi, appelle-moi Bumpy Han-han J'en ai vu des choses dans ma jeune vie Ok J'ai un pouvoir de prince, t'as un pouvoir d'apprenti Han-han J'préfère regarder l'cash que le boulard d'Ashanti Ok Pilule rouge ou bleue, c'est toujours la même dose Gauche, droite, c'est toujours la même chose Oh no no no nooo La la laaa Oh no no no nooo La-la la-la la laaa J'prie Dieu, pour qu'ma fille soit pas comme celle de Benzino J'suis producteur, fuck être un consommatur dans l'casino Fuck, fuck Laisse ces putes, fuck un chatte, fuck un sein J'te préviens, où tu vas finir drogué comme Franklin Saint Même si on fait du biz, je n'fais pas de hug Jamais Que Dieu m'écarte d'une femme comme Lena The Plug Jamais Esquiver la prison, esquiver l'HP Faut faire un choix, vendre du rêve ou rêver d'acheter Alors? L'erreur c'est d'épargner, jamais nous n'laissons de vie No! No! Toutes les histoires d'amour s'transforment en leçon de vie Okay La vie ça va vite, maintenant on parle sur X Alors qu'avant, c'était dur, j'appelais mes putes sur l'fix J'avais chaud d'tomber sur le daron 404Hitchcock Han Génie incompris, arrête, ils ont très bien compris Fuck leurs idéologies En bien, en mal, ils se souviendront de cette trilogie Ça, c'est sûr... You might also like Ton rappeur préf est un junkie Ah ok, toi aussi, appelle-moi Bumpy Han-han J'en ai vu des choses dans ma jeune vie Wouh J'ai un pouvoir de prince, t'as un pouvoir d'apprenti J'préfère regarder l'cash que le boulard d'Ashanti Pilule rouge ou bleue, c'est toujours la même dose Gauche, droite, c'est toujours la même chose Oh no no no nooo La la laaa Oh no no no nooo La-la la-la la laaa J'te fais pas confiance parce que j'sens que t'es bancale Être sentimentale tue la santé mentale Y'a plus le choix, faut éteindre la lumière de manière spectaculaire Elles n'ont plus d'âme, elles commettent l'adultère, la bague sur l'annulaire Malheureusement C'est moins risqué, les relations sans lendemain J't'assure, vraiment Laisse pas ton cur entre les mains d'un être humain Hors tendances, hors normes, hors catégorie Ok Hors industrie, hors système, hors de tes conneries Le 4 J'suis jamais dans l'superflu Jamais Tellement d'données, j'appelle ça le super-flux Ça va trop vite C'est des moutons, c'est des faibles, c'est des maudits La bien-pensance te traite d'antisémite en roulant en Audi J'vais laisser des victimes, j'vais laisser des KO En face ça rend pas les coups, j'dirais qu'c'est des PAO Dans leurs albums ça téchan comme un CD de Zaho Ces esclaves ont un maître comme la CEDEAO Ton rappeur préf est un junkie, toi aussi, appelle-moi Bumpy Han-han J'en ai vu des choses dans ma jeune vie Ok J'ai un pouvoir de prince, t'as un pouvoir d'apprenti Han-han J'préfère regarder l'cash que le boulard d'Ashanti Ok Pilule rouge ou bleue, c'est toujours la même dose Gauche, droite, c'est toujours la même chose Oh no no no nooo La la laaa Oh no no no nooo La-la la-la la laaa</t>
+          <t>J'suis jamais dans l'superflu Biatch Ton rappeur préf est un junkie, toi aussi, appelle-moi Bumpy Han-han J'en ai vu des choses dans ma jeune vie Ok J'ai un pouvoir de prince, t'as un pouvoir d'apprenti Han-han J'préfère regarder l'cash que le boulard d'Ashanti Ok Pilule rouge ou bleue, c'est toujours la même dose Gauche, droite, c'est toujours la même chose Oh no no no nooo La la laaa Oh no no no nooo La-la la-la la laaa J'prie Dieu, pour qu'ma fille soit pas comme celle de Benzino J'suis producteur, fuck être un consommatur dans l'casino Fuck, fuck Laisse ces putes, fuck un chatte, fuck un sein J'te préviens, où tu vas finir drogué comme Franklin Saint Même si on fait du biz, je n'fais pas de hug Jamais Que Dieu m'écarte d'une femme comme Lena The Plug Jamais Esquiver la prison, esquiver l'HP Faut faire un choix, vendre du rêve ou rêver d'acheter Alors? L'erreur c'est d'épargner, jamais nous n'laissons de vie No! No! Toutes les histoires d'amour s'transforment en leçon de vie Okay La vie ça va vite, maintenant on parle sur X Alors qu'avant, c'était dur, j'appelais mes putes sur l'fix J'avais chaud d'tomber sur le daron 404Hitchcock Han Génie incompris, arrête, ils ont très bien compris Fuck leurs idéologies En bien, en mal, ils se souviendront de cette trilogie Ça, c'est sûr... Ton rappeur préf est un junkie Ah ok, toi aussi, appelle-moi Bumpy Han-han J'en ai vu des choses dans ma jeune vie Wouh J'ai un pouvoir de prince, t'as un pouvoir d'apprenti J'préfère regarder l'cash que le boulard d'Ashanti Pilule rouge ou bleue, c'est toujours la même dose Gauche, droite, c'est toujours la même chose Oh no no no nooo La la laaa Oh no no no nooo La-la la-la la laaa J'te fais pas confiance parce que j'sens que t'es bancale Être sentimentale tue la santé mentale Y'a plus le choix, faut éteindre la lumière de manière spectaculaire Elles n'ont plus d'âme, elles commettent l'adultère, la bague sur l'annulaire Malheureusement C'est moins risqué, les relations sans lendemain J't'assure, vraiment Laisse pas ton cur entre les mains d'un être humain Hors tendances, hors normes, hors catégorie Ok Hors industrie, hors système, hors de tes conneries Le 4 J'suis jamais dans l'superflu Jamais Tellement d'données, j'appelle ça le super-flux Ça va trop vite C'est des moutons, c'est des faibles, c'est des maudits La bien-pensance te traite d'antisémite en roulant en Audi J'vais laisser des victimes, j'vais laisser des KO En face ça rend pas les coups, j'dirais qu'c'est des PAO Dans leurs albums ça téchan comme un CD de Zaho Ces esclaves ont un maître comme la CEDEAO Ton rappeur préf est un junkie, toi aussi, appelle-moi Bumpy Han-han J'en ai vu des choses dans ma jeune vie Ok J'ai un pouvoir de prince, t'as un pouvoir d'apprenti Han-han J'préfère regarder l'cash que le boulard d'Ashanti Ok Pilule rouge ou bleue, c'est toujours la même dose Gauche, droite, c'est toujours la même chose Oh no no no nooo La la laaa Oh no no no nooo La-la la-la la laaa</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Au secours, jamais on ne dit, trahison, jamais on n'oublie Tes cicatrices à l'autopsie, d'espoir, jamais on ne vit Ma daronne est encore sur terre, y'a aucune raison d'être malheureux Mais pourtant je le suis quand même, le désespoir est si chaleureux J'sors du studio, j'ai des mals de gorge, mais, faut qu'les sous rentrent, faut qu'les sous rentrent Les envie pas, de leur côté, tous mentent, les envie pas, de leur côté, tous mentent Elle pense qu'elle pourra me changer, elle me dit qu'elle n'a pas du tout peur du danger On s'est aimés pour devenir des étrangers, l'impression que nos deux rôles se sont échangés Si je veux atteindre le top ten, faut que j'mette les moyens maintenant Rien ne sert de jouer les OGs, nos parcours sont handicapants Elle me fait confiance à temps plein, en vérité j'suis qu'un serpent Elle me fait confiance à temps plein, en vérité j'suis qu'un serpent Cadenas, j'lui ai mis le cadenas K.O., je l'ai foutue K.O Cadenas, j'lui ai mis le cadenas K.O., je l'ai foutue K.O Avec elle j'suis dans la stratégie, elle veut savoir si j'ai signé Elle veut savoir mes fréquentations, elle veut savoir qui j'ai saigné Vu qu'j'ai jamais baisé ses potes, elle veut savoir si j'essayais Elle connaît bien quelques groupies, elle veut savoir si j'ai cédé Ils sont falches, comme leur ice, sur leurs poignets, les ont eu d'occasion J'plie bagage, j'lui ai dit qu'j'avais besoin d'évasion Sont dans l'déni, un jour ou l'autre ils vont mordre à l'hameçon J'te rappellerai pas même si tu m'l'astiques, de nos jours les meufs sont des bouts d'plastique Les autres, faut les cadenasser, cadenasser, y'en a peu qui répondront au casting Tout est faux, tout est faux, ce n'est que du bluff et j'ai les couilles qu'il faut, ho ho Aussitôt, aussitôt, j'leur mets des roulés précis, Coutinho, zoin zoin You might also like Si je veux atteindre le top ten, faut que j'mette les moyens maintenant Rien ne sert de jouer les OGs, nos parcours sont handicapants Elle me fait confiance à temps plein, en vérité j'suis qu'un serpent Elle me fait confiance à temps plein, en vérité j'suis qu'un serpent Cadenas, j'lui ai mis le cadenas K.O., je l'ai foutue K.O Cadenas, j'lui ai mis le cadenas K.O., je l'ai foutue K.O</t>
+          <t>Au secours, jamais on ne dit, trahison, jamais on n'oublie Tes cicatrices à l'autopsie, d'espoir, jamais on ne vit Ma daronne est encore sur terre, y'a aucune raison d'être malheureux Mais pourtant je le suis quand même, le désespoir est si chaleureux J'sors du studio, j'ai des mals de gorge, mais, faut qu'les sous rentrent, faut qu'les sous rentrent Les envie pas, de leur côté, tous mentent, les envie pas, de leur côté, tous mentent Elle pense qu'elle pourra me changer, elle me dit qu'elle n'a pas du tout peur du danger On s'est aimés pour devenir des étrangers, l'impression que nos deux rôles se sont échangés Si je veux atteindre le top ten, faut que j'mette les moyens maintenant Rien ne sert de jouer les OGs, nos parcours sont handicapants Elle me fait confiance à temps plein, en vérité j'suis qu'un serpent Elle me fait confiance à temps plein, en vérité j'suis qu'un serpent Cadenas, j'lui ai mis le cadenas K.O., je l'ai foutue K.O Cadenas, j'lui ai mis le cadenas K.O., je l'ai foutue K.O Avec elle j'suis dans la stratégie, elle veut savoir si j'ai signé Elle veut savoir mes fréquentations, elle veut savoir qui j'ai saigné Vu qu'j'ai jamais baisé ses potes, elle veut savoir si j'essayais Elle connaît bien quelques groupies, elle veut savoir si j'ai cédé Ils sont falches, comme leur ice, sur leurs poignets, les ont eu d'occasion J'plie bagage, j'lui ai dit qu'j'avais besoin d'évasion Sont dans l'déni, un jour ou l'autre ils vont mordre à l'hameçon J'te rappellerai pas même si tu m'l'astiques, de nos jours les meufs sont des bouts d'plastique Les autres, faut les cadenasser, cadenasser, y'en a peu qui répondront au casting Tout est faux, tout est faux, ce n'est que du bluff et j'ai les couilles qu'il faut, ho ho Aussitôt, aussitôt, j'leur mets des roulés précis, Coutinho, zoin zoin Si je veux atteindre le top ten, faut que j'mette les moyens maintenant Rien ne sert de jouer les OGs, nos parcours sont handicapants Elle me fait confiance à temps plein, en vérité j'suis qu'un serpent Elle me fait confiance à temps plein, en vérité j'suis qu'un serpent Cadenas, j'lui ai mis le cadenas K.O., je l'ai foutue K.O Cadenas, j'lui ai mis le cadenas K.O., je l'ai foutue K.O</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Le 4 Zoin En détente Ok, c'est parti J'ai des voix dans ma tête, elles sont beaucoup Tu f'ras moins l'San Goku avec une sangle au cou Mon cur a ses raisons de t'aimer sans raison À ma naissance, mon père en prison, ma mère sans maison En concert dans leurs têtes, j'crois bien qu'ça sera ma seule date Y a pas d'ami ami, bouffon, mon cur est sold out Et quand je rappe, j'les éclate mais bon, ça minimise Elle veut qu'j'éjac' dans sa chatte pour faire des minis bill's Wow, pas besoin d'l'humanité pour faire l'Genki Dama Si vous voulez, j'monte sur le trône mais j'reste en pyjama Tu sais, souvent, tous ces artistes, ils mentent, ils vont donner leurs culs Et puis dire j'me suis ouvert artistiquement BLKKKK VAN GOGH est sorti, y avait mon blase sur chaque langue Ils enferment vite les dealers, ils sont plus lents pour Jack Lang J'ai tellement de confiance dans la boca On est chauds dans la violence, on est chauds en avocat J'm'en bats les couilles des gens tant qu'moi-même, ça va T'échoues si près du but, tu perds tout l'temps comme Mohamed Salah Faut dire les termes, faut dire les stats Y en a beaucoup qui vont juste à la Mecque pour faire des snaps Mais tout ça, et la fin du monde, ça va de pair Y a des gosses qui s'font élever par deux pères J'suis pas comme les autres, j'ai peu d'res-frè, j'fais jamais de refrain Dans la vie, toujours à 220 mais j'n'ai jamais de freins J'ai l'flow de re-sta, j'ppe-ra comme Busta Tous les chemins mènent au pays d'Sfera Ebbasta J'peux séparer l'homme de l'artiste, j'suis p't-être trop gentil Mais j'aime ni l'homme, ni son art, alors fuck Polanski Ange de gauche, ange de droite J'tourne plus la tête qu'à Roland Garros J'me vois dans un grand gamos De toute façon, j'y connais rien donc j'fais pas d'politique T'as disparu comme Jahlil Beats, trop brut pour être poétique J'aime bien les meufs classes qui ont d'l'étoffe comme Kate Moss Il t'en faudra beaucoup pour me mettre off comme Takeoff Tu peux m'voir au poste mais seulement en tant qu'suspect Métisse, muslim, grosses cojo' comme Cassius ClayYou might also like</t>
+          <t>Le 4 Zoin En détente Ok, c'est parti J'ai des voix dans ma tête, elles sont beaucoup Tu f'ras moins l'San Goku avec une sangle au cou Mon cur a ses raisons de t'aimer sans raison À ma naissance, mon père en prison, ma mère sans maison En concert dans leurs têtes, j'crois bien qu'ça sera ma seule date Y a pas d'ami ami, bouffon, mon cur est sold out Et quand je rappe, j'les éclate mais bon, ça minimise Elle veut qu'j'éjac' dans sa chatte pour faire des minis bill's Wow, pas besoin d'l'humanité pour faire l'Genki Dama Si vous voulez, j'monte sur le trône mais j'reste en pyjama Tu sais, souvent, tous ces artistes, ils mentent, ils vont donner leurs culs Et puis dire j'me suis ouvert artistiquement BLKKKK VAN GOGH est sorti, y avait mon blase sur chaque langue Ils enferment vite les dealers, ils sont plus lents pour Jack Lang J'ai tellement de confiance dans la boca On est chauds dans la violence, on est chauds en avocat J'm'en bats les couilles des gens tant qu'moi-même, ça va T'échoues si près du but, tu perds tout l'temps comme Mohamed Salah Faut dire les termes, faut dire les stats Y en a beaucoup qui vont juste à la Mecque pour faire des snaps Mais tout ça, et la fin du monde, ça va de pair Y a des gosses qui s'font élever par deux pères J'suis pas comme les autres, j'ai peu d'res-frè, j'fais jamais de refrain Dans la vie, toujours à 220 mais j'n'ai jamais de freins J'ai l'flow de re-sta, j'ppe-ra comme Busta Tous les chemins mènent au pays d'Sfera Ebbasta J'peux séparer l'homme de l'artiste, j'suis p't-être trop gentil Mais j'aime ni l'homme, ni son art, alors fuck Polanski Ange de gauche, ange de droite J'tourne plus la tête qu'à Roland Garros J'me vois dans un grand gamos De toute façon, j'y connais rien donc j'fais pas d'politique T'as disparu comme Jahlil Beats, trop brut pour être poétique J'aime bien les meufs classes qui ont d'l'étoffe comme Kate Moss Il t'en faudra beaucoup pour me mettre off comme Takeoff Tu peux m'voir au poste mais seulement en tant qu'suspect Métisse, muslim, grosses cojo' comme Cassius Clay</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>He-ey, Hey Tototo Trust me J'rentre en te-boî survêt sans meuf allez zouin zouin, zouin On t'mets des doigts devant ton reuf allez zouin tototo Tu fais l'grossiste t'as pas d'billets allez zouin yey, yey Fais l'voyou personnes te connais allez zouin personne, personne Pour les putains allez zouin Pour les mythos allez zouin Pour les haineux allez zouin Pour les suceurs allez zouin J'rentre en te-boî survêt sans meuf allez zouin allez zouin Tu fais l'grossiste t'as pas d'billets allez zouin yey, yey Pour y arriver faut faire des choix prendre des risques Le rap game a la teuch en feu, Daenerys Dieu, pardonne mais pas nous 404 sur le panneau S'teu plaît ne sois pas parano T'es qu'une putain donc pas d'anneau J'aime la femmes donc j'fais des threesomes J'suis violent comme mec de l'Essonne Paraît-il t'as peur de personnes Voit la mort quand le Glock résonne hey, hey Jesquive la galère, j'ai un fils fils fils schuch Ne cherche pas la merde on te X X X C'bâtard d'ange de gauche, me parle fort dans l'oreille Fuck le septième ciel, on est juste dans l'hôtel J'vis dans mondes et merveilles hey À part quand j'me réveille J'célebrerais quand j'serais célèbre J'célebrerais quand j'serais célèbre Allez zouin You might also like J'rentre en te-boî survêt sans meuf allez zouin yey, yey On t'mets des doigts devant ton reuf allez zouin shuch, shuch Tu fais l'grossiste t'as pas d'billets allez zouin no, no, no Fais le voyou personnes te connais allez zouin allez zouin Pour les putains allez zouin Pour les mythos allez zouin Pour les haineux allez zouin Pour les suceurs allez zouin J'rentre en te-boî survêt sans meuf allez zouin hey, hey, hey Tu fais l'grossiste t'as pas d'billets allez zouin schuch, shuch Yey Dans la pièce ça sent l'O.G. Kush J'suis toujours dans des combines louches combines louches, combines louches Bang bang quand les ennemis gloussent bang bang quand les ennemis gloussent Prions Dieu qu'il nous bénisse tous, pris aussi pour qu'j'réussisse Que j'bois pas canette de 8.6 À c'qu'il paraît j'suis un lyriciste Parce que tout ce que je dis est véridique Devant les keufs t'as des bons tuyaux Autour de moi que des marginaux Tu gagnes jamais comme au Casino Pas d'coeur, moins d'organe vitaux, hey T'es dans la piscine comme Tony ou dans la piscine comme Loana Je n'attends pas d'être dans le lit J'te baise direct chez Conforama ahah Si j'finis au fond du puits N'oublie jamais mes atouts bâtard Ma sur pas d'peau éclaircie Faut que tu sois fière d'être Fatoumata J'rentre en te-boî survêt sans meuf allez zouin yey, yey On t'mets des doigts devant ton reuf allez zouin schuch, schuch Tu fais l'grossiste t'as pas d'billets allez zouin no, no, no Fais le voyou personnes te connais allez zouin allez zouin Pour les putains allez zouin Pour les mythos allez zouin Pour les haineux allez zouin Pour les suceurs allez zouin J'rentre en te-boî survêt sans meuf allez zouin hey, hey, hey Tu fais l'grossiste t'as pas d'billets allez zouin schuch, shuch</t>
+          <t>He-ey, Hey Tototo Trust me J'rentre en te-boî survêt sans meuf allez zouin zouin, zouin On t'mets des doigts devant ton reuf allez zouin tototo Tu fais l'grossiste t'as pas d'billets allez zouin yey, yey Fais l'voyou personnes te connais allez zouin personne, personne Pour les putains allez zouin Pour les mythos allez zouin Pour les haineux allez zouin Pour les suceurs allez zouin J'rentre en te-boî survêt sans meuf allez zouin allez zouin Tu fais l'grossiste t'as pas d'billets allez zouin yey, yey Pour y arriver faut faire des choix prendre des risques Le rap game a la teuch en feu, Daenerys Dieu, pardonne mais pas nous 404 sur le panneau S'teu plaît ne sois pas parano T'es qu'une putain donc pas d'anneau J'aime la femmes donc j'fais des threesomes J'suis violent comme mec de l'Essonne Paraît-il t'as peur de personnes Voit la mort quand le Glock résonne hey, hey Jesquive la galère, j'ai un fils fils fils schuch Ne cherche pas la merde on te X X X C'bâtard d'ange de gauche, me parle fort dans l'oreille Fuck le septième ciel, on est juste dans l'hôtel J'vis dans mondes et merveilles hey À part quand j'me réveille J'célebrerais quand j'serais célèbre J'célebrerais quand j'serais célèbre Allez zouin J'rentre en te-boî survêt sans meuf allez zouin yey, yey On t'mets des doigts devant ton reuf allez zouin shuch, shuch Tu fais l'grossiste t'as pas d'billets allez zouin no, no, no Fais le voyou personnes te connais allez zouin allez zouin Pour les putains allez zouin Pour les mythos allez zouin Pour les haineux allez zouin Pour les suceurs allez zouin J'rentre en te-boî survêt sans meuf allez zouin hey, hey, hey Tu fais l'grossiste t'as pas d'billets allez zouin schuch, shuch Yey Dans la pièce ça sent l'O.G. Kush J'suis toujours dans des combines louches combines louches, combines louches Bang bang quand les ennemis gloussent bang bang quand les ennemis gloussent Prions Dieu qu'il nous bénisse tous, pris aussi pour qu'j'réussisse Que j'bois pas canette de 8.6 À c'qu'il paraît j'suis un lyriciste Parce que tout ce que je dis est véridique Devant les keufs t'as des bons tuyaux Autour de moi que des marginaux Tu gagnes jamais comme au Casino Pas d'coeur, moins d'organe vitaux, hey T'es dans la piscine comme Tony ou dans la piscine comme Loana Je n'attends pas d'être dans le lit J'te baise direct chez Conforama ahah Si j'finis au fond du puits N'oublie jamais mes atouts bâtard Ma sur pas d'peau éclaircie Faut que tu sois fière d'être Fatoumata J'rentre en te-boî survêt sans meuf allez zouin yey, yey On t'mets des doigts devant ton reuf allez zouin schuch, schuch Tu fais l'grossiste t'as pas d'billets allez zouin no, no, no Fais le voyou personnes te connais allez zouin allez zouin Pour les putains allez zouin Pour les mythos allez zouin Pour les haineux allez zouin Pour les suceurs allez zouin J'rentre en te-boî survêt sans meuf allez zouin hey, hey, hey Tu fais l'grossiste t'as pas d'billets allez zouin schuch, shuch</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Oh my god C'est pas interdit, c'est pas interdit J'le fais comme Big Meech, j'le fais comme Big Meech Venez, on sort du club, venez, on sort du VIP Venez, on sort du, zoin, zoin Venez, on sort du club On sort du club, j'suis pas trop fêtard J'suis pas trop fêtard J'le fais comme Big Meech, c'est ma go qui charge le pétard Qui charge le pétard C'que tu fais, on l'fait C'que tu fais, on l'fait, en dix fois, vingt fois, trente fois mieux Elle veut du concret Elle veut du concret, j'lui donne cinquante, cent fois mieux Venez, on sort du club On sort du club, j'suis pas trop fêtard J'suis pas trop fêtard J'le fais comm Big Meech, c'est ma go qui charge le pétard Qui charg le pétard C'que tu fais, on l'fait C'que tu fais, on l'fait, en dix fois, vingt fois, trente fois mieux Elle veut du concret Elle veut du concret, j'lui donne cinquante, cent fois mieux Elle veut du Chanel, boy Elle veut du Chanel, boy, elle veut du Chanel, boy Elle veut du Chanel, boy Des billets jaunes dans la sacoche, j'attire les abeilles, boy J'attire les abeilles, boy Tu connais quelqu'un qui m'connaît, ça veut pas dire qu'tu m'connais Hey On sait qu't'es pas trop fortuné, deux-trois Ruinart et t'es ruiné Deux-trois Ruinart et t'es ruiné, oh shame Woh, j'vois qu'ils deviennent tellement jaloux, j'pourrais pas vivre dans leur peau Tout est logique, vu qu'j'suis passé devant eux, j'peux pas parler dans leur dos J'peux pas parler dans leur dos Elle prend la confiance Elle prend la confiance, elle demande si et ça Elle demande si et ça Elle fait trop la go des USA, elle devient collante en iMessage You might also like Elle s'appelle Wendy, elle veut du Fendi, c'est pas interdit C'est pas interdit J'suis dans GTA, j'suis dans la Benshi, c'est pas interdit C'est pas interdit On met pas Philipp Plein, on préfère l'frigo plein, c'est pas interdit C'est pas interdit Woh-han, woh-han, woh-han Venez, on sort du club On sort du club, j'suis pas trop fêtard J'suis pas trop fêtard J'le fais comme Big Meech, c'est ma go qui charge le pétard Qui charge le pétard C'que tu fais, on l'fait C'que tu fais, on l'fait, en dix fois, vingt fois, trente fois mieux Elle veut du concret Elle veut du concret, j'lui donne cinquante, cent fois mieux Venez, on sort du club On sort du club, j'suis pas trop fêtard J'suis pas trop fêtard J'le fais comme Big Meech, c'est ma go qui charge le pétard Qui charge le pétard C'que tu fais, on l'fait C'que tu fais, on l'fait, en dix fois, vingt fois, trente fois mieux Elle veut du concret Elle veut du concret, j'lui donne cinquante, cent fois mieux On n'épargne aucun détail On n'épargne aucun détail, on s'fait respecter par la crainte J'vois qu'ils aiment quand ça fait mal, quand ça termine au tribunal Quand ça termine au tribunal J'traînais dehors tard le soir Ouh, personne savait où j'allais Bosse comme José, t'es comme Stanley Wallon J'le fais comme Big Meech J'le fais comme Big Meech, j'le fais comme Larry Tou-tou-tou-touh J'fais de la magie J'fais de la magie, j'le fais comme Harry J'le fais comme Harry Toujours au quartier Toujours au quartier, ouh, à des heures tardives J'suis loin d'la Maybach J'suis loin d'la Maybach, ouh, de la Ferrari, 'rari, 'rari Elle s'appelle Wendy, elle veut du Fendi, c'est pas interdit C'est pas interdit J'suis dans GTA, j'suis dans la Benshi, c'est pas interdit C'est pas interdit On met pas Philipp Plein, on préfère l'frigo plein, c'est pas interdit C'est pas interdit Woh-han, woh-han, woh-han Venez, on sort du club On sort du club, j'suis pas trop fêtard J'suis pas trop fêtard J'le fais comme Big Meech, c'est ma go qui charge le pétard Qui charge le pétard C'que tu fais, on l'fait C'que tu fais, on l'fait, en dix fois, vingt fois, trente fois mieux Elle veut du concret Elle veut du concret, j'lui donne cinquante, cent fois mieux Venez, on sort du club On sort du club, j'suis pas trop fêtard J'suis pas trop fêtard J'le fais comme Big Meech, c'est ma go qui charge le pétard Qui charge le pétard C'que tu fais, on l'fait C'que tu fais, on l'fait, en dix fois, vingt fois, trente fois mieux Elle veut du concret Elle veut du concret, j'lui donne cinquante, cent fois mieux</t>
+          <t>Oh my god C'est pas interdit, c'est pas interdit J'le fais comme Big Meech, j'le fais comme Big Meech Venez, on sort du club, venez, on sort du VIP Venez, on sort du, zoin, zoin Venez, on sort du club On sort du club, j'suis pas trop fêtard J'suis pas trop fêtard J'le fais comme Big Meech, c'est ma go qui charge le pétard Qui charge le pétard C'que tu fais, on l'fait C'que tu fais, on l'fait, en dix fois, vingt fois, trente fois mieux Elle veut du concret Elle veut du concret, j'lui donne cinquante, cent fois mieux Venez, on sort du club On sort du club, j'suis pas trop fêtard J'suis pas trop fêtard J'le fais comm Big Meech, c'est ma go qui charge le pétard Qui charg le pétard C'que tu fais, on l'fait C'que tu fais, on l'fait, en dix fois, vingt fois, trente fois mieux Elle veut du concret Elle veut du concret, j'lui donne cinquante, cent fois mieux Elle veut du Chanel, boy Elle veut du Chanel, boy, elle veut du Chanel, boy Elle veut du Chanel, boy Des billets jaunes dans la sacoche, j'attire les abeilles, boy J'attire les abeilles, boy Tu connais quelqu'un qui m'connaît, ça veut pas dire qu'tu m'connais Hey On sait qu't'es pas trop fortuné, deux-trois Ruinart et t'es ruiné Deux-trois Ruinart et t'es ruiné, oh shame Woh, j'vois qu'ils deviennent tellement jaloux, j'pourrais pas vivre dans leur peau Tout est logique, vu qu'j'suis passé devant eux, j'peux pas parler dans leur dos J'peux pas parler dans leur dos Elle prend la confiance Elle prend la confiance, elle demande si et ça Elle demande si et ça Elle fait trop la go des USA, elle devient collante en iMessage Elle s'appelle Wendy, elle veut du Fendi, c'est pas interdit C'est pas interdit J'suis dans GTA, j'suis dans la Benshi, c'est pas interdit C'est pas interdit On met pas Philipp Plein, on préfère l'frigo plein, c'est pas interdit C'est pas interdit Woh-han, woh-han, woh-han Venez, on sort du club On sort du club, j'suis pas trop fêtard J'suis pas trop fêtard J'le fais comme Big Meech, c'est ma go qui charge le pétard Qui charge le pétard C'que tu fais, on l'fait C'que tu fais, on l'fait, en dix fois, vingt fois, trente fois mieux Elle veut du concret Elle veut du concret, j'lui donne cinquante, cent fois mieux Venez, on sort du club On sort du club, j'suis pas trop fêtard J'suis pas trop fêtard J'le fais comme Big Meech, c'est ma go qui charge le pétard Qui charge le pétard C'que tu fais, on l'fait C'que tu fais, on l'fait, en dix fois, vingt fois, trente fois mieux Elle veut du concret Elle veut du concret, j'lui donne cinquante, cent fois mieux On n'épargne aucun détail On n'épargne aucun détail, on s'fait respecter par la crainte J'vois qu'ils aiment quand ça fait mal, quand ça termine au tribunal Quand ça termine au tribunal J'traînais dehors tard le soir Ouh, personne savait où j'allais Bosse comme José, t'es comme Stanley Wallon J'le fais comme Big Meech J'le fais comme Big Meech, j'le fais comme Larry Tou-tou-tou-touh J'fais de la magie J'fais de la magie, j'le fais comme Harry J'le fais comme Harry Toujours au quartier Toujours au quartier, ouh, à des heures tardives J'suis loin d'la Maybach J'suis loin d'la Maybach, ouh, de la Ferrari, 'rari, 'rari Elle s'appelle Wendy, elle veut du Fendi, c'est pas interdit C'est pas interdit J'suis dans GTA, j'suis dans la Benshi, c'est pas interdit C'est pas interdit On met pas Philipp Plein, on préfère l'frigo plein, c'est pas interdit C'est pas interdit Woh-han, woh-han, woh-han Venez, on sort du club On sort du club, j'suis pas trop fêtard J'suis pas trop fêtard J'le fais comme Big Meech, c'est ma go qui charge le pétard Qui charge le pétard C'que tu fais, on l'fait C'que tu fais, on l'fait, en dix fois, vingt fois, trente fois mieux Elle veut du concret Elle veut du concret, j'lui donne cinquante, cent fois mieux Venez, on sort du club On sort du club, j'suis pas trop fêtard J'suis pas trop fêtard J'le fais comme Big Meech, c'est ma go qui charge le pétard Qui charge le pétard C'que tu fais, on l'fait C'que tu fais, on l'fait, en dix fois, vingt fois, trente fois mieux Elle veut du concret Elle veut du concret, j'lui donne cinquante, cent fois mieux</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>voix robotisée J'ai coeur fermé ? J'ai coeur fermé ? x3 J'ai coeur fermé ? J'ai coeur fermé ? x3 Ma belle si j'te baise c'est pour eilaj mes peines Tu m'auras pas comme mon ancêtre au jardin d'Éden Tant qu'tu n'as pas d'MST, on continuera continuera Tu t'demandes si j'vais te laisser, qui vivra verra On refera nos vies comme t'as refait t'a poitrine Quand tu t'endormira, j'irai baiser la voisine Si j'ai pas d'chance j'te ferai des gosses, t'as fait, rouler ma bosse, bosser de neuf à cinq, rentrer, mater la boxe hey J'm'enfonce et je réalise, dans l'instant présent, je rêve et j'idéalise Dans mes plus beaux rêves, comme Paradis je privatise Mais je vais peut-être finir, noyé dans la tise Si j'perd mon temps no, si j'ai pas de plan no je vais mal finir no, posé d'vant l'écran no J'crois tu m'ralenti, mais ça c'est qu'mon ressenti hey, l'espoir retenti hey, je dirais pas tant pis no J'ai comme l'impression qu'tu sert à rien han T'es présente seulement, quand tout va bien han Le temps c'est de l'argent et je le paye wow T'es tellement acquise que je n'crains rien han J'ai comme l'impression qu'tu sert à rien han T'es présente seulement, quand tout va bien han Le temps c'est de l'argent et je le paye wow T'es tellement acquise que je n'crains rien wou You might also like J'ai coeur fermé, j'ai coeur fermé, j'ai coeur fermé, j'ai coeur fermé, j'ai coeur fermé, j'ai coeur fermé hey J'me suis laissé envahir, par la routine, pourtant je sais que j't'aime pas mais je m'obstine Foncer droit dans l'mur, c'est c'qu'on fait j'suis baisé complet, plein d'projet, j'avais, j'réaliserai, jamais Relations bien entamée, mon cur n'est plus enflammé Sans âme, j'n'ai plus d'passion plus d'plaisir, même quand, j'te la met On finira pas, en apothéose no, à quoi ressemblera ta vie, à la ménopause Tu te lasseras, tu t'taperas, un collègue salope J'vais m'lasser, j'serai pris de colère salope Qui nous comprendra mieux qu'nous, on va finir par être fou, l'habitude à pris l'dessus on va s'aimer par défaut Tu m'suces mieux pour qu'je reste, merde plus je reste plus j'te blesse J'me retourne pour mater fesses au-d'ssus d'mon coeur c'est l'Everest Il faut qu'tu t'fasse à l'idée qu'serai jamais ton mari Désolé mais j'dois t'quitter pour conquérir Paris hey-yeah J'ai comme l'impression qu'tu sert à rien han T'es présente seulement, quand tout va bien han Le temps c'est de l'argent et je le paye han T'es tellement acquise que je n'crains rien han J'ai comme l'impression qu'tu sert à rien han T'es présente seulement, quand tout va bien han Le temps c'est de l'argent et je le paye han T'es tellement acquise que je n'crains rien wou J'ai coeur fermé, j'ai coeur fermé, j'ai coeur fermé, j'ai coeur fermé, j'ai coeur fermé, j'ai coeur fermé hey voix robotisée J'ai coeur fermé ? J'ai coeur fermé ? x3 J'ai coeur fermé ? J'ai coeur fermé ? x3</t>
+          <t>voix robotisée J'ai coeur fermé ? J'ai coeur fermé ? x3 J'ai coeur fermé ? J'ai coeur fermé ? x3 Ma belle si j'te baise c'est pour eilaj mes peines Tu m'auras pas comme mon ancêtre au jardin d'Éden Tant qu'tu n'as pas d'MST, on continuera continuera Tu t'demandes si j'vais te laisser, qui vivra verra On refera nos vies comme t'as refait t'a poitrine Quand tu t'endormira, j'irai baiser la voisine Si j'ai pas d'chance j'te ferai des gosses, t'as fait, rouler ma bosse, bosser de neuf à cinq, rentrer, mater la boxe hey J'm'enfonce et je réalise, dans l'instant présent, je rêve et j'idéalise Dans mes plus beaux rêves, comme Paradis je privatise Mais je vais peut-être finir, noyé dans la tise Si j'perd mon temps no, si j'ai pas de plan no je vais mal finir no, posé d'vant l'écran no J'crois tu m'ralenti, mais ça c'est qu'mon ressenti hey, l'espoir retenti hey, je dirais pas tant pis no J'ai comme l'impression qu'tu sert à rien han T'es présente seulement, quand tout va bien han Le temps c'est de l'argent et je le paye wow T'es tellement acquise que je n'crains rien han J'ai comme l'impression qu'tu sert à rien han T'es présente seulement, quand tout va bien han Le temps c'est de l'argent et je le paye wow T'es tellement acquise que je n'crains rien wou J'ai coeur fermé, j'ai coeur fermé, j'ai coeur fermé, j'ai coeur fermé, j'ai coeur fermé, j'ai coeur fermé hey J'me suis laissé envahir, par la routine, pourtant je sais que j't'aime pas mais je m'obstine Foncer droit dans l'mur, c'est c'qu'on fait j'suis baisé complet, plein d'projet, j'avais, j'réaliserai, jamais Relations bien entamée, mon cur n'est plus enflammé Sans âme, j'n'ai plus d'passion plus d'plaisir, même quand, j'te la met On finira pas, en apothéose no, à quoi ressemblera ta vie, à la ménopause Tu te lasseras, tu t'taperas, un collègue salope J'vais m'lasser, j'serai pris de colère salope Qui nous comprendra mieux qu'nous, on va finir par être fou, l'habitude à pris l'dessus on va s'aimer par défaut Tu m'suces mieux pour qu'je reste, merde plus je reste plus j'te blesse J'me retourne pour mater fesses au-d'ssus d'mon coeur c'est l'Everest Il faut qu'tu t'fasse à l'idée qu'serai jamais ton mari Désolé mais j'dois t'quitter pour conquérir Paris hey-yeah J'ai comme l'impression qu'tu sert à rien han T'es présente seulement, quand tout va bien han Le temps c'est de l'argent et je le paye han T'es tellement acquise que je n'crains rien han J'ai comme l'impression qu'tu sert à rien han T'es présente seulement, quand tout va bien han Le temps c'est de l'argent et je le paye han T'es tellement acquise que je n'crains rien wou J'ai coeur fermé, j'ai coeur fermé, j'ai coeur fermé, j'ai coeur fermé, j'ai coeur fermé, j'ai coeur fermé hey voix robotisée J'ai coeur fermé ? J'ai coeur fermé ? x3 J'ai coeur fermé ? J'ai coeur fermé ? x3</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Des fois, j'aimerais tellement avoir la rage du début Et comme un con, j'me rappelle que j'suis toujours au début J'préfère être dans les parages que disparaître T'es en sueur quand les keufs t'arrêtent, alors qu'y'a rien dans ta mallette Tout c'qui m'vient à l'esprit, prends tes sous, investis J'me sens comme sous LSD quand j'prends le flow de Fifty Petit corps, petite taille, mais un chemin je me suis frayé Non, ta mère n'est pas une pute, quand j'la baise j'ai pas à payer J'ai des meilleurs ennemis et puis j'ai des pire amis Pas pour moi la vie d'famille car j'aime trop la tyrannie J'suis l'mauvais élève de Villiers-le-Bel, double peine J'kiffe pas de planche comme polonaise, moi j'suis l'futur colonel J't'enverrais au bloc opératoire comme rat d'laboratoire J'vais t'enculer et j'vais boire ta mère c'est pas la mer à boire J'suis l'futur j'le dis sans prétention mais t'as du mal à l'croire Mon frérot encore sous détention donc j'en dors mal le soir T'as une arme en plastique, une erreur dans l'casting Mes soldats au garde à vous, arrogant j'les pousse à bout T'as une arme en plastique, une erreur dans l'casting Mes soldats au garde à vous, arrogant j'les pousse à bout Ta putain frôle l'overdose tu captes ? Fais bellek à qui tu causes, car chez nous y'a que des loups T'as une arme en plastique, une erreur dans l'casting Mes soldats au garde à vous, arrogant j'les pousse à bout You might also like La misère, j'la connais, car j'l'ai vue toute mon enfance Tu sers à r, comme une meuf qui rappe en France Si j'dois mourir demain, j'emmène mes ennemis dans mes bagages J'marche seul dans la ville, bats les couilles j'ai v'la les palabres J'respecte ni lui ni elle, j'ai peu d'amis fidèles Organes sont en métaux, boycotté comme ghetto Quand j'attaque comme Eto'o, j'ai le flow de Magnéto Tu rappes trop à l'ancienne, j'regarde tes clips dans l'magnéto J'suis tellement dans l'futur qu'j'ai oublié qu'il était tôt J'suis tellement dans l'bre-som qu'j'ai oublié qu'il faisait beau J'suis fêlé comme Trevor Quand j'recherche le trésor Trop d'fumée dans la pièce Des souvenirs c'est tout ce qu'il me reste T'as une arme en plastique, une erreur dans l'casting Mes soldats au garde à vous, arrogant j'les pousse à bout T'as une arme en plastique, une erreur dans l'casting Mes soldats au garde à vous, arrogant j'les pousse à bout Ta putain frôle l'overdose tu captes ? Fais bellek à qui tu causes, car chez nous y'a que des loups T'as une arme en plastique, une erreur dans l'casting Mes soldats au garde à vous, arrogant j'les pousse à bout Hey Okay, hey, hey, zouin, zouin Contre p'tit enculé, j'ai l'arsenal ils n'sont pas de taille Je parle peu, j'suis silencieux, quand j'leur fais face j'laisse pas de faille Jack Daniel, Hennessy, je n'bois pas d'teilles de Ballantines Trop de putains veulent le butin, s'font discrets comme feu de paille No no no, c'est trop tôt, j'ai c'qu'il faut pour les ken comme bonobo Trop de weed à l'état j'obligeais d'voir vert comme écolo N'attends pas ta bague, ça sert à rien j'serais très mauvais époux Je vis comme si j'étais mort, ça sert à rien de prendre mon pouls</t>
+          <t>Des fois, j'aimerais tellement avoir la rage du début Et comme un con, j'me rappelle que j'suis toujours au début J'préfère être dans les parages que disparaître T'es en sueur quand les keufs t'arrêtent, alors qu'y'a rien dans ta mallette Tout c'qui m'vient à l'esprit, prends tes sous, investis J'me sens comme sous LSD quand j'prends le flow de Fifty Petit corps, petite taille, mais un chemin je me suis frayé Non, ta mère n'est pas une pute, quand j'la baise j'ai pas à payer J'ai des meilleurs ennemis et puis j'ai des pire amis Pas pour moi la vie d'famille car j'aime trop la tyrannie J'suis l'mauvais élève de Villiers-le-Bel, double peine J'kiffe pas de planche comme polonaise, moi j'suis l'futur colonel J't'enverrais au bloc opératoire comme rat d'laboratoire J'vais t'enculer et j'vais boire ta mère c'est pas la mer à boire J'suis l'futur j'le dis sans prétention mais t'as du mal à l'croire Mon frérot encore sous détention donc j'en dors mal le soir T'as une arme en plastique, une erreur dans l'casting Mes soldats au garde à vous, arrogant j'les pousse à bout T'as une arme en plastique, une erreur dans l'casting Mes soldats au garde à vous, arrogant j'les pousse à bout Ta putain frôle l'overdose tu captes ? Fais bellek à qui tu causes, car chez nous y'a que des loups T'as une arme en plastique, une erreur dans l'casting Mes soldats au garde à vous, arrogant j'les pousse à bout La misère, j'la connais, car j'l'ai vue toute mon enfance Tu sers à r, comme une meuf qui rappe en France Si j'dois mourir demain, j'emmène mes ennemis dans mes bagages J'marche seul dans la ville, bats les couilles j'ai v'la les palabres J'respecte ni lui ni elle, j'ai peu d'amis fidèles Organes sont en métaux, boycotté comme ghetto Quand j'attaque comme Eto'o, j'ai le flow de Magnéto Tu rappes trop à l'ancienne, j'regarde tes clips dans l'magnéto J'suis tellement dans l'futur qu'j'ai oublié qu'il était tôt J'suis tellement dans l'bre-som qu'j'ai oublié qu'il faisait beau J'suis fêlé comme Trevor Quand j'recherche le trésor Trop d'fumée dans la pièce Des souvenirs c'est tout ce qu'il me reste T'as une arme en plastique, une erreur dans l'casting Mes soldats au garde à vous, arrogant j'les pousse à bout T'as une arme en plastique, une erreur dans l'casting Mes soldats au garde à vous, arrogant j'les pousse à bout Ta putain frôle l'overdose tu captes ? Fais bellek à qui tu causes, car chez nous y'a que des loups T'as une arme en plastique, une erreur dans l'casting Mes soldats au garde à vous, arrogant j'les pousse à bout Hey Okay, hey, hey, zouin, zouin Contre p'tit enculé, j'ai l'arsenal ils n'sont pas de taille Je parle peu, j'suis silencieux, quand j'leur fais face j'laisse pas de faille Jack Daniel, Hennessy, je n'bois pas d'teilles de Ballantines Trop de putains veulent le butin, s'font discrets comme feu de paille No no no, c'est trop tôt, j'ai c'qu'il faut pour les ken comme bonobo Trop de weed à l'état j'obligeais d'voir vert comme écolo N'attends pas ta bague, ça sert à rien j'serais très mauvais époux Je vis comme si j'étais mort, ça sert à rien de prendre mon pouls</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>400 putain d'4 J'reviens me venger comme MF Doom Bang, boom Qu'est-ce que tu nous montres là ? Fais voir ce que tu montres là Fais voir, fais voir, fais voir Tu nous montres ton disque d'or mais montre-nous ton pourcentage J'suis un gamin, j'ai douze ans d'âge indé j'suis tout à coup sans cage Pourquoi ce sont tous des suiveurs ? Ma réponse, tu vas adorer George Floyd, c'est loin, y a plus personne aux manifs d'Assa Traoré Sombre triche anti-sèche, téléphone rempli d'textes J'me lève pas souvent du bon pied, j'ai envie d'être ambidextre T'as peur du succès ? Mais frérot, rassure-toi Même si tu sors un double album, tous les yeux ne s'ront pas sur toi Toujours le style insolent, j'flingue tout l'monde dans mes paroles Et si quelqu'un m'envoie un pique, j'préviens, j'insulte les daronnes Qu'est-ce que j'm'en tape que mes pensées divisent Ils préfèrent ceux qui divertissent à ceux qui pensent et qui disent Ils veulent quand même qu'on sache des choses, c'est un étrange équilibre Ils n'aiment pas trop les noirs qui lisent, préfèrent qu'ils dansent et qu'ils tisent glou, glou, glou, glou Les grandes marques sont les véritables OG Ils utilisent des idéologies pour mieux vendre leurs produits You might also like C'est l'arrivée du 4, c'est l'arrivée du crack J'viens enculer ton peuple, comme l'arrivée du crack Putain, t'es un baisé dans c'que tu dis, Billy T'es un fou dans ta tête, t'es un baisé frère ! C'est l'arrivée du 4, c'est l'arrivée du crack J'viens enculer ton peuple, comme l'arrivée du crack Tu vas te faire boycotte, frère si ça continue comme ça Attention, frérot, c'est chelou un peu La cancel culture est juste une dictature Plus j'crois en Dieu et plus leurs menaces, j'les vois en miniature en mini, mini Autant d'remords pour mes propos dans BLKKKK VAN GOGH, que Shay a écrit de textes dans sa carrière Bizarre comme un pote qui vient pas au placard te voir Comme un message qui dit Mmh, j'vais rentrer tard ce soir ça sent la tromperie Les meufs blanches veulent avoir le teint des arabes Les arabes veulent avoir les fesses des noires Les meufs noires veulent avoir les cheveux des blanches Y'a pas d'rimes, j'suis grave perdu dans tout c'merdier J'vois le monde par ma fenêtre comme Zamdane Avant la vie était plus belle comme Bagdad zoin Droit comme épouvantail J'suis à l'intérieur d'elle, elle a les pieds en éventail, j'lui laisse la chatte en emmental Race humaine est robotisée, penser n'est plus autorisé Rap français est boboïsé, on s'est fait lobotomiser C'est l'arrivée du 4, c'est l'arrivée du crack J'viens enculer ton peuple, comme l'arrivée du crack Wesh 404, tu vas pas manger en disant trop la vérité, faut que tu sois dans le top 50, faut que ton son passe en rotation Tu vois faut que tu manges toi aussi frérot C'est l'arrivée du 4, c'est l'arrivée du crack J'viens enculer ton peuple, comme l'arrivée du crack Mais Billy t'es conscient si tu dis des propos comme ça tu vas te faire boycotte des médias, ça va être chaud pour toi, tu vois le délire ? Ferme ta gueule frère</t>
+          <t>400 putain d'4 J'reviens me venger comme MF Doom Bang, boom Qu'est-ce que tu nous montres là ? Fais voir ce que tu montres là Fais voir, fais voir, fais voir Tu nous montres ton disque d'or mais montre-nous ton pourcentage J'suis un gamin, j'ai douze ans d'âge indé j'suis tout à coup sans cage Pourquoi ce sont tous des suiveurs ? Ma réponse, tu vas adorer George Floyd, c'est loin, y a plus personne aux manifs d'Assa Traoré Sombre triche anti-sèche, téléphone rempli d'textes J'me lève pas souvent du bon pied, j'ai envie d'être ambidextre T'as peur du succès ? Mais frérot, rassure-toi Même si tu sors un double album, tous les yeux ne s'ront pas sur toi Toujours le style insolent, j'flingue tout l'monde dans mes paroles Et si quelqu'un m'envoie un pique, j'préviens, j'insulte les daronnes Qu'est-ce que j'm'en tape que mes pensées divisent Ils préfèrent ceux qui divertissent à ceux qui pensent et qui disent Ils veulent quand même qu'on sache des choses, c'est un étrange équilibre Ils n'aiment pas trop les noirs qui lisent, préfèrent qu'ils dansent et qu'ils tisent glou, glou, glou, glou Les grandes marques sont les véritables OG Ils utilisent des idéologies pour mieux vendre leurs produits C'est l'arrivée du 4, c'est l'arrivée du crack J'viens enculer ton peuple, comme l'arrivée du crack Putain, t'es un baisé dans c'que tu dis, Billy T'es un fou dans ta tête, t'es un baisé frère ! C'est l'arrivée du 4, c'est l'arrivée du crack J'viens enculer ton peuple, comme l'arrivée du crack Tu vas te faire boycotte, frère si ça continue comme ça Attention, frérot, c'est chelou un peu La cancel culture est juste une dictature Plus j'crois en Dieu et plus leurs menaces, j'les vois en miniature en mini, mini Autant d'remords pour mes propos dans BLKKKK VAN GOGH, que Shay a écrit de textes dans sa carrière Bizarre comme un pote qui vient pas au placard te voir Comme un message qui dit Mmh, j'vais rentrer tard ce soir ça sent la tromperie Les meufs blanches veulent avoir le teint des arabes Les arabes veulent avoir les fesses des noires Les meufs noires veulent avoir les cheveux des blanches Y'a pas d'rimes, j'suis grave perdu dans tout c'merdier J'vois le monde par ma fenêtre comme Zamdane Avant la vie était plus belle comme Bagdad zoin Droit comme épouvantail J'suis à l'intérieur d'elle, elle a les pieds en éventail, j'lui laisse la chatte en emmental Race humaine est robotisée, penser n'est plus autorisé Rap français est boboïsé, on s'est fait lobotomiser C'est l'arrivée du 4, c'est l'arrivée du crack J'viens enculer ton peuple, comme l'arrivée du crack Wesh 404, tu vas pas manger en disant trop la vérité, faut que tu sois dans le top 50, faut que ton son passe en rotation Tu vois faut que tu manges toi aussi frérot C'est l'arrivée du 4, c'est l'arrivée du crack J'viens enculer ton peuple, comme l'arrivée du crack Mais Billy t'es conscient si tu dis des propos comme ça tu vas te faire boycotte des médias, ça va être chaud pour toi, tu vois le délire ? Ferme ta gueule frère</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Mr.AAA authenticité, art, argent Car c'est tout cqu'il a ZoinGoinZoin Le 4 Let's go, on va leur montrer un peu Hey Nuit blanche, pensées noires Jsuis tenté d'boire, quand j'me mets à penser l'soir J'science sur relation et finance en silence Indépendant, freelance J'ai repris mon cash sur Binance J'cache bénéfice max en dessous du clic-clac J'laisse de stigmates aux primates quand jai lesprit de Pac Si y a trop de rgards, j'vais autre part Jveux passer du hall d gare à l'Audemars 404DOOM, super villain, KIDVILLAIN, Madvillain C'est tout droit, y a pas d'dilemme Dans mon lit, dans mes loges ya pas de filles laides, pas de vilaines Elles passent à la douane à chaque DM, zoin 404 partout sur les écriteaux J'ai compris tôt, j'ai appris tôt, j'ai écrit tôt J'me fais d'l'argent sans faire billets verts sales Indépendant, sa mère Universal Rappeur j'viens t'finir, faire oublier ton hit Parle pas sur moi ou tu vas supprimer ton tweet Dans l'cimetière d'mes connaissances, là où mes exs trainent C'est dangereux, plus j'grandis, plus j'deviens extrême J'arrête l'alcool, la fête, j'arrête les goes J'suis l'Joker de Phoenix, t'es celui d'Jared Leto Nouvelle folie entraine nouvelle connerie Nouvelle money, faut qu'j'achète nouvelle Rollie Ça d'vient lassant, tout le game s'prend pour N.I J'aime mes gosses, j'emmène leur mère à Santorini J'échoue, je prie, je pète le score, je prie Même pour le Diable, nos âmes sont hors de prix Tous tes ennemis s'maquillent en fidèles amis Aucun fils de pute me dit comment vivre ma vie J'ai des démons comme toi, j'dois les neutraliser T'es avec nous ou contre nous, y'a pas de neutralité You might also like Dans les choses fiables, mon capital j'mise RIP MF DOOM, Capital Steez Mr.AAA authenticité, art, argent Car c'est tout c'qu'il a Zoin La principale raison pour laquelle le respect dû à une personne peut diminuer, c'est sa disponibilité, l'excès de disponibilité</t>
+          <t>Mr.AAA authenticité, art, argent Car c'est tout cqu'il a ZoinGoinZoin Le 4 Let's go, on va leur montrer un peu Hey Nuit blanche, pensées noires Jsuis tenté d'boire, quand j'me mets à penser l'soir J'science sur relation et finance en silence Indépendant, freelance J'ai repris mon cash sur Binance J'cache bénéfice max en dessous du clic-clac J'laisse de stigmates aux primates quand jai lesprit de Pac Si y a trop de rgards, j'vais autre part Jveux passer du hall d gare à l'Audemars 404DOOM, super villain, KIDVILLAIN, Madvillain C'est tout droit, y a pas d'dilemme Dans mon lit, dans mes loges ya pas de filles laides, pas de vilaines Elles passent à la douane à chaque DM, zoin 404 partout sur les écriteaux J'ai compris tôt, j'ai appris tôt, j'ai écrit tôt J'me fais d'l'argent sans faire billets verts sales Indépendant, sa mère Universal Rappeur j'viens t'finir, faire oublier ton hit Parle pas sur moi ou tu vas supprimer ton tweet Dans l'cimetière d'mes connaissances, là où mes exs trainent C'est dangereux, plus j'grandis, plus j'deviens extrême J'arrête l'alcool, la fête, j'arrête les goes J'suis l'Joker de Phoenix, t'es celui d'Jared Leto Nouvelle folie entraine nouvelle connerie Nouvelle money, faut qu'j'achète nouvelle Rollie Ça d'vient lassant, tout le game s'prend pour N.I J'aime mes gosses, j'emmène leur mère à Santorini J'échoue, je prie, je pète le score, je prie Même pour le Diable, nos âmes sont hors de prix Tous tes ennemis s'maquillent en fidèles amis Aucun fils de pute me dit comment vivre ma vie J'ai des démons comme toi, j'dois les neutraliser T'es avec nous ou contre nous, y'a pas de neutralité Dans les choses fiables, mon capital j'mise RIP MF DOOM, Capital Steez Mr.AAA authenticité, art, argent Car c'est tout c'qu'il a Zoin La principale raison pour laquelle le respect dû à une personne peut diminuer, c'est sa disponibilité, l'excès de disponibilité</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Si je crève demain, j'aurais vécu pour rien car j'n'ai pas d'oseille Quand je me réveille, je pense déjà au lendemain Je cherche le sommeil car j'en ai besoin Et j'menfonce dans un trou noir sans dire au revoir, yeah Sombre mélodie, vérité se cache dans l'ironie Tu veux d'l'amour ? T'auras qu'une sodomie J'aurais aimé avoir d'autres vies J'suis tellement fier, garde tes conseils, j'suis sourde oreille Mets du HSE dans mon verre, j'pense que j'vais vider la bouteille J'suis tellement fier, garde tes conseils, j'suis sourde oreille Mets du HSE dans mon verre, j'pense que j'vais vider la bouteille Si je crève demain, j'aurais vécu pour rien car j'n'ai pas d'oseille Quand je me réveille, je pense déjà au lendemain Je cherche le sommeil car j'en ai besoin Et j'menfonce dans un trou noir sans dire au revoir, yeah Si je crève demain, j'aurais vécu pour rien car j'n'ai pas d'oseille Quand je me réveille, je pense déjà au lendemain Si je crève demainYou might also like</t>
+          <t>Si je crève demain, j'aurais vécu pour rien car j'n'ai pas d'oseille Quand je me réveille, je pense déjà au lendemain Je cherche le sommeil car j'en ai besoin Et j'menfonce dans un trou noir sans dire au revoir, yeah Sombre mélodie, vérité se cache dans l'ironie Tu veux d'l'amour ? T'auras qu'une sodomie J'aurais aimé avoir d'autres vies J'suis tellement fier, garde tes conseils, j'suis sourde oreille Mets du HSE dans mon verre, j'pense que j'vais vider la bouteille J'suis tellement fier, garde tes conseils, j'suis sourde oreille Mets du HSE dans mon verre, j'pense que j'vais vider la bouteille Si je crève demain, j'aurais vécu pour rien car j'n'ai pas d'oseille Quand je me réveille, je pense déjà au lendemain Je cherche le sommeil car j'en ai besoin Et j'menfonce dans un trou noir sans dire au revoir, yeah Si je crève demain, j'aurais vécu pour rien car j'n'ai pas d'oseille Quand je me réveille, je pense déjà au lendemain Si je crève demain</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Dose C'est sombre J'étais petit, je n'comprenais rien On m'avait dit qu'le monde était stone Les rappeurs sont plus fans de 2Pac Les rappeurs jouent les Rolling Stones Nettoyeur sur mon curriculum J'ai compris que la misère tuait l'homme hey, hey En vainquant, les anges me raisonnent, wouh wouh J'suis dans ta chatte, j'la visite bien j'la visite bien P'tit banlieusard, t'es qu'un boloss Tu t'fais dépouille par Philipp Plein fuck Y a mes traces sur le crime Sans remords, j'récidive hey, hey Pas beaucoup d'vues ni de streams, mais j'suis le prince légitime J'vais y arriver sans qu'personne me pousse personne me pousse J'regarde les têtes d'affiche du game, j'suis meilleur qu'eux tous ils le savent J'manque de respect à ta daronne, normal, j'ai pas ses valeurs salope, salope J'ferai plus de clips en couleurs quand j'aurai soigné mes douleurs hey hey Ne joue pas trop l'adorateur hey, j'ai peu de collaborateurs hey C'que j'te raconte, c'est c'que je vis chiche Je suis l'acteur et l'narrateur hey Réunis les Dragon Ball ou frotte la lampe pour m'invoquer Ta meuf, c'est comme le monde, elle n'arrête pas d'tourner pute Doigt d'honneur devant l'gendarme Sans âme, matrixé j'suis comme Van Damme, au calme Drapeau blanc est dans l'garage, au sale Boycottage de la culture total Qui de nous va réussir ? Quelques cadavres, oh j'ai vu pire Est-ce que Billy va s'en sortir ? Demande à ton père, il va t'dire demande Hey groupie, t'as la chatte mouillée ouh Va en Enfer et attends qu'ça sèche sale pute Méfie-toi, j'suis qu'un jeunot J'suis loin d'la retraite et des dents d'sagesse T'es plus à la mode comme négro de Châtelet Mais tu forces sur Instagram Dans ma rue, se vendent quelques grammes Dans ma rue, se passent quelques drames hey J'suis pas Dadju, j'suis pas Gentleman ouh J'casse le cul de ses gentilles dames Très instables sont mes états d'âme J'préfère perdre plutôt qu'être un âne hey J'ai pas leurs codes ni leur mentalité dose Personne te calcule si t'es pas validé dose Pas dans le move, j'ai sombre identité J'suis pas humain, j'suis non-identifié dose, dose You might also like 404 Billy, Billy, hey Allez zouin Allez zouin</t>
+          <t>Dose C'est sombre J'étais petit, je n'comprenais rien On m'avait dit qu'le monde était stone Les rappeurs sont plus fans de 2Pac Les rappeurs jouent les Rolling Stones Nettoyeur sur mon curriculum J'ai compris que la misère tuait l'homme hey, hey En vainquant, les anges me raisonnent, wouh wouh J'suis dans ta chatte, j'la visite bien j'la visite bien P'tit banlieusard, t'es qu'un boloss Tu t'fais dépouille par Philipp Plein fuck Y a mes traces sur le crime Sans remords, j'récidive hey, hey Pas beaucoup d'vues ni de streams, mais j'suis le prince légitime J'vais y arriver sans qu'personne me pousse personne me pousse J'regarde les têtes d'affiche du game, j'suis meilleur qu'eux tous ils le savent J'manque de respect à ta daronne, normal, j'ai pas ses valeurs salope, salope J'ferai plus de clips en couleurs quand j'aurai soigné mes douleurs hey hey Ne joue pas trop l'adorateur hey, j'ai peu de collaborateurs hey C'que j'te raconte, c'est c'que je vis chiche Je suis l'acteur et l'narrateur hey Réunis les Dragon Ball ou frotte la lampe pour m'invoquer Ta meuf, c'est comme le monde, elle n'arrête pas d'tourner pute Doigt d'honneur devant l'gendarme Sans âme, matrixé j'suis comme Van Damme, au calme Drapeau blanc est dans l'garage, au sale Boycottage de la culture total Qui de nous va réussir ? Quelques cadavres, oh j'ai vu pire Est-ce que Billy va s'en sortir ? Demande à ton père, il va t'dire demande Hey groupie, t'as la chatte mouillée ouh Va en Enfer et attends qu'ça sèche sale pute Méfie-toi, j'suis qu'un jeunot J'suis loin d'la retraite et des dents d'sagesse T'es plus à la mode comme négro de Châtelet Mais tu forces sur Instagram Dans ma rue, se vendent quelques grammes Dans ma rue, se passent quelques drames hey J'suis pas Dadju, j'suis pas Gentleman ouh J'casse le cul de ses gentilles dames Très instables sont mes états d'âme J'préfère perdre plutôt qu'être un âne hey J'ai pas leurs codes ni leur mentalité dose Personne te calcule si t'es pas validé dose Pas dans le move, j'ai sombre identité J'suis pas humain, j'suis non-identifié dose, dose 404 Billy, Billy, hey Allez zouin Allez zouin</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Zoin zoin zoin zoin zoin C'est comment, boy C'est comment, tou-tou-tou-tou Kichta sur le bras comme Posh ST Faut que je prenne rendez-vous chez l'psy On est des diamants boy on est des vrais Eux c'est des faux c'est des Fugazi Elle veut nos liasses la follasse wouh Elle veut nos liasses la follasse la folle On est des lions comme Aulas hey J'trimbale des ours comme Polak PLK J'préfère l'attaque que la défense hy L'investissement qu la dépense fort On agit toujours dans la méfiance On fait gaffe, on fait gaffe on fait gaffe Sa chatte est déjà en feu tchou Y'a pas besoin de siège chauffant oh Son tissage passe par le toit ouvrant huh Merde J'aime bien les biatchs j'aime bien les biatchs Mais de temps en temps de temps en temps Posé dans l'carré VIP poser des bouteilles de temps en temps de temps en temps Liker des gros cavus liker des gros cavus De temps en temps de temps en temps J'suis quelqu'un de bien mais j'peux devenir un Sheitan en un rien d'temps en rien d'temps J'aime bien les biatchs Mais de temps en temps de temps en temps Posé dans l'carré VIP poser des bouteilles de temps en temps de temps en temps Liker des gros cavus De temps en temps de temps en temps J'suis quelqu'un de bien mais j'peux devenir un Sheitan en un rien d'temps en rien d'temps You might also like Boy Du prochain king j'ai les symptômes il faut qu'tu captes boy, il faut qu'ca cartonne fort Dans la Nation pas de fuckboy, y'a que des véritables des gens tah Top Boy boy Nouveau CEO hey Tu mets les petits sur le terrain Briques de billets s'emboîtent comme dans Tetris, on vient d'en bas donc on perd, rien rien du tout T'as dis mon nom t'en as déjà trop dit wouh Tous les OG's veulent être riches comme Roddy tou-tou-tou-tou Faut qu'j'ai la science d'un mec d'ATL hey Il m'faut une danseuse comme au KOD, comme au KOD, comme au KOD KOD J'les vois en cafards, j'ai vision d'Oggy Quand j'vais chez elle, j'suis en mission doggy, style J'aime bien les biatchs Mais de temps en temps de temps en temps Posé dans l'carré VIP poser des bouteilles de temps en temps de temps en temps Liker des gros cavus De temps en temps de temps en temps J'suis quelqu'un de bien mais j'peux devenir un Sheitan en un rien d'temps en rien d'temps J'aime bien les biatchs Mais de temps en temps de temps en temps Posé dans l'carré VIP poser des bouteilles de temps en temps de temps en temps Liker des gros cavus De temps en temps de temps en temps J'suis quelqu'un de bien mais j'peux devenir un Sheitan en un rien d'temps en rien d'temps Doudoune Suprême, nouvelles Jordan J'suis le type inabordable toujours Pour te braquer y'a pas besoin d'port d'arme on est des voyous pas gendarmes gang Plusieurs bad bitchs dans le i12 hey Ça sent l'vécu elles aiment les mecs crus Mon cousin m'dit à minuit douze Il reste que des culs dans le RS que des chattes On est pas méchants, pour une fin heureuse, on t'liquide au salon d'massage braah J'pense à mon prochain, j'tue que les adultes, j'épargne les enfants en bas âge braah Y'a pas de magie fais confiance à ton frère, et tu finis comme Mufasa Vas faire des sous sinon reste à la casa zoin, tou-tou-tou-tou</t>
+          <t>Zoin zoin zoin zoin zoin C'est comment, boy C'est comment, tou-tou-tou-tou Kichta sur le bras comme Posh ST Faut que je prenne rendez-vous chez l'psy On est des diamants boy on est des vrais Eux c'est des faux c'est des Fugazi Elle veut nos liasses la follasse wouh Elle veut nos liasses la follasse la folle On est des lions comme Aulas hey J'trimbale des ours comme Polak PLK J'préfère l'attaque que la défense hy L'investissement qu la dépense fort On agit toujours dans la méfiance On fait gaffe, on fait gaffe on fait gaffe Sa chatte est déjà en feu tchou Y'a pas besoin de siège chauffant oh Son tissage passe par le toit ouvrant huh Merde J'aime bien les biatchs j'aime bien les biatchs Mais de temps en temps de temps en temps Posé dans l'carré VIP poser des bouteilles de temps en temps de temps en temps Liker des gros cavus liker des gros cavus De temps en temps de temps en temps J'suis quelqu'un de bien mais j'peux devenir un Sheitan en un rien d'temps en rien d'temps J'aime bien les biatchs Mais de temps en temps de temps en temps Posé dans l'carré VIP poser des bouteilles de temps en temps de temps en temps Liker des gros cavus De temps en temps de temps en temps J'suis quelqu'un de bien mais j'peux devenir un Sheitan en un rien d'temps en rien d'temps Boy Du prochain king j'ai les symptômes il faut qu'tu captes boy, il faut qu'ca cartonne fort Dans la Nation pas de fuckboy, y'a que des véritables des gens tah Top Boy boy Nouveau CEO hey Tu mets les petits sur le terrain Briques de billets s'emboîtent comme dans Tetris, on vient d'en bas donc on perd, rien rien du tout T'as dis mon nom t'en as déjà trop dit wouh Tous les OG's veulent être riches comme Roddy tou-tou-tou-tou Faut qu'j'ai la science d'un mec d'ATL hey Il m'faut une danseuse comme au KOD, comme au KOD, comme au KOD KOD J'les vois en cafards, j'ai vision d'Oggy Quand j'vais chez elle, j'suis en mission doggy, style J'aime bien les biatchs Mais de temps en temps de temps en temps Posé dans l'carré VIP poser des bouteilles de temps en temps de temps en temps Liker des gros cavus De temps en temps de temps en temps J'suis quelqu'un de bien mais j'peux devenir un Sheitan en un rien d'temps en rien d'temps J'aime bien les biatchs Mais de temps en temps de temps en temps Posé dans l'carré VIP poser des bouteilles de temps en temps de temps en temps Liker des gros cavus De temps en temps de temps en temps J'suis quelqu'un de bien mais j'peux devenir un Sheitan en un rien d'temps en rien d'temps Doudoune Suprême, nouvelles Jordan J'suis le type inabordable toujours Pour te braquer y'a pas besoin d'port d'arme on est des voyous pas gendarmes gang Plusieurs bad bitchs dans le i12 hey Ça sent l'vécu elles aiment les mecs crus Mon cousin m'dit à minuit douze Il reste que des culs dans le RS que des chattes On est pas méchants, pour une fin heureuse, on t'liquide au salon d'massage braah J'pense à mon prochain, j'tue que les adultes, j'épargne les enfants en bas âge braah Y'a pas de magie fais confiance à ton frère, et tu finis comme Mufasa Vas faire des sous sinon reste à la casa zoin, tou-tou-tou-tou</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Junior Alaprod, et nan, y a rien d'nouveau Le soir j'suis posé, ivre Vaut mieux être pauvre et libre La mort viendra m'chercher car elle est possessive J'ai des cadavres dans l'coffre Mauvais élève dit l'prof Que des sons d'merde dans l'top Négro, j'refuse leurs offres Leurs armes ne sont que des hashtags Que de trouvailles dans mes recherches la nuit J'suis seul-tout dans la batcave Peu de personnes me correspondent Chaque seconde, je quitte un peu ce monde Face aux problèmes, l'être humain seffondre et s'enfonce Tout seul dans la pénombre J'suis un rebelle, j'suis le régicide Quand j'te verrai plus, je te ferai signe Quand la gloire et l'argent se dessinent, l'homme se décide C'est vrai, ils n'ont pas laissé d'chance Ils n'ont pas m'né la danse J'aime bien l'argent, j'préfère l'indépendance Tu restes en bas du bloc, tu crois qu't'as plus de chance Les yeux vers le ciel, cette vie n'a plus de sens Mais j'suis plus fort qu'ils ne l'pensent J'baisse pas mon froc pour redevance Un il sur mes ennemis, négro, fuck l'indifférence Ils nous couvrent de mépris donc je prône la dissidence J'ai trop de blessures pour oublier J'ai trop d'objectifs pour roupiller You might also like Plutôt mourir qu'obéir Je n'entends plus tes je t'aime, bruyants sont les tirs Les politiques sont les pires, hey Les gens du peuple sont les sbires, hey Aussi passionnantes sont les mums, mums Très nombreux seront les faux, oh J'ai peu d'amis, j'ai fait le tri Du succès, j'connais le prix J'peux r'faire le monde avec des si L'être humain aime tout c'qui brille, hé ouais C'est pour ça qu'ça part en vrille, hé ouais Entre ciel et terre, je m'isole Seul le Très-Haut reste mon idole Tu restes en bas du bloc, tu crois qu't'as plus de chance Les yeux vers le ciel, cette vie n'a plus de sens Mais j'suis plus fort qu'ils ne l'pensent J'baisse pas mon froc pour redevance Un il sur mes ennemis, négro, fuck l'indifférence Ils nous couvrent de mépris donc je prône la dissidence J'ai trop de blessures pour oublier J'ai trop d'objectifs pour roupiller</t>
+          <t>Junior Alaprod, et nan, y a rien d'nouveau Le soir j'suis posé, ivre Vaut mieux être pauvre et libre La mort viendra m'chercher car elle est possessive J'ai des cadavres dans l'coffre Mauvais élève dit l'prof Que des sons d'merde dans l'top Négro, j'refuse leurs offres Leurs armes ne sont que des hashtags Que de trouvailles dans mes recherches la nuit J'suis seul-tout dans la batcave Peu de personnes me correspondent Chaque seconde, je quitte un peu ce monde Face aux problèmes, l'être humain seffondre et s'enfonce Tout seul dans la pénombre J'suis un rebelle, j'suis le régicide Quand j'te verrai plus, je te ferai signe Quand la gloire et l'argent se dessinent, l'homme se décide C'est vrai, ils n'ont pas laissé d'chance Ils n'ont pas m'né la danse J'aime bien l'argent, j'préfère l'indépendance Tu restes en bas du bloc, tu crois qu't'as plus de chance Les yeux vers le ciel, cette vie n'a plus de sens Mais j'suis plus fort qu'ils ne l'pensent J'baisse pas mon froc pour redevance Un il sur mes ennemis, négro, fuck l'indifférence Ils nous couvrent de mépris donc je prône la dissidence J'ai trop de blessures pour oublier J'ai trop d'objectifs pour roupiller Plutôt mourir qu'obéir Je n'entends plus tes je t'aime, bruyants sont les tirs Les politiques sont les pires, hey Les gens du peuple sont les sbires, hey Aussi passionnantes sont les mums, mums Très nombreux seront les faux, oh J'ai peu d'amis, j'ai fait le tri Du succès, j'connais le prix J'peux r'faire le monde avec des si L'être humain aime tout c'qui brille, hé ouais C'est pour ça qu'ça part en vrille, hé ouais Entre ciel et terre, je m'isole Seul le Très-Haut reste mon idole Tu restes en bas du bloc, tu crois qu't'as plus de chance Les yeux vers le ciel, cette vie n'a plus de sens Mais j'suis plus fort qu'ils ne l'pensent J'baisse pas mon froc pour redevance Un il sur mes ennemis, négro, fuck l'indifférence Ils nous couvrent de mépris donc je prône la dissidence J'ai trop de blessures pour oublier J'ai trop d'objectifs pour roupiller</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Enchanté Docteur Vérité Le 4' Il est temps Si j'les trouve pas j'vais les trouver chez eux Le matin j'me lève j'fais des pompes et des ufs J'ai trompé son cur, j'ai trompé ses yeux Elle m'en voudra pas j'ai la pilule bleue Dans la vie y'a que deux côtés Celui des chassés, celui des chasseurs Renoi m'aime bien tant qu'j'suis toujours en dessous d'lui Rebeu m'aime bien tant qu'j'veux pas marié sa sur Babtou m'aim bien tant qu'j'continue d'obéir On s'serr la main mais c'est juste pour décorer A la mosquée j'vois qu'tous nos pieds sont collés L'argent les femmes les ont très vite décollés Besoin d'alcool pour parler à cur ouvert Gucci Dior car on a tant souffert Ils montrent tous, leur vacances à Dubaï Bali Jamais leurs comptes à découvert Tu veux faire du business? Tu m'inspire pas trop, j'suis pas trop décidé Y'a trois belles femmes, sur la banquette arrière Et moi j'roule vite comme si j'voulais m'suicider On fait les che-ri, on fait les Emir On fait les che-ri, on fait les Emir J'guette les snaps, d'Aya Nakamura J'ai des pensées qui peuvent fâcher Vladimir T'as niqué ta vie tout seul, accuse pas l'système Tu te rassure en t'disant qu'c'est pas d'ta faute Et qu'toute façon les francs maçons tirent les ficelles Les mêmes raclo qui demandent des chromes Toujours les mêmes racli michto dans les boites A côté des carré, à côté des tables Qui cherche un boug qui fait du foot ou qui rap Ou qui débite des kil et des kil Ou qui débite des kil et des kil Ma meuf est blanche, mon flingue est noir et mes enfants sont métisses J'aime pas les gens weak's Les soit disant woke's J'respect les gens riches J'respect les gens broke's You might also like Moi ce que je regrette particulièrement C'est d'entendre tout le temps les gens se dire Banlieue, banlieue, banlieue, la racaille en banlieue Pourtant il y'a beaucoup d'enfants ici à Villiers-Le-Bel Qui ont réussi... Autour d'un bol de riz, on partage à six Mais quand ça parle d'argent on partage rien En levrette, elle me dit j'ai un peu mal Mais moi j'continue car je pense qu'à mon bien Est-ce que je suis mauvais? Est-ce que j'suis égoïste? Tu m'devais d'l'oseille T'as sorti les violons, la flûte et les choristes, bouffon On fait des gosses puis on laisse les mères seules Parce que les putes sont plus divertissantes La vie d'famille, c'est pas c'que tu croyais Tu trouves rien d'attirant chez une femme au foyer Miroir miroir, dis-moi, qui est l'escroc ? Qui montre son argent qui roule en grosse voiture Alors qu'sa daronne habite dans HLM Des coupures d'eau chaudes, des cafards sur les murs Docteur vérité Au revoir</t>
+          <t>Enchanté Docteur Vérité Le 4' Il est temps Si j'les trouve pas j'vais les trouver chez eux Le matin j'me lève j'fais des pompes et des ufs J'ai trompé son cur, j'ai trompé ses yeux Elle m'en voudra pas j'ai la pilule bleue Dans la vie y'a que deux côtés Celui des chassés, celui des chasseurs Renoi m'aime bien tant qu'j'suis toujours en dessous d'lui Rebeu m'aime bien tant qu'j'veux pas marié sa sur Babtou m'aim bien tant qu'j'continue d'obéir On s'serr la main mais c'est juste pour décorer A la mosquée j'vois qu'tous nos pieds sont collés L'argent les femmes les ont très vite décollés Besoin d'alcool pour parler à cur ouvert Gucci Dior car on a tant souffert Ils montrent tous, leur vacances à Dubaï Bali Jamais leurs comptes à découvert Tu veux faire du business? Tu m'inspire pas trop, j'suis pas trop décidé Y'a trois belles femmes, sur la banquette arrière Et moi j'roule vite comme si j'voulais m'suicider On fait les che-ri, on fait les Emir On fait les che-ri, on fait les Emir J'guette les snaps, d'Aya Nakamura J'ai des pensées qui peuvent fâcher Vladimir T'as niqué ta vie tout seul, accuse pas l'système Tu te rassure en t'disant qu'c'est pas d'ta faute Et qu'toute façon les francs maçons tirent les ficelles Les mêmes raclo qui demandent des chromes Toujours les mêmes racli michto dans les boites A côté des carré, à côté des tables Qui cherche un boug qui fait du foot ou qui rap Ou qui débite des kil et des kil Ou qui débite des kil et des kil Ma meuf est blanche, mon flingue est noir et mes enfants sont métisses J'aime pas les gens weak's Les soit disant woke's J'respect les gens riches J'respect les gens broke's Moi ce que je regrette particulièrement C'est d'entendre tout le temps les gens se dire Banlieue, banlieue, banlieue, la racaille en banlieue Pourtant il y'a beaucoup d'enfants ici à Villiers-Le-Bel Qui ont réussi... Autour d'un bol de riz, on partage à six Mais quand ça parle d'argent on partage rien En levrette, elle me dit j'ai un peu mal Mais moi j'continue car je pense qu'à mon bien Est-ce que je suis mauvais? Est-ce que j'suis égoïste? Tu m'devais d'l'oseille T'as sorti les violons, la flûte et les choristes, bouffon On fait des gosses puis on laisse les mères seules Parce que les putes sont plus divertissantes La vie d'famille, c'est pas c'que tu croyais Tu trouves rien d'attirant chez une femme au foyer Miroir miroir, dis-moi, qui est l'escroc ? Qui montre son argent qui roule en grosse voiture Alors qu'sa daronne habite dans HLM Des coupures d'eau chaudes, des cafards sur les murs Docteur vérité Au revoir</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Faut qu'on marque le temps, j'regarde droit devant Ils ont creusé des trous, j'suis pas tombé d'dans Ils veulent connaître ma vie, tous mes faits et gestes C'est laquelle que je baise, c'est laquelle que je vois, c'est laquelle que je jette ? C'est laquelle que je jette ? Vu qu'j'ai brisé son cur, ell d'mande réparation Tu parles sur moi aux gens, mais j'vois tout c'qu tu fais comme des déclarations Tu fais des premières écoutes, bouffon, moi j't'ai jamais d'mandé ça Jamais J'attends virement qui me soulage, j'en ai besoin, on a grandi comme des sauvages J'arrache son tissage comme NLE Choppa, j'veux prouver qui est qui, faut qu'ils marchent au pas Ils essayent de m'détruire mais ça marche pas, faut l'dire j'ai conquis la ville Je sais pas pourquoi ils nient encore, faut l'dire j'ai conquis la ville Je sais pas pourquoi ils nient encore, personne ne gratte à ma place Les écrivains fantômes, tout ça c'est qu'des conneries, tu l'emmènes au resto, pas d'ma catégorie Moi j'décharge dans sa gorge, comme ça que j'la nourris, faut l'dire j'ai conquis la ville Je sais pas pourquoi ils nient encore, faut l'dire j'ai conquis la ville Je sais pas pourquoi ils nient encore Mes putes sont pas françaises à cause de ça, j'suis devenu bilingue Trilingue, quadrilingue, trilingue, quadrilingue Nation le lobby, ça grandit sans traîner, ennemis sont morts, peuvent voir Kobe s'entraîner J'ai la vérité car j'ai grandi sans télé Laisse-nous en-dehors d'tes histoires, on vient d'jà d'en bas, on a pas l'temps pour ça Guy2Bezbar m'a dit J'aime bien ta calle, c'est comme chez lui, on passe nos soirs à cailler J'mets quelques bifs dans la crypto, gros mon argent est numérique, j'peux plus la toucher J'crois bien qu'elle voulait du sérieux, depuis qu'elle sait qu'j'ai des gosses, elle veut plus coucher Vive la vraie vie, fuck les restas des réseaux, j'ai pas sombré, ils sont verts comme du pesto J'vais la capter vers Massy Palaiseau, pourvu qu'elle soit en chair, j'aime pas soulever des os, faut l'dire j'ai conquis la ville You might also like Je sais pas pourquoi ils nient encore, faut l'dire j'ai conquis la ville Je sais pas pourquoi ils nient encore, on aime pas quand le biz' est trop calme Les gens te lâchent quand tu rétrogrades, elle m'fait que d'm'envoyer des photos d'elle à poil J'ai même plus de stockage, faut l'dire j'ai conquis la ville Je sais pas pourquoi ils nient encore, faut l'dire j'ai conquis la ville Je sais pas pourquoi ils nient encore</t>
+          <t>Faut qu'on marque le temps, j'regarde droit devant Ils ont creusé des trous, j'suis pas tombé d'dans Ils veulent connaître ma vie, tous mes faits et gestes C'est laquelle que je baise, c'est laquelle que je vois, c'est laquelle que je jette ? C'est laquelle que je jette ? Vu qu'j'ai brisé son cur, ell d'mande réparation Tu parles sur moi aux gens, mais j'vois tout c'qu tu fais comme des déclarations Tu fais des premières écoutes, bouffon, moi j't'ai jamais d'mandé ça Jamais J'attends virement qui me soulage, j'en ai besoin, on a grandi comme des sauvages J'arrache son tissage comme NLE Choppa, j'veux prouver qui est qui, faut qu'ils marchent au pas Ils essayent de m'détruire mais ça marche pas, faut l'dire j'ai conquis la ville Je sais pas pourquoi ils nient encore, faut l'dire j'ai conquis la ville Je sais pas pourquoi ils nient encore, personne ne gratte à ma place Les écrivains fantômes, tout ça c'est qu'des conneries, tu l'emmènes au resto, pas d'ma catégorie Moi j'décharge dans sa gorge, comme ça que j'la nourris, faut l'dire j'ai conquis la ville Je sais pas pourquoi ils nient encore, faut l'dire j'ai conquis la ville Je sais pas pourquoi ils nient encore Mes putes sont pas françaises à cause de ça, j'suis devenu bilingue Trilingue, quadrilingue, trilingue, quadrilingue Nation le lobby, ça grandit sans traîner, ennemis sont morts, peuvent voir Kobe s'entraîner J'ai la vérité car j'ai grandi sans télé Laisse-nous en-dehors d'tes histoires, on vient d'jà d'en bas, on a pas l'temps pour ça Guy2Bezbar m'a dit J'aime bien ta calle, c'est comme chez lui, on passe nos soirs à cailler J'mets quelques bifs dans la crypto, gros mon argent est numérique, j'peux plus la toucher J'crois bien qu'elle voulait du sérieux, depuis qu'elle sait qu'j'ai des gosses, elle veut plus coucher Vive la vraie vie, fuck les restas des réseaux, j'ai pas sombré, ils sont verts comme du pesto J'vais la capter vers Massy Palaiseau, pourvu qu'elle soit en chair, j'aime pas soulever des os, faut l'dire j'ai conquis la ville Je sais pas pourquoi ils nient encore, faut l'dire j'ai conquis la ville Je sais pas pourquoi ils nient encore, on aime pas quand le biz' est trop calme Les gens te lâchent quand tu rétrogrades, elle m'fait que d'm'envoyer des photos d'elle à poil J'ai même plus de stockage, faut l'dire j'ai conquis la ville Je sais pas pourquoi ils nient encore, faut l'dire j'ai conquis la ville Je sais pas pourquoi ils nient encore</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>J'pourrais devenir quelqu'un d'bien, mais j'ai pas toute la panoplie Mais j'pense que j'ai un cur, car quand j'fais mal, j'ai mal aussi Pour ça qu'mon image de rappeur et d'être humain sont bien distinctes Après tout c'que j'ai vécu, comment veux-tu que j'grandisse bien ? Plus j'cogite et plus j'me dis qu'il est p't-être temps d'faire preuve d'amour Tous les jours, soleil se couche, soleil se lève, mais p't-être pas nous J'suis pas l'meilleur père, mais j'aimrais bien l'devenir J'vux juste que mes enfants m'pardonnent d'être celui que je suis Elle peut cacher le Diable même si elle est si douce et belle Vu qu'on fait rien tout seul, j'aimerais remercier Doum's et Dem's Culture Records, merci pour la confiance Depuis l'début, y a rien à perdre et c'est pour ça qu'on fonce J'avais la rage un temps mais bon, maintenant, j'pardonne aux traîtres Parce que c'est grâce à vous qu'j'suis devenu celui qu'j'aurai dû être Désormais, j'vous attends, qui m'tombe dessus tombe sur un os J'suis l'enfant éternel, même à cinquante, j'resterai un gosse Rempli de rêves, rempli d'objectifs, rempli de cernes J'espère qu'y aura toute ma famille quand j'descendrai de scène J'ai vu des braves se suicider, c'est pas un truc de faible Tu veux partir quand personne t'écoute quand tu demandes de l'aide Mais dis-leur bien, dis-leur bien qu'ils doivent me redouter Ils veulent me faire la guerre car j'suis celui qu'ils aimeraient recruter C'est mieux de rien avoir, ça les oblige à t'aimer pour c'que t'es Les clefs d'mon cur, je te les donne pour l'rendre meilleur, pas pour l'squatter J'suis comme au centre de tout, je suis mi-blanc mi-noir J'suis mi-démon mi-ange, jsuis mi-jeune mi-vieux Mon idole, c'est Dieu, j'allume ma dernière bougie Le temps passe, les soucis s'multiplient et tout ça me bousille Nique sa mère la tendance, nique sa mère c'que t'en penses Au lieu de vivre, on survit, on attend juste la sentence J'aimerais juste être au-dessus d'eux, pendant même pas trente secondes J'partirai le cur léger, majeur en l'air, fuck le monde Fuck le monde, fuck le monde, fuck le monde, fuck le monde, fuck le monde, fuck le mondeYou might also like</t>
+          <t>J'pourrais devenir quelqu'un d'bien, mais j'ai pas toute la panoplie Mais j'pense que j'ai un cur, car quand j'fais mal, j'ai mal aussi Pour ça qu'mon image de rappeur et d'être humain sont bien distinctes Après tout c'que j'ai vécu, comment veux-tu que j'grandisse bien ? Plus j'cogite et plus j'me dis qu'il est p't-être temps d'faire preuve d'amour Tous les jours, soleil se couche, soleil se lève, mais p't-être pas nous J'suis pas l'meilleur père, mais j'aimrais bien l'devenir J'vux juste que mes enfants m'pardonnent d'être celui que je suis Elle peut cacher le Diable même si elle est si douce et belle Vu qu'on fait rien tout seul, j'aimerais remercier Doum's et Dem's Culture Records, merci pour la confiance Depuis l'début, y a rien à perdre et c'est pour ça qu'on fonce J'avais la rage un temps mais bon, maintenant, j'pardonne aux traîtres Parce que c'est grâce à vous qu'j'suis devenu celui qu'j'aurai dû être Désormais, j'vous attends, qui m'tombe dessus tombe sur un os J'suis l'enfant éternel, même à cinquante, j'resterai un gosse Rempli de rêves, rempli d'objectifs, rempli de cernes J'espère qu'y aura toute ma famille quand j'descendrai de scène J'ai vu des braves se suicider, c'est pas un truc de faible Tu veux partir quand personne t'écoute quand tu demandes de l'aide Mais dis-leur bien, dis-leur bien qu'ils doivent me redouter Ils veulent me faire la guerre car j'suis celui qu'ils aimeraient recruter C'est mieux de rien avoir, ça les oblige à t'aimer pour c'que t'es Les clefs d'mon cur, je te les donne pour l'rendre meilleur, pas pour l'squatter J'suis comme au centre de tout, je suis mi-blanc mi-noir J'suis mi-démon mi-ange, jsuis mi-jeune mi-vieux Mon idole, c'est Dieu, j'allume ma dernière bougie Le temps passe, les soucis s'multiplient et tout ça me bousille Nique sa mère la tendance, nique sa mère c'que t'en penses Au lieu de vivre, on survit, on attend juste la sentence J'aimerais juste être au-dessus d'eux, pendant même pas trente secondes J'partirai le cur léger, majeur en l'air, fuck le monde Fuck le monde, fuck le monde, fuck le monde, fuck le monde, fuck le monde, fuck le monde</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Opération dossier numéro 404 Prêt pour le test niveau 1 Vous pouvez y aller Hey Le rap français n'a pas d'propriétaire J'rap pour les charbonneurs, les prolétaires Chaque jour j'ressens que sentiments je perds J'suis prisonnier dans un grand monde ouvert, hey Je n'suis qu'un produit sans envies, pas de hobbies Je veux la gloire seulement pour le ness-bui Pas pour 'qu-en des petites comme Cosby J'vais crever seul au front sans émotion Moi, je kidnappe ton âme pour une rançon Si tu résides dans mon cur faut la caution Les démons retiennent mon attention Mon rap, la drogue pour les Winehouse Amy J'aime personne donc comme ça c'est dit J'y vais plus fort quand chagasse gémit J'viens d'Villiers comme Kaz' K.A.M.I Demande un feat si tu veux ta gifle Fuck les lettres, je ne pense qu'aux chiffres Wesh mon fils, y a mille fois plus d'argent dans l'football que dans l'shit On m'a trahit, on m'a piégé, que des vendus donc maintenant j'anticipe J'te nique ta grand-mère peu importe ton teint J'suis pas raciste, j'm'émancipe Négro, chiche You might also like Test niveau 1 validé Prêt pour le test niveau 2 C'est parti J'suis l'as de trèfle qui pique ton cul Jamais vendu, jamais rendu son dû Hip-hop qui coule sur mon doigt tendu À son insu tout l'monde l'a entendu Comme leur père, j'suis en colère J'les attends sur l'canapé comme Homer Univers sombre pas le contraire Ils savent quand j'arrive c'est léclipse solaire C'est vrai j'suis paresseux mon frère Mets-moi du HSE dans l'verre J'suis solitaire donc peu de confrères L'art de la guerre, j'ai peu de compères Mes amis ont l'mauvais oeil Kid est mort, mon premier deuil La variét' mort d'overdose, le Hip-hop sort de son cercueil Le Diable m'a dit j'ai tout pour toi, j'veux ton âme J'lui ai répondu non T'auras des grosses voitures, des grosses putes, j't'assure Donc j'ai redit non T'auras du style, une carrière, succès, la gloire Donc j'ai redit non T'auras du bif et tes enfants seront biens J'lui ai dit qu'c'était tentant Négro, dose Test niveau 2 validé Opération terminée</t>
+          <t>Opération dossier numéro 404 Prêt pour le test niveau 1 Vous pouvez y aller Hey Le rap français n'a pas d'propriétaire J'rap pour les charbonneurs, les prolétaires Chaque jour j'ressens que sentiments je perds J'suis prisonnier dans un grand monde ouvert, hey Je n'suis qu'un produit sans envies, pas de hobbies Je veux la gloire seulement pour le ness-bui Pas pour 'qu-en des petites comme Cosby J'vais crever seul au front sans émotion Moi, je kidnappe ton âme pour une rançon Si tu résides dans mon cur faut la caution Les démons retiennent mon attention Mon rap, la drogue pour les Winehouse Amy J'aime personne donc comme ça c'est dit J'y vais plus fort quand chagasse gémit J'viens d'Villiers comme Kaz' K.A.M.I Demande un feat si tu veux ta gifle Fuck les lettres, je ne pense qu'aux chiffres Wesh mon fils, y a mille fois plus d'argent dans l'football que dans l'shit On m'a trahit, on m'a piégé, que des vendus donc maintenant j'anticipe J'te nique ta grand-mère peu importe ton teint J'suis pas raciste, j'm'émancipe Négro, chiche Test niveau 1 validé Prêt pour le test niveau 2 C'est parti J'suis l'as de trèfle qui pique ton cul Jamais vendu, jamais rendu son dû Hip-hop qui coule sur mon doigt tendu À son insu tout l'monde l'a entendu Comme leur père, j'suis en colère J'les attends sur l'canapé comme Homer Univers sombre pas le contraire Ils savent quand j'arrive c'est léclipse solaire C'est vrai j'suis paresseux mon frère Mets-moi du HSE dans l'verre J'suis solitaire donc peu de confrères L'art de la guerre, j'ai peu de compères Mes amis ont l'mauvais oeil Kid est mort, mon premier deuil La variét' mort d'overdose, le Hip-hop sort de son cercueil Le Diable m'a dit j'ai tout pour toi, j'veux ton âme J'lui ai répondu non T'auras des grosses voitures, des grosses putes, j't'assure Donc j'ai redit non T'auras du style, une carrière, succès, la gloire Donc j'ai redit non T'auras du bif et tes enfants seront biens J'lui ai dit qu'c'était tentant Négro, dose Test niveau 2 validé Opération terminée</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ouais, hey Augmente un peu le son Hey Dose Hey, hey Wooh J'veux plein d'or, plein d'chaînes Pleins d'salopes, pleins d'chiennes J'ai pas de sang dans les veines J'ai du charbon, voilà l'thème Tu vendras pas d'album même post-mortem Artiste hors-norme, j'suis un bonhomme Négro j'annonce chacun sa somme En pleine chasse à l'Homme J'leur dis ça va ? Shalom Nous on aime pas ça la lobe On glisse sous ta robe J'suis noir, à part ça j'ai rien fait monsieur l'Agent Sur la tête de votre femme à oil-p Elle voulait mon coeur, elle a eu l'doigt, t'es ma rareté Pue la saleté, ils n'arrêtent pas d'haleter D'haleter, comme si j'étais sorti d'la chatte à Maïté Impossible comme Billy Roi était, Billy Roi était Guette ma vie en 3D, j'suis sur l'chemin sans m'rater On fait rien à part rider, raper 4-0-4, mes négros t'engrainent C'est sombre dans ma chambre, j'm'entraîne J'pense au game J'arrêterais d'les gifler quand j'aurais la gangrène No Pain, No Gain No Pain, No Gain Avant que j'te la mette Rase-toi la chatte aux Gillette Alerte, si la rue m'a à l'esprit pour que j'arrête 2016 tout est dans l'paraître Banlieusard vend du rêve en barrette You might also like J'veux plein d'or, plein d'chaînes Pleins d'salopes, pleins d'chiennes J'ai pas de sang dans les veines J'ai du charbon, voilà l'thème Tu vendras pas d'album même post-mortem Même post-mortem Tu vendras pas d'album même post-mortem Même post-mortem J'veux plein d'or, plein d'chaînes Pleins d'salopes, pleins d'chiennes J'ai pas de sang dans les veines J'ai du charbon, voilà l'thème Tu vendras pas d'album même post-mortem Même post-mortem Tu vendras pas d'album même post-mortem 4.0.4, 404Billy</t>
+          <t>Ouais, hey Augmente un peu le son Hey Dose Hey, hey Wooh J'veux plein d'or, plein d'chaînes Pleins d'salopes, pleins d'chiennes J'ai pas de sang dans les veines J'ai du charbon, voilà l'thème Tu vendras pas d'album même post-mortem Artiste hors-norme, j'suis un bonhomme Négro j'annonce chacun sa somme En pleine chasse à l'Homme J'leur dis ça va ? Shalom Nous on aime pas ça la lobe On glisse sous ta robe J'suis noir, à part ça j'ai rien fait monsieur l'Agent Sur la tête de votre femme à oil-p Elle voulait mon coeur, elle a eu l'doigt, t'es ma rareté Pue la saleté, ils n'arrêtent pas d'haleter D'haleter, comme si j'étais sorti d'la chatte à Maïté Impossible comme Billy Roi était, Billy Roi était Guette ma vie en 3D, j'suis sur l'chemin sans m'rater On fait rien à part rider, raper 4-0-4, mes négros t'engrainent C'est sombre dans ma chambre, j'm'entraîne J'pense au game J'arrêterais d'les gifler quand j'aurais la gangrène No Pain, No Gain No Pain, No Gain Avant que j'te la mette Rase-toi la chatte aux Gillette Alerte, si la rue m'a à l'esprit pour que j'arrête 2016 tout est dans l'paraître Banlieusard vend du rêve en barrette J'veux plein d'or, plein d'chaînes Pleins d'salopes, pleins d'chiennes J'ai pas de sang dans les veines J'ai du charbon, voilà l'thème Tu vendras pas d'album même post-mortem Même post-mortem Tu vendras pas d'album même post-mortem Même post-mortem J'veux plein d'or, plein d'chaînes Pleins d'salopes, pleins d'chiennes J'ai pas de sang dans les veines J'ai du charbon, voilà l'thème Tu vendras pas d'album même post-mortem Même post-mortem Tu vendras pas d'album même post-mortem 4.0.4, 404Billy</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Quand tu m'dis que j'ai la voix de Jack, j'ai envie d'arrêter l'rap Changer d'cap, m'exiler sur une île, devenir un druide Salope, pas d'amour, j'ai l'cur en chantier car il fût en ruines Hé, négro, mes pensées remplacent mes yeux quand j'imagine Faisons du business comme S'faire Sharapova dans la gova Créer des re-sta comme supernova Du sang qui coule, y'a rien d'aussi beau Derrière le rideau, beaucoup de mythos Rappeur pour te clasher, j'vais Petit vélo J'arrive dans l'rap game comme Divo Divo Divo, divo Divo Divo Ma bite sur ordonnance pour soigner ta libido Ma bonne étoile se trouve dans d'autres univers Les vrais négros ne s'habillent pas comme Lil Uzi Vert Les vrais négros sont dans faits divers quand vient l'hiver Savent se tenir après huit verres et combattent contre langue de vipère Si t'as des envies suicidaires, me contacte pas sur mon cellulaire Je pèse ou je dors Moi, je blesse quand je mords Donc t'acquiesces quand j'ai tort Rien qu'ça suce quand t'es fort J'fais tomber les quilles maintenant Qui est qui ? Culture Analyse le pull, regarde c'qui est écrit Tous les autres vendent vie de rêve sans donner l'prix Cette année, numéro 23 comme MJ Souhaitez-moi longue vie, sale tchoinYou might also like</t>
+          <t>Quand tu m'dis que j'ai la voix de Jack, j'ai envie d'arrêter l'rap Changer d'cap, m'exiler sur une île, devenir un druide Salope, pas d'amour, j'ai l'cur en chantier car il fût en ruines Hé, négro, mes pensées remplacent mes yeux quand j'imagine Faisons du business comme S'faire Sharapova dans la gova Créer des re-sta comme supernova Du sang qui coule, y'a rien d'aussi beau Derrière le rideau, beaucoup de mythos Rappeur pour te clasher, j'vais Petit vélo J'arrive dans l'rap game comme Divo Divo Divo, divo Divo Divo Ma bite sur ordonnance pour soigner ta libido Ma bonne étoile se trouve dans d'autres univers Les vrais négros ne s'habillent pas comme Lil Uzi Vert Les vrais négros sont dans faits divers quand vient l'hiver Savent se tenir après huit verres et combattent contre langue de vipère Si t'as des envies suicidaires, me contacte pas sur mon cellulaire Je pèse ou je dors Moi, je blesse quand je mords Donc t'acquiesces quand j'ai tort Rien qu'ça suce quand t'es fort J'fais tomber les quilles maintenant Qui est qui ? Culture Analyse le pull, regarde c'qui est écrit Tous les autres vendent vie de rêve sans donner l'prix Cette année, numéro 23 comme MJ Souhaitez-moi longue vie, sale tchoin</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Yeah 4-0-4 Sombre, c'est sombre, yeah, yeah J'adore le sang sur le sol fucked up, j'suis pas l'rappeur à la mode bang bang Cur ou ta chatte, j'ai les codes, elle m'fait confiance, elle est conne zoin C'était soit l'rap soit la morgue, c'était soit la rue soit l'école fuck Poissard, j'n'ai pas d'bonne étoile mais j'n'ai pas croqué dans la pomme yay J'noie ma tristesse dans l'miel, tu sais quoi ? J'arrive à lire dans l'ciel Plein de cadavres, plein de cadavres, j'suis rodave, j'crois qu'j'vais finir en jail merde Personne fait du rap comme tel, j'suis un genre de dark angel sombre Salope, j'n'ai aucune peine yay yay, j'suis un genre de bâtard comme t'aimes yay yay J'paye ta chatte, reçois l'reçu, y'a pas de peace and love, j'te pisse dessus Moins d'mélodie pour plus de rues sombres, moins authentique pour plus de vues Cherche pas trop l'clash, p'tit fils de pute yay, j'sors deux-trois phases, t'existes plus yay J'aime pas l'milieu, y'a trop d'censu' sale, la meuf que t'aimes, j'la laisse en lu yay yay L'être humain aime trop l'espèce, je suis d'la mauvaise espèce Beaucoup trop d'putes dans la pièce, beaucoup trop d'weed dans la caisse L'être humain aime trop l'espèce, je suis d'la mauvaise espèce Beaucoup trop d'putes dans la pièce, beaucoup trop d'weed dans la caisse J'vais pas crever sur la scène, pas de sensei, personne m'enseigne Pour la culture, c'est ça l'enseigne, paire de Cartier comme à l'ancienne J'vais pas crever sur la scène, pas de sensei, personne m'enseigne Pour la culture, c'est ça l'enseigne, paire de Cartier comme à l'ancienne You might also like J'suis à l'aise dans l'Seize ou à Saint-D'nis, ma fin d'vie est en fin d'vie Du lundi au lundi, faut qu'je scintille, les échecs des autres me donnent l'inspi' Dis-toi qu'des soucis, j'en ai beaucoup, j'ai bossé donc j'veux des chaînes au cou 404 que des vrais dans les locaux, avec des têtes d'ennemis dans des bocaux Cazale sur facial de racailles, illégal argent sale en pagaille Au final, je n'veux pas d'leur médaille, j'les épargne, je n'veux pas d'leurs détails Faut qu'tu donnes l'oseille, quatre sunday, que j'me tire vite fait d'ce sale bled Le trône s'ra mon seul fauteuil, j'suis ghetto comme tribune Auteil Pas besoin d'être beau pour te casser le dos, bitch bitch Fuck soigner mes maux, ça m'fait ni froid ni chaud, bitch bitch Fuck leurs guerres d'egos car tout est dark, négro J'emmerde leurs lauriers, j'veux juste pour armure dorée L'être humain aime trop l'espèce, je suis d'la mauvaise espèce Beaucoup trop d'putes dans la pièce, beaucoup trop d'weed dans la caisse L'être humain aime trop l'espèce, je suis d'la mauvaise espèce Beaucoup trop d'putes dans la pièce, beaucoup trop d'weed dans la caisse J'vais pas crever sur la scène, pas de sensei, personne m'enseigne Pour la culture, c'est ça l'enseigne, paire de Cartier comme à l'ancienne J'vais pas crever sur la scène, pas de sensei, personne m'enseigne Pour la culture, c'est ça l'enseigne, paire de Cartier comme à l'ancienne Bah alors ? Wesh Tout est dark</t>
+          <t>Yeah 4-0-4 Sombre, c'est sombre, yeah, yeah J'adore le sang sur le sol fucked up, j'suis pas l'rappeur à la mode bang bang Cur ou ta chatte, j'ai les codes, elle m'fait confiance, elle est conne zoin C'était soit l'rap soit la morgue, c'était soit la rue soit l'école fuck Poissard, j'n'ai pas d'bonne étoile mais j'n'ai pas croqué dans la pomme yay J'noie ma tristesse dans l'miel, tu sais quoi ? J'arrive à lire dans l'ciel Plein de cadavres, plein de cadavres, j'suis rodave, j'crois qu'j'vais finir en jail merde Personne fait du rap comme tel, j'suis un genre de dark angel sombre Salope, j'n'ai aucune peine yay yay, j'suis un genre de bâtard comme t'aimes yay yay J'paye ta chatte, reçois l'reçu, y'a pas de peace and love, j'te pisse dessus Moins d'mélodie pour plus de rues sombres, moins authentique pour plus de vues Cherche pas trop l'clash, p'tit fils de pute yay, j'sors deux-trois phases, t'existes plus yay J'aime pas l'milieu, y'a trop d'censu' sale, la meuf que t'aimes, j'la laisse en lu yay yay L'être humain aime trop l'espèce, je suis d'la mauvaise espèce Beaucoup trop d'putes dans la pièce, beaucoup trop d'weed dans la caisse L'être humain aime trop l'espèce, je suis d'la mauvaise espèce Beaucoup trop d'putes dans la pièce, beaucoup trop d'weed dans la caisse J'vais pas crever sur la scène, pas de sensei, personne m'enseigne Pour la culture, c'est ça l'enseigne, paire de Cartier comme à l'ancienne J'vais pas crever sur la scène, pas de sensei, personne m'enseigne Pour la culture, c'est ça l'enseigne, paire de Cartier comme à l'ancienne J'suis à l'aise dans l'Seize ou à Saint-D'nis, ma fin d'vie est en fin d'vie Du lundi au lundi, faut qu'je scintille, les échecs des autres me donnent l'inspi' Dis-toi qu'des soucis, j'en ai beaucoup, j'ai bossé donc j'veux des chaînes au cou 404 que des vrais dans les locaux, avec des têtes d'ennemis dans des bocaux Cazale sur facial de racailles, illégal argent sale en pagaille Au final, je n'veux pas d'leur médaille, j'les épargne, je n'veux pas d'leurs détails Faut qu'tu donnes l'oseille, quatre sunday, que j'me tire vite fait d'ce sale bled Le trône s'ra mon seul fauteuil, j'suis ghetto comme tribune Auteil Pas besoin d'être beau pour te casser le dos, bitch bitch Fuck soigner mes maux, ça m'fait ni froid ni chaud, bitch bitch Fuck leurs guerres d'egos car tout est dark, négro J'emmerde leurs lauriers, j'veux juste pour armure dorée L'être humain aime trop l'espèce, je suis d'la mauvaise espèce Beaucoup trop d'putes dans la pièce, beaucoup trop d'weed dans la caisse L'être humain aime trop l'espèce, je suis d'la mauvaise espèce Beaucoup trop d'putes dans la pièce, beaucoup trop d'weed dans la caisse J'vais pas crever sur la scène, pas de sensei, personne m'enseigne Pour la culture, c'est ça l'enseigne, paire de Cartier comme à l'ancienne J'vais pas crever sur la scène, pas de sensei, personne m'enseigne Pour la culture, c'est ça l'enseigne, paire de Cartier comme à l'ancienne Bah alors ? Wesh Tout est dark</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>On dirait qu'j'suis sous hypnose, je vois je t'aime sur ses lèvres Je serai triste et célèbre, je réfléchis comme un fauve Elle m'dit je t'aime dans l'oreille mais j'n'ai pas l'temps pour elle Ma rage est intemporelle comme une âme incorporelle Je n'suis pas très sûr de moi, je n'fais qu'errer sur les toits Je vois mon reflet dans l'eau mais je n'me reconnais pas Personne ne guide mes pas, j'crois bien qu'j'ai perdu la foi Je vais continuer solo, je n'peux pas être avec toi Mon cerveau est jailbreaké, l'ange de la mort viendra me checker Mon existence est insensée, je n'vous donne pas ma liberté de penser Tu veux savoir c'que j'pense ? Si tu mises sur la chance Vie que j'ai choisie n'est pas celle-ci oh god, vie que j'ai choisie n'est pas celle-ci oh god Elle me dit je t'aime dans l'oreille, woh, woh encore, encore, encore, encore Vie que j'ai choisie n'est pas celle-ci oh god, vie que j'ai choisie n'est pas celle-ci oh god Elle me dit je t'aime dans l'oreille, woh, woh encore, encore, encore, encore J'attends la mort, faut que j'dorme, mon négro, j'suis comme l'argent inodore Je ne vois qu'des hommes sans tête, tout est gore, j'arrive à faire c'qu'ils font pas, sans effort encore, encore, encore, encore Je n'fais pas crédit, tu payeras si tu trahis, hey J'suis tout seul, j'écris, je n'connais pas l'industrie, hey Une fois qu'elle est partie, j'peux vous dire qu'j'ai tout compris, hey L'amour a un prix, aussi durement j'les appris, hey J'ai plus d'auréole une fois qu'le soleil se lève à l'aube J'suis si différent, c'est pour ça que j'reste toujours alone Chaque fois qu'j'aime quelqu'un, il faut toujours qu'ma fierté s'impose Je sais qu'j'suis l'erreur, j'ai pas b'soin d'en chercher la cause You might also like Vie que j'ai choisie n'est pas celle-ci oh god, vie que j'ai choisie n'est pas celle-ci oh god Elle me dit je t'aime dans l'oreille, woh, woh encore, encore, encore, encore Vie que j'ai choisie n'est pas celle-ci oh god, vie que j'ai choisie n'est pas celle-ci oh god Elle me dit je t'aime dans l'oreille, woh, woh encore, encore, encore, encore</t>
+          <t>On dirait qu'j'suis sous hypnose, je vois je t'aime sur ses lèvres Je serai triste et célèbre, je réfléchis comme un fauve Elle m'dit je t'aime dans l'oreille mais j'n'ai pas l'temps pour elle Ma rage est intemporelle comme une âme incorporelle Je n'suis pas très sûr de moi, je n'fais qu'errer sur les toits Je vois mon reflet dans l'eau mais je n'me reconnais pas Personne ne guide mes pas, j'crois bien qu'j'ai perdu la foi Je vais continuer solo, je n'peux pas être avec toi Mon cerveau est jailbreaké, l'ange de la mort viendra me checker Mon existence est insensée, je n'vous donne pas ma liberté de penser Tu veux savoir c'que j'pense ? Si tu mises sur la chance Vie que j'ai choisie n'est pas celle-ci oh god, vie que j'ai choisie n'est pas celle-ci oh god Elle me dit je t'aime dans l'oreille, woh, woh encore, encore, encore, encore Vie que j'ai choisie n'est pas celle-ci oh god, vie que j'ai choisie n'est pas celle-ci oh god Elle me dit je t'aime dans l'oreille, woh, woh encore, encore, encore, encore J'attends la mort, faut que j'dorme, mon négro, j'suis comme l'argent inodore Je ne vois qu'des hommes sans tête, tout est gore, j'arrive à faire c'qu'ils font pas, sans effort encore, encore, encore, encore Je n'fais pas crédit, tu payeras si tu trahis, hey J'suis tout seul, j'écris, je n'connais pas l'industrie, hey Une fois qu'elle est partie, j'peux vous dire qu'j'ai tout compris, hey L'amour a un prix, aussi durement j'les appris, hey J'ai plus d'auréole une fois qu'le soleil se lève à l'aube J'suis si différent, c'est pour ça que j'reste toujours alone Chaque fois qu'j'aime quelqu'un, il faut toujours qu'ma fierté s'impose Je sais qu'j'suis l'erreur, j'ai pas b'soin d'en chercher la cause Vie que j'ai choisie n'est pas celle-ci oh god, vie que j'ai choisie n'est pas celle-ci oh god Elle me dit je t'aime dans l'oreille, woh, woh encore, encore, encore, encore Vie que j'ai choisie n'est pas celle-ci oh god, vie que j'ai choisie n'est pas celle-ci oh god Elle me dit je t'aime dans l'oreille, woh, woh encore, encore, encore, encore</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>RETRANSCRIPTION EN COURS You might also like</t>
+          <t>RETRANSCRIPTION EN COURS</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sombres pensées quand j'entends la mélo' chiche Certains disent que c'est trop hey J'les emmène en enfer zéro J'leur fais croire que c'est beau Ressens la street dans mon flow Y a grave du sang dans le seau wouh On est des noirs et des braves Y a pas de singes dans mon zoo hey hey Dans le corner, j'suis dans l'angle On t'prend en gang-bang dans mon gang, ferme tes jambes Mes démons m'entendent, ont l'air d'avoir le seum Soit on meurt ensemble, soit tu meurs tout seul J'baise une pute aux yeux bleus, elle crie comme un husky hey Gros, le mal est à ma gauche et dans mon verre d'whisky Le Sheitan, j'ai son 07, me suce pas si je fais recette Pour faire mal, je n'vise pas la tête C'est ton cur que je vise, en fait, hey Univers sombre, univers noir, univers gore, j'irai vers J'irai vers l'or, je souris peu, j'ai des frères morts, j'aime la guerre, j'aime le hardcore, le rap game, c'est Pearl Harbor 404 n'a pas d'remords car j'me regarde dans l'Black Mirror Nan, je n'meurs pas, fils de pute, j'suis dans ma tombe en train d'mir-dor J'ai mes raisons, j'ai eu mes torts J'y ai mis âme, j'y ai mis corps Au comico, j'suis Voldemort Le regard vers l'assiette vide, j'suis dans cette guilde Dans mon estime, peu de personnes 4h04 sur ta Breitling, c'est l'heure du crime Sombre timing, j'aime le sang, l'hémoglobine Pas de bling-bling, j'suis en jogging Avec ma team, j'suis dans lobbying J'te mets chaîne d'esclave pour te rappeler ma douleur J'crache sur la mère à Griezmann pour lui rappeler sa couleur Moi, j'respecte la gente féminine j'baise dans des toilettes mixtes J'ai d'l'alcool dans l'urine, j'pisse dans le carré VIP J'vais t'faire vivre un vrai film de cul, à l'intérieur de ton compte de fée Moi, j'déteste les textes à l'eau de rose, donner son cul n'est pas dans l'forfait J'ai voulu fuir le destin, en vain j'm'appuie sur un autre tremplin Putain d'ingrat comme l'être humain, Dieu qui donne mais tout le monde s'en plaint Grâce à mes mots, j'f'rai des millions Peut-être, peut-être a-p À croire qu'aujourd'hui, c'est plus facile d'être violeur que d'être black 04 You might also like</t>
+          <t>Sombres pensées quand j'entends la mélo' chiche Certains disent que c'est trop hey J'les emmène en enfer zéro J'leur fais croire que c'est beau Ressens la street dans mon flow Y a grave du sang dans le seau wouh On est des noirs et des braves Y a pas de singes dans mon zoo hey hey Dans le corner, j'suis dans l'angle On t'prend en gang-bang dans mon gang, ferme tes jambes Mes démons m'entendent, ont l'air d'avoir le seum Soit on meurt ensemble, soit tu meurs tout seul J'baise une pute aux yeux bleus, elle crie comme un husky hey Gros, le mal est à ma gauche et dans mon verre d'whisky Le Sheitan, j'ai son 07, me suce pas si je fais recette Pour faire mal, je n'vise pas la tête C'est ton cur que je vise, en fait, hey Univers sombre, univers noir, univers gore, j'irai vers J'irai vers l'or, je souris peu, j'ai des frères morts, j'aime la guerre, j'aime le hardcore, le rap game, c'est Pearl Harbor 404 n'a pas d'remords car j'me regarde dans l'Black Mirror Nan, je n'meurs pas, fils de pute, j'suis dans ma tombe en train d'mir-dor J'ai mes raisons, j'ai eu mes torts J'y ai mis âme, j'y ai mis corps Au comico, j'suis Voldemort Le regard vers l'assiette vide, j'suis dans cette guilde Dans mon estime, peu de personnes 4h04 sur ta Breitling, c'est l'heure du crime Sombre timing, j'aime le sang, l'hémoglobine Pas de bling-bling, j'suis en jogging Avec ma team, j'suis dans lobbying J'te mets chaîne d'esclave pour te rappeler ma douleur J'crache sur la mère à Griezmann pour lui rappeler sa couleur Moi, j'respecte la gente féminine j'baise dans des toilettes mixtes J'ai d'l'alcool dans l'urine, j'pisse dans le carré VIP J'vais t'faire vivre un vrai film de cul, à l'intérieur de ton compte de fée Moi, j'déteste les textes à l'eau de rose, donner son cul n'est pas dans l'forfait J'ai voulu fuir le destin, en vain j'm'appuie sur un autre tremplin Putain d'ingrat comme l'être humain, Dieu qui donne mais tout le monde s'en plaint Grâce à mes mots, j'f'rai des millions Peut-être, peut-être a-p À croire qu'aujourd'hui, c'est plus facile d'être violeur que d'être black 04</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Hopopop, mes acolytes sont pas normaux J'suis pas trop texto, pour parler, j't'envoie des corbeaux Appelle-moi Jon Snow, grosses cojos, no homo, oh no King of Sorrow, donc j'esquive les moments d'sanglots Il m'reste de la rancur Je laisse les femmes en pleurs quand j'les baise dans l'ascenseur Si j'te dis qu'j'pèse, j'suis un menteur, un mercenaire solitaire Les rêves s'trouvent dans somnifère Le racisme est involontaire Leur savoir est rudimentaire, hey En tête du cortège, du sang sur mes cortez Talent naturel, pas besoin d'faire du solfège Leurs lyrics sont trop lég', niveau collège Pense à mettre un pare-balles même si Dieu te protège Hopopop Que des lascars vêtus d'noir dans le block J'suis à part car j'suis trop sombre pour l'époque 404, c'est la dictature, pas de vote Hopopop Que des lascars vêtus d'noir dans le block J'suis à part car j'suis trop sombre pour l'époque 404, c'est la dictature, pas de vote Hopopop You might also like Là où t'as peur d'aller, j'irai J'pense à mon avenir, en train de chier Peut-être que j'n'y arriverai jamais Mais j'niquerai des mères comme Jiren Et j'y suis, j'y traîne Dans le sombre, j'y suis, j'y crève Les meilleurs boîtes de Paname, j'arrive à la bonne franquette J'explose Fatou, Sarah, Carla sur l'arrière banquette Le rap est mort, me dérange pas pendant que j'enquête J'suis tellement têtu, j'pourrais refaire ce que je regrette J'aime bien les oui, j'aime bien les non, j'aime pas les peut-être Tes concerts ont l'ambiance d'une maison de retraite Hé, DJ, tu veux qu'on t'nique ? Mets-moi dans ton set Bouge ton cul devant moi comme Cardi B devant Offset Hopopop Que des lascars vêtus d'noir dans le block J'suis à part car j'suis trop sombre pour l'époque 404, c'est la dictature, pas de vote Hopopop Que des lascars vêtus d'noir dans le block J'suis à part car j'suis trop sombre pour l'époque 404, c'est la dictature, pas de vote Hopopop1</t>
+          <t>Hopopop, mes acolytes sont pas normaux J'suis pas trop texto, pour parler, j't'envoie des corbeaux Appelle-moi Jon Snow, grosses cojos, no homo, oh no King of Sorrow, donc j'esquive les moments d'sanglots Il m'reste de la rancur Je laisse les femmes en pleurs quand j'les baise dans l'ascenseur Si j'te dis qu'j'pèse, j'suis un menteur, un mercenaire solitaire Les rêves s'trouvent dans somnifère Le racisme est involontaire Leur savoir est rudimentaire, hey En tête du cortège, du sang sur mes cortez Talent naturel, pas besoin d'faire du solfège Leurs lyrics sont trop lég', niveau collège Pense à mettre un pare-balles même si Dieu te protège Hopopop Que des lascars vêtus d'noir dans le block J'suis à part car j'suis trop sombre pour l'époque 404, c'est la dictature, pas de vote Hopopop Que des lascars vêtus d'noir dans le block J'suis à part car j'suis trop sombre pour l'époque 404, c'est la dictature, pas de vote Hopopop Là où t'as peur d'aller, j'irai J'pense à mon avenir, en train de chier Peut-être que j'n'y arriverai jamais Mais j'niquerai des mères comme Jiren Et j'y suis, j'y traîne Dans le sombre, j'y suis, j'y crève Les meilleurs boîtes de Paname, j'arrive à la bonne franquette J'explose Fatou, Sarah, Carla sur l'arrière banquette Le rap est mort, me dérange pas pendant que j'enquête J'suis tellement têtu, j'pourrais refaire ce que je regrette J'aime bien les oui, j'aime bien les non, j'aime pas les peut-être Tes concerts ont l'ambiance d'une maison de retraite Hé, DJ, tu veux qu'on t'nique ? Mets-moi dans ton set Bouge ton cul devant moi comme Cardi B devant Offset Hopopop Que des lascars vêtus d'noir dans le block J'suis à part car j'suis trop sombre pour l'époque 404, c'est la dictature, pas de vote Hopopop Que des lascars vêtus d'noir dans le block J'suis à part car j'suis trop sombre pour l'époque 404, c'est la dictature, pas de vote Hopopop1</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Hitachi Hey, la France d'en-bas se fait prendre de haut, quoi de plus logique ? Quand j'serai vieux, j'aurai Alzheimer mais j'me souviendrai que t'es qu'un fils de pute Fuck leurs shows, leurs gos, leurs flows, leurs mots Je fais monter l'taux, faut qu'je montre c'que j'vaux J'ai des flèches dans l'dos, j'suis toujours dans l'zoo J'aime le sang et les os, j'devrais jouer dans Saw Le rap, soit j'sauve sa peau, soit j'le laisse dans l'faux Le malheur, j'trouve ça beau, l'obscurité m'éblouit pendant qu'l'amour t'étourdit J'côtoie qu'les mecs érudits, puis j'analyse, j'étudie et puis, je nie pour qu'on nique Pas dans les temps, je créé le temps, ça m'étonne même que tu m'aimes autant J'vais les crever tout en sirotant, j'dis pas où j'vais, fuck le clignotant J't'aimerai p't-être dans une autre vie, j'te baiserai p't-être lors d'une autre nuit Très précis dans mes config', ça tombe bien j'aime le conflit On va t'exécuter si tu connais l'plan, j'ai pas plus de chance mais j'suis à moitié blanc Je ne suivrai jamais là où va le rang, je ne suis jamais la direction du vent Psychopathes me comprennent, fille de joie veut qu'on s'aime Kulture mon enseigne cur vide, couilles pleines C'est pas la rue mais le rap, c'est rude, je vois l'avenir dans un trou d'serrure J'vais pas finir dans la troupe, c'est sûr, j'me retrouve seul entre tous ces murs J'dis peu souvent je t'aime à la daronne, j'fais pas partie de ceux qui fanfaronnent J'deviendrai baron pour me faire la baronne, une fois qu'elle a sucé, je me désabonne Liquide, victime, succès, d'estime Pas de bruit, je kille, j'fais le crime, tranquille Les ténèbres, j'illumine, sans combine, t'hallucines Qu'un plan, qu'une cible mon projet à l'usine Sombre sombre You might also like C'est bon ou pas ? Kulture, yay Allez, zouin Hey</t>
+          <t>Hitachi Hey, la France d'en-bas se fait prendre de haut, quoi de plus logique ? Quand j'serai vieux, j'aurai Alzheimer mais j'me souviendrai que t'es qu'un fils de pute Fuck leurs shows, leurs gos, leurs flows, leurs mots Je fais monter l'taux, faut qu'je montre c'que j'vaux J'ai des flèches dans l'dos, j'suis toujours dans l'zoo J'aime le sang et les os, j'devrais jouer dans Saw Le rap, soit j'sauve sa peau, soit j'le laisse dans l'faux Le malheur, j'trouve ça beau, l'obscurité m'éblouit pendant qu'l'amour t'étourdit J'côtoie qu'les mecs érudits, puis j'analyse, j'étudie et puis, je nie pour qu'on nique Pas dans les temps, je créé le temps, ça m'étonne même que tu m'aimes autant J'vais les crever tout en sirotant, j'dis pas où j'vais, fuck le clignotant J't'aimerai p't-être dans une autre vie, j'te baiserai p't-être lors d'une autre nuit Très précis dans mes config', ça tombe bien j'aime le conflit On va t'exécuter si tu connais l'plan, j'ai pas plus de chance mais j'suis à moitié blanc Je ne suivrai jamais là où va le rang, je ne suis jamais la direction du vent Psychopathes me comprennent, fille de joie veut qu'on s'aime Kulture mon enseigne cur vide, couilles pleines C'est pas la rue mais le rap, c'est rude, je vois l'avenir dans un trou d'serrure J'vais pas finir dans la troupe, c'est sûr, j'me retrouve seul entre tous ces murs J'dis peu souvent je t'aime à la daronne, j'fais pas partie de ceux qui fanfaronnent J'deviendrai baron pour me faire la baronne, une fois qu'elle a sucé, je me désabonne Liquide, victime, succès, d'estime Pas de bruit, je kille, j'fais le crime, tranquille Les ténèbres, j'illumine, sans combine, t'hallucines Qu'un plan, qu'une cible mon projet à l'usine Sombre sombre C'est bon ou pas ? Kulture, yay Allez, zouin Hey</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>J'aimerais voir un semblant d'succès Mais ma vie est toujours pareille J'vais pas crever la bouche ouverte, nan Mon vécu reste bouleversant, mais mon avenir s'ra renversant Comme mon cur, je n'prends jamais d'pauses car les portes sont closes Dans cette vie, peu de choses m'importent, tant qu'mes paroles sont saines et sauves J'suis une rose noire, parmi les roses rouges J'ai trainé l'soir, loin des quartiers d'bourges J'suis cruel, c'est pour ça qu'je survis Il faut savoir c'qui te suffit Dans le monde où j'suis parti vivre, les sentiments sont boycottés Tu souhaites me dire que tu m'aimes, n'attends pas que j'sois d'l'autre coté Hey, fuck le monde Négro fuck le monde Fuck le monde Hey Pas de coalition, pas de contradiction La victoire, c'est ma seule addiction Ils m'aiment pas, ils n'aiment pas doù j'viens Donc ils me disent de soigner ma diction Qu'ils aillent s'faire enculer, j'suis trop fier pour respecter leurs codes Hey, qu'ils aillent s'faire enculer, j'vaux trop cher pour accepter leurs sommes Posé d'vant l'horloge, j'attends qu'l'heure sonne Tant qu'elle sonne pas, j'dors pas Tant que j'perce pas, je meurs pas Je n'respecte pas leur format Me dis pas que j'fais ça pour rien Car les larmes ne soignent aucune blessure Car les armes ne bouchent aucune fissure Les vérités se cachent derrière les murs Hey, négro fuck le monde You might also like Hey, fuck le monde Négro fuck le monde Fuck le monde</t>
+          <t>J'aimerais voir un semblant d'succès Mais ma vie est toujours pareille J'vais pas crever la bouche ouverte, nan Mon vécu reste bouleversant, mais mon avenir s'ra renversant Comme mon cur, je n'prends jamais d'pauses car les portes sont closes Dans cette vie, peu de choses m'importent, tant qu'mes paroles sont saines et sauves J'suis une rose noire, parmi les roses rouges J'ai trainé l'soir, loin des quartiers d'bourges J'suis cruel, c'est pour ça qu'je survis Il faut savoir c'qui te suffit Dans le monde où j'suis parti vivre, les sentiments sont boycottés Tu souhaites me dire que tu m'aimes, n'attends pas que j'sois d'l'autre coté Hey, fuck le monde Négro fuck le monde Fuck le monde Hey Pas de coalition, pas de contradiction La victoire, c'est ma seule addiction Ils m'aiment pas, ils n'aiment pas doù j'viens Donc ils me disent de soigner ma diction Qu'ils aillent s'faire enculer, j'suis trop fier pour respecter leurs codes Hey, qu'ils aillent s'faire enculer, j'vaux trop cher pour accepter leurs sommes Posé d'vant l'horloge, j'attends qu'l'heure sonne Tant qu'elle sonne pas, j'dors pas Tant que j'perce pas, je meurs pas Je n'respecte pas leur format Me dis pas que j'fais ça pour rien Car les larmes ne soignent aucune blessure Car les armes ne bouchent aucune fissure Les vérités se cachent derrière les murs Hey, négro fuck le monde Hey, fuck le monde Négro fuck le monde Fuck le monde</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>BLKKKK VAN GOGH 3 ZoinGoinZoin Le 4 Selon moi, y'a que 2 genres, t'as un vagin, j't'appelle madame Selon moi Solitude s'appelle ma femme Fort Contre les pédophiles, 4.0 aka Karl Zéro 4.0 Solitaire, Mouton Noir, j'ai appuyé sur l'bouton noir Le pouvoir est dans les livres, j'ai des idées en tête On peut passer d'bibi au tieks, à la bibliothèque Comprends-tu ma folie ? Comprends-tu? Comprends-tu mon art mystique ? J'crois pas La folie m'fascine, y'a rien de plus artistique Et ouais Fuck les haters, j'ai ls rimes qui t'abîment J'préfère fair des Tap-ins, qu'être un negro qui tapine Fuck Y'a que des escrocs, tu veux qu'les Français élisent qui ? Pas du côté d'l'Ukraine, pas du côté d'Zelensky J'en ai rien à foutre Y'a pas de drapeau d'la Palestine, juste à côté du score, lors des matchs de foot Depuis l'époque MSN, jusqu'à l'époque PSN Fuck les scams comme BFM, fuck les scams comme BLM Dans mon cerveau Mon cerveau, capitaliste contre marxiste La suppression du droit du sol, c'est raciste Évidemment Le colon qui pille l'Afrique, vos rappeurs ont le même tron-pa Gengis Khan, Thanos, 404, le même combat À la table des Vrais G, t'es pas convié, Yeah Liberté d'expression, j'suis du côté d'Ye Ye Courber l'échine, c'est inconcevable J'suis incontrôlable Ok, j'suis incancellable Go! Mais qu'est-ce que j'ai mangé ? Pour faire des rimes comme aç J'm'instruis pour être libre, comme Frederick Douglass You might also like La prière écarte du fléau, l'argent écarte du Très-Haut L'argent écarte du Très-Haut Ce qui fait qu'je suis cruel, c'est qu'sur terre Sur terre Pour moi, y'a rien qui compte à part mes 2 bébés Rien d'autre Exclu d'la société comme le Joker J'vais revenir te flinguer sur ton plateau télé Bang! J'aurais voulu guérir le monde, lui parler en face Fort, j'aurais tant voulu être un psy La haine que tu donnes aux gosses t'reviendra en pleine face, j'en ai tant reçu étant p'tit Mais y'a qu'un seul putain d'4 Y'a qu'un seul putain d'4 C'est pas fini... Ok Trop se mélanger, on est aps pour On est aps pour Les rappeurs se baisent entre eux comme les Habsbourg 404, y'a pas manéci Jamais Je fais mon argent, j'mets bien mes p'tits et j'm'arrache en Malaisie Si Dieu veut J'pense pas qu'on s'reverra un d'ces 4 Car ce monde est cruel, comme le programme T4 J'dois être un homme en tant qu'père Guère idéologique, mais j'dois être un homme en temps d'guerre C'est la vie qu'j'ai choisie Propagande dans les écoles, les mêmes techniques qu'une propagande nazie Ils militent contre le viol et les violences faites aux femmes Ah ouais ? Assis côte à côte avec un pédophile aux Flammes Bizarre Dans une dictature, l'État s'impose par la force Dans une démocratie, l'État s'impose par l'influence Dans cette matrice, faut des couilles pour être Néo La prière écarte du fléau, l'argent écarte du Très-Haut Toh! Toh! Toh! BLKKKK VAN GOGH 3 400 putain de 4 Gengis Khan Jusqu'à ce qu'il canne Zoin El Cuatro</t>
+          <t>BLKKKK VAN GOGH 3 ZoinGoinZoin Le 4 Selon moi, y'a que 2 genres, t'as un vagin, j't'appelle madame Selon moi Solitude s'appelle ma femme Fort Contre les pédophiles, 4.0 aka Karl Zéro 4.0 Solitaire, Mouton Noir, j'ai appuyé sur l'bouton noir Le pouvoir est dans les livres, j'ai des idées en tête On peut passer d'bibi au tieks, à la bibliothèque Comprends-tu ma folie ? Comprends-tu? Comprends-tu mon art mystique ? J'crois pas La folie m'fascine, y'a rien de plus artistique Et ouais Fuck les haters, j'ai ls rimes qui t'abîment J'préfère fair des Tap-ins, qu'être un negro qui tapine Fuck Y'a que des escrocs, tu veux qu'les Français élisent qui ? Pas du côté d'l'Ukraine, pas du côté d'Zelensky J'en ai rien à foutre Y'a pas de drapeau d'la Palestine, juste à côté du score, lors des matchs de foot Depuis l'époque MSN, jusqu'à l'époque PSN Fuck les scams comme BFM, fuck les scams comme BLM Dans mon cerveau Mon cerveau, capitaliste contre marxiste La suppression du droit du sol, c'est raciste Évidemment Le colon qui pille l'Afrique, vos rappeurs ont le même tron-pa Gengis Khan, Thanos, 404, le même combat À la table des Vrais G, t'es pas convié, Yeah Liberté d'expression, j'suis du côté d'Ye Ye Courber l'échine, c'est inconcevable J'suis incontrôlable Ok, j'suis incancellable Go! Mais qu'est-ce que j'ai mangé ? Pour faire des rimes comme aç J'm'instruis pour être libre, comme Frederick Douglass La prière écarte du fléau, l'argent écarte du Très-Haut L'argent écarte du Très-Haut Ce qui fait qu'je suis cruel, c'est qu'sur terre Sur terre Pour moi, y'a rien qui compte à part mes 2 bébés Rien d'autre Exclu d'la société comme le Joker J'vais revenir te flinguer sur ton plateau télé Bang! J'aurais voulu guérir le monde, lui parler en face Fort, j'aurais tant voulu être un psy La haine que tu donnes aux gosses t'reviendra en pleine face, j'en ai tant reçu étant p'tit Mais y'a qu'un seul putain d'4 Y'a qu'un seul putain d'4 C'est pas fini... Ok Trop se mélanger, on est aps pour On est aps pour Les rappeurs se baisent entre eux comme les Habsbourg 404, y'a pas manéci Jamais Je fais mon argent, j'mets bien mes p'tits et j'm'arrache en Malaisie Si Dieu veut J'pense pas qu'on s'reverra un d'ces 4 Car ce monde est cruel, comme le programme T4 J'dois être un homme en tant qu'père Guère idéologique, mais j'dois être un homme en temps d'guerre C'est la vie qu'j'ai choisie Propagande dans les écoles, les mêmes techniques qu'une propagande nazie Ils militent contre le viol et les violences faites aux femmes Ah ouais ? Assis côte à côte avec un pédophile aux Flammes Bizarre Dans une dictature, l'État s'impose par la force Dans une démocratie, l'État s'impose par l'influence Dans cette matrice, faut des couilles pour être Néo La prière écarte du fléau, l'argent écarte du Très-Haut Toh! Toh! Toh! BLKKKK VAN GOGH 3 400 putain de 4 Gengis Khan Jusqu'à ce qu'il canne Zoin El Cuatro</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>404 Trust Me J'suis ni old-school, ni new-school, j'ai fait plus qu'il ne fallait Gros, j'suis tout près, près du succès, j'suis plus loin d'mon voisin d'pallier Vont m'crucifier comme Jésus si j'apporte la bonne parole Dans mes cauchemars, y a des cadavres, y a du sang comme Avenue Charogne Dans le game, aucun m'impressionne, si j'arrive, j'vais les frôler Ange du mal et ange du bien seront toujours là pour m'épauler Fuck ton trappeur, ton parolier, sang d'ennemi est dans mon gosier J'arrive bre-som, délire grossier, sur moi, tu n'as aucun dossier J'suis trop dangereux, j'ai rien à perdre, rappeur préf' de ton rappeur préf', qu'il soit hype ou rappeur de tess Je vomis dans léthylotest C'est la fin si mon ciel est blue, plus je vis, ma vision est flou En fin d'compte, j'vois qu'tout l'monde échoue, misanthrope car ce monde est fou Il est stone donc je m'en écarte, laisse-moi l'temps d'poser mes cartes T'es un roi, moi, j'suis un as, j'te la mets dans l'ananas J'ai deux pieds dans sables mouvants, j'ai plus l'temps d'être émouvant J'avance sûrement mais doucement, j'apporte une pierre au mouvement CultureYou might also like</t>
+          <t>404 Trust Me J'suis ni old-school, ni new-school, j'ai fait plus qu'il ne fallait Gros, j'suis tout près, près du succès, j'suis plus loin d'mon voisin d'pallier Vont m'crucifier comme Jésus si j'apporte la bonne parole Dans mes cauchemars, y a des cadavres, y a du sang comme Avenue Charogne Dans le game, aucun m'impressionne, si j'arrive, j'vais les frôler Ange du mal et ange du bien seront toujours là pour m'épauler Fuck ton trappeur, ton parolier, sang d'ennemi est dans mon gosier J'arrive bre-som, délire grossier, sur moi, tu n'as aucun dossier J'suis trop dangereux, j'ai rien à perdre, rappeur préf' de ton rappeur préf', qu'il soit hype ou rappeur de tess Je vomis dans léthylotest C'est la fin si mon ciel est blue, plus je vis, ma vision est flou En fin d'compte, j'vois qu'tout l'monde échoue, misanthrope car ce monde est fou Il est stone donc je m'en écarte, laisse-moi l'temps d'poser mes cartes T'es un roi, moi, j'suis un as, j'te la mets dans l'ananas J'ai deux pieds dans sables mouvants, j'ai plus l'temps d'être émouvant J'avance sûrement mais doucement, j'apporte une pierre au mouvement Culture</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Tu veux briller comme grillz Yeah Tu veux briller comme grillz, j'ai d'la violence à ta guise Vrais sont parmi nous, michto me fait pas la bise Posé sur la place assise, toute la soirée j'analyse Vrais sont parmi nous, suceur me fait pas la bise Tu veux briller comme grillz Vu qu'j'ai grandi dans la savane, je vais cracher dans la salade J'suis dans l'espace, allez salam Le sang est rouge comme ma future Ferrari J'vais briller comme Paris Dans quelques piges j'achète toi et ton mari Tu voudrais qu'on parie ? Qui ose ? J'propose que du sombre En temps de guerre on survient en nombre Aucune des ces putains je féconde J'drill, je grime, j'suis à Londres T'es naze, t'es à l'ombre T'es dans la brume, l'hécatombe J'suis dans des brunes, dans des blondes Fais 100 degrés Celsius, je ne parle qu'à celles qui sucent J'suis l'erreur, j'suis le virus, j'suis le meilleur, je suis Beerus Marquer l'époque comme Three 6, toi ton destin est si triste Hey, j'suis dans abysse précipice, je suis un peu pessimiste, hey You might also like J'ai d'la violence à ta guise Vrais sont parmi nous, michto me fait pas la bise Posé sur la place assise, toute la soirée j'analyse Vrais sont parmi nous, suceur me fait pas la bise On m'dit Billy fais nous que du sale J'veux pas qu'on me mette dans une case Au delà de faire ce que je peux, je vais leur offrir ce que je veux Ces bâtards ne m'ont pas cru comme Jésus C'est le déluge a prévenu l'élu Ne viens pas m'arrêter dans ma folie Tu vas finir par manger raviolis J'tire dans l'tas comme ça problème résolu L'époque qui t'a révélé est révolu Voiture volée dans rue de Rivoli Dans ma tête c'est la guerre comme Tripoli Entouré de négros pas très polis J'encule tout le monde dans toute catégorie Rempli de métaphores, d'allégories rendu vrai toute théorie Tu veux briller comme grillz, j'ai d'la violence à ta guise Vrais sont parmi nous, michto me fait pas la bise Posé sur la place assise, toute la soirée j'analyse Vrais sont parmi nous, suceur me fait pas la bise Tu veux briller comme grillz, j'ai d'la violence à ta guise Vrais sont parmi nous, michto me fait pas la bise Posé sur la place assise, toute la soirée j'analyse Vrais sont parmi nous, suceur me fait pas la bise Tu veux briller comme grillz</t>
+          <t>Tu veux briller comme grillz Yeah Tu veux briller comme grillz, j'ai d'la violence à ta guise Vrais sont parmi nous, michto me fait pas la bise Posé sur la place assise, toute la soirée j'analyse Vrais sont parmi nous, suceur me fait pas la bise Tu veux briller comme grillz Vu qu'j'ai grandi dans la savane, je vais cracher dans la salade J'suis dans l'espace, allez salam Le sang est rouge comme ma future Ferrari J'vais briller comme Paris Dans quelques piges j'achète toi et ton mari Tu voudrais qu'on parie ? Qui ose ? J'propose que du sombre En temps de guerre on survient en nombre Aucune des ces putains je féconde J'drill, je grime, j'suis à Londres T'es naze, t'es à l'ombre T'es dans la brume, l'hécatombe J'suis dans des brunes, dans des blondes Fais 100 degrés Celsius, je ne parle qu'à celles qui sucent J'suis l'erreur, j'suis le virus, j'suis le meilleur, je suis Beerus Marquer l'époque comme Three 6, toi ton destin est si triste Hey, j'suis dans abysse précipice, je suis un peu pessimiste, hey J'ai d'la violence à ta guise Vrais sont parmi nous, michto me fait pas la bise Posé sur la place assise, toute la soirée j'analyse Vrais sont parmi nous, suceur me fait pas la bise On m'dit Billy fais nous que du sale J'veux pas qu'on me mette dans une case Au delà de faire ce que je peux, je vais leur offrir ce que je veux Ces bâtards ne m'ont pas cru comme Jésus C'est le déluge a prévenu l'élu Ne viens pas m'arrêter dans ma folie Tu vas finir par manger raviolis J'tire dans l'tas comme ça problème résolu L'époque qui t'a révélé est révolu Voiture volée dans rue de Rivoli Dans ma tête c'est la guerre comme Tripoli Entouré de négros pas très polis J'encule tout le monde dans toute catégorie Rempli de métaphores, d'allégories rendu vrai toute théorie Tu veux briller comme grillz, j'ai d'la violence à ta guise Vrais sont parmi nous, michto me fait pas la bise Posé sur la place assise, toute la soirée j'analyse Vrais sont parmi nous, suceur me fait pas la bise Tu veux briller comme grillz, j'ai d'la violence à ta guise Vrais sont parmi nous, michto me fait pas la bise Posé sur la place assise, toute la soirée j'analyse Vrais sont parmi nous, suceur me fait pas la bise Tu veux briller comme grillz</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>BLKKKK VAN GOGH Zoin Bande denfoiré bande denfoiré Tous les faire, jvais tous les en Hey Allez dire à ces artistes soi-disant dénonciateur, que cest trop facile de militer seulement contre lextrême droite Jvais trouver la vie paisible avec une femme, riche, aimante Jfais des rimes riches et chiantes pendant qules autres trichent et mentent Tinquiète tinquiète boy, on reste les mêmes en temps de crise En venant dans ljeu je me doutait pas quil y aurait autant de bitch Ils donnent de largent à des putes jte jure cest pas des hommes Jme rappelle en maternelle jdessinais des gun Elle baise avec un autre et tes surpris tu te fous de ma gueule Vous babymama ressemble aux meufs de City Girls Ils font trop les puristes ces fils de lâches Ils font les lyricistes les fils de NAS Jarrive à mettre au monde des fils tenaces Qui vont tniquer ta mère Qui feront pas des petites menaces On attend leur loyauté, on a grave le temps de crever Ma meilleur amie cest juste ma lampe de chevet Javais côte à 110 il faut qutu mises vite 2 balles Féministe aime la levrette, elle aime la bite de cheval Nest pas peur, bâtard Han Maman ta mis au monde un G unique Jai été élevé sur du Method Man, du G-Unit Le son de la réflexion Le son dla haine cousin Si técoute mon son au taff tu vas gifler ton N1 Tu sais qucest le 4 quand tentend zoin Des ennemis en plus, énormément damis en moins Nous on prend 100, on verse pas de dividendes Jfais partie du skinny gang mais jai vraiment pas le zizi tendre On nous ordonne de faire des choses et on nous flingue quand ça rentre ap Comme Charles de Gaulle qui a buté des tirailleurs en 44 Ma mère est blanche mais jai pas l'White Privilege Jveux commencer chez TDE mais pas finir chez PGLang Ton voisin est comme le mien devant réalité il dort Le Très Haut à ses raisons que toute lhumanité ignore Recherche sous comme radical guetteur Lanimal fait peur Hannibal Lecter Jminstruis, jsuis matinal lecteur Jm'y connais bien dans lvaginal secteur Mes gars, cerveau, Silicon Valley Pétasse, cuisine chili con carne Faut plus de niaque si tu veux mcaner Mon cur, mon cerveau sont en pour-parler 404Billy, Billy Bob Marley hahaYou might also like</t>
+          <t>BLKKKK VAN GOGH Zoin Bande denfoiré bande denfoiré Tous les faire, jvais tous les en Hey Allez dire à ces artistes soi-disant dénonciateur, que cest trop facile de militer seulement contre lextrême droite Jvais trouver la vie paisible avec une femme, riche, aimante Jfais des rimes riches et chiantes pendant qules autres trichent et mentent Tinquiète tinquiète boy, on reste les mêmes en temps de crise En venant dans ljeu je me doutait pas quil y aurait autant de bitch Ils donnent de largent à des putes jte jure cest pas des hommes Jme rappelle en maternelle jdessinais des gun Elle baise avec un autre et tes surpris tu te fous de ma gueule Vous babymama ressemble aux meufs de City Girls Ils font trop les puristes ces fils de lâches Ils font les lyricistes les fils de NAS Jarrive à mettre au monde des fils tenaces Qui vont tniquer ta mère Qui feront pas des petites menaces On attend leur loyauté, on a grave le temps de crever Ma meilleur amie cest juste ma lampe de chevet Javais côte à 110 il faut qutu mises vite 2 balles Féministe aime la levrette, elle aime la bite de cheval Nest pas peur, bâtard Han Maman ta mis au monde un G unique Jai été élevé sur du Method Man, du G-Unit Le son de la réflexion Le son dla haine cousin Si técoute mon son au taff tu vas gifler ton N1 Tu sais qucest le 4 quand tentend zoin Des ennemis en plus, énormément damis en moins Nous on prend 100, on verse pas de dividendes Jfais partie du skinny gang mais jai vraiment pas le zizi tendre On nous ordonne de faire des choses et on nous flingue quand ça rentre ap Comme Charles de Gaulle qui a buté des tirailleurs en 44 Ma mère est blanche mais jai pas l'White Privilege Jveux commencer chez TDE mais pas finir chez PGLang Ton voisin est comme le mien devant réalité il dort Le Très Haut à ses raisons que toute lhumanité ignore Recherche sous comme radical guetteur Lanimal fait peur Hannibal Lecter Jminstruis, jsuis matinal lecteur Jm'y connais bien dans lvaginal secteur Mes gars, cerveau, Silicon Valley Pétasse, cuisine chili con carne Faut plus de niaque si tu veux mcaner Mon cur, mon cerveau sont en pour-parler 404Billy, Billy Bob Marley haha</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Error Est-c'que les autres comprennent mes idéaux ? Dans la vie, je suis le même que sur mes vidéos Jvais quitter la Terre, l'Humanité est moche J'aimerais juste être un bon père et moccuper d'mes gosses Et jusqu'ici tout est possible mais l'espoir n'est plus Ils donneraient même toute leur famille pour trouver l'élu J'suis sur la route du succès, j'conduis alcoolisé Demain sera-t-il mieux quhier ? Jen ai aucune idée À quoi sert d'avoir un cur ? Jvois pas l'utilité On m'a promis bel avenir mais j'garde lhumilité Je vais ressortir du rap game, visage ensanglanté Et j'vais l'enterrer dans la forêt, sous ciel étoilé Indépendant comme Jay-Z, mon but est précis Culture Records, tu connais l'esprit J'suis pas humain, des médicaments, on m'a prescrit J'vais m'transformer donc cachez-vous avant qu'il fasse nuit Y a écrit 404 degrés sur le thermo' Les idées fusent, plein d'anomalies dans mon cerveau Ça sert à rien de ne rien faire, vaut mieux en faire trop Niquez vos mères, y a qu'la nation qui monte dans l'vaisseau Hey, hey, hey J'suis hors de prix, personne ne m'achète L'être humain a plusieurs facettes La musique est ma seule cachette J'suis hors de prix, personne ne m'achèteYou might also like</t>
+          <t>Error Est-c'que les autres comprennent mes idéaux ? Dans la vie, je suis le même que sur mes vidéos Jvais quitter la Terre, l'Humanité est moche J'aimerais juste être un bon père et moccuper d'mes gosses Et jusqu'ici tout est possible mais l'espoir n'est plus Ils donneraient même toute leur famille pour trouver l'élu J'suis sur la route du succès, j'conduis alcoolisé Demain sera-t-il mieux quhier ? Jen ai aucune idée À quoi sert d'avoir un cur ? Jvois pas l'utilité On m'a promis bel avenir mais j'garde lhumilité Je vais ressortir du rap game, visage ensanglanté Et j'vais l'enterrer dans la forêt, sous ciel étoilé Indépendant comme Jay-Z, mon but est précis Culture Records, tu connais l'esprit J'suis pas humain, des médicaments, on m'a prescrit J'vais m'transformer donc cachez-vous avant qu'il fasse nuit Y a écrit 404 degrés sur le thermo' Les idées fusent, plein d'anomalies dans mon cerveau Ça sert à rien de ne rien faire, vaut mieux en faire trop Niquez vos mères, y a qu'la nation qui monte dans l'vaisseau Hey, hey, hey J'suis hors de prix, personne ne m'achète L'être humain a plusieurs facettes La musique est ma seule cachette J'suis hors de prix, personne ne m'achète</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>J'trouve ça beau j'trouve ça beau Faudrait p't-être que l'argent coule à flow sheesh Illico J'trouve ça beau j'trouve ça beau Faudrait p't-être que l'argent coule à flow dring, dring, dring Illico dring, dring, dring Si ça s'passe, j's'rai dans l'Guinness, j's'rai dans l'Guinness ok Mais le virus nique le business, nique le business J'navigue dans les eaux troubles, faut pas qu'j'les contourne J'suis pas trop du genre à souffrir ou crier au secours Eux, jaloux, te disent souvent À la tienne, tchin-tchin Stop, plus de phases, j'ai un Glock dans le jean bing, bing J'préfère marcher, crouler en trafiquant Dix balles, un paquet d'clopes, c'est qui les trafiquants d'drogue ? J'trouve ça beau j'trouve ça beau Faudrait p't-être que l'argent coule à flow sheesh Illico J'trouve ça beau j'trouve ça beau Faudrait p't-être que l'argent coule à flow dring, dring, dring Illico dring, dring, dring You might also like Un nouveau mort, une mère en pleurs, c'est dommage La drogue est bonne, t'emmène au ciel, décollage Écarte les bes-j' que j'te prenne pour mon nouveau jouet tiens À part des traîtres en plus, y a pas d'nouveauté J'ai plusieurs cordes à mon arc, moi, moi, j'suis tranquille, peinard J's'rai sur le trône comme César, y a pas d'reptile, y a pas d'lézard, wesh Si j'perce, le rap change, ils le savent J'écoute le top, il n'y a qu'des sons de grosses folles J'suis le problème, il n'y a pas d'antidote, il n'y a pas d'antidote T'aimes pas que les autres réussissent, ça te picote fort Ils sont si J'ai envie d'me pendre quand j'regarde les news 4.0.4 Billy</t>
+          <t>J'trouve ça beau j'trouve ça beau Faudrait p't-être que l'argent coule à flow sheesh Illico J'trouve ça beau j'trouve ça beau Faudrait p't-être que l'argent coule à flow dring, dring, dring Illico dring, dring, dring Si ça s'passe, j's'rai dans l'Guinness, j's'rai dans l'Guinness ok Mais le virus nique le business, nique le business J'navigue dans les eaux troubles, faut pas qu'j'les contourne J'suis pas trop du genre à souffrir ou crier au secours Eux, jaloux, te disent souvent À la tienne, tchin-tchin Stop, plus de phases, j'ai un Glock dans le jean bing, bing J'préfère marcher, crouler en trafiquant Dix balles, un paquet d'clopes, c'est qui les trafiquants d'drogue ? J'trouve ça beau j'trouve ça beau Faudrait p't-être que l'argent coule à flow sheesh Illico J'trouve ça beau j'trouve ça beau Faudrait p't-être que l'argent coule à flow dring, dring, dring Illico dring, dring, dring Un nouveau mort, une mère en pleurs, c'est dommage La drogue est bonne, t'emmène au ciel, décollage Écarte les bes-j' que j'te prenne pour mon nouveau jouet tiens À part des traîtres en plus, y a pas d'nouveauté J'ai plusieurs cordes à mon arc, moi, moi, j'suis tranquille, peinard J's'rai sur le trône comme César, y a pas d'reptile, y a pas d'lézard, wesh Si j'perce, le rap change, ils le savent J'écoute le top, il n'y a qu'des sons de grosses folles J'suis le problème, il n'y a pas d'antidote, il n'y a pas d'antidote T'aimes pas que les autres réussissent, ça te picote fort Ils sont si J'ai envie d'me pendre quand j'regarde les news 4.0.4 Billy</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>J'reste qui j'suis, j'ai trop d'ennemis C'est qu'mon intuition, mon intuition Certains disent qu'ils m'apprécient wouw, des putains d'hypocrites Crois pas qu'j'suis faible, autour, y en a plein qui sont fake oh Mon cur, c'est comme la glace, t'inquiète pas, j'suis solide De la rage au lieu d'l'amour, y a qu'ça qu'embrasse ma folie oh oui Faut qu'tu tires sur ton blunt, mon pote, faut qu't'évacues ton stress J'ai pas aimé comment tu m'serres la main, faut qu'tu refasses ton geste J'prends mon cash dans l'rap, j'investis wouw, sans être travesti Frérot, si j'invite sur mon album, pour toi, j'ai d'l'estim t'as vu ? Mon rap, c'est d'la drogue, comme ta nicotin J'rappe pas pour les p'tites qui écoutent Eva Queen, et puis quoi encore ? Te fie pas à ma corpulence quand, quand y a d'la turbulence C'est, c'est pas sûr que le petit Billy finisse dans l'ambulance pas sûr Certains noirs n'aiment pas ma couleur, qu'est-ce tu veux, fils de pute ? J'ai plusieurs cordes à mon arc, il m'faut plusieurs glocks à mon fut Le ciel n'est pas ma limite, homie, dans ma main, 'teille de Jack Honey quand j'rends visite, homie J'reste qui j'suis car j'peux m'le permettre J'ai trop d'ennemis, qu'ils aillent se faire mettre J'n'ai qu'une seule amie, c'est mon intuition J'n'ai qu'une seule amie, c'est mon intuition ouais, ouais, ouais J'reste qui j'suis car j'peux m'le permettre J'ai trop d'ennemis, qu'ils aillent se faire mettre J'n'ai qu'une seule amie, c'est mon intuition J'n'ai qu'une seule amie, c'est mon intuition ouais, ouais, ouais You might also like Te prendre la main, c'est mettre mes phalanges dans sables mouvants wouh Tous vos rappeurs se prennent des amendes, on est au courant ok Eh, petite tchoin, ton négro n'a même pas d'ambition ouais Tant qu'ma famille n'est pas bien, j'n'aurai pas d'manteau en vison jamais Pit, on part en mission, démarre la tchop, allume ta clope Ils veulent pas nous aider, j'ai pas vu d'politique en bas du bloc jamais Il faut qu'ma fille se respecte ouais, suis le mouvement ou reste bête La vie n'est qu'un album car elle se répète fort J'ai du respect pour la forme forme À part celle qui m'envoie des bails noirs sur Telegram pute J'crois plus en ce monde donc je n'regarde plus les news J'vois la vie en rouge, pourtant, j'ai le blues J'reste qui j'suis car j'peux m'le permettre J'ai trop d'ennemis, qu'ils aillent se faire mettre J'n'ai qu'une seule amie, c'est mon intuition J'n'ai qu'une seule amie, c'est mon intuition ouais, ouais, ouais J'reste qui j'suis car j'peux m'le permettre J'ai trop d'ennemis, qu'ils aillent se faire mettre J'n'ai qu'une seule amie, c'est mon intuition J'n'ai qu'une seule amie, c'est mon intuition ouais, ouais, ouais</t>
+          <t>J'reste qui j'suis, j'ai trop d'ennemis C'est qu'mon intuition, mon intuition Certains disent qu'ils m'apprécient wouw, des putains d'hypocrites Crois pas qu'j'suis faible, autour, y en a plein qui sont fake oh Mon cur, c'est comme la glace, t'inquiète pas, j'suis solide De la rage au lieu d'l'amour, y a qu'ça qu'embrasse ma folie oh oui Faut qu'tu tires sur ton blunt, mon pote, faut qu't'évacues ton stress J'ai pas aimé comment tu m'serres la main, faut qu'tu refasses ton geste J'prends mon cash dans l'rap, j'investis wouw, sans être travesti Frérot, si j'invite sur mon album, pour toi, j'ai d'l'estim t'as vu ? Mon rap, c'est d'la drogue, comme ta nicotin J'rappe pas pour les p'tites qui écoutent Eva Queen, et puis quoi encore ? Te fie pas à ma corpulence quand, quand y a d'la turbulence C'est, c'est pas sûr que le petit Billy finisse dans l'ambulance pas sûr Certains noirs n'aiment pas ma couleur, qu'est-ce tu veux, fils de pute ? J'ai plusieurs cordes à mon arc, il m'faut plusieurs glocks à mon fut Le ciel n'est pas ma limite, homie, dans ma main, 'teille de Jack Honey quand j'rends visite, homie J'reste qui j'suis car j'peux m'le permettre J'ai trop d'ennemis, qu'ils aillent se faire mettre J'n'ai qu'une seule amie, c'est mon intuition J'n'ai qu'une seule amie, c'est mon intuition ouais, ouais, ouais J'reste qui j'suis car j'peux m'le permettre J'ai trop d'ennemis, qu'ils aillent se faire mettre J'n'ai qu'une seule amie, c'est mon intuition J'n'ai qu'une seule amie, c'est mon intuition ouais, ouais, ouais Te prendre la main, c'est mettre mes phalanges dans sables mouvants wouh Tous vos rappeurs se prennent des amendes, on est au courant ok Eh, petite tchoin, ton négro n'a même pas d'ambition ouais Tant qu'ma famille n'est pas bien, j'n'aurai pas d'manteau en vison jamais Pit, on part en mission, démarre la tchop, allume ta clope Ils veulent pas nous aider, j'ai pas vu d'politique en bas du bloc jamais Il faut qu'ma fille se respecte ouais, suis le mouvement ou reste bête La vie n'est qu'un album car elle se répète fort J'ai du respect pour la forme forme À part celle qui m'envoie des bails noirs sur Telegram pute J'crois plus en ce monde donc je n'regarde plus les news J'vois la vie en rouge, pourtant, j'ai le blues J'reste qui j'suis car j'peux m'le permettre J'ai trop d'ennemis, qu'ils aillent se faire mettre J'n'ai qu'une seule amie, c'est mon intuition J'n'ai qu'une seule amie, c'est mon intuition ouais, ouais, ouais J'reste qui j'suis car j'peux m'le permettre J'ai trop d'ennemis, qu'ils aillent se faire mettre J'n'ai qu'une seule amie, c'est mon intuition J'n'ai qu'une seule amie, c'est mon intuition ouais, ouais, ouais</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Trust me J'vis jour de guerre, j'pisse sur la terre Yeux vers le ciel, 'sky dans mon verre Hey Vie pour crever, jour pour rire, nuit pour pleurer switch, switch Rien n's'arrange et la musique me nuit pour de vrai hey, hey Mélodie douce, mes fonds de violence sont apeurés kush, kush Mon Dieu me regarde à travers nuages dorés sombre, sombre J'ai laissé mes chaînes traîner sur l'île de Gorée bloup, bloup Seul au monde, je médite entouré de bruits de forêt zouin, zouin La reconnaissance, plus tard, c'est tout c'que j'aurai négro, ouais En convalescence, mon âme s'en va s'isoler sheesh, sheesh, sheesh Tant d'arrogance dans mes versets kush, kush Tant de violence, de larmes versées négro, ouais Plus de romance, j'ai l'cur percé hey, hey Tant dinsouciance hey, hey J'vis jour de guerre hey, j'pisse sur la terre hey, hey Yeux vers le ciel hey, 'sky dans mon verre hey, hey J'vis jour de guerre ouais, ouais, j'pisse sur la terre ouais, ouais Yeux vers le ciel ouais, ouais, 'sky dans mon verre ouais, ouais Hey, tant d'arrogance, tant d'arrogance dans mes versets sheesh Tant de violence, tant de violence, de larmes versées hey Tant d'arrogance, tant d'arrogance dans mes versets ouais Tant de violence, tant de violence, de larmes versées You might also like Fin de vie, mes ennemis sont d'l'autre côté l'autre côté Certains d'entre eux prient pour que j'finisse par fauter hey, men Peuvent crier de douleur, j'les laisserai ligotés dose, dose Peuvent faire preuve de douceur, j'les laisserai mijoter sombre, sombre, sombre Face au destin, en espérant qu'il m'sourira en espérant J'fais d'la musique en espérant qu'elle m'nourrira en espérant Vulgaires lyrics, images très noires, faut qu'j'les devance hey La chance me répond plus malgré d'nombreuses relances, hey Tant d'arrogance dans mes versets Tant de violence, de larmes versées Plus de romance, j'ai l'cur percé Tant dinsouciance J'vis jour de guerre hey, j'pisse sur la terre hey, hey Yeux vers le ciel hey, 'sky dans mon verre hey, hey J'vis jour de guerre ouais, ouais, j'pisse sur la terre ouais, ouais Yeux vers le ciel ouais, ouais, 'sky dans mon verre ouais, ouais Hey, tant d'arrogance, tant d'arrogance dans mes versets zoin Tant de violence, tant de violence, de larmes versées sheesh Tant d'arrogance, tant d'arrogance dans mes versets hey Tant de violence, tant de violence, de larmes versées</t>
+          <t>Trust me J'vis jour de guerre, j'pisse sur la terre Yeux vers le ciel, 'sky dans mon verre Hey Vie pour crever, jour pour rire, nuit pour pleurer switch, switch Rien n's'arrange et la musique me nuit pour de vrai hey, hey Mélodie douce, mes fonds de violence sont apeurés kush, kush Mon Dieu me regarde à travers nuages dorés sombre, sombre J'ai laissé mes chaînes traîner sur l'île de Gorée bloup, bloup Seul au monde, je médite entouré de bruits de forêt zouin, zouin La reconnaissance, plus tard, c'est tout c'que j'aurai négro, ouais En convalescence, mon âme s'en va s'isoler sheesh, sheesh, sheesh Tant d'arrogance dans mes versets kush, kush Tant de violence, de larmes versées négro, ouais Plus de romance, j'ai l'cur percé hey, hey Tant dinsouciance hey, hey J'vis jour de guerre hey, j'pisse sur la terre hey, hey Yeux vers le ciel hey, 'sky dans mon verre hey, hey J'vis jour de guerre ouais, ouais, j'pisse sur la terre ouais, ouais Yeux vers le ciel ouais, ouais, 'sky dans mon verre ouais, ouais Hey, tant d'arrogance, tant d'arrogance dans mes versets sheesh Tant de violence, tant de violence, de larmes versées hey Tant d'arrogance, tant d'arrogance dans mes versets ouais Tant de violence, tant de violence, de larmes versées Fin de vie, mes ennemis sont d'l'autre côté l'autre côté Certains d'entre eux prient pour que j'finisse par fauter hey, men Peuvent crier de douleur, j'les laisserai ligotés dose, dose Peuvent faire preuve de douceur, j'les laisserai mijoter sombre, sombre, sombre Face au destin, en espérant qu'il m'sourira en espérant J'fais d'la musique en espérant qu'elle m'nourrira en espérant Vulgaires lyrics, images très noires, faut qu'j'les devance hey La chance me répond plus malgré d'nombreuses relances, hey Tant d'arrogance dans mes versets Tant de violence, de larmes versées Plus de romance, j'ai l'cur percé Tant dinsouciance J'vis jour de guerre hey, j'pisse sur la terre hey, hey Yeux vers le ciel hey, 'sky dans mon verre hey, hey J'vis jour de guerre ouais, ouais, j'pisse sur la terre ouais, ouais Yeux vers le ciel ouais, ouais, 'sky dans mon verre ouais, ouais Hey, tant d'arrogance, tant d'arrogance dans mes versets zoin Tant de violence, tant de violence, de larmes versées sheesh Tant d'arrogance, tant d'arrogance dans mes versets hey Tant de violence, tant de violence, de larmes versées</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>J'ressens rien mais j'fais semblant Tentée de prendre c'qu'il y a à prendre sans perdre trop de temps Notre histoire est surfaite comme GTA Tes potes me consolent et j'y repense quand j'me fais du bien Si, je joue, c'est avec poupée vaudou Entre nous, c'est promis, j'irai tout doux Coûte que coûte, j'attends rien mais j'veux beaucoup Et si tu coules, j'te ferais du bouche à bouche Karma, karma Karma, karma Karma karma karma, karma karma, karma karma Karma karma karma, karma karma, karma karma Karma karma karma, karma karma, karma karma Karma karma karma, karma karma, karma karma J'te mords l'oreille comme Tyson quand j'te fais du sale L'amour n'est qu'poussière et terminera dans l'aspi' Dyson Rien qu'j'entends tes klaxons, mon ciel n'est pas pareil qu'eux Tu veux que j'disparaisse, que je n'sois aimé par personne J'pourrais peut-être te dire la vérité si tu prends pas l'seum Ton corps ne m'manquera pas car on dirait qu'tu manques de calcium Me parle pas d'karma, je n'm'arrête plus une fois qu'tu m'actionnes Y a rien que j'regrette quand j'te revois, crois pas qu'je frissonne Les amis que j'avais veulent de soulever, pour ça qu'je m'isole Quand j'étais avec toi, j'pensais à d'autres, j'avais la d'mi molle J'te laisse quelques années, tu finiras sous une camisole Je fais pendant qu'tu visionnes, visionnes You might also like Karma, karma Karma, karma Karma karma karma, karma karma, karma karma Karma karma karma, karma karma, karma karma Karma karma karma, karma karma, karma karma Karma karma karma, karma karma, karma karma</t>
+          <t>J'ressens rien mais j'fais semblant Tentée de prendre c'qu'il y a à prendre sans perdre trop de temps Notre histoire est surfaite comme GTA Tes potes me consolent et j'y repense quand j'me fais du bien Si, je joue, c'est avec poupée vaudou Entre nous, c'est promis, j'irai tout doux Coûte que coûte, j'attends rien mais j'veux beaucoup Et si tu coules, j'te ferais du bouche à bouche Karma, karma Karma, karma Karma karma karma, karma karma, karma karma Karma karma karma, karma karma, karma karma Karma karma karma, karma karma, karma karma Karma karma karma, karma karma, karma karma J'te mords l'oreille comme Tyson quand j'te fais du sale L'amour n'est qu'poussière et terminera dans l'aspi' Dyson Rien qu'j'entends tes klaxons, mon ciel n'est pas pareil qu'eux Tu veux que j'disparaisse, que je n'sois aimé par personne J'pourrais peut-être te dire la vérité si tu prends pas l'seum Ton corps ne m'manquera pas car on dirait qu'tu manques de calcium Me parle pas d'karma, je n'm'arrête plus une fois qu'tu m'actionnes Y a rien que j'regrette quand j'te revois, crois pas qu'je frissonne Les amis que j'avais veulent de soulever, pour ça qu'je m'isole Quand j'étais avec toi, j'pensais à d'autres, j'avais la d'mi molle J'te laisse quelques années, tu finiras sous une camisole Je fais pendant qu'tu visionnes, visionnes Karma, karma Karma, karma Karma karma karma, karma karma, karma karma Karma karma karma, karma karma, karma karma Karma karma karma, karma karma, karma karma Karma karma karma, karma karma, karma karma</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Mon chibre va si haut, pour m'branler, faut qu't'hausses la main Faut qu'on change les règles genre onze maliens dans appart' haussmannien Gang Les nègres de maison, ok-kay-kay Sont les seuls qui méritaient d'se faire brûler par l'KKK Si tu m'dois cinq euros, ou cinq zéros, pour moi, c'est l'même papier La France est raciste, elle n'aime pas les noirs sauf Mbappé Bien sûr Devenu précis comme Vinicius, on reconnait les filles qui sucent Samedi, debout sur l'mini bar, lundi, assis dans l'mini bus J'me montre même plus, fuck être une icône Mauvais il contre il du cyclone, dans l'game, j'ai plus de six clones Ancien re-noi chassait les skins en teddy Schott Nouveau re-noi perd connaissance au concert de Travis Scott Kid villain Si tu baises une influenceuse, j'te vois en che-lou comme les mecs qui baisent avec des poupées en plastique Bah ouais mon gros 404 Zoin Bah ouais, frérot Destin tracé, le Très Haut me fait des mini signes Pas confiance aux hommes, des féministes deviennent féminicides Donne le même respect si j'deviens garagiste J'suis un marmot avec une kalash', un noir esclavagiste, BLKKK VAN GOGH Six dans l'barillet, j'tire dans chaque abdo' J'avais quelque chose dans l'cerveau mais rien dans l'sac à dos Nuit tombée je regarde le plafond, j'me demande c'que mes gars font au cimetière R.I.P Aujourd'hui, j'suis grave solitaire, j'côtoie même pas ces gens Et quand j'apprécie une personne, j'deviens grave exigeant Perdre quelqu'un, ça t'rend seul, j'me confie dans l'bloc notes J'ai perdu une partie d'mon esprit comme Key Glock J'veux plus trop m'montrer, fuck voir la bouille de l'artiste J'suis qu'une merde sortie d'un vagin comme la mouille ou la pisse Ok You might also like Ancien re-noi chassait les skins en teddy Schott Nouveau re-noi perd connaissance au concert de Travis Scott Kid villain</t>
+          <t>Mon chibre va si haut, pour m'branler, faut qu't'hausses la main Faut qu'on change les règles genre onze maliens dans appart' haussmannien Gang Les nègres de maison, ok-kay-kay Sont les seuls qui méritaient d'se faire brûler par l'KKK Si tu m'dois cinq euros, ou cinq zéros, pour moi, c'est l'même papier La France est raciste, elle n'aime pas les noirs sauf Mbappé Bien sûr Devenu précis comme Vinicius, on reconnait les filles qui sucent Samedi, debout sur l'mini bar, lundi, assis dans l'mini bus J'me montre même plus, fuck être une icône Mauvais il contre il du cyclone, dans l'game, j'ai plus de six clones Ancien re-noi chassait les skins en teddy Schott Nouveau re-noi perd connaissance au concert de Travis Scott Kid villain Si tu baises une influenceuse, j'te vois en che-lou comme les mecs qui baisent avec des poupées en plastique Bah ouais mon gros 404 Zoin Bah ouais, frérot Destin tracé, le Très Haut me fait des mini signes Pas confiance aux hommes, des féministes deviennent féminicides Donne le même respect si j'deviens garagiste J'suis un marmot avec une kalash', un noir esclavagiste, BLKKK VAN GOGH Six dans l'barillet, j'tire dans chaque abdo' J'avais quelque chose dans l'cerveau mais rien dans l'sac à dos Nuit tombée je regarde le plafond, j'me demande c'que mes gars font au cimetière R.I.P Aujourd'hui, j'suis grave solitaire, j'côtoie même pas ces gens Et quand j'apprécie une personne, j'deviens grave exigeant Perdre quelqu'un, ça t'rend seul, j'me confie dans l'bloc notes J'ai perdu une partie d'mon esprit comme Key Glock J'veux plus trop m'montrer, fuck voir la bouille de l'artiste J'suis qu'une merde sortie d'un vagin comme la mouille ou la pisse Ok Ancien re-noi chassait les skins en teddy Schott Nouveau re-noi perd connaissance au concert de Travis Scott Kid villain</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Hey J'le dis pas, mais être célèbre, coté, c'est ce qui m'effraie Tu voulais le feat avec Damso ? Le crime est fait T'es en avance mais t'es personne, wAllah Être visionnaire, ça paye pas, wAllah J'veux mener vie de che-ri, sinon, quelle vie ? J'veux voir la vie en HD comme Jay-Z Le bonheur s'trouve dans compte en banque de Bill Gates Non, le bonheur ne s'trouve pas dans les crédits Vie d'erreurs, vie de pêchés J'te dis qu'je t'aime mais j'suis éméché Si j'y arrive, c'est pas un coup d'chatte, j'suis fort pour de vrai J'vais les prendre de loin ou de près, de force ou de gré Y a plus rien, y a plus d'codes, faudrait qu'j'devienne leur idole Quand les rappeurs rappent, les voyous rigolent J'veux des billets sur la table, quelques putes soumises Pour remettre 'Villiers sur la carte, quelques gouttes suffisent Dose 404, Virus Sale saleYou might also like</t>
+          <t>Hey J'le dis pas, mais être célèbre, coté, c'est ce qui m'effraie Tu voulais le feat avec Damso ? Le crime est fait T'es en avance mais t'es personne, wAllah Être visionnaire, ça paye pas, wAllah J'veux mener vie de che-ri, sinon, quelle vie ? J'veux voir la vie en HD comme Jay-Z Le bonheur s'trouve dans compte en banque de Bill Gates Non, le bonheur ne s'trouve pas dans les crédits Vie d'erreurs, vie de pêchés J'te dis qu'je t'aime mais j'suis éméché Si j'y arrive, c'est pas un coup d'chatte, j'suis fort pour de vrai J'vais les prendre de loin ou de près, de force ou de gré Y a plus rien, y a plus d'codes, faudrait qu'j'devienne leur idole Quand les rappeurs rappent, les voyous rigolent J'veux des billets sur la table, quelques putes soumises Pour remettre 'Villiers sur la carte, quelques gouttes suffisent Dose 404, Virus Sale sale</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>4.0.4 DST VLB Hey, hey hey Même fucked up, j'serais pas locked up Queue en compote pour être dans l'top Y a que 404, j'ai pas d'autres potes J'ai des textes en sang dans mon bloc-notes J'me recueille sur la tombe du hip-hop Solo dans le pit-cock, le rap meurt, personne dit stop J'suis l'sauveur, j'ai l'antidote Hey, j'ai pas des phrasés, j'ai des proses Ouais négro, j'suis fait d'émeraudes, pourtant j'ai toujours vécu pauvre J'ai vu des mères se couper les veines J'ai violent vécu comme à Harlem Mon répertoire c'est mon Harem Il n'y a que la violence que je parraine Dose, j'entends mes démons, mais à qui causent-ils ? Univers hostile, ta mère est une pute Mais dis-moi, t'as combien d'pères possibles ? Quand je rentre dans le club, fais bellek, hostile Hey, hey, les fils de pute sont de l'autre côté de la rive Ce que je vais vivre c'est tout ce dont tu rêves Quand je rap du sang sort de mes lèvres Des meufs rincées, c'est tout ce que tu baises Fuck le rap, fuck être le futur boss Un monde de merde, je plains mes futurs gosses La France d'en-bas victime d'abus de force J'ai pas d'amour, je t'égorge la nuit de noces Mes djinns sont mes ghosts writers, me poursuivent pour droits d'auteur Bellek car je prends de l'ampleur, j'suis dans Hunter X Hunter Même Wolfgang, j'le mets hors-game Génie d'la zik, fuck le solfège J'ai des choses ténébreuses dans mon Hotmail J'suis Bill Cosby dans un hôtel Un nègre instruit est un nègre dangereux Donne moi de la force pour que je reste dans le jeu Déterminé, j'ai de la haine dans les yeux J'vole plus haut qu'eux, j'suis un aigle dans les cieux Le cul, la chatte, j'vais te la mettre dans les deux Malade je suis, et je rêve d'aller mieux Si j'suis coupable, je veux l'être devant Dieu Même amputé, je serais toujours devant eux Je serais toujours devant eux Ma seule passion est un rêve à deux issues Sois je reste vrai, sois j'me mets à demi-nu Rangez les armes, il paraît que fumer tue Il paraît que fumer tue Ma bite en érection, ta mère à l'cul dessus J'donne tout j'ai rien reçu, 404 est déçu Le Kid est mort, et je n'ai aucun remord Bats les couilles, même morts, les absents ont toujours tort Le Kid est mort, et je n'ai aucun remord Bats les couilles, même morts, les absents ont toujours tortYou might also like1</t>
+          <t>4.0.4 DST VLB Hey, hey hey Même fucked up, j'serais pas locked up Queue en compote pour être dans l'top Y a que 404, j'ai pas d'autres potes J'ai des textes en sang dans mon bloc-notes J'me recueille sur la tombe du hip-hop Solo dans le pit-cock, le rap meurt, personne dit stop J'suis l'sauveur, j'ai l'antidote Hey, j'ai pas des phrasés, j'ai des proses Ouais négro, j'suis fait d'émeraudes, pourtant j'ai toujours vécu pauvre J'ai vu des mères se couper les veines J'ai violent vécu comme à Harlem Mon répertoire c'est mon Harem Il n'y a que la violence que je parraine Dose, j'entends mes démons, mais à qui causent-ils ? Univers hostile, ta mère est une pute Mais dis-moi, t'as combien d'pères possibles ? Quand je rentre dans le club, fais bellek, hostile Hey, hey, les fils de pute sont de l'autre côté de la rive Ce que je vais vivre c'est tout ce dont tu rêves Quand je rap du sang sort de mes lèvres Des meufs rincées, c'est tout ce que tu baises Fuck le rap, fuck être le futur boss Un monde de merde, je plains mes futurs gosses La France d'en-bas victime d'abus de force J'ai pas d'amour, je t'égorge la nuit de noces Mes djinns sont mes ghosts writers, me poursuivent pour droits d'auteur Bellek car je prends de l'ampleur, j'suis dans Hunter X Hunter Même Wolfgang, j'le mets hors-game Génie d'la zik, fuck le solfège J'ai des choses ténébreuses dans mon Hotmail J'suis Bill Cosby dans un hôtel Un nègre instruit est un nègre dangereux Donne moi de la force pour que je reste dans le jeu Déterminé, j'ai de la haine dans les yeux J'vole plus haut qu'eux, j'suis un aigle dans les cieux Le cul, la chatte, j'vais te la mettre dans les deux Malade je suis, et je rêve d'aller mieux Si j'suis coupable, je veux l'être devant Dieu Même amputé, je serais toujours devant eux Je serais toujours devant eux Ma seule passion est un rêve à deux issues Sois je reste vrai, sois j'me mets à demi-nu Rangez les armes, il paraît que fumer tue Il paraît que fumer tue Ma bite en érection, ta mère à l'cul dessus J'donne tout j'ai rien reçu, 404 est déçu Le Kid est mort, et je n'ai aucun remord Bats les couilles, même morts, les absents ont toujours tort Le Kid est mort, et je n'ai aucun remord Bats les couilles, même morts, les absents ont toujours tort1</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Où je vis, c'est l'enfer J'suis dans l'monde à l'envers L'être humain fait qu'perdre Car l'être humain aime plaire Sur ce son, j'ai des frissons, hey J'ai beau rêver Ma vie bloque mes ambitions Il est grand temps, maintenant, d'plus croire en mes rêves d'enfant Dans l'noir, je n'vois plus le ciel J'crie fort, mais personne m'entend J'ai peur de manquer de temps J'ai peur de manquer de cran Mourir au soleil levant Faiblir face aux règles du temps, hey hey Tu peux être disque de platine Double disque de platine Triple disque de platine En featuring, je te tartine Je sais déjà c'que j'te dirais Dans peu de temps, quand j'te verrai Qui m'a pas cru, m'a pas aidé Tu t'rappelles de moi, pédé ? Ta carrière, j'vais la violer au lit Me suis jamais dans mes conneries, homie Tu peux faire disque de diamant, négro Donneront l'Awards à Bigflo Oli Mon cerveau vient des pays d'l'Est J'mets mon cur ou bien c'qu'il en reste L'ange de la mort connaît mon adresse Connaît ma voix dans le blind test, hey Comment vivre une vie sans risque ? Comment réussir sans triche ? Combien d'eux sont de vrais artistes ? J'viens leur mettre leur doigt J'viens leur mettre leur doigt Je rêve d'être quelqu'un d'autre Donc ne rêve pas d'être moi BillyYou might also like</t>
+          <t>Où je vis, c'est l'enfer J'suis dans l'monde à l'envers L'être humain fait qu'perdre Car l'être humain aime plaire Sur ce son, j'ai des frissons, hey J'ai beau rêver Ma vie bloque mes ambitions Il est grand temps, maintenant, d'plus croire en mes rêves d'enfant Dans l'noir, je n'vois plus le ciel J'crie fort, mais personne m'entend J'ai peur de manquer de temps J'ai peur de manquer de cran Mourir au soleil levant Faiblir face aux règles du temps, hey hey Tu peux être disque de platine Double disque de platine Triple disque de platine En featuring, je te tartine Je sais déjà c'que j'te dirais Dans peu de temps, quand j'te verrai Qui m'a pas cru, m'a pas aidé Tu t'rappelles de moi, pédé ? Ta carrière, j'vais la violer au lit Me suis jamais dans mes conneries, homie Tu peux faire disque de diamant, négro Donneront l'Awards à Bigflo Oli Mon cerveau vient des pays d'l'Est J'mets mon cur ou bien c'qu'il en reste L'ange de la mort connaît mon adresse Connaît ma voix dans le blind test, hey Comment vivre une vie sans risque ? Comment réussir sans triche ? Combien d'eux sont de vrais artistes ? J'viens leur mettre leur doigt J'viens leur mettre leur doigt Je rêve d'être quelqu'un d'autre Donc ne rêve pas d'être moi Billy</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>J'fais la justice moi-même comme Jean-Marie Villemin Sur la marchandise, j'mets la main comme Toni Musulin J'suis sur le scooter, j'vais chez Julie comme François Hollande J'arrive comme le char à chenilles dans la forêt des Landes La musique, on l'a fait parce qu'on sait la faire Parce qu'on aime la faire, parce qu'en-d'ssous d'l'Enfer, y a un monde Fils de pute de fédéral sous ma hutte, personnage froid comme un Inuit ouh 4.0.4, tout est mathématique Dièse 31 dièse, tout est mathématique 3.5.7, tout est mathématique Sortir son gros cul, tout est mathématique Tu veux m'éteindre ? Faut qu'tu vises la tête Putain, jamais j'm'arrête, négro, j'suis chaud comme le couteau sur la plaquette jamais, jamais Explose sa ke-schne comme Gulliver, du neuf dans le faux Tout est culinaire, tout est vert dans mon univers À la base, j'étais qu'une goutte de sperme hahaha, dans la musique, j'me retrouve Dans la cyprine, je me perds, 3k sur le poignet Les suprémacistes l'auront dans le rectum, 404 dans le rectangle selha, selha, selha 404, tout est mathématique Dièse 31 dièse, tout est mathématique 3.5.7, tout est mathématique hey Sortir son gros cul hey, tout est mathématique You might also like J'suis insensible, j'crois bien qu'j'ai l'cur d'un mort-né J'ai besoin d'biff comme les anciens qui r'viennent et qui r'partent en tournée Ok, l'argent avant les putes mais j'ai plus de putes que d'argent Les keufs ont la gâchette facile, j'ai comme envie d'kill un agent Ne laisse pas trop trop traîner ton fils ou il fumera p't-être de la drogue et boira p't-être de l'alcool et s'fera sucer par des folles Je n'corresponds pas aux critères, j'fais pas partie des nominés On t'a demandé Tu étais qui ?, on t'a pas d'mandé d'où tu v'nais 404, tout est mathématique Dièse 31 dièse, tout est mathématique 3.5.7, tout est mathématique Sortir son gros cul, tout est mathématique</t>
+          <t>J'fais la justice moi-même comme Jean-Marie Villemin Sur la marchandise, j'mets la main comme Toni Musulin J'suis sur le scooter, j'vais chez Julie comme François Hollande J'arrive comme le char à chenilles dans la forêt des Landes La musique, on l'a fait parce qu'on sait la faire Parce qu'on aime la faire, parce qu'en-d'ssous d'l'Enfer, y a un monde Fils de pute de fédéral sous ma hutte, personnage froid comme un Inuit ouh 4.0.4, tout est mathématique Dièse 31 dièse, tout est mathématique 3.5.7, tout est mathématique Sortir son gros cul, tout est mathématique Tu veux m'éteindre ? Faut qu'tu vises la tête Putain, jamais j'm'arrête, négro, j'suis chaud comme le couteau sur la plaquette jamais, jamais Explose sa ke-schne comme Gulliver, du neuf dans le faux Tout est culinaire, tout est vert dans mon univers À la base, j'étais qu'une goutte de sperme hahaha, dans la musique, j'me retrouve Dans la cyprine, je me perds, 3k sur le poignet Les suprémacistes l'auront dans le rectum, 404 dans le rectangle selha, selha, selha 404, tout est mathématique Dièse 31 dièse, tout est mathématique 3.5.7, tout est mathématique hey Sortir son gros cul hey, tout est mathématique J'suis insensible, j'crois bien qu'j'ai l'cur d'un mort-né J'ai besoin d'biff comme les anciens qui r'viennent et qui r'partent en tournée Ok, l'argent avant les putes mais j'ai plus de putes que d'argent Les keufs ont la gâchette facile, j'ai comme envie d'kill un agent Ne laisse pas trop trop traîner ton fils ou il fumera p't-être de la drogue et boira p't-être de l'alcool et s'fera sucer par des folles Je n'corresponds pas aux critères, j'fais pas partie des nominés On t'a demandé Tu étais qui ?, on t'a pas d'mandé d'où tu v'nais 404, tout est mathématique Dièse 31 dièse, tout est mathématique 3.5.7, tout est mathématique Sortir son gros cul, tout est mathématique</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Hey Zoin Submariner sur le poignet, il faut boy Esquive les donneuses de go zoin, et les donneurs de noms oui Déjà qu'on sait qu't'es une balance han, alors pèse tes mots pèse Pour monter pas besoin d'alliance jamais, allez baise tes morts baise tes morts Les regarde pas c'est des mauvais, des mauvais, des mauvais, des mauvais c'est des mauvais Les écoute pas c'est des mauvais, des mauvais, des mauvais, des mauvais zoin, zoin Ils sont en bas c'est des mauvais, des mauvais, des mauvais, des mauvais c'est des mauvais Zoin, hey, hey Ni queue ni tête, c'est normal, on t'a coupé les deux sheesh, sheesh T'es ramolli ta pétasse, elle t'a bandé les yeux fort Faut qu'ils comprennent boy, faut au moins SLR Je la pénètre par devant sans test PCR tiens Désormais c'est la guerre, tou-tou-tou-tou, j'suis frais en Dior, en Noir Paris C'est la barbarie toujours, méfie toi des petits gabarits toujours On achète tout comme les qataris toujours Zoin OnlyFans rémunère mieux que le terrain même ta petite sur réfléchit à en faire un tous nos projets on réalise en souterrain, quoi qu'il arrive dans les dièses on est sereins on est sereins, on est sereins Elle te bloque quand elle est avec son raclo Sénégalais j'suis comme Mamadou Sakho noir Sont petits comme Monaco noir Pour eux ça sent le naufrage, ils ont même pas un rond, il faut tourner la page il faut Si je saute, ils sautent, j'suis un vrai kamikaze boom You might also like Les regarde pas c'est des mauvais, des mauvais, des mauvais, des mauvais c'est des mauvais Les écoute pas c'est des mauvais, des mauvais, des mauvais, des mauvais zoin, zoin Ils sont en bas c'est des mauvais, des mauvais, des mauvais, des mauvais c'est des mauvais Zoin, hey, wouh Il faut qu'tu t'achètes une nouvelle voiture, si jamais tu veux des nouveaux jaloux fort Nouvelle chagasse sur le siège passager hey, la réussite est un sujet tabou sheesh J'ai quelques hypocrites dans les pattes oh shit Ils attendent que je rentre dans les Charts oh shit Pour tter-gra, mettre le nez dans mes faf's braahh Ils vont même vouloir gratter ma place tou-tou-tou-tou La weed de mes G's elle provient de Cali wouh J'dis du bien d'toi pendant qu'tu m'salis wouh J'le fais en soliste pendant qu'ils s'allient J'les tiens en laisse comme The Dog Danny hey Ils vont tomber comme des quilles de bowling Y'a pas d'king, faut qu'je le souligne Arme à feu, devant tes yeux, tu vas nous taper un p'tit footing fort Y'a rien de beau Ils font d'la comédie, comédie, comédie, comédie comédie, comédie La punition sera collective, la punition sera collective collective Elle m'en demande trop j'te jure Woh hey, elle a cru qu'j'étais son père mais c'est même pas ma go woh Les regarde pas c'est des mauvais, des mauvais, des mauvais, des mauvais c'est des mauvais Les écoute pas c'est des mauvais, des mauvais, des mauvais, des mauvais zoin, zoin Ils sont en bas c'est des mauvais, des mauvais, des mauvais, des mauvais c'est des mauvais Zoin, hey, zoin</t>
+          <t>Hey Zoin Submariner sur le poignet, il faut boy Esquive les donneuses de go zoin, et les donneurs de noms oui Déjà qu'on sait qu't'es une balance han, alors pèse tes mots pèse Pour monter pas besoin d'alliance jamais, allez baise tes morts baise tes morts Les regarde pas c'est des mauvais, des mauvais, des mauvais, des mauvais c'est des mauvais Les écoute pas c'est des mauvais, des mauvais, des mauvais, des mauvais zoin, zoin Ils sont en bas c'est des mauvais, des mauvais, des mauvais, des mauvais c'est des mauvais Zoin, hey, hey Ni queue ni tête, c'est normal, on t'a coupé les deux sheesh, sheesh T'es ramolli ta pétasse, elle t'a bandé les yeux fort Faut qu'ils comprennent boy, faut au moins SLR Je la pénètre par devant sans test PCR tiens Désormais c'est la guerre, tou-tou-tou-tou, j'suis frais en Dior, en Noir Paris C'est la barbarie toujours, méfie toi des petits gabarits toujours On achète tout comme les qataris toujours Zoin OnlyFans rémunère mieux que le terrain même ta petite sur réfléchit à en faire un tous nos projets on réalise en souterrain, quoi qu'il arrive dans les dièses on est sereins on est sereins, on est sereins Elle te bloque quand elle est avec son raclo Sénégalais j'suis comme Mamadou Sakho noir Sont petits comme Monaco noir Pour eux ça sent le naufrage, ils ont même pas un rond, il faut tourner la page il faut Si je saute, ils sautent, j'suis un vrai kamikaze boom Les regarde pas c'est des mauvais, des mauvais, des mauvais, des mauvais c'est des mauvais Les écoute pas c'est des mauvais, des mauvais, des mauvais, des mauvais zoin, zoin Ils sont en bas c'est des mauvais, des mauvais, des mauvais, des mauvais c'est des mauvais Zoin, hey, wouh Il faut qu'tu t'achètes une nouvelle voiture, si jamais tu veux des nouveaux jaloux fort Nouvelle chagasse sur le siège passager hey, la réussite est un sujet tabou sheesh J'ai quelques hypocrites dans les pattes oh shit Ils attendent que je rentre dans les Charts oh shit Pour tter-gra, mettre le nez dans mes faf's braahh Ils vont même vouloir gratter ma place tou-tou-tou-tou La weed de mes G's elle provient de Cali wouh J'dis du bien d'toi pendant qu'tu m'salis wouh J'le fais en soliste pendant qu'ils s'allient J'les tiens en laisse comme The Dog Danny hey Ils vont tomber comme des quilles de bowling Y'a pas d'king, faut qu'je le souligne Arme à feu, devant tes yeux, tu vas nous taper un p'tit footing fort Y'a rien de beau Ils font d'la comédie, comédie, comédie, comédie comédie, comédie La punition sera collective, la punition sera collective collective Elle m'en demande trop j'te jure Woh hey, elle a cru qu'j'étais son père mais c'est même pas ma go woh Les regarde pas c'est des mauvais, des mauvais, des mauvais, des mauvais c'est des mauvais Les écoute pas c'est des mauvais, des mauvais, des mauvais, des mauvais zoin, zoin Ils sont en bas c'est des mauvais, des mauvais, des mauvais, des mauvais c'est des mauvais Zoin, hey, zoin</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Hey C'était le même drapeau , c'était le même clan Tu l'avais dans la peau , tu l'avais dans le sang Et pourtant Au départ vous aviez l'même drapeau T'as fini par te dessouder Au départ vous aviez le même drapeau Mais t'as fini par te dessouder Au départ vous aviez le même drapeau C'était le même drapeau , c'était le même clan Tu l'avais dans la peau , tu l'avais dans le sang Et pourtant Au départ vous aviez l'même drapeau T'as fini par te dessouder Au départ vous aviez le même drapeau Mais t'as fini par t dessouder Au départ vous aviez l même drapeau C'était comme ton frère, ça a grandit ensemble A la rentrée vous mettiez les mêmes ensembles Même si votre lien ne fait pas partie du sang Les gens disent que tu lui ressemble Ça partage tout , vos premiers coins, vos premières tchoins , vos premiers points Lui il connait des grands bandits, toi t'es plus discret t'en connais un peu moins Lui il devient moins souriant, toi t'es dans les études, résultats sont brillants Pour cette gow t'as des sentiments, tu le sens plus pareil tu deviens distant T'apprends qu'il est dans la vente, qu'il pleuve, qu'il vente en plus il se vante Et quand tu rencontres sa daronne, elle a les yeux cernés vit dans la tourmente T'essaye enfin d'le raisonner quand tu vas lui parler, il te rit au nez Mais tu vois que c'n'est qu'une face, soucis l'empêchent de rayonner Alors tu continues ta route, persuadé qu't'en a rien a foutre Tu t'dis qu'il fasse a sa guise, il verra combien ça lui coûte, combien ca lui coute Vos chemins tracés sont inimaginables, toi tes études n'ont rien donné au final Qui a raison, qui a tord, qui a coulé, qui est a bord T'essaye de te dire qu'il est mort mais tu l'aimes encore, ton reuf You might also like C'était le même drapeau , c'était le même clan Tu l'avais dans la peau , tu l'avais dans le sang Et pourtant Au départ vous aviez l'même drapeau T'as fini par te dessouder Au départ vous aviez le même drapeau Mais t'as fini par te dessouder Au départ vous aviez le même drapeau C'était le même drapeau , c'était le même clan Tu l'avais dans la peau , tu l'avais dans le sang Et pourtant Au départ vous aviez l'même drapeau T'as fini par te dessouder Au départ vous aviez le même drapeau Mais t'as fini par te dessouder Au départ vous aviez le même drapeau Il dit tu parles sur lui, tu dis qu'il parle sur toi, il dit qu't'es jaloux d'lui, toi qu'il est jaloux de toi Les rumeurs vous ont séparé, encore plus, et personne prend sur soi Au fond tu t'inquiètes pour lui, parce que tu t'dis qu'il n'est pas si pourris Quand tu l'croise aucun sourire, aucun Salam quand t'es devant lui Et tout ca et tout ca, c'est juste l'humain et sa fierté Au lieu d'se demander si on s'aime, on se demande qui a merdé, qui a merdé, qui a merdé Le temps passe et t'as plus de nouvelles, t'as plus la même meuf c'est une nouvelle, t'as mis votre passé a la poubelle Mais le passé revient plus violemment, il s'est fait tirer dessus il ne survivra pas En vrai c'n'était qu'un pion, qui était la pour servir d'appât Et quand tu débarques a l'enterrement, tu vois qu'ses potes qui l'ont mis dedans n'y sont pas Et la tu comprends, que eux ne sont pas toi Alors maintenant tu ressens quoi? Ne laisse pas tes proches mourir, même si tu dois courir derrière eux Beaucoup de fois tu penses a lui, tu l'imagines sourire dans les cieux Tu r'pense a tous vos moments, et la t'as du liquide dans les yeux J'te rassure y'avais pas que d'l'amour dans ta poitrine, mais dans les deux, dans les deux au départ vous aviez l'même drapeau au départ vous aviez l'même drapeau au départ vous aviez l'même drapeau</t>
+          <t>Hey C'était le même drapeau , c'était le même clan Tu l'avais dans la peau , tu l'avais dans le sang Et pourtant Au départ vous aviez l'même drapeau T'as fini par te dessouder Au départ vous aviez le même drapeau Mais t'as fini par te dessouder Au départ vous aviez le même drapeau C'était le même drapeau , c'était le même clan Tu l'avais dans la peau , tu l'avais dans le sang Et pourtant Au départ vous aviez l'même drapeau T'as fini par te dessouder Au départ vous aviez le même drapeau Mais t'as fini par t dessouder Au départ vous aviez l même drapeau C'était comme ton frère, ça a grandit ensemble A la rentrée vous mettiez les mêmes ensembles Même si votre lien ne fait pas partie du sang Les gens disent que tu lui ressemble Ça partage tout , vos premiers coins, vos premières tchoins , vos premiers points Lui il connait des grands bandits, toi t'es plus discret t'en connais un peu moins Lui il devient moins souriant, toi t'es dans les études, résultats sont brillants Pour cette gow t'as des sentiments, tu le sens plus pareil tu deviens distant T'apprends qu'il est dans la vente, qu'il pleuve, qu'il vente en plus il se vante Et quand tu rencontres sa daronne, elle a les yeux cernés vit dans la tourmente T'essaye enfin d'le raisonner quand tu vas lui parler, il te rit au nez Mais tu vois que c'n'est qu'une face, soucis l'empêchent de rayonner Alors tu continues ta route, persuadé qu't'en a rien a foutre Tu t'dis qu'il fasse a sa guise, il verra combien ça lui coûte, combien ca lui coute Vos chemins tracés sont inimaginables, toi tes études n'ont rien donné au final Qui a raison, qui a tord, qui a coulé, qui est a bord T'essaye de te dire qu'il est mort mais tu l'aimes encore, ton reuf C'était le même drapeau , c'était le même clan Tu l'avais dans la peau , tu l'avais dans le sang Et pourtant Au départ vous aviez l'même drapeau T'as fini par te dessouder Au départ vous aviez le même drapeau Mais t'as fini par te dessouder Au départ vous aviez le même drapeau C'était le même drapeau , c'était le même clan Tu l'avais dans la peau , tu l'avais dans le sang Et pourtant Au départ vous aviez l'même drapeau T'as fini par te dessouder Au départ vous aviez le même drapeau Mais t'as fini par te dessouder Au départ vous aviez le même drapeau Il dit tu parles sur lui, tu dis qu'il parle sur toi, il dit qu't'es jaloux d'lui, toi qu'il est jaloux de toi Les rumeurs vous ont séparé, encore plus, et personne prend sur soi Au fond tu t'inquiètes pour lui, parce que tu t'dis qu'il n'est pas si pourris Quand tu l'croise aucun sourire, aucun Salam quand t'es devant lui Et tout ca et tout ca, c'est juste l'humain et sa fierté Au lieu d'se demander si on s'aime, on se demande qui a merdé, qui a merdé, qui a merdé Le temps passe et t'as plus de nouvelles, t'as plus la même meuf c'est une nouvelle, t'as mis votre passé a la poubelle Mais le passé revient plus violemment, il s'est fait tirer dessus il ne survivra pas En vrai c'n'était qu'un pion, qui était la pour servir d'appât Et quand tu débarques a l'enterrement, tu vois qu'ses potes qui l'ont mis dedans n'y sont pas Et la tu comprends, que eux ne sont pas toi Alors maintenant tu ressens quoi? Ne laisse pas tes proches mourir, même si tu dois courir derrière eux Beaucoup de fois tu penses a lui, tu l'imagines sourire dans les cieux Tu r'pense a tous vos moments, et la t'as du liquide dans les yeux J'te rassure y'avais pas que d'l'amour dans ta poitrine, mais dans les deux, dans les deux au départ vous aviez l'même drapeau au départ vous aviez l'même drapeau au départ vous aviez l'même drapeau</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>I am the danger J'essaye de n'jamais fauter Agathe Auproux, j'aime son décolleté J'aimerais m'la dégoter Sombre vie, j'préfère crever d'une balle plutôt qu'd'aller voter Ces négros de merde sont tous drogués, vont faire v'la les OD Mes ennemis savent rien, ne comprennent rien car l'langage est codé L'esclavage, c'est fini Sale raciste, maintenant, t'es démodé Chacun son rôle, chacun sa cible, car léquipe est rodée J'regarde ton rap, j'regarde tes ventes, tout est erroné Sors pas ta grosse voiture devant nous, on va t'la dérober Sans les deux mains J'vais les baiser, une relation sans lendemain Là d'où je viens, tu nais pas riche, tu le deviens J'reste serein, j'suis blessé donc je me souviens J'fais pas d'erreur dans mes Error Regard noir dans le mirror Tir de .22 dans le fémur Face à la mort, pas de temps mort Si tu oses défier léquipe, pas de hoes dans mon éthique J'prends des risques pour des billets Verres d'alcool pour oublier Dans le club, que des vrais négros dans mon clan Rare et cher, j'ai des diamants dans le sang Pédé, tu veux mon flow ? J'te le vends Cette année, gros, c'est pour moi, je le sensYou might also like1</t>
+          <t>I am the danger J'essaye de n'jamais fauter Agathe Auproux, j'aime son décolleté J'aimerais m'la dégoter Sombre vie, j'préfère crever d'une balle plutôt qu'd'aller voter Ces négros de merde sont tous drogués, vont faire v'la les OD Mes ennemis savent rien, ne comprennent rien car l'langage est codé L'esclavage, c'est fini Sale raciste, maintenant, t'es démodé Chacun son rôle, chacun sa cible, car léquipe est rodée J'regarde ton rap, j'regarde tes ventes, tout est erroné Sors pas ta grosse voiture devant nous, on va t'la dérober Sans les deux mains J'vais les baiser, une relation sans lendemain Là d'où je viens, tu nais pas riche, tu le deviens J'reste serein, j'suis blessé donc je me souviens J'fais pas d'erreur dans mes Error Regard noir dans le mirror Tir de .22 dans le fémur Face à la mort, pas de temps mort Si tu oses défier léquipe, pas de hoes dans mon éthique J'prends des risques pour des billets Verres d'alcool pour oublier Dans le club, que des vrais négros dans mon clan Rare et cher, j'ai des diamants dans le sang Pédé, tu veux mon flow ? J'te le vends Cette année, gros, c'est pour moi, je le sens1</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>J'me torche avec leurs vêtements, fuck Balenciaga Dans mon équipe, des balances, y a pas, j'ai l'bras long si y a drah Assis dans une pièce noire sur un canapé coloré tranquille Les artistes d'Universal sont qu'les salariés d'Bolloré Quelques souvenirs d'enfance, on a souffert plus qu'ils ne l'pensent J'suis l'cauchemar de la France j'suis un négro sorti d'une blanche J'ai compris dans c'bas monde, j'peux pas m'en sortir sans suer Jpréfère ne pas m'en sortir que d'm'en sortir censuré J'gutte à la fenêtre comm Malcolm J'guette à la fenêtre comme clic-clic-clic Mes péchés m'font mal comme la médisance et l'alcool Toujours à l'aise devant un homme ou dix équipes Toujours à l'aise Coupe-toi les veines si ton album fait dix-sept titres Peau dennemis sur des cintres, j'm'habille comment aujourd'hui ? Comme ton daron absent dans l'passé mais présent au jour J Elle est trop faible, elle veut d'l'amour, elle n'aura ni ça ni l'anneau Car depuis p'tit, j'aime les sorcières, j'aime les Alyssa Milano Zoin À part après l'argent, un vrai OG ne court jamais Fuck les bobos qui bandent sur lquartier comme l'équipe de Kourtrajmé Zoin J'suis ni de droite ni de gauche Fuck les conneries, gros J'suis ni Pétain ni De Gaulle Putain, je sens qu'ça va péter, quelle ambiance, quelle atmosphère Frérot, j'suis pas LGBT, j'suis pas non plus d'la fachosphère Moi, j'ai créé mon propre camp, mes auditeurs, mon propre clan Quand j'regarde certains keufs, j'les vois habillés comme le Klan Ololo Ou comme les skins, j'suis skinny mais j'ai les skills Technique comme l'escrime, tu veux mentir mais j'ai les screens Soutien à Kyrie Irving, humblement, sans sucer l'type J'ai dit à mon poto juif Vous êtes bien trop susceptibles Bah ouais Il m'a dit Les noirs deviennent pareils, alors dose Faut pas oublier l'esclavage mais faut passer à autre chose J'suis qu'un métisse, à leurs yeux, j'suis qu'un bâtard J'suis l'mouton noir qui arrive calibré, j'flingue tout labattoir OK-K-Kay You might also like Kidvillain Industry Zoin Fuck le monde Zoin1</t>
+          <t>J'me torche avec leurs vêtements, fuck Balenciaga Dans mon équipe, des balances, y a pas, j'ai l'bras long si y a drah Assis dans une pièce noire sur un canapé coloré tranquille Les artistes d'Universal sont qu'les salariés d'Bolloré Quelques souvenirs d'enfance, on a souffert plus qu'ils ne l'pensent J'suis l'cauchemar de la France j'suis un négro sorti d'une blanche J'ai compris dans c'bas monde, j'peux pas m'en sortir sans suer Jpréfère ne pas m'en sortir que d'm'en sortir censuré J'gutte à la fenêtre comm Malcolm J'guette à la fenêtre comme clic-clic-clic Mes péchés m'font mal comme la médisance et l'alcool Toujours à l'aise devant un homme ou dix équipes Toujours à l'aise Coupe-toi les veines si ton album fait dix-sept titres Peau dennemis sur des cintres, j'm'habille comment aujourd'hui ? Comme ton daron absent dans l'passé mais présent au jour J Elle est trop faible, elle veut d'l'amour, elle n'aura ni ça ni l'anneau Car depuis p'tit, j'aime les sorcières, j'aime les Alyssa Milano Zoin À part après l'argent, un vrai OG ne court jamais Fuck les bobos qui bandent sur lquartier comme l'équipe de Kourtrajmé Zoin J'suis ni de droite ni de gauche Fuck les conneries, gros J'suis ni Pétain ni De Gaulle Putain, je sens qu'ça va péter, quelle ambiance, quelle atmosphère Frérot, j'suis pas LGBT, j'suis pas non plus d'la fachosphère Moi, j'ai créé mon propre camp, mes auditeurs, mon propre clan Quand j'regarde certains keufs, j'les vois habillés comme le Klan Ololo Ou comme les skins, j'suis skinny mais j'ai les skills Technique comme l'escrime, tu veux mentir mais j'ai les screens Soutien à Kyrie Irving, humblement, sans sucer l'type J'ai dit à mon poto juif Vous êtes bien trop susceptibles Bah ouais Il m'a dit Les noirs deviennent pareils, alors dose Faut pas oublier l'esclavage mais faut passer à autre chose J'suis qu'un métisse, à leurs yeux, j'suis qu'un bâtard J'suis l'mouton noir qui arrive calibré, j'flingue tout labattoir OK-K-Kay Kidvillain Industry Zoin Fuck le monde Zoin1</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Pour deux trois phrases on m'traite de rappeur gore Pendant qu'les maisons d'disques font du biff' sur des rappeurs morts J'essaie d'être meilleur, car j'peux pas être pire J'respire de talent d'Van Gogh, j'expire le talent d'Shakespeare C'est des arnaques c'est des scams, j'traîne seul ils traînent en bande J'parle des gays tout le monde s'exclame, j'parle des noirs tout le monde s'en branle Respecte toi arrête Betclic arrête les combinés Eh rappeurs, arrêtons les interviewes chez Konbini Même l'argent propre de base est déjà sali J'mets mon argent sous l'lit comme Eva Kaili Le même créateur, mais on est pas les mêmes hommes Les mêmes vingt-quatre heures, mais on fait pas les mêmes sommes J'suis dans une zone de feu, tout autour d'la glace il y a Respecte-moi en RS6, respecte-moi en Dacia Être vrai et dire c'que j'pense j'ai bien l'impression qu'ça m'isole Premier date au restaurant, j'arrive sappé en camisole Un grand sourire sur mes Mughots J'ai pas l'choix pour m'en sortir faut qu'j'mette des headshots Gang gan-gan-gang Frérot y a pas d'issue à chaque projet ça t'fera le même choc You might also like Si j'avais su l'état d'ce monde J'aurai refusé d'naître j'me serai pendu avec le cordon J'traînais sur Villiers, zéro billets dans mon pantalon J'viens sur ton terrain, j'impose ma loi comme ton beau daron J'sors d'une bonne période mais tout d'suite, les soucis défilent Ma vie est remplie d'tâches comme la gueule de J'pense au jour de ma mort au dernier polo qu'j'mettrai J'vis la vie à fond car je suis chronométré J'traîne avec mecs intelligents avec des potos lettrés Sur tout l'game j'éjacule j'envoie mon produit laiter Calme-toi j'envie ni toi ni ton pourri métier Quand tu reçois mes vinyles, c'est un colis piégé J'ai eu beaucoup d'chagrin, j'ai mis mon cur dans atèle Tu peux pas dire qu'j'rappe comme untel les jaloux maigrissent comme Adèle Même si j'ai vu la vidéo, j'écouterai toujours Mac Tyer frérot J'attaque comme Haaland, tu défends comme Maguire Un grand sourire sur mes Mughots J'ai pas l'choix pour m'en sortir faut qu'j'mette des headshots Gang gan-gan-gang Frérot y a pas d'issue à chaque projet ça t'fera le même choc Quand j'pose le front au sol, j'me dis qu'j'me libère d'mes dettes Liberté d'expression rejoint la liberté d'être J'ai pas beaucoup d'potes, mais j'ai beaucoup d'plugs Faut pas qu'ils deviennent Gunna, si j'deviens Young Thug Vengeance, comme un pédo, violé par dix mineurs Pourquoi j'suis d'venu aussi fort j'ai bossé dix mille heures T'as pas d'talent, donc pour une vie embellie Tu baises avec le patron, comme Kelly Vedovelli Faut qu'j'ferme ma gueule ou j'vais m'retrouver dans un traquenard Le rap sans 400, c'est comme Viking sans Ragnar J'suis ton rappeur en mieux comme les frères Andrieu J'prie, j'crois en Dieu la chatte à Damien Rieu Le 4 Un grand sourire sur mes Mugshots Pas l'choix faut qu'j'mette des headshots</t>
+          <t>Pour deux trois phrases on m'traite de rappeur gore Pendant qu'les maisons d'disques font du biff' sur des rappeurs morts J'essaie d'être meilleur, car j'peux pas être pire J'respire de talent d'Van Gogh, j'expire le talent d'Shakespeare C'est des arnaques c'est des scams, j'traîne seul ils traînent en bande J'parle des gays tout le monde s'exclame, j'parle des noirs tout le monde s'en branle Respecte toi arrête Betclic arrête les combinés Eh rappeurs, arrêtons les interviewes chez Konbini Même l'argent propre de base est déjà sali J'mets mon argent sous l'lit comme Eva Kaili Le même créateur, mais on est pas les mêmes hommes Les mêmes vingt-quatre heures, mais on fait pas les mêmes sommes J'suis dans une zone de feu, tout autour d'la glace il y a Respecte-moi en RS6, respecte-moi en Dacia Être vrai et dire c'que j'pense j'ai bien l'impression qu'ça m'isole Premier date au restaurant, j'arrive sappé en camisole Un grand sourire sur mes Mughots J'ai pas l'choix pour m'en sortir faut qu'j'mette des headshots Gang gan-gan-gang Frérot y a pas d'issue à chaque projet ça t'fera le même choc Si j'avais su l'état d'ce monde J'aurai refusé d'naître j'me serai pendu avec le cordon J'traînais sur Villiers, zéro billets dans mon pantalon J'viens sur ton terrain, j'impose ma loi comme ton beau daron J'sors d'une bonne période mais tout d'suite, les soucis défilent Ma vie est remplie d'tâches comme la gueule de J'pense au jour de ma mort au dernier polo qu'j'mettrai J'vis la vie à fond car je suis chronométré J'traîne avec mecs intelligents avec des potos lettrés Sur tout l'game j'éjacule j'envoie mon produit laiter Calme-toi j'envie ni toi ni ton pourri métier Quand tu reçois mes vinyles, c'est un colis piégé J'ai eu beaucoup d'chagrin, j'ai mis mon cur dans atèle Tu peux pas dire qu'j'rappe comme untel les jaloux maigrissent comme Adèle Même si j'ai vu la vidéo, j'écouterai toujours Mac Tyer frérot J'attaque comme Haaland, tu défends comme Maguire Un grand sourire sur mes Mughots J'ai pas l'choix pour m'en sortir faut qu'j'mette des headshots Gang gan-gan-gang Frérot y a pas d'issue à chaque projet ça t'fera le même choc Quand j'pose le front au sol, j'me dis qu'j'me libère d'mes dettes Liberté d'expression rejoint la liberté d'être J'ai pas beaucoup d'potes, mais j'ai beaucoup d'plugs Faut pas qu'ils deviennent Gunna, si j'deviens Young Thug Vengeance, comme un pédo, violé par dix mineurs Pourquoi j'suis d'venu aussi fort j'ai bossé dix mille heures T'as pas d'talent, donc pour une vie embellie Tu baises avec le patron, comme Kelly Vedovelli Faut qu'j'ferme ma gueule ou j'vais m'retrouver dans un traquenard Le rap sans 400, c'est comme Viking sans Ragnar J'suis ton rappeur en mieux comme les frères Andrieu J'prie, j'crois en Dieu la chatte à Damien Rieu Le 4 Un grand sourire sur mes Mugshots Pas l'choix faut qu'j'mette des headshots</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Zoin Hun Nazi is réel Nazi is réel Nazi is réel Han, han Nazi is réel Nazi is réel Zoin, nazi Israël Zoin, zoin J'reste sur mes gardes, sur mes avis, je ne plie pas Sur mes appuis, je ne glisse pas, nouveau nazi porte une kippa De la haine, c'que ça m'a suscité Fuck Netanyahu, Hitler est mort, il est ressuscité Ils nous traitent d'antisémites essayant d'changer nos idées Les nouveaux génocidaires sont descendants d'génocidés Descendants d'génocidés J'me sacrifie pour la Nation Toujours C'st plus les nazillons, maintenant, c'est ls Na-sions Lamentez-vous, vous faites honte au peuple d'Élie Vous faites honte Tuer des gosses ne f'ra pas d'vous le peuple Élu Sur la chatte de Semoun Élie, commettent des délits mais risquent rien On sait bien qu'c'est eux l'Élite mais faut pas l'dire donc on évite Toh, toh, toh J'regrette le temps d'avant, médias rap sont Macronistes Han SS c'est plus allemand, SS veut dire Soldats Sionistes Han Artiste esquive les positions trop cinglantes Pour maintenir une position Top 50 You might also like Nazi is réel Nazi is réel Nazi is réel Han, han Nazi is réel Nazi is réel Nazi Israël Nazi Israël, han, han Ils ont tellement peur de parler, j'en sens plus d'un Benyamin, on a l'même prénom mais pas l'même sang de putain J'ai pas l'âme émotive, alors j'reste calme, j'théorise Ce genre d'âmes égoïstes suivent plus le Sheitan que Moïse Fin du monde pour bientôt, j'espère la justice de là-haut J'espère On regarde et tout l'monde laisse faire, la France est collabo Innocents sont des Juifs mais coupables sont les Sionistes Je sais qu'le Diable est chef de chur mais coupables sont les choristes Toh, toh, toh Ils ont coupé des têtes d'enfants, sans remords, sans être émus Ils ont tué des grands savants, ils ont crucifié Jésus Vont finir dans un tourment, c'que tu fais, c'est c'que t'auras Daesh se cache derrière Coran, Sionistes se cachent derrière Torah Han Nazi is réel1</t>
+          <t>Zoin Hun Nazi is réel Nazi is réel Nazi is réel Han, han Nazi is réel Nazi is réel Zoin, nazi Israël Zoin, zoin J'reste sur mes gardes, sur mes avis, je ne plie pas Sur mes appuis, je ne glisse pas, nouveau nazi porte une kippa De la haine, c'que ça m'a suscité Fuck Netanyahu, Hitler est mort, il est ressuscité Ils nous traitent d'antisémites essayant d'changer nos idées Les nouveaux génocidaires sont descendants d'génocidés Descendants d'génocidés J'me sacrifie pour la Nation Toujours C'st plus les nazillons, maintenant, c'est ls Na-sions Lamentez-vous, vous faites honte au peuple d'Élie Vous faites honte Tuer des gosses ne f'ra pas d'vous le peuple Élu Sur la chatte de Semoun Élie, commettent des délits mais risquent rien On sait bien qu'c'est eux l'Élite mais faut pas l'dire donc on évite Toh, toh, toh J'regrette le temps d'avant, médias rap sont Macronistes Han SS c'est plus allemand, SS veut dire Soldats Sionistes Han Artiste esquive les positions trop cinglantes Pour maintenir une position Top 50 Nazi is réel Nazi is réel Nazi is réel Han, han Nazi is réel Nazi is réel Nazi Israël Nazi Israël, han, han Ils ont tellement peur de parler, j'en sens plus d'un Benyamin, on a l'même prénom mais pas l'même sang de putain J'ai pas l'âme émotive, alors j'reste calme, j'théorise Ce genre d'âmes égoïstes suivent plus le Sheitan que Moïse Fin du monde pour bientôt, j'espère la justice de là-haut J'espère On regarde et tout l'monde laisse faire, la France est collabo Innocents sont des Juifs mais coupables sont les Sionistes Je sais qu'le Diable est chef de chur mais coupables sont les choristes Toh, toh, toh Ils ont coupé des têtes d'enfants, sans remords, sans être émus Ils ont tué des grands savants, ils ont crucifié Jésus Vont finir dans un tourment, c'que tu fais, c'est c'que t'auras Daesh se cache derrière Coran, Sionistes se cachent derrière Torah Han Nazi is réel1</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Hey ish Trust me Tout ton album, c'est l'même son, pédé Tu vas pas nous avoir plus longtemps Tu t'auto-suces pour prendre du bon temps Donne mon avance en argent comptant Le curé est très très content quand il touche le cul d'tes enfants Tu fais l'négro d'maison souvent, pour eux, tu n'es qu'orang-outan, hey Dans la légende comme Kennedy ou Lady Di J'vais produire un artiste et j'vais l'buter comme P. Diddy J't'ai averti j'écris ma peine sur Azerty La série Netflix, c'est fini, puis t'sais comment j'ai plein d'envies C'est pas du zouk, partout où je suis c'est le souk J'reviens du bled, j'ai quelques cousins dans la soute Articule bien, j'crois que t'as du me-sper dans la bouche Tellement d'blessures, l'eau devient du sang dans la douche On a l'savoir, nos cerveaux sont des armes russes Tony Montana, chez nous, ne serait qu'un shlag de plus Univers customisé, pas là pour faire ami-ami J'n'ai pas trente millions d'amis donc je n'veux pas trente millions d'avis Méfiant, j'ai des ennemis, ok Faux frères, je les ai mis d'côté 404, il n'y a pas de Sam Fonsdé, on t'laisse piloter Solo dans le cockpit dans l'espace cosmique, fuck vivre au SMIC J'veux faire du bif grâce aux lyrics posés sur le disque Monte sur ma bite, fais du rodéo On perd la tête quand on est haut Ils t'tirent dessus quand t'es d'dos Bite mole Mon inspiration, c'est ma respiration Arrête d'aider tes frères pour savoir qui ils sont La haine, c'est tout c'qu'il nous reste La peine, c'est tout c'qu'on déteste La vie, c'est plus qu'un vrai test Mon exutoire, c'est mes textes C'qui nous importe, c'est le geste J'vise le sommet, moi, l'Everest Et toujours là seront les vrais Dans le cimetière seront les faits Quand sentiments, j'suis à sec Ne jamais dire j'fais avec Il n'reste plus rien dans l'assiette J'suis qu'au début de ma quête, hey Je jette rien par la fenêtre sauf quand j'te défenestre Traîne qu'avec négros célestes du premier au deuxième semestre T'es loyal, je te séquestre Trahis-moi, je te délaisse, heyYou might also like</t>
+          <t>Hey ish Trust me Tout ton album, c'est l'même son, pédé Tu vas pas nous avoir plus longtemps Tu t'auto-suces pour prendre du bon temps Donne mon avance en argent comptant Le curé est très très content quand il touche le cul d'tes enfants Tu fais l'négro d'maison souvent, pour eux, tu n'es qu'orang-outan, hey Dans la légende comme Kennedy ou Lady Di J'vais produire un artiste et j'vais l'buter comme P. Diddy J't'ai averti j'écris ma peine sur Azerty La série Netflix, c'est fini, puis t'sais comment j'ai plein d'envies C'est pas du zouk, partout où je suis c'est le souk J'reviens du bled, j'ai quelques cousins dans la soute Articule bien, j'crois que t'as du me-sper dans la bouche Tellement d'blessures, l'eau devient du sang dans la douche On a l'savoir, nos cerveaux sont des armes russes Tony Montana, chez nous, ne serait qu'un shlag de plus Univers customisé, pas là pour faire ami-ami J'n'ai pas trente millions d'amis donc je n'veux pas trente millions d'avis Méfiant, j'ai des ennemis, ok Faux frères, je les ai mis d'côté 404, il n'y a pas de Sam Fonsdé, on t'laisse piloter Solo dans le cockpit dans l'espace cosmique, fuck vivre au SMIC J'veux faire du bif grâce aux lyrics posés sur le disque Monte sur ma bite, fais du rodéo On perd la tête quand on est haut Ils t'tirent dessus quand t'es d'dos Bite mole Mon inspiration, c'est ma respiration Arrête d'aider tes frères pour savoir qui ils sont La haine, c'est tout c'qu'il nous reste La peine, c'est tout c'qu'on déteste La vie, c'est plus qu'un vrai test Mon exutoire, c'est mes textes C'qui nous importe, c'est le geste J'vise le sommet, moi, l'Everest Et toujours là seront les vrais Dans le cimetière seront les faits Quand sentiments, j'suis à sec Ne jamais dire j'fais avec Il n'reste plus rien dans l'assiette J'suis qu'au début de ma quête, hey Je jette rien par la fenêtre sauf quand j'te défenestre Traîne qu'avec négros célestes du premier au deuxième semestre T'es loyal, je te séquestre Trahis-moi, je te délaisse, hey</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Y a aucun soucis, j'aime pas ces pétasses, un mot d'travers, tes enfants d'viennent orphelins J'esquive pas les combats, signature d'contrat, faut qu'j'fasse rentrer j'suis pas sûr de voir demain J'allumerai bougies, devant leur cadavre, ni chaud ni froid, c'est comme ça qu'j'me recueille Aucune émotion, j'sens plus ma tension, j'ai pris l'habitude des morts et des deuils Poto, j'ai changé, poto j'ai grandi, j'ai mûri, c'est danger J'me sens comme nfermé, j'peux plus m'échapper, j'vais ls crever, j'vais les laisser sous l'plancher Poto, j'ai changé, poto j'ai grandi, j'ai mûri, c'est danger J'me sens comme enfermé, j'peux plus m'échapper, j'vais les crever, j'vais les laisser sous l'plancher Argent, business, faut qu'je termine dans le Guinness Guinness Génocide pour les parents d'fils de putain, comme ça, j'm'assure qu'y'en ait plus qui naissent 9 millimètres à l'échographie, tu m'verras pas sur TikTok faire chorégraphie jamais Ce monde est si dur donc il faut partir, j'aimerais tant t'ôter la vie pour te sauver la vie Carrément, quand j'fais un dièse, j'le fais extrêmement Prends pas mon vécu pour d'l'entertainment, des proches, des amis, j'en enterre tellement ah Tou-tou-tou-touh tou-tou-tou-touh J't'ai donné mon cur tel un don d'organe mais tu m'as trahi, gros, t'as quel genre d'âme ? Moi, j'veux pas savoir ils ont quel genre d'arme, j'vais leur faire la guerre pour que ces gens savent qui j'suis qui j'suis C'est mort, ils sont cuits comme du méchoui, Manymen genré, beaucoup m'voudraient m'fumer comme Fifty fort Sénégal, 2-2-1, j'représente, j'suis dedans, y a que des lions, des longues crinières Y a pas d'liberté, ils m'f'ront passer pour Hitler si je n'valide pas les non-binaires, zoin You might also like Y a aucun soucis, j'aime pas ces pétasses, un mot d'travers, tes enfants d'viennent orphelins J'esquive pas les combats, signature d'contrat, faut qu'j'fasse rentrer j'suis pas sûr de voir demain J'allumerai bougies, devant leur cadavre, ni chaud ni froid, c'est comme ça qu'j'me recueille Aucune émotion, j'sens plus ma tension, j'ai pris l'habitude des morts et des deuils Poto, j'ai changé, poto j'ai grandi, j'ai mûri, c'est danger J'me sens comme enfermé, j'peux plus m'échapper, j'vais les crever, j'vais les laisser sous l'plancher Poto, j'ai changé, poto j'ai grandi, j'ai mûri, c'est danger J'me sens comme enfermé, j'peux plus m'échapper, j'vais les crever, j'vais les laisser sous l'plancher J'assume tous mes dires, y a pas d'meâ-culpâs, on est solidaires, j'fais gaffe que mes gars coulent pas J'suis pas trop fair-play, j'mets des méga coups bas, tu vas jamais me voir sur la chaise d'Hanouna Gros, j'suis toujours bre-som, j'ai l'aura d'Akuma d'Akuma et je sème le trouble le trouble J'suis comme les requins d'un Bachius, quand tu saignes, j'te trouve j'te trouve J'déteste toujours la compagnie, t'es sur le banc, t'es comme Rami Si jamais j'te dis d'venir jusqu'au tel-hô, salope, c'est pas pour qu'on joue au rami Mais vous êtes nombreux, mais vous faites pas peur, toi et ton équipe de flamants roses Vision différente de tous les êtres humains, j'vois l'ciel en noir et les flammes en rose, zoin</t>
+          <t>Y a aucun soucis, j'aime pas ces pétasses, un mot d'travers, tes enfants d'viennent orphelins J'esquive pas les combats, signature d'contrat, faut qu'j'fasse rentrer j'suis pas sûr de voir demain J'allumerai bougies, devant leur cadavre, ni chaud ni froid, c'est comme ça qu'j'me recueille Aucune émotion, j'sens plus ma tension, j'ai pris l'habitude des morts et des deuils Poto, j'ai changé, poto j'ai grandi, j'ai mûri, c'est danger J'me sens comme nfermé, j'peux plus m'échapper, j'vais ls crever, j'vais les laisser sous l'plancher Poto, j'ai changé, poto j'ai grandi, j'ai mûri, c'est danger J'me sens comme enfermé, j'peux plus m'échapper, j'vais les crever, j'vais les laisser sous l'plancher Argent, business, faut qu'je termine dans le Guinness Guinness Génocide pour les parents d'fils de putain, comme ça, j'm'assure qu'y'en ait plus qui naissent 9 millimètres à l'échographie, tu m'verras pas sur TikTok faire chorégraphie jamais Ce monde est si dur donc il faut partir, j'aimerais tant t'ôter la vie pour te sauver la vie Carrément, quand j'fais un dièse, j'le fais extrêmement Prends pas mon vécu pour d'l'entertainment, des proches, des amis, j'en enterre tellement ah Tou-tou-tou-touh tou-tou-tou-touh J't'ai donné mon cur tel un don d'organe mais tu m'as trahi, gros, t'as quel genre d'âme ? Moi, j'veux pas savoir ils ont quel genre d'arme, j'vais leur faire la guerre pour que ces gens savent qui j'suis qui j'suis C'est mort, ils sont cuits comme du méchoui, Manymen genré, beaucoup m'voudraient m'fumer comme Fifty fort Sénégal, 2-2-1, j'représente, j'suis dedans, y a que des lions, des longues crinières Y a pas d'liberté, ils m'f'ront passer pour Hitler si je n'valide pas les non-binaires, zoin Y a aucun soucis, j'aime pas ces pétasses, un mot d'travers, tes enfants d'viennent orphelins J'esquive pas les combats, signature d'contrat, faut qu'j'fasse rentrer j'suis pas sûr de voir demain J'allumerai bougies, devant leur cadavre, ni chaud ni froid, c'est comme ça qu'j'me recueille Aucune émotion, j'sens plus ma tension, j'ai pris l'habitude des morts et des deuils Poto, j'ai changé, poto j'ai grandi, j'ai mûri, c'est danger J'me sens comme enfermé, j'peux plus m'échapper, j'vais les crever, j'vais les laisser sous l'plancher Poto, j'ai changé, poto j'ai grandi, j'ai mûri, c'est danger J'me sens comme enfermé, j'peux plus m'échapper, j'vais les crever, j'vais les laisser sous l'plancher J'assume tous mes dires, y a pas d'meâ-culpâs, on est solidaires, j'fais gaffe que mes gars coulent pas J'suis pas trop fair-play, j'mets des méga coups bas, tu vas jamais me voir sur la chaise d'Hanouna Gros, j'suis toujours bre-som, j'ai l'aura d'Akuma d'Akuma et je sème le trouble le trouble J'suis comme les requins d'un Bachius, quand tu saignes, j'te trouve j'te trouve J'déteste toujours la compagnie, t'es sur le banc, t'es comme Rami Si jamais j'te dis d'venir jusqu'au tel-hô, salope, c'est pas pour qu'on joue au rami Mais vous êtes nombreux, mais vous faites pas peur, toi et ton équipe de flamants roses Vision différente de tous les êtres humains, j'vois l'ciel en noir et les flammes en rose, zoin</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Hey hey, hey hey Faut qu'tu fasses gaffe, j'suis Titan déviant hey, les puristes voudraient qu'je rappe comme à l'époque des francs hey T'inspires personne, t'as pas d'enfant, t'es stérile, j'nage dans les soucis comme Michael Phelps, c'est terrible wouh, wouh La vie n'est qu'une période d'essai hey, hey, même un million d'euros pourraient pas m'dresser, sache-le sache-le On va s'ranger un jour ou l'autre, lors d'la déconnexion, j'ai tellement d'connexions mais j'en fais collection car j'm'en sers pas L'amour, à quoi ça sert, ça ? J'entends pas, sont plus proches de Dieu, drôle de paradoxe Culture Records bouffera tout, on payera pas la note Il m'reste encore un peu d'sang, il m'reste des centilitres zoin Quand j'n'étais plus amoureux d'elle, j'me suis senti libre senti libre Fuck tout c'qui brille, ça nique mon esprit fuck Pour paix intérieure, il faut que j'pardonne l'ennemi ennemi Grandi sans le daron, cause de souffrance, est-ce lui ? est-ce lui ? C'qui m'attire l'interdit mort Vis ta vie sans avoir d'leader, vite, essuie tes pleurs Moi, j'suis né pour écrire l'histoire, j'ai l'esprit compétiteur Verre de 'sky posé sur nuage, vie n'est qu'un mirage Protège-toi parce que pour souffrir, il n'y pas d'limite d'âge J'vise encore le ciel hey, faut qu'mon corps s'éteigne hey, dans c'monde, il n'y pas d'place pour coeur en porcelaine hey J'me retrouve en danger chaque fois qu'un porc se lève, hey Je course encore mes rêves, hey Zouin, hey Petite ciste-ra voudrait m'voir au zoo, j'lis des livres saints donc j'y crois, j'vois pas les fantômes J'aurai des souvenirs de toi que sur les photos, et même si tu comptes trop pour moi, j'durcis mes propos, hey You might also like On n'est pas comme vous, oubliez-nous, oubliez-nous, oubliez-nous oubliez-nous Les vrais soldats ne finissent jamais à genoux jamais, jamais Tire-moi dans la tête si tu veux pas que j'reste debout paye, paye, paye, paye, paye J'attends toujours qu'cette putain d'chance me passe un coup d'fil On n'est pas comme vous, oubliez-nous, oubliez-nous, oubliez-nous oubliez-nous Les vrais soldats ne finissent jamais à genoux jamais, jamais Tire-moi dans la tête si tu veux pas que j'reste debout paye, paye J'attends toujours qu'cette putain d'chance me passe un coup d'fil allô ? Moi, j'étais là, j'ai tout vu, j'ai vu quand police tirait Pour m'protéger, j'ai mis mon âme dans du polystyrene J'm'éclipse au crépuscule, moi, j'suis né pour vivre de mon art, j'suis pas d'ceux qui postulent Après quoi, tu cours, succès, amour, biff ou reconnaissance Mais tout ça t'emmène en haut et t'laisse en convalescence Je dis vrai, on tombe tous dedans, on veut être devant, en-d'ssous des lumières sauf dans l'Uber, vous n'êtes pas si différents Sur les réseaux, tout l'monde veut être fame, moi, j'ai trop la flemme mais j'suis pas comme vous J'suis normal donc il faute qu'on m'interne Trop d'faux-semblants, trop d'mensonges, trop d'tyrans On m'a parlé d'un monde meilleur donc je m'y rends, zoin On n'est pas comme vous hey, oubliez-nous, oubliez-nous, oubliez-nous oubliez-nous Les vrais soldats ne finissent jamais à genoux jamais Tire-moi dans la tête si tu veux pas que j'reste debout clique, clique, paye, paye J'attends toujours qu'cette putain d'chance me passe un coup d'fil hey, hey, hey On n'est pas comme vous, oubliez-nous, oubliez-nous, oubliez-nous oubliez-nous Les vrais soldats ne finissent jamais à genoux Tire-moi dans la tête si tu veux pas que j'reste debout paye, paye J'attends toujours qu'cette putain d'chance me passe un coup d'fil Hey, hey 404</t>
+          <t>Hey hey, hey hey Faut qu'tu fasses gaffe, j'suis Titan déviant hey, les puristes voudraient qu'je rappe comme à l'époque des francs hey T'inspires personne, t'as pas d'enfant, t'es stérile, j'nage dans les soucis comme Michael Phelps, c'est terrible wouh, wouh La vie n'est qu'une période d'essai hey, hey, même un million d'euros pourraient pas m'dresser, sache-le sache-le On va s'ranger un jour ou l'autre, lors d'la déconnexion, j'ai tellement d'connexions mais j'en fais collection car j'm'en sers pas L'amour, à quoi ça sert, ça ? J'entends pas, sont plus proches de Dieu, drôle de paradoxe Culture Records bouffera tout, on payera pas la note Il m'reste encore un peu d'sang, il m'reste des centilitres zoin Quand j'n'étais plus amoureux d'elle, j'me suis senti libre senti libre Fuck tout c'qui brille, ça nique mon esprit fuck Pour paix intérieure, il faut que j'pardonne l'ennemi ennemi Grandi sans le daron, cause de souffrance, est-ce lui ? est-ce lui ? C'qui m'attire l'interdit mort Vis ta vie sans avoir d'leader, vite, essuie tes pleurs Moi, j'suis né pour écrire l'histoire, j'ai l'esprit compétiteur Verre de 'sky posé sur nuage, vie n'est qu'un mirage Protège-toi parce que pour souffrir, il n'y pas d'limite d'âge J'vise encore le ciel hey, faut qu'mon corps s'éteigne hey, dans c'monde, il n'y pas d'place pour coeur en porcelaine hey J'me retrouve en danger chaque fois qu'un porc se lève, hey Je course encore mes rêves, hey Zouin, hey Petite ciste-ra voudrait m'voir au zoo, j'lis des livres saints donc j'y crois, j'vois pas les fantômes J'aurai des souvenirs de toi que sur les photos, et même si tu comptes trop pour moi, j'durcis mes propos, hey On n'est pas comme vous, oubliez-nous, oubliez-nous, oubliez-nous oubliez-nous Les vrais soldats ne finissent jamais à genoux jamais, jamais Tire-moi dans la tête si tu veux pas que j'reste debout paye, paye, paye, paye, paye J'attends toujours qu'cette putain d'chance me passe un coup d'fil On n'est pas comme vous, oubliez-nous, oubliez-nous, oubliez-nous oubliez-nous Les vrais soldats ne finissent jamais à genoux jamais, jamais Tire-moi dans la tête si tu veux pas que j'reste debout paye, paye J'attends toujours qu'cette putain d'chance me passe un coup d'fil allô ? Moi, j'étais là, j'ai tout vu, j'ai vu quand police tirait Pour m'protéger, j'ai mis mon âme dans du polystyrene J'm'éclipse au crépuscule, moi, j'suis né pour vivre de mon art, j'suis pas d'ceux qui postulent Après quoi, tu cours, succès, amour, biff ou reconnaissance Mais tout ça t'emmène en haut et t'laisse en convalescence Je dis vrai, on tombe tous dedans, on veut être devant, en-d'ssous des lumières sauf dans l'Uber, vous n'êtes pas si différents Sur les réseaux, tout l'monde veut être fame, moi, j'ai trop la flemme mais j'suis pas comme vous J'suis normal donc il faute qu'on m'interne Trop d'faux-semblants, trop d'mensonges, trop d'tyrans On m'a parlé d'un monde meilleur donc je m'y rends, zoin On n'est pas comme vous hey, oubliez-nous, oubliez-nous, oubliez-nous oubliez-nous Les vrais soldats ne finissent jamais à genoux jamais Tire-moi dans la tête si tu veux pas que j'reste debout clique, clique, paye, paye J'attends toujours qu'cette putain d'chance me passe un coup d'fil hey, hey, hey On n'est pas comme vous, oubliez-nous, oubliez-nous, oubliez-nous oubliez-nous Les vrais soldats ne finissent jamais à genoux Tire-moi dans la tête si tu veux pas que j'reste debout paye, paye J'attends toujours qu'cette putain d'chance me passe un coup d'fil Hey, hey 404</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Dose Hey, hey Hey Hey, hey DST V.L.B Dose Hey J'parlerai peut-être de grosses coupures De bif, de flingues et d'Aventador Rap se fait baiser derrière les stores Il reste du sang sur cahier Oxford Malgré l'effort, j'ai beaucoup d'ennemis Trop noir pour être enfant d'la patrie Blindé, j'pourrai survoler Paris Les traîtres ne seront pas d'la partie Seulement le cash attire ces sales hyènes Le style est noir comme gens du gal-Sene Quatre zéro quatre, atmosphère malsaine Ton groupe se coupe les veines en backstage Le négro est vénère, ça y est Croyez pas j'vais vous baiser qui qu'vous soyez J'ai connu la misère familiale, foyer J'paierai le loyer de mon employé Négro, dose Univers sombre bien lasse-deg Suce-moi c'est ta seule casse-ded' Suis moi direction l'cosmos Pas l'temps pour les négros faibles Vulgaire, sombre est le gosse Plus tard j'n'aurai pas d'boss Dans l'rap j'aurai plein d'gosses J'les aimerais de toutes mes forces J'nage dans les eaux troubles J'navigue dans les hautes sphères Je sors de ma daronne mais j'rentre dans les autres mères Ils ont beau prier, critiquer, boycotter, c'qui les attend c'est l'enfer Contrairement à l'esprit, dis-toi qu'un homme s'enterre DoseYou might also like</t>
+          <t>Dose Hey, hey Hey Hey, hey DST V.L.B Dose Hey J'parlerai peut-être de grosses coupures De bif, de flingues et d'Aventador Rap se fait baiser derrière les stores Il reste du sang sur cahier Oxford Malgré l'effort, j'ai beaucoup d'ennemis Trop noir pour être enfant d'la patrie Blindé, j'pourrai survoler Paris Les traîtres ne seront pas d'la partie Seulement le cash attire ces sales hyènes Le style est noir comme gens du gal-Sene Quatre zéro quatre, atmosphère malsaine Ton groupe se coupe les veines en backstage Le négro est vénère, ça y est Croyez pas j'vais vous baiser qui qu'vous soyez J'ai connu la misère familiale, foyer J'paierai le loyer de mon employé Négro, dose Univers sombre bien lasse-deg Suce-moi c'est ta seule casse-ded' Suis moi direction l'cosmos Pas l'temps pour les négros faibles Vulgaire, sombre est le gosse Plus tard j'n'aurai pas d'boss Dans l'rap j'aurai plein d'gosses J'les aimerais de toutes mes forces J'nage dans les eaux troubles J'navigue dans les hautes sphères Je sors de ma daronne mais j'rentre dans les autres mères Ils ont beau prier, critiquer, boycotter, c'qui les attend c'est l'enfer Contrairement à l'esprit, dis-toi qu'un homme s'enterre Dose</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Suisse-France, Zoin Aller Zoin Pandémonium, tout le mal qu'ils m'ont fait, je vais le redonner aux hommes. Zoin On a tellement trimé, cette fois-ci c'est la bonne Quand je la ken, je l'étrangle avec mon écharpe Moschino, okay Elle se demande si c'est de la baise ou des prises de judo. Tien Je suis un fantôme comme Patrick, Swayze wow Il n'y un qu'un peintre, l'Capitole et les sept péchés capitaux Les vrais sont épargnés, les autres seront pris dans le torrent Tout ce que l'élite met en place, c'est interdit dans le coran. Bizarre Pose-toi les bonnes questions, bonne vie, bonne carrière et bonne gestion T'as jamais cru en nous, nique ta mère, retourne pas le veston. Zoin Je crois qu'il y a ton corps dans l'coffre et des balles sur ta doudoune Horspist J'peux pas dire que t'es mort en légende comme Koby ou Une femme peut te brûler tes hélices, et même prendre tout ton argent tah Si tu t'attaques à la famille, je t'assure qu'on va pas s'attarder sur l'ménisque Fuck se mettre en couple ça va finir en Mr et Mme Smith Je veux la richesse de la nation mais ça n'a rien à voir avec Adam Smith Elle dit que son mec est pas jaloux, alors qu'il l'amène en vacances à Mykonos Fidèle à mes principes comme Piccolo, première séance, j'ai fait pleurer ma psychologue J'm'en fou du bonheur, tout ce qui m'importe, c'est d'être en paix Tous les soirs, je la mets de côté, j'suis plus en manque de sommeil que d'elle Mon honneur est dans mon doigt, si tu chopes la te-té, ça compte deux points J'crois plus en ma musique qu'en l'amour depuis que j'ai fait Gueule de bois Tu t'es présenté tellement fièrement que je comprends que maintenant t'ai honte de toi J'suis à deux doigts de les mettre en toi, et complètement t'oublier comme le tiers-monde You might also like J'découpe jusqu'à pisser du sang, pour un couplet j'dois filtrer du son L'enfer c'est près du sol, les marches du paradis sont très glissantes L'argent te rend séduisante, le pouvoir aphrodisiaque La déception c'est mon vice à force de vivre avec tant d'ambition J'suis roi sans couronne des temps moderne, si Mclemore a gagné un grammy dans ce cas-là, j'demande un Nobel J'suis roi sans couronne des temps moderne, le succès d'estime remplissent que l'assiette des Top modèles Jamais cé-su normal à force que mes sons n'aient aucun succès, à force d'être gentil on devient suspect J'te fais trembler plus que Cassius Clay Aussi protecteur que l'homéopathie, si je fais souffrir les gens c'est qu'en partie, je suis aussi sado-maso-qu'empathique Sac aussi léger qu'Isabelle Caro, aucune émotion, gros je les taro J'ai compris que l'amour emprisonne donc je t'écris que quand j'ai le barreau Se taire dans toutes les langues, c'est pareil, le silence s'en fout de ce qui t'arrange Je travaille tous les jours comme un taré, au point que j'arrive au filtre de la garo Aussi peu étique que poétiques sont mes lyrics J'ai le souci du détail pour tous les buts que je me suis fixé Pour une qualité 4K, il faut soigner tous les pixels Hey, Hey, Hey, Hey J'découpe jusqu'à pisser du sang, pour un couplet j'dois filtrer du son L'enfer c'est près du sol, les marches du paradis sont très glissantes L'argent te rend séduisante, le pouvoir aphrodisiaque La déception c'est mon vice à force de vivre avec tant d'ambition Y'a que des loups, zoin, 4-0-4 J'rentre pas dans vos cases bande d'enfoirés. foirés, foirés, foirés.....</t>
+          <t>Suisse-France, Zoin Aller Zoin Pandémonium, tout le mal qu'ils m'ont fait, je vais le redonner aux hommes. Zoin On a tellement trimé, cette fois-ci c'est la bonne Quand je la ken, je l'étrangle avec mon écharpe Moschino, okay Elle se demande si c'est de la baise ou des prises de judo. Tien Je suis un fantôme comme Patrick, Swayze wow Il n'y un qu'un peintre, l'Capitole et les sept péchés capitaux Les vrais sont épargnés, les autres seront pris dans le torrent Tout ce que l'élite met en place, c'est interdit dans le coran. Bizarre Pose-toi les bonnes questions, bonne vie, bonne carrière et bonne gestion T'as jamais cru en nous, nique ta mère, retourne pas le veston. Zoin Je crois qu'il y a ton corps dans l'coffre et des balles sur ta doudoune Horspist J'peux pas dire que t'es mort en légende comme Koby ou Une femme peut te brûler tes hélices, et même prendre tout ton argent tah Si tu t'attaques à la famille, je t'assure qu'on va pas s'attarder sur l'ménisque Fuck se mettre en couple ça va finir en Mr et Mme Smith Je veux la richesse de la nation mais ça n'a rien à voir avec Adam Smith Elle dit que son mec est pas jaloux, alors qu'il l'amène en vacances à Mykonos Fidèle à mes principes comme Piccolo, première séance, j'ai fait pleurer ma psychologue J'm'en fou du bonheur, tout ce qui m'importe, c'est d'être en paix Tous les soirs, je la mets de côté, j'suis plus en manque de sommeil que d'elle Mon honneur est dans mon doigt, si tu chopes la te-té, ça compte deux points J'crois plus en ma musique qu'en l'amour depuis que j'ai fait Gueule de bois Tu t'es présenté tellement fièrement que je comprends que maintenant t'ai honte de toi J'suis à deux doigts de les mettre en toi, et complètement t'oublier comme le tiers-monde J'découpe jusqu'à pisser du sang, pour un couplet j'dois filtrer du son L'enfer c'est près du sol, les marches du paradis sont très glissantes L'argent te rend séduisante, le pouvoir aphrodisiaque La déception c'est mon vice à force de vivre avec tant d'ambition J'suis roi sans couronne des temps moderne, si Mclemore a gagné un grammy dans ce cas-là, j'demande un Nobel J'suis roi sans couronne des temps moderne, le succès d'estime remplissent que l'assiette des Top modèles Jamais cé-su normal à force que mes sons n'aient aucun succès, à force d'être gentil on devient suspect J'te fais trembler plus que Cassius Clay Aussi protecteur que l'homéopathie, si je fais souffrir les gens c'est qu'en partie, je suis aussi sado-maso-qu'empathique Sac aussi léger qu'Isabelle Caro, aucune émotion, gros je les taro J'ai compris que l'amour emprisonne donc je t'écris que quand j'ai le barreau Se taire dans toutes les langues, c'est pareil, le silence s'en fout de ce qui t'arrange Je travaille tous les jours comme un taré, au point que j'arrive au filtre de la garo Aussi peu étique que poétiques sont mes lyrics J'ai le souci du détail pour tous les buts que je me suis fixé Pour une qualité 4K, il faut soigner tous les pixels Hey, Hey, Hey, Hey J'découpe jusqu'à pisser du sang, pour un couplet j'dois filtrer du son L'enfer c'est près du sol, les marches du paradis sont très glissantes L'argent te rend séduisante, le pouvoir aphrodisiaque La déception c'est mon vice à force de vivre avec tant d'ambition Y'a que des loups, zoin, 4-0-4 J'rentre pas dans vos cases bande d'enfoirés. foirés, foirés, foirés.....</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Le quatre Zoin Tout est gang, tout est gang gang Mais qui a dit qu'on irait pas haut graah On va les laisser sur le carreau graah Ils rendent pas les coups c'est des PAO graah Tout est gang, tout est gang gang Mais qui a dit qu'on irait pas haut gang On va les laisser sur le carreau zoin Ils rendent pas les coups c'est des PAO T'as reconnu le tou-tou-tou-touh, le fusil je dégaine devant eux tou-tou-tou-touh C'qui nous motive c'est la moula ouais c'qui nous motive c'est la moula ouais T'as reconnu le tou-tou-tou-touh, le fusil je dégaine devant eux tou-tou-tou-touh C'qui nous motiv c'est la moula ouais, c'qui nous motive c'est la moula ouais Boy, loup solitair, pas de follow me, il m'faut une meuf déjà blindée, ça m'fera faire des économies Petit on m'a dit vas déposer l'sac et vérifie jamais ce qu'il y a dedans Pour les frérots sur les Yamaha vroom, avant d'agir n'attendent pas longtemps Chez nous, les employeurs c'est des fours, on t'té-ma bizarre si tu viens pas d'ici Ceux qui assument ne rangent pas le fusil, ceux qui assument mélangent pas le whisky Au dessus comme Vivendi zoin, on arrive en Givenchy zoin Business comme EPMD ouais, fifty dans P.I.M.P fort Faut ma Rolex, faut ma AP au poignet, que j'aille soudoyer tous les douaniers Au lieu d'se demander si le négro est vrai, ils vont s'demander combien j'ai gagné J'veux une Phillip Patek, pas une Fossil, j'veux une Phillip Patek, pas une Fossil Pour ma paix intérieure, elle est nocive, quand j'la baise, elle a la voix de Boosie You might also like Tout est gang, tout est gang gang Mais qui a dit qu'on irait pas haut graah On va les laisser sur le carreau graah Ils rendent pas les coups c'est des PAO graah Tout est gang, tout est gang gang Mais qui a dit qu'on irait pas haut gang On va les laisser sur le carreau zoin Ils rendent pas les coups c'est des PAO T'as reconnu le tou-tou-tou-touh, le fusil je dégaine devant eux tou-tou-tou-touh C'qui nous motive c'est la moula ouais c'qui nous motive c'est la moula ouais T'as reconnu le tou-tou-tou-touh, le fusil je dégaine devant eux tou-tou-tou-touh C'qui nous motive c'est la moula ouais, c'qui nous motive c'est la moula ouais À la recherche de billets mauves, ouais, j'ai traîné dans des sales histoires Ils font trop les voyous tah les States, genre ils ont des guerres de territoire Elle sait très bien que je n'suis pas riche mais elle voit très bien le potentiel Si un rappeur fait le malin sur Internet, j'vais lui tirer d'ssus à Rock en Seine On s'attrape à l'occas', ça veut dire jamais jamais, on va s'attraper un jour, ça veut dire quand t'auras grossi du cul Pour l'avoir, j'fais des déclarations, quand je l'ai, j'mets fin de relation zoin Si elle ne fait pas de fellation, j'la fais dormir sur le paillasson fort Ma meuf est côté conducteur vroom, qui vous a dit qu'c'est réducteur ? Qui ? J'm'en bats les couilles, elle est soin, j'sais qu'tu la veux, allez, zoin shit Un genre de Draco, ni des pirates, ni d'la marine T'as pas d'argent, zéro charisme zoin, t'as juste du blanc dans les narines Tout est gang, tout est gang gang Mais qui a dit qu'on irait pas haut graah On va les laisser sur le carreau graah Ils rendent pas les coups c'est des PAO graah Tout est gang, tout est gang gang Mais qui a dit qu'on irait pas haut gang On va les laisser sur le carreau zoin Ils rendent pas les coups c'est des PAO T'as reconnu le tou-tou-tou-touh, le fusil je dégaine devant eux tou-tou-tou-touh C'qui nous motive c'est la moula ouais c'qui nous motive c'est la moula ouais T'as reconnu le tou-tou-tou-touh, le fusil je dégaine devant eux tou-tou-tou-touh C'qui nous motive c'est la moula ouais, c'qui nous motive c'est la moula ouais</t>
+          <t>Le quatre Zoin Tout est gang, tout est gang gang Mais qui a dit qu'on irait pas haut graah On va les laisser sur le carreau graah Ils rendent pas les coups c'est des PAO graah Tout est gang, tout est gang gang Mais qui a dit qu'on irait pas haut gang On va les laisser sur le carreau zoin Ils rendent pas les coups c'est des PAO T'as reconnu le tou-tou-tou-touh, le fusil je dégaine devant eux tou-tou-tou-touh C'qui nous motive c'est la moula ouais c'qui nous motive c'est la moula ouais T'as reconnu le tou-tou-tou-touh, le fusil je dégaine devant eux tou-tou-tou-touh C'qui nous motiv c'est la moula ouais, c'qui nous motive c'est la moula ouais Boy, loup solitair, pas de follow me, il m'faut une meuf déjà blindée, ça m'fera faire des économies Petit on m'a dit vas déposer l'sac et vérifie jamais ce qu'il y a dedans Pour les frérots sur les Yamaha vroom, avant d'agir n'attendent pas longtemps Chez nous, les employeurs c'est des fours, on t'té-ma bizarre si tu viens pas d'ici Ceux qui assument ne rangent pas le fusil, ceux qui assument mélangent pas le whisky Au dessus comme Vivendi zoin, on arrive en Givenchy zoin Business comme EPMD ouais, fifty dans P.I.M.P fort Faut ma Rolex, faut ma AP au poignet, que j'aille soudoyer tous les douaniers Au lieu d'se demander si le négro est vrai, ils vont s'demander combien j'ai gagné J'veux une Phillip Patek, pas une Fossil, j'veux une Phillip Patek, pas une Fossil Pour ma paix intérieure, elle est nocive, quand j'la baise, elle a la voix de Boosie Tout est gang, tout est gang gang Mais qui a dit qu'on irait pas haut graah On va les laisser sur le carreau graah Ils rendent pas les coups c'est des PAO graah Tout est gang, tout est gang gang Mais qui a dit qu'on irait pas haut gang On va les laisser sur le carreau zoin Ils rendent pas les coups c'est des PAO T'as reconnu le tou-tou-tou-touh, le fusil je dégaine devant eux tou-tou-tou-touh C'qui nous motive c'est la moula ouais c'qui nous motive c'est la moula ouais T'as reconnu le tou-tou-tou-touh, le fusil je dégaine devant eux tou-tou-tou-touh C'qui nous motive c'est la moula ouais, c'qui nous motive c'est la moula ouais À la recherche de billets mauves, ouais, j'ai traîné dans des sales histoires Ils font trop les voyous tah les States, genre ils ont des guerres de territoire Elle sait très bien que je n'suis pas riche mais elle voit très bien le potentiel Si un rappeur fait le malin sur Internet, j'vais lui tirer d'ssus à Rock en Seine On s'attrape à l'occas', ça veut dire jamais jamais, on va s'attraper un jour, ça veut dire quand t'auras grossi du cul Pour l'avoir, j'fais des déclarations, quand je l'ai, j'mets fin de relation zoin Si elle ne fait pas de fellation, j'la fais dormir sur le paillasson fort Ma meuf est côté conducteur vroom, qui vous a dit qu'c'est réducteur ? Qui ? J'm'en bats les couilles, elle est soin, j'sais qu'tu la veux, allez, zoin shit Un genre de Draco, ni des pirates, ni d'la marine T'as pas d'argent, zéro charisme zoin, t'as juste du blanc dans les narines Tout est gang, tout est gang gang Mais qui a dit qu'on irait pas haut graah On va les laisser sur le carreau graah Ils rendent pas les coups c'est des PAO graah Tout est gang, tout est gang gang Mais qui a dit qu'on irait pas haut gang On va les laisser sur le carreau zoin Ils rendent pas les coups c'est des PAO T'as reconnu le tou-tou-tou-touh, le fusil je dégaine devant eux tou-tou-tou-touh C'qui nous motive c'est la moula ouais c'qui nous motive c'est la moula ouais T'as reconnu le tou-tou-tou-touh, le fusil je dégaine devant eux tou-tou-tou-touh C'qui nous motive c'est la moula ouais, c'qui nous motive c'est la moula ouais</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Hey Et si jamais j'te clashe wesh, c'est que d'l'entertainement t'inquiète T'as 600 followers, pour nous, tu n'existes pas vraiment t'es qui ? À quoi ça sert de s'fight hey ? À quoi ça sert de s'fight hey ? Un beau jour, on quittera l'hall j'espère, sur la tête de ton père qui s'drogue haha, haha Putain, faut des VVS putain, faut des VVS Faut qu'ça brille car l'être humain change dès qu'il voit d'l'espèce bande de chiens Wow hey Y a des groupies en fosse ouais mais leurs poitrines sont fausses ces putes On dirait toutes des clones Honnête, tu finis pauvre dommage, mauvais, tu finis riche dommage J'te raquette comme le FISC, comme ça qu'j'habille mon fils fort En plus d'être guez hey, t'es un suceur de bites Impact sur la vitre, wow, des vies se finissent vite bang, bang surtout Pas d'geste brusque hey Pas d'geste brusque jamais Pas d'geste brusque nan Pas d'geste brusque jamais Pas d'geste pas d'geste Pas d'geste brusque hey Pas d'geste brusque hey You might also like J'aime pas trop ton faciès, j'aime piquer dans l'assiette Des gens, j'suis qu'un enculé, wesh À défaut d'être excellent, je n'vis que l'instant Croix sur mes antécédents Qui vivra verra mais très peu verront car j'vais tous les fumer bang, bang Il m'faut mon auto, il m'faut ma Veyron, ils vont pas assumer vroum, vroum Ne fais pas trop confiance, j'suis un genre de démon, j'éjacule du venin ay, switch Arrête de jouer le voyou, t'es juste sur les réseaux, jamais sur le terrain on sait très bien T'arrives trop tard ouais, t'es pas dans les temps comme BlueFace c'est mort Traîne pas trop dans mon square nan, tard le soir, il s'passe plein d'dièses ah ouais J'suis pas très bavard, des meufs enceintes, il n'y a que ça c'est sombre J'demande la VAR hey, j'ai pas craché dans ta tte-cha j'te jure surtout Pas d'geste brusque hey Pas d'geste brusque jamais Pas d'geste brusque nan Pas d'geste brusque jamais Pas d'geste pas d'geste Pas d'geste brusque Pas d'geste brusque</t>
+          <t>Hey Et si jamais j'te clashe wesh, c'est que d'l'entertainement t'inquiète T'as 600 followers, pour nous, tu n'existes pas vraiment t'es qui ? À quoi ça sert de s'fight hey ? À quoi ça sert de s'fight hey ? Un beau jour, on quittera l'hall j'espère, sur la tête de ton père qui s'drogue haha, haha Putain, faut des VVS putain, faut des VVS Faut qu'ça brille car l'être humain change dès qu'il voit d'l'espèce bande de chiens Wow hey Y a des groupies en fosse ouais mais leurs poitrines sont fausses ces putes On dirait toutes des clones Honnête, tu finis pauvre dommage, mauvais, tu finis riche dommage J'te raquette comme le FISC, comme ça qu'j'habille mon fils fort En plus d'être guez hey, t'es un suceur de bites Impact sur la vitre, wow, des vies se finissent vite bang, bang surtout Pas d'geste brusque hey Pas d'geste brusque jamais Pas d'geste brusque nan Pas d'geste brusque jamais Pas d'geste pas d'geste Pas d'geste brusque hey Pas d'geste brusque hey J'aime pas trop ton faciès, j'aime piquer dans l'assiette Des gens, j'suis qu'un enculé, wesh À défaut d'être excellent, je n'vis que l'instant Croix sur mes antécédents Qui vivra verra mais très peu verront car j'vais tous les fumer bang, bang Il m'faut mon auto, il m'faut ma Veyron, ils vont pas assumer vroum, vroum Ne fais pas trop confiance, j'suis un genre de démon, j'éjacule du venin ay, switch Arrête de jouer le voyou, t'es juste sur les réseaux, jamais sur le terrain on sait très bien T'arrives trop tard ouais, t'es pas dans les temps comme BlueFace c'est mort Traîne pas trop dans mon square nan, tard le soir, il s'passe plein d'dièses ah ouais J'suis pas très bavard, des meufs enceintes, il n'y a que ça c'est sombre J'demande la VAR hey, j'ai pas craché dans ta tte-cha j'te jure surtout Pas d'geste brusque hey Pas d'geste brusque jamais Pas d'geste brusque nan Pas d'geste brusque jamais Pas d'geste pas d'geste Pas d'geste brusque Pas d'geste brusque</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Dans ma tête, c'est Pearl Harbor Regarde mon cur, il ny a plus personne à bord Dans ma tête, c'est Pearl Harbor Regarde mon cur, il n'y a plus personne à bord Mon âme nest pas un trésor À l'intérieur, il y a de la colère, pas de l'or Je hais les hommes donc je ne vais plus trop dehors Et pour pleurer, je dois m'cacher, baisser les stores J'suis mauvais alors dis-moi pourquoi tu m'aimes, bébé ? J'suis mauvais alors dis-moi pourquoi tu m'aimes, bébé ? Je ne mérite pas ton amour, tu devrais même céder Les chansons damour et de haine sont dans le même CD Jme rachète, j'me rachète, jme rachète, j'me rachète J'paie le prix, j'paie le prix, jpaie le prix, j'paie le prix J'me rachète, j'me rachète, j'me rachète, j'me rachète J'paie le prix, j'paie le prix, j'paie le prix, j'paie le prix Être incognito hey, loin d'ces gros mythos hey Si un tombe, tout l'monde tombe, effet domino L'homme est faible, il s'fait diriger par sa libido Loin des autres, je suis différent comme un indigo hey hey hey Tu veux tout aussi tôt, tu tomberas aussitôt Toujours au labo', j'essaye d'atteindre le haut niveau j'essaye Je te la rentre toute entière, j'fais rien à demi mot Esprit révolutionnaire, j'traîne qu'avec marginaux You might also like J'suis mauvais alors dis-moi pourquoi tu m'aimes, bébé ? J'suis mauvais alors dis-moi pourquoi tu m'aimes, bébé ? Je ne mérite pas ton amour, tu devrais même céder Les chansons d'amour et de haine sont dans le même CD J'me rachète, j'me rachète, j'me rachète, j'me rachète J'paie le prix, j'paie le prix, j'paie le prix, j'paie le prix J'me rachète, j'me rachète, j'me rachète, j'me rachète J'paie le prix, j'paie le prix, j'paie le prix, j'paie le prix Plus d'espoir, c'est mort je sais Seul j'attends qu'le ciel s'éclaircisse Plus d'espoir, c'est mort je sais J'vais tout prendre sans leur dire merci1</t>
+          <t>Dans ma tête, c'est Pearl Harbor Regarde mon cur, il ny a plus personne à bord Dans ma tête, c'est Pearl Harbor Regarde mon cur, il n'y a plus personne à bord Mon âme nest pas un trésor À l'intérieur, il y a de la colère, pas de l'or Je hais les hommes donc je ne vais plus trop dehors Et pour pleurer, je dois m'cacher, baisser les stores J'suis mauvais alors dis-moi pourquoi tu m'aimes, bébé ? J'suis mauvais alors dis-moi pourquoi tu m'aimes, bébé ? Je ne mérite pas ton amour, tu devrais même céder Les chansons damour et de haine sont dans le même CD Jme rachète, j'me rachète, jme rachète, j'me rachète J'paie le prix, j'paie le prix, jpaie le prix, j'paie le prix J'me rachète, j'me rachète, j'me rachète, j'me rachète J'paie le prix, j'paie le prix, j'paie le prix, j'paie le prix Être incognito hey, loin d'ces gros mythos hey Si un tombe, tout l'monde tombe, effet domino L'homme est faible, il s'fait diriger par sa libido Loin des autres, je suis différent comme un indigo hey hey hey Tu veux tout aussi tôt, tu tomberas aussitôt Toujours au labo', j'essaye d'atteindre le haut niveau j'essaye Je te la rentre toute entière, j'fais rien à demi mot Esprit révolutionnaire, j'traîne qu'avec marginaux J'suis mauvais alors dis-moi pourquoi tu m'aimes, bébé ? J'suis mauvais alors dis-moi pourquoi tu m'aimes, bébé ? Je ne mérite pas ton amour, tu devrais même céder Les chansons d'amour et de haine sont dans le même CD J'me rachète, j'me rachète, j'me rachète, j'me rachète J'paie le prix, j'paie le prix, j'paie le prix, j'paie le prix J'me rachète, j'me rachète, j'me rachète, j'me rachète J'paie le prix, j'paie le prix, j'paie le prix, j'paie le prix Plus d'espoir, c'est mort je sais Seul j'attends qu'le ciel s'éclaircisse Plus d'espoir, c'est mort je sais J'vais tout prendre sans leur dire merci1</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Hey On parle peu mais on vit tout, sentiments, j'suis comme Picsou Tous les jours, j'ai envie d'sous, je marche seul la nuit, saoul Tu veux voir les sept cieux ? Mais avant ça, enlève tes d'ssous Tu t'trompes, j'suis pas tout doux, j'fais la guerre comme Sun Tzu Je prends tout, pas de pincette, tu rappes comme sur les cassettes Une fois qu'j'ai fini mon assiette, j'irai graille dans ton assiette J'tire une balle dans tes fossettes, j'éjacule sur tes faux seins J'égorge toi et tes poussins, j'suis trop sale pour Europe 1 On marche avec personne comme les deux frères de l'Essonne Fais pas l'beau gosse comme Bryson ou ton visage, on façonne Peu importe le nombre de Celsius, on regarde juste si t'es belle, suce Dans dix ans, j'serai Crésus, j'attends ça depuis des lustres Zouin On arriveYou might also like</t>
+          <t>Hey On parle peu mais on vit tout, sentiments, j'suis comme Picsou Tous les jours, j'ai envie d'sous, je marche seul la nuit, saoul Tu veux voir les sept cieux ? Mais avant ça, enlève tes d'ssous Tu t'trompes, j'suis pas tout doux, j'fais la guerre comme Sun Tzu Je prends tout, pas de pincette, tu rappes comme sur les cassettes Une fois qu'j'ai fini mon assiette, j'irai graille dans ton assiette J'tire une balle dans tes fossettes, j'éjacule sur tes faux seins J'égorge toi et tes poussins, j'suis trop sale pour Europe 1 On marche avec personne comme les deux frères de l'Essonne Fais pas l'beau gosse comme Bryson ou ton visage, on façonne Peu importe le nombre de Celsius, on regarde juste si t'es belle, suce Dans dix ans, j'serai Crésus, j'attends ça depuis des lustres Zouin On arrive</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Eppsmytho PINOCCHIO EPEMBIA C'est quel genre de détraqué qui s'invente une histoire avec une meuf qu'il connaît même pas Écoute, t'as plus de chances de baiser ta propre mère Que d'baiser ma Baby Mama Vas-y démarre On s'est pas bien compris Dans c'clash on n'a pas l'même rôle Tu veux prouver qu'tu rappes bien ? Non, moi j'veux prouver qu't'es une fraude Zoin Si t'as invité Eppsmytho, enlève ce fou d'ta mixtape Poto si ta sextape st vraie, alors défloute la sextap T'as jamais croisé mon ex, tu fantasmes hein T'as jamais croisé mes gosses, tu fantasmes gros T'es revenu pour mentir, j'ai cru que c'type ne vivait plus Ton père est polygame, l'cul de ta mère suffisait plus Sans toucher à Baby Mama, je t'envoie un genkidama J'ai toujours grandi dans l'drama, authentique est Billy Sama Parlons principe faut qu'tu m'expliques, j'vois qu'tu retournes ta veste vite T'envoie un pique vers Alpha Wann pour ensuite lui d'mander un feat Jamais eu d'femmes entre nous, et tes mensonges y en a plus d'un Y a quelques mois, tu voulais qu'j'pose sur ton remix enfant d'putain 404King Push venu dévoiler, ton vice Tu veux, cacher ton daron comme Drake, a caché son fils Mais, dis moi pour quelle raison gros, je vois que tu y tiens Alors, quoi ? T'assumes pas d'être le fils d'un politicien De quoi ? Depuis tout c'temps, tu nous fais l'rappeur sinistre Alors qu'en vrai t'es un genre de fils de ministre T'es bien avantagé, t'as plein d'raccourcis C'est plus Epps Chalgoumhi, c'est Epps Sarkozy J'encule toi ta family, tu vaux trois frites un panini Tu peux dire Billy t'as fini escroc comme Milli Vanilli T'es comme Clarence dans 8 Mile, j'vais t'faire mal infernal flow Hustle comme Chairman les crocs comme black doberman T'es l'genre de negro qui s'vexe car j'l'ai pas reposté Oumardinho t'a frappé, t'as même pas riposté Il t'a frappé comme son p'tit, tu n'es pas revenu Et puis maint'nant tu joues l'ancien tu mens sur mes revenus On s'introduit, par les toits j'vais t'prendre normal, par les doigts Les Gabonais mangent pas d'cailloux negro j'ai juste, parlé d'toi Vous m'traitez d'homophobe, vous faites que d'le répéter Mais ton grand frère a l'air d'accord sur le sujet LGBT Bande de menteurs Ah ouais tu joues l'woke ? Ça la fout mal Dans tes sons tu fais l'apologie des violences conjugales Explique-nous À la place, frappe-toi l'torse comme King Kong Comme tu l'as dit dans un d'tes sons tu frappes ta meuf comme Chris Brown Tout ça c'est l'karma oui Tu frappes ta meuf ? Dans c'cas là t'es pas Doumbé t'es Barnaoui Tu t'es trompé Tu dis qu'tu baises des goes, mais respecte ton épouse Tu t'vois comme Jay Z, j'te vois comme Papoose Parle up j'suis arme Russe t'as plus d'fute prend par le uc' Tu m'parles du Havre, tu plaisantes frérot t'habite à Bar le Duc Ton clash c'est huit minutes d'imaginaire tu racontes rien t'aboie 4-5 jours la réponse est là j'ai pas besoin d'un mois T'es atteint d'une malade, mythomanie, va voir un psy Poto, t'as des pecs c'est des eins' wesh, c'est toi qui allaite ton p'tit donne lui à boire T'es entouré, mais tu finis dans cabine seul T'es arrivé en Westside Gun, pour repartir en Machine Gun J'faisais d'la Drill, d'la Trap, j'ai pas honte de c'bordel Non non Avant d'faire du Boom Bap, t'étais un genre de Corneille J'réitère, j'réitère, moi je pense qu'il est maso' Il dit qu'il signe pour six 0, ce negro pense qu'il est Gazo Fais nous voir ton putain d'contrat J'en ai marre d'tes manigances T'es pas signé en distrib' menteur t'es signé en license Tu m'parles du feat avec Dems', tu veux qu'on parle de tes invits' ? T'as du mal à t'faire tout seul, dans ton top 5, y a trois feats Dans ton top 5, y a trois feats?! C'est l'univers d'un rappeur gore J't'ai fait rejoindre Tengo John dans le cimetière des rappeurs morts Univers sombre j'suis dans la place, faudrait qu'tu t'regardes dans la glace Quoi ? Tu croyais m'éteindre, avec des fausses fiches de la CAF Indépendant j'prends plus que toi, car en c'moment j'stream plus que toi Un fils de politique qui s'moque des pauvres c'est maladroit Pour toi le succès est parti, j'ai vu qu'tu manques de répartie Le rap c'est cuit dis à ton père de t'faire bosser dans son parti Zoin You might also like Eppsmytho T'as tellement aucun dossier alors il t'a fallu huit minutes de mensonges Tu es faible Et la prochaine fois, mens bien au moins Tu mets une sextape même avec le flou on voit qu'la meuf est plutôt blanche Manque de pot la mère d'mes gosses est Haïtienne Mais comme tu la connais pas, tu pouvais pas savoir J't'ai vu seulement trois fois dans ma putain d'vie frérot On t'connaît même pas Ensuite, Universal ne m'a jamais rendu d'contrat Pour la simple est bonne raison qu'Universal n'a jamais été mon patron J'étais produit par Culture Records, qui eux, étaient en distrib' chez Universal D'ailleurs, j'ai récupéré tous mes masters y a pas très longtemps Comme tu peux l'constater Alors t'as essayé, t'as échoué Mais faut plus réessayer, comme le livre de ton frère D'ailleurs lui, dis lui d'fermer sa grande gueule sur les réseaux Qu'il aille faire l'entrepreneur à la Yomi Denzel et qu'il ferme sa grande machoire Tes managers Kantax et Konako aussi, change d'équipe frérot, ils sont pas dignes Tu t'es fait chiffonner dans un coin, y a même pas eu d'représailles Un fils de politicien dans l'rap, t'es en mode Pierre Sarkozy T'as confirmé c'que j'ai dit dans ma première disstrack T'es un menteur, tricheur, manipulateur, Industry Plant Dans ton clash, y a que mon nom ma ville et ma date de naissance qui sont réels Et pour finir, ça fait trois morceaux qu'tu m'dis qu'tu connais mon adresse Mais p'tite pédale, j't'ai jamais vu d'vant ma porte Bonne continuation fils de chien Zoin</t>
+          <t>Eppsmytho PINOCCHIO EPEMBIA C'est quel genre de détraqué qui s'invente une histoire avec une meuf qu'il connaît même pas Écoute, t'as plus de chances de baiser ta propre mère Que d'baiser ma Baby Mama Vas-y démarre On s'est pas bien compris Dans c'clash on n'a pas l'même rôle Tu veux prouver qu'tu rappes bien ? Non, moi j'veux prouver qu't'es une fraude Zoin Si t'as invité Eppsmytho, enlève ce fou d'ta mixtape Poto si ta sextape st vraie, alors défloute la sextap T'as jamais croisé mon ex, tu fantasmes hein T'as jamais croisé mes gosses, tu fantasmes gros T'es revenu pour mentir, j'ai cru que c'type ne vivait plus Ton père est polygame, l'cul de ta mère suffisait plus Sans toucher à Baby Mama, je t'envoie un genkidama J'ai toujours grandi dans l'drama, authentique est Billy Sama Parlons principe faut qu'tu m'expliques, j'vois qu'tu retournes ta veste vite T'envoie un pique vers Alpha Wann pour ensuite lui d'mander un feat Jamais eu d'femmes entre nous, et tes mensonges y en a plus d'un Y a quelques mois, tu voulais qu'j'pose sur ton remix enfant d'putain 404King Push venu dévoiler, ton vice Tu veux, cacher ton daron comme Drake, a caché son fils Mais, dis moi pour quelle raison gros, je vois que tu y tiens Alors, quoi ? T'assumes pas d'être le fils d'un politicien De quoi ? Depuis tout c'temps, tu nous fais l'rappeur sinistre Alors qu'en vrai t'es un genre de fils de ministre T'es bien avantagé, t'as plein d'raccourcis C'est plus Epps Chalgoumhi, c'est Epps Sarkozy J'encule toi ta family, tu vaux trois frites un panini Tu peux dire Billy t'as fini escroc comme Milli Vanilli T'es comme Clarence dans 8 Mile, j'vais t'faire mal infernal flow Hustle comme Chairman les crocs comme black doberman T'es l'genre de negro qui s'vexe car j'l'ai pas reposté Oumardinho t'a frappé, t'as même pas riposté Il t'a frappé comme son p'tit, tu n'es pas revenu Et puis maint'nant tu joues l'ancien tu mens sur mes revenus On s'introduit, par les toits j'vais t'prendre normal, par les doigts Les Gabonais mangent pas d'cailloux negro j'ai juste, parlé d'toi Vous m'traitez d'homophobe, vous faites que d'le répéter Mais ton grand frère a l'air d'accord sur le sujet LGBT Bande de menteurs Ah ouais tu joues l'woke ? Ça la fout mal Dans tes sons tu fais l'apologie des violences conjugales Explique-nous À la place, frappe-toi l'torse comme King Kong Comme tu l'as dit dans un d'tes sons tu frappes ta meuf comme Chris Brown Tout ça c'est l'karma oui Tu frappes ta meuf ? Dans c'cas là t'es pas Doumbé t'es Barnaoui Tu t'es trompé Tu dis qu'tu baises des goes, mais respecte ton épouse Tu t'vois comme Jay Z, j'te vois comme Papoose Parle up j'suis arme Russe t'as plus d'fute prend par le uc' Tu m'parles du Havre, tu plaisantes frérot t'habite à Bar le Duc Ton clash c'est huit minutes d'imaginaire tu racontes rien t'aboie 4-5 jours la réponse est là j'ai pas besoin d'un mois T'es atteint d'une malade, mythomanie, va voir un psy Poto, t'as des pecs c'est des eins' wesh, c'est toi qui allaite ton p'tit donne lui à boire T'es entouré, mais tu finis dans cabine seul T'es arrivé en Westside Gun, pour repartir en Machine Gun J'faisais d'la Drill, d'la Trap, j'ai pas honte de c'bordel Non non Avant d'faire du Boom Bap, t'étais un genre de Corneille J'réitère, j'réitère, moi je pense qu'il est maso' Il dit qu'il signe pour six 0, ce negro pense qu'il est Gazo Fais nous voir ton putain d'contrat J'en ai marre d'tes manigances T'es pas signé en distrib' menteur t'es signé en license Tu m'parles du feat avec Dems', tu veux qu'on parle de tes invits' ? T'as du mal à t'faire tout seul, dans ton top 5, y a trois feats Dans ton top 5, y a trois feats?! C'est l'univers d'un rappeur gore J't'ai fait rejoindre Tengo John dans le cimetière des rappeurs morts Univers sombre j'suis dans la place, faudrait qu'tu t'regardes dans la glace Quoi ? Tu croyais m'éteindre, avec des fausses fiches de la CAF Indépendant j'prends plus que toi, car en c'moment j'stream plus que toi Un fils de politique qui s'moque des pauvres c'est maladroit Pour toi le succès est parti, j'ai vu qu'tu manques de répartie Le rap c'est cuit dis à ton père de t'faire bosser dans son parti Zoin Eppsmytho T'as tellement aucun dossier alors il t'a fallu huit minutes de mensonges Tu es faible Et la prochaine fois, mens bien au moins Tu mets une sextape même avec le flou on voit qu'la meuf est plutôt blanche Manque de pot la mère d'mes gosses est Haïtienne Mais comme tu la connais pas, tu pouvais pas savoir J't'ai vu seulement trois fois dans ma putain d'vie frérot On t'connaît même pas Ensuite, Universal ne m'a jamais rendu d'contrat Pour la simple est bonne raison qu'Universal n'a jamais été mon patron J'étais produit par Culture Records, qui eux, étaient en distrib' chez Universal D'ailleurs, j'ai récupéré tous mes masters y a pas très longtemps Comme tu peux l'constater Alors t'as essayé, t'as échoué Mais faut plus réessayer, comme le livre de ton frère D'ailleurs lui, dis lui d'fermer sa grande gueule sur les réseaux Qu'il aille faire l'entrepreneur à la Yomi Denzel et qu'il ferme sa grande machoire Tes managers Kantax et Konako aussi, change d'équipe frérot, ils sont pas dignes Tu t'es fait chiffonner dans un coin, y a même pas eu d'représailles Un fils de politicien dans l'rap, t'es en mode Pierre Sarkozy T'as confirmé c'que j'ai dit dans ma première disstrack T'es un menteur, tricheur, manipulateur, Industry Plant Dans ton clash, y a que mon nom ma ville et ma date de naissance qui sont réels Et pour finir, ça fait trois morceaux qu'tu m'dis qu'tu connais mon adresse Mais p'tite pédale, j't'ai jamais vu d'vant ma porte Bonne continuation fils de chien Zoin</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Yo, DST Yo, pour le meilleur, pour le meilleur Yo, 404 ITB, VLB Pour le meilleur, pour le meilleur Même si t'es femme enceinte, j'te laisse pas ma place dans l'bus C'est pas mon problème, t'as qu'à avorter, sale pute Tous les jours la même chose Ton client revient t'voir pour la même dose Depuis ftus, j'suis replié sur moi-même J'ai la même pose, j'rappe pour la même cause Dose, mon humour a la couleur de Stoudemire Stoudemire, Stoudemire Je souffre aujourd'hui pour jours meilleurs Lourd c'que j'vais devenir, j'ai une rage que j'peux contenir Le roi de la jungle ne verra pas l'troupeau venir Nostalgique quand j'plonge dans mes souvenirs Occupe-toi d'ton gosse, salope, avant d'me critiquer C'est pour les brûler pas fumer ma clope quand j'allume mon briquet Avec ma couronne, j'ferai des selfies Inspi' sortie du nez de Jay-Z Mon doigt d'honneur veut dire fuck you, pay me Comme au fond d'la classe, j'fous la sère-mi You might also like Yo Hey, hey Jour de paye, hey Sors la teille, hey J'dois rien à personne, j'n'ai pas d'sensei Kid, les rappeurs sont des putes, j'suis Littlefinger Le kid n'apprend pas d'ses erreurs Ces pédés sont là qu'pour l'meilleur Pour le meilleur, pour le meilleur Pour le meilleur, pour le meilleur Pour le meilleur, pour le meilleur Pour le meilleur, pour le meilleur Gang, les rappeurs sont des putes, j'suis Littlefinger Le kid n'apprend pas d'ses erreurs Ces pédés sont là qu'pour l'meilleur Wesh, wesh J'entends que les mêmes, pourvu qu'ils le payent J'écoute ton album, j'entends que des babes C'est d'la belle merde, c'est d'la belle merde J'fais regretter ton père à ta belle mère Le plus dur moment c'est l'après-guerre Les menaces valent moins chères que les prières J'sors du terrain vainqueur pas en civière L'industrie est claquée, je vais m'y faire Tous tes millions de vues mindiffèrent Tous ces négros se cachent quand vient l'hiver J'ai 21 piges, j'ai 21 bitches Dans ton quartier, il y a 21 snitches Ai-je enceinté une bitch ? Non, je crois pas, j'ai dû casser une fuite Le rap français, j'viens y placer une suite Y a pas d'dream team, je viens casser le mythe J'viens faire mon blé, j'vais me casser vite Clasher Billy, c'est comme clasher Pitt Ils font tous de la Dancehall, s'prennent pour Wizkid Meskine On va pas au Paradis sur listing Yo Hey, hey Jour de paye, hey Sors la teille, hey J'dois rien à personne, j'n'ai pas d'sensei Kid, les rappeurs sont des putes, j'suis Littlefinger Le kid n'apprend pas d'ses erreurs Ces pédés sont là qu'pour l'meilleur Pour le meilleur, pour le meilleur Pour le meilleur, pour le meilleur Pour le meilleur, pour le meilleur Pour le meilleur, pour le meilleur Gang, les rappeurs sont des putes, j'suis Littlefinger Le kid n'apprend pas d'ses erreurs Ces pédés sont là qu'pour l'meilleur</t>
+          <t>Yo, DST Yo, pour le meilleur, pour le meilleur Yo, 404 ITB, VLB Pour le meilleur, pour le meilleur Même si t'es femme enceinte, j'te laisse pas ma place dans l'bus C'est pas mon problème, t'as qu'à avorter, sale pute Tous les jours la même chose Ton client revient t'voir pour la même dose Depuis ftus, j'suis replié sur moi-même J'ai la même pose, j'rappe pour la même cause Dose, mon humour a la couleur de Stoudemire Stoudemire, Stoudemire Je souffre aujourd'hui pour jours meilleurs Lourd c'que j'vais devenir, j'ai une rage que j'peux contenir Le roi de la jungle ne verra pas l'troupeau venir Nostalgique quand j'plonge dans mes souvenirs Occupe-toi d'ton gosse, salope, avant d'me critiquer C'est pour les brûler pas fumer ma clope quand j'allume mon briquet Avec ma couronne, j'ferai des selfies Inspi' sortie du nez de Jay-Z Mon doigt d'honneur veut dire fuck you, pay me Comme au fond d'la classe, j'fous la sère-mi Yo Hey, hey Jour de paye, hey Sors la teille, hey J'dois rien à personne, j'n'ai pas d'sensei Kid, les rappeurs sont des putes, j'suis Littlefinger Le kid n'apprend pas d'ses erreurs Ces pédés sont là qu'pour l'meilleur Pour le meilleur, pour le meilleur Pour le meilleur, pour le meilleur Pour le meilleur, pour le meilleur Pour le meilleur, pour le meilleur Gang, les rappeurs sont des putes, j'suis Littlefinger Le kid n'apprend pas d'ses erreurs Ces pédés sont là qu'pour l'meilleur Wesh, wesh J'entends que les mêmes, pourvu qu'ils le payent J'écoute ton album, j'entends que des babes C'est d'la belle merde, c'est d'la belle merde J'fais regretter ton père à ta belle mère Le plus dur moment c'est l'après-guerre Les menaces valent moins chères que les prières J'sors du terrain vainqueur pas en civière L'industrie est claquée, je vais m'y faire Tous tes millions de vues mindiffèrent Tous ces négros se cachent quand vient l'hiver J'ai 21 piges, j'ai 21 bitches Dans ton quartier, il y a 21 snitches Ai-je enceinté une bitch ? Non, je crois pas, j'ai dû casser une fuite Le rap français, j'viens y placer une suite Y a pas d'dream team, je viens casser le mythe J'viens faire mon blé, j'vais me casser vite Clasher Billy, c'est comme clasher Pitt Ils font tous de la Dancehall, s'prennent pour Wizkid Meskine On va pas au Paradis sur listing Yo Hey, hey Jour de paye, hey Sors la teille, hey J'dois rien à personne, j'n'ai pas d'sensei Kid, les rappeurs sont des putes, j'suis Littlefinger Le kid n'apprend pas d'ses erreurs Ces pédés sont là qu'pour l'meilleur Pour le meilleur, pour le meilleur Pour le meilleur, pour le meilleur Pour le meilleur, pour le meilleur Pour le meilleur, pour le meilleur Gang, les rappeurs sont des putes, j'suis Littlefinger Le kid n'apprend pas d'ses erreurs Ces pédés sont là qu'pour l'meilleur</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Hitxchi J'vais les baiser comme il se doit Sans laisser de preuves Sans laisser de preuves J'vais les baiser comme il se doit Sans laisser de preuves Sans laisser de preuves J'crois en moi donc fuck leurs barrières Peu importe la manière Entouré de tant d'vipères J'vais leur faire quitter la Terre Dehors les balles pleuvent Donc quand tu sors enfile ton treillis Dehors les balles pleuvent La faucheuse n'a toujours pas vieilli Elle ne nous laisse pas le choix de vivre J'ai trop de rage j'peux me tromper de cible Plus rien à perdre car la vie n'a qu'une seule sortie Wohoooo Ils veulent la rre-gue, ces bâtards sont servis Wohoooo J'vais les baiser comme pas permis You might also like J'vais les baiser comme il se doit Sans laisser de preuves Sans laisser de preuves J'vais les baiser comme il se doit Sans laisser de preuves Sans laisser de preuves J'crois en moi donc fuck leurs barrières Peut importe la manière Entouré de tant d'vipères J'vais leur faire quitter la terre Parmi nous que des vrais soldats il y a parmi nous Si je part demain les enfants gardez tout La guerre n'est pas pour vous donc écartez vous Je n'ai pas sommeil gros j'ai sourd d'oreille J'veux pas finir sous le porche Je veux finir dans la Porsche Je n'ai pas sommeil gros j'ai sourd d'oreille J'veux pas finir sous le porche Je veux finir dans la Porsche J'veux les baiser comme il se doit J'veux les baiser comme il se doit</t>
+          <t>Hitxchi J'vais les baiser comme il se doit Sans laisser de preuves Sans laisser de preuves J'vais les baiser comme il se doit Sans laisser de preuves Sans laisser de preuves J'crois en moi donc fuck leurs barrières Peu importe la manière Entouré de tant d'vipères J'vais leur faire quitter la Terre Dehors les balles pleuvent Donc quand tu sors enfile ton treillis Dehors les balles pleuvent La faucheuse n'a toujours pas vieilli Elle ne nous laisse pas le choix de vivre J'ai trop de rage j'peux me tromper de cible Plus rien à perdre car la vie n'a qu'une seule sortie Wohoooo Ils veulent la rre-gue, ces bâtards sont servis Wohoooo J'vais les baiser comme pas permis J'vais les baiser comme il se doit Sans laisser de preuves Sans laisser de preuves J'vais les baiser comme il se doit Sans laisser de preuves Sans laisser de preuves J'crois en moi donc fuck leurs barrières Peut importe la manière Entouré de tant d'vipères J'vais leur faire quitter la terre Parmi nous que des vrais soldats il y a parmi nous Si je part demain les enfants gardez tout La guerre n'est pas pour vous donc écartez vous Je n'ai pas sommeil gros j'ai sourd d'oreille J'veux pas finir sous le porche Je veux finir dans la Porsche Je n'ai pas sommeil gros j'ai sourd d'oreille J'veux pas finir sous le porche Je veux finir dans la Porsche J'veux les baiser comme il se doit J'veux les baiser comme il se doit</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Wesh rageux Wesh rageux, tu parles beaucoup mais fais pas mieux Putain d'enfant sauvage né dans terrain marécageux Sombre univers, ciel orageux, j'ai dit sombre univers, ciel orageux J'souris devant tweets élogieux qui m'prédisent avenir glorieux Wesh rageux, tu parles beaucoup mais fais pas mieux Putain d'enfant sauvage né dans terrain marécageux Sombre univers, ciel orageux, j'ai dit sombre univers, ciel orageux J'souris devant tweets élogieux qui m'prédisent avenir glorieux J'peux toujours caché le soleil grâce à mes sombres lyrics Dans l'rap game, j'n'ai pas de collègues, vais leur faire des films X Grosse chienne veut vie de rêve, sang d'ennemi sur le glaive Solo, je fais des petites prières donc demain ne sera pas pire qu'hier Hey, que me veulent-ils ? Que me veulent-ils ? Moi, j'veux du blé Que me veulent-ils ? Que me veulent-ils ? Veulent me duper ? Moi, je crois en Dieu, pas en l'horoscope, j'suis pas très serein, j'ai des cadavres dans l'coffre Ils attendent l'élu depuis l'big bang, à part moi, y'a personne d'autres il m'semble J'perds pas mes couilles devant tel gang, fuck les rageux, j'prends mes distances Je vois qu'y'a des rageux dans l'hood, négro, reste cool J'ai vécu sombres pour de vraie, nouveau rap que je créé, viens à Villiers voir le ghetto de près J'pense à la vie d'après Zouin, Zouin You might also like Wesh rageux, tu parles beaucoup mais fais pas mieux Putain d'enfant sauvage né dans terrain marécageux Sombre univers, ciel orageux, j'ai dit sombre univers, ciel orageux J'souris devant tweets élogieux qui m'prédisent avenir glorieux Wesh rageux, tu parles beaucoup mais fais pas mieux Putain d'enfant sauvage né dans terrain marécageux Sombre univers, ciel orageux, j'ai dit sombre univers, ciel orageux J'souris devant tweets élogieux qui m'prédisent avenir glorieux Rien sur l'curriculum, j'préfère les animaux que l'homme Salope, même si t'es méga bonne, j'vais pas croquer dans la pomme Y'a pas de clash, on t'nique ta mère, tu vaux même pas une paire d'bulles d'air J'reste loyal, même pas d'adultère, j'insère mes punchs dans la chatte à Voltaire Canada Goose, 'teille de Grey Goose, quelques zouzs pour me chauffer Ça sent la lose, jamais le blues, il faut du flouze pour me sauver Paye ou crève, fais ou rêve ou bien fini dans la Seine Eh gros, ma pute fait c'qu'elle veut, c'est pas ma chatte, c'est la sienne Le kid a bien di-gran, j'connais plein d'brigands Toujours récalcitrant, le monde n'est pas si grand Ton navire n'est plus en mer et mes chaînes sont plus en fer J'rêve de billets verts en l'air quand j'me dirige vers la guerre Wesh rageux, tu parles beaucoup mais fais pas mieux Putain d'enfant sauvage né dans terrain marécageux Sombre univers, ciel orageux, j'ai dit sombre univers, ciel orageux J'souris devant tweets élogieux qui m'prédisent avenir glorieux Wesh rageux, tu parles beaucoup mais fais pas mieux Putain d'enfant sauvage né dans terrain marécageux Sombre univers, ciel orageux, j'ai dit sombre univers, ciel orageux J'souris devant tweets élogieux qui m'prédisent avenir glorieux</t>
+          <t>Wesh rageux Wesh rageux, tu parles beaucoup mais fais pas mieux Putain d'enfant sauvage né dans terrain marécageux Sombre univers, ciel orageux, j'ai dit sombre univers, ciel orageux J'souris devant tweets élogieux qui m'prédisent avenir glorieux Wesh rageux, tu parles beaucoup mais fais pas mieux Putain d'enfant sauvage né dans terrain marécageux Sombre univers, ciel orageux, j'ai dit sombre univers, ciel orageux J'souris devant tweets élogieux qui m'prédisent avenir glorieux J'peux toujours caché le soleil grâce à mes sombres lyrics Dans l'rap game, j'n'ai pas de collègues, vais leur faire des films X Grosse chienne veut vie de rêve, sang d'ennemi sur le glaive Solo, je fais des petites prières donc demain ne sera pas pire qu'hier Hey, que me veulent-ils ? Que me veulent-ils ? Moi, j'veux du blé Que me veulent-ils ? Que me veulent-ils ? Veulent me duper ? Moi, je crois en Dieu, pas en l'horoscope, j'suis pas très serein, j'ai des cadavres dans l'coffre Ils attendent l'élu depuis l'big bang, à part moi, y'a personne d'autres il m'semble J'perds pas mes couilles devant tel gang, fuck les rageux, j'prends mes distances Je vois qu'y'a des rageux dans l'hood, négro, reste cool J'ai vécu sombres pour de vraie, nouveau rap que je créé, viens à Villiers voir le ghetto de près J'pense à la vie d'après Zouin, Zouin Wesh rageux, tu parles beaucoup mais fais pas mieux Putain d'enfant sauvage né dans terrain marécageux Sombre univers, ciel orageux, j'ai dit sombre univers, ciel orageux J'souris devant tweets élogieux qui m'prédisent avenir glorieux Wesh rageux, tu parles beaucoup mais fais pas mieux Putain d'enfant sauvage né dans terrain marécageux Sombre univers, ciel orageux, j'ai dit sombre univers, ciel orageux J'souris devant tweets élogieux qui m'prédisent avenir glorieux Rien sur l'curriculum, j'préfère les animaux que l'homme Salope, même si t'es méga bonne, j'vais pas croquer dans la pomme Y'a pas de clash, on t'nique ta mère, tu vaux même pas une paire d'bulles d'air J'reste loyal, même pas d'adultère, j'insère mes punchs dans la chatte à Voltaire Canada Goose, 'teille de Grey Goose, quelques zouzs pour me chauffer Ça sent la lose, jamais le blues, il faut du flouze pour me sauver Paye ou crève, fais ou rêve ou bien fini dans la Seine Eh gros, ma pute fait c'qu'elle veut, c'est pas ma chatte, c'est la sienne Le kid a bien di-gran, j'connais plein d'brigands Toujours récalcitrant, le monde n'est pas si grand Ton navire n'est plus en mer et mes chaînes sont plus en fer J'rêve de billets verts en l'air quand j'me dirige vers la guerre Wesh rageux, tu parles beaucoup mais fais pas mieux Putain d'enfant sauvage né dans terrain marécageux Sombre univers, ciel orageux, j'ai dit sombre univers, ciel orageux J'souris devant tweets élogieux qui m'prédisent avenir glorieux Wesh rageux, tu parles beaucoup mais fais pas mieux Putain d'enfant sauvage né dans terrain marécageux Sombre univers, ciel orageux, j'ai dit sombre univers, ciel orageux J'souris devant tweets élogieux qui m'prédisent avenir glorieux</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Gog et Magog, Elon Musk, Bezos Antéchrist, Zuckerberg, qui d'autre ? Zoin, qui d'autre ? J'ai pas d'pensées suicidaires Si tu montes dans l'train, ferme la porte derrière Est-ce-que tu sais c'qui s'passe dans leurs suites ? Rituels, attouchements et viols sans suite Détournement d'euros, détournement d'francs suisses Un Noir reste un Noir sans survêt', sans sweat Alors s'intégrer, quel intérêt ? On a bu leurs paroles pour pouvoir s'désaltérer uvre d'art, j'vends, uvre d'art j'crée C'est réel, c'est brut j'fais pas dans l'abstrait Je fais pas dans l'abstrait Élections, j'vais pas m'déplacer Qui vous dit qu'vos votes sont comptabilisés ? Qui, qui ? Han, han Tout à propos des Benjamin À propos Pas pour offrir des bagues, des sacs à mains Jamais de la vie On sait bien comment ça va finir, han Manu n'est pas meilleur que Vladimir, non Y a ceux qui osent et y a ceux qui flippent Y a des négros comme Fifty, y a des négros comme Fif On graille c'qu'il y a à graille, crois pas qu'on laisse les restes Si j'ai pas d'toit, j'suis en cab', jsuis pas SDF Venu affronter l'mensonge sur le tatami Notre président c'est Arnault, c'est Attali Y a peu de vrais hommes, y en a trop qui chouinent Donc, ça m'étonne pas qu'elles deviennent gouines PPDA, Polanski, qui d'autre ? Cohn-Bendit, Morandini, qui d'autre ? Qui d'autre ? Font qu'des multi syllabiques mais font semblant d'être prêts Okay Tapinent en maison de disques mais font semblant d'être vrais Okay Pour la célébrité, ils utilisent les communautés Ouh Comme Lil Nas X qui fait semblant d'être gay Fort Je fais de l'art quand les gosses tweetent Je suis Thomas Nas contre Boss Tweed Zoin Sont H24 sur le terrain J't'assure que mes frères ont bataillé dur J't'assure que mes J'baise une folle qui met du Guerlain Guerlain J'lui dis d'répéter qu'les nègres ont travaillé dur Répète, répète, répèteYou might also like</t>
+          <t>Gog et Magog, Elon Musk, Bezos Antéchrist, Zuckerberg, qui d'autre ? Zoin, qui d'autre ? J'ai pas d'pensées suicidaires Si tu montes dans l'train, ferme la porte derrière Est-ce-que tu sais c'qui s'passe dans leurs suites ? Rituels, attouchements et viols sans suite Détournement d'euros, détournement d'francs suisses Un Noir reste un Noir sans survêt', sans sweat Alors s'intégrer, quel intérêt ? On a bu leurs paroles pour pouvoir s'désaltérer uvre d'art, j'vends, uvre d'art j'crée C'est réel, c'est brut j'fais pas dans l'abstrait Je fais pas dans l'abstrait Élections, j'vais pas m'déplacer Qui vous dit qu'vos votes sont comptabilisés ? Qui, qui ? Han, han Tout à propos des Benjamin À propos Pas pour offrir des bagues, des sacs à mains Jamais de la vie On sait bien comment ça va finir, han Manu n'est pas meilleur que Vladimir, non Y a ceux qui osent et y a ceux qui flippent Y a des négros comme Fifty, y a des négros comme Fif On graille c'qu'il y a à graille, crois pas qu'on laisse les restes Si j'ai pas d'toit, j'suis en cab', jsuis pas SDF Venu affronter l'mensonge sur le tatami Notre président c'est Arnault, c'est Attali Y a peu de vrais hommes, y en a trop qui chouinent Donc, ça m'étonne pas qu'elles deviennent gouines PPDA, Polanski, qui d'autre ? Cohn-Bendit, Morandini, qui d'autre ? Qui d'autre ? Font qu'des multi syllabiques mais font semblant d'être prêts Okay Tapinent en maison de disques mais font semblant d'être vrais Okay Pour la célébrité, ils utilisent les communautés Ouh Comme Lil Nas X qui fait semblant d'être gay Fort Je fais de l'art quand les gosses tweetent Je suis Thomas Nas contre Boss Tweed Zoin Sont H24 sur le terrain J't'assure que mes frères ont bataillé dur J't'assure que mes J'baise une folle qui met du Guerlain Guerlain J'lui dis d'répéter qu'les nègres ont travaillé dur Répète, répète, répète</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Négro le ciel n'est pas ma limite Laissez-moi seul pendant qu'je médite Négro le ciel n'est pas ma limite Laissez-moi seul pendant qu'je médite Hey Cur rejette tout sentiments J'te jure j'n'en ai pas dormi À part quatre zéro quatre, sorry, je n'ai pas d'homie Les pleurs des anges sont trop bas Tant pis les démons sourient À ce qui parait j'ai des haters Tant pis j'vais finir che-ri Malheureusement les négro puissants sont morts au début de la série J'finirait peut être dans faits divers, comme Samy Naceri J'ressemble à elle ou à lui ? Tu m'aimes alors soit ravi, tu veut être sexfriend ou amie ? Qu'on sexile en Océanie, parce que je sais quand il faut se taire J'vais finir dans les hautes sphères, mon père à moi est un gangster Un peu d'oseille pour le rendre fier, deuxième projet déjà légendaire J'ai la haine et le sheitan s'en sert, soit présent bien avant qu'on m'enterre, ça vaut plus qu'une parole sincère Et je vise, je vise le ciel Car ce monde n'est pas réel Et j'suis prisonnier de mes rêves Et j'suis prisonnier de ses lèvres Et je vise, je vise le ciel Car ce monde n'est pas réel Et j'suis prisonnier de mes rêves Et j'suis prisonnier de ses lèvres You might also like Négro le ciel n'est pas ma limite Laissez-moi seul pendant qu'je médite Négro le ciel n'est pas ma limite Laissez-moi seul pendant qu'je médite Je vis mes rêves car tout va si vite Je médite, je médite, je médite Je vis mes rêves car tout va si vite Je médite, je médite, je médite Négro le ciel n'est pas ma limite Hey Ça kick sale comme à l'époque de Time Bomb Regarde pas mal quand tu fais ta putain d'ronde Car des frères meurent pour ces putains de conneries, descendant de Gorée, pas descendant de gorilles, j'les laisse dans l'euphories C'putain de monde j'veut plus le voir, il est noir de pétasses Ça peut venir de tout-par comme Tupac à Vegas C'est dur d'être éternel dans une vie éphémère C'est dur d'être le dernier quand ta haine est première Mais je vise, je vise le ciel Car ce monde n'est pas réel Et j'suis prisonnier de mes rêves Et j'suis prisonnier de ses lèvres Négro quand j'y pense, j'en tremble, j'veut pas qu'mon fils me ressemble Et quand t'es en transe, méfiance, faut pas que l'ennemi le ressente Et je vise, je vise le ciel Car ce monde n'est pas réel Et j'suis prisonnier de mes rêves Et j'suis prisonnier de ses lèvres Et je vise, je vise le ciel Car ce monde n'est pas réel Et j'suis prisonnier de mes rêves Et j'suis prisonnier de ses lèvres Négro le ciel n'est pas ma limite Laissez-moi seul pendant qu'je médite Négro le ciel n'est pas ma limite Laissez-moi seul pendant qu'je médite Je vis mes rêves car tout va si vite Je médite, je médite, je médite Je vis mes rêves car tout va si vite Je médite, je médite, je médite Négro le ciel n'est pas ma limite Et je vise, je vise le ciel Car ce monde n'est pas réel Et j'suis prisonnier de mes rêves Et j'suis prisonnier de ses lèvres Et je vise, je vise le ciel Car ce monde n'est pas réel Et j'suis prisonnier de mes rêves Et j'suis prisonnier de ses lèvres</t>
+          <t>Négro le ciel n'est pas ma limite Laissez-moi seul pendant qu'je médite Négro le ciel n'est pas ma limite Laissez-moi seul pendant qu'je médite Hey Cur rejette tout sentiments J'te jure j'n'en ai pas dormi À part quatre zéro quatre, sorry, je n'ai pas d'homie Les pleurs des anges sont trop bas Tant pis les démons sourient À ce qui parait j'ai des haters Tant pis j'vais finir che-ri Malheureusement les négro puissants sont morts au début de la série J'finirait peut être dans faits divers, comme Samy Naceri J'ressemble à elle ou à lui ? Tu m'aimes alors soit ravi, tu veut être sexfriend ou amie ? Qu'on sexile en Océanie, parce que je sais quand il faut se taire J'vais finir dans les hautes sphères, mon père à moi est un gangster Un peu d'oseille pour le rendre fier, deuxième projet déjà légendaire J'ai la haine et le sheitan s'en sert, soit présent bien avant qu'on m'enterre, ça vaut plus qu'une parole sincère Et je vise, je vise le ciel Car ce monde n'est pas réel Et j'suis prisonnier de mes rêves Et j'suis prisonnier de ses lèvres Et je vise, je vise le ciel Car ce monde n'est pas réel Et j'suis prisonnier de mes rêves Et j'suis prisonnier de ses lèvres Négro le ciel n'est pas ma limite Laissez-moi seul pendant qu'je médite Négro le ciel n'est pas ma limite Laissez-moi seul pendant qu'je médite Je vis mes rêves car tout va si vite Je médite, je médite, je médite Je vis mes rêves car tout va si vite Je médite, je médite, je médite Négro le ciel n'est pas ma limite Hey Ça kick sale comme à l'époque de Time Bomb Regarde pas mal quand tu fais ta putain d'ronde Car des frères meurent pour ces putains de conneries, descendant de Gorée, pas descendant de gorilles, j'les laisse dans l'euphories C'putain de monde j'veut plus le voir, il est noir de pétasses Ça peut venir de tout-par comme Tupac à Vegas C'est dur d'être éternel dans une vie éphémère C'est dur d'être le dernier quand ta haine est première Mais je vise, je vise le ciel Car ce monde n'est pas réel Et j'suis prisonnier de mes rêves Et j'suis prisonnier de ses lèvres Négro quand j'y pense, j'en tremble, j'veut pas qu'mon fils me ressemble Et quand t'es en transe, méfiance, faut pas que l'ennemi le ressente Et je vise, je vise le ciel Car ce monde n'est pas réel Et j'suis prisonnier de mes rêves Et j'suis prisonnier de ses lèvres Et je vise, je vise le ciel Car ce monde n'est pas réel Et j'suis prisonnier de mes rêves Et j'suis prisonnier de ses lèvres Négro le ciel n'est pas ma limite Laissez-moi seul pendant qu'je médite Négro le ciel n'est pas ma limite Laissez-moi seul pendant qu'je médite Je vis mes rêves car tout va si vite Je médite, je médite, je médite Je vis mes rêves car tout va si vite Je médite, je médite, je médite Négro le ciel n'est pas ma limite Et je vise, je vise le ciel Car ce monde n'est pas réel Et j'suis prisonnier de mes rêves Et j'suis prisonnier de ses lèvres Et je vise, je vise le ciel Car ce monde n'est pas réel Et j'suis prisonnier de mes rêves Et j'suis prisonnier de ses lèvres</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Yay, on va y arriver Ça sent pas bon, ça sent pas bon Chiche, 4.0.4, y a que des loups Chuuu, hey J'me sens bien dans cette chatte, j'suis pas claustro' Le bonheur est si loin de nous, on a jamais l'sourire sur les photos Quand je pense à l'avenir, j'ai d'la tension, y a qu'envers mes enfants qu'j'ai d'l'attention Personne ne connait vraiment toutes mes intentions J'suis pas une autre personne dans mes chansons Membres d'humains dans l'frigidaire, de la vingtaine aux quadragénaires Dans l'miroir, je n'vois plus mon reflet, je n'sais même plus de quoi j'ai l'air Un peu de succès donc j'crois qu'c'est l'heure de s'faire Kendall ou Kylie Jenner 4.0.4, j'suis une erreur quand l'erreur se transforme en terreur Depuis que j'l'ai graille, j'ai des aigreurs San Andreas, j'rode en BMX, entouré d'chiens, j'suis comme DMX Pendant l'go-fast, fais tourner mes disques, zouin Comme Daenerys, j'suis pas sélectif, y a qu'les vrais artistes qui pérennisent Je n'ai pas peur d'affronter les risques, yeah Pour donner l'heure faut ma Rolex, que ma Rolex Pour donner l'heure faut ma Rolex, que ma Rolex Tu veux marcher parmi nous pour gratter des sous Tu veux marcher parmi nous pour gratter des sous Pour donner l'heure faut ma Rolex, que ma Rolex Pour donner l'heure faut ma Rolex, que ma Rolex Tu veux marcher parmi nous pour gratter des sous Tu veux marcher parmi nous pour gratter des sous You might also like J'ai pas d'coté obscur, j'suis entièrement obscur Je n'suis qu'une sale ordure, il ne reste que l'instru si tu m'censures Elle m'dit j'suis vierge et pure, j'regarde son sac et ses chaussures Que du luxe au chômage, mmh, je n'en suis pas si sûr Dis-moi qui te rémunère, soit t'es escort, soit c'est ta mère Y a qu'l'humain qu'est mauvais sur Terre, nuit tombée, tout en noir, j'opère Produit stocké, reprise volée, armure dorée, comme Heuss L'Enfoiré, j'dis que des mots-clés Cette industrie me fait du pied, je guette ailleurs, j'fais style j'ignore J'ai un coup d'avance, j'les ai dupés, comme quand Beerus fait style qu'il dort Tu n'parles que du tieks, que du tieks, que du tieks, que du tieks mais en vrai, tes potos font l'reste C'est vrai que je blesse, que je blesse, que je blesse, que je blesse, j'vais les tuer, j'ai fini l'process, hey Pour donner l'heure faut ma Rolex, que ma Rolex Pour donner l'heure faut ma Rolex, que ma Rolex Tu veux marcher parmi nous pour gratter des sous Tu veux marcher parmi nous pour gratter des sous Pour donner l'heure faut ma Rolex, que ma Rolex Pour donner l'heure faut ma Rolex, que ma Rolex Tu veux marcher parmi nous pour gratter des sous Tu veux marcher parmi nous pour gratter des sous Ça sent pas bon, ça sent pas bon Toh toh toh, toh toh toh Allez, zoin</t>
+          <t>Yay, on va y arriver Ça sent pas bon, ça sent pas bon Chiche, 4.0.4, y a que des loups Chuuu, hey J'me sens bien dans cette chatte, j'suis pas claustro' Le bonheur est si loin de nous, on a jamais l'sourire sur les photos Quand je pense à l'avenir, j'ai d'la tension, y a qu'envers mes enfants qu'j'ai d'l'attention Personne ne connait vraiment toutes mes intentions J'suis pas une autre personne dans mes chansons Membres d'humains dans l'frigidaire, de la vingtaine aux quadragénaires Dans l'miroir, je n'vois plus mon reflet, je n'sais même plus de quoi j'ai l'air Un peu de succès donc j'crois qu'c'est l'heure de s'faire Kendall ou Kylie Jenner 4.0.4, j'suis une erreur quand l'erreur se transforme en terreur Depuis que j'l'ai graille, j'ai des aigreurs San Andreas, j'rode en BMX, entouré d'chiens, j'suis comme DMX Pendant l'go-fast, fais tourner mes disques, zouin Comme Daenerys, j'suis pas sélectif, y a qu'les vrais artistes qui pérennisent Je n'ai pas peur d'affronter les risques, yeah Pour donner l'heure faut ma Rolex, que ma Rolex Pour donner l'heure faut ma Rolex, que ma Rolex Tu veux marcher parmi nous pour gratter des sous Tu veux marcher parmi nous pour gratter des sous Pour donner l'heure faut ma Rolex, que ma Rolex Pour donner l'heure faut ma Rolex, que ma Rolex Tu veux marcher parmi nous pour gratter des sous Tu veux marcher parmi nous pour gratter des sous J'ai pas d'coté obscur, j'suis entièrement obscur Je n'suis qu'une sale ordure, il ne reste que l'instru si tu m'censures Elle m'dit j'suis vierge et pure, j'regarde son sac et ses chaussures Que du luxe au chômage, mmh, je n'en suis pas si sûr Dis-moi qui te rémunère, soit t'es escort, soit c'est ta mère Y a qu'l'humain qu'est mauvais sur Terre, nuit tombée, tout en noir, j'opère Produit stocké, reprise volée, armure dorée, comme Heuss L'Enfoiré, j'dis que des mots-clés Cette industrie me fait du pied, je guette ailleurs, j'fais style j'ignore J'ai un coup d'avance, j'les ai dupés, comme quand Beerus fait style qu'il dort Tu n'parles que du tieks, que du tieks, que du tieks, que du tieks mais en vrai, tes potos font l'reste C'est vrai que je blesse, que je blesse, que je blesse, que je blesse, j'vais les tuer, j'ai fini l'process, hey Pour donner l'heure faut ma Rolex, que ma Rolex Pour donner l'heure faut ma Rolex, que ma Rolex Tu veux marcher parmi nous pour gratter des sous Tu veux marcher parmi nous pour gratter des sous Pour donner l'heure faut ma Rolex, que ma Rolex Pour donner l'heure faut ma Rolex, que ma Rolex Tu veux marcher parmi nous pour gratter des sous Tu veux marcher parmi nous pour gratter des sous Ça sent pas bon, ça sent pas bon Toh toh toh, toh toh toh Allez, zoin</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Je n'pense qu'à rouler, je n'pense qu'à rouler Je n'pense qu'à rouler, je n'pense qu'à rouler Je n'pense qu'à rouler, je n'pense qu'à rouler Je n'pense qu'à rouler Le soir, sur l'autoroute, j'suis rempli de doutes Parlez, parlez, parlez, parlez, j'en ai rien à foutre rien à foutre, rien à foutre Le soir, je n'pense qu'à rouler et je vois le temps s'écouler Donc j'fais toujours les choses en loucedé en loucedé, en loucedé En espérant qu'ils finissent bouche bée Je n'aurai plus rien à prouver quand le succès, je l'aurai trouvé Je n'pense qu'à rouler, je n'pense qu'à rouler Je n'pense qu'à rouler, je n'pense qu'à rouler Faire du liquide mais c'est Dieu qui donne Faire du liquide mais c'est Dieu qui donne Je n'pense qu'à rouler, je n'pense qu'à rouler Je n'pense qu'à rouler, je n'pense qu'à rouler Faire du liquide mais c'est Dieu qui donne Faire du liquide mais On fait des choses, woh, woh, woh, woh Woh, woh, woh, woh, woh, woh, woh, woh You might also like Yeah yeah J'écris seul dans la nuit, sombre mélodie, j'vais te briser le cur, yeah, pour qu'tu m'oublies J'aurai plein d'ennemis et ça, toute ma vie, beaucoup trop d'ennemis et ça, toute ma vie Ne m'appelle pas mon frère, il n'y a rien qui nous lie, finir pauvre dans le tieks, j'en ai pas très envie Je fais c'que j'ai à faire, j'ai pas b'soin ton avis, si j'te ken sans cesse, c'est pour combler l'ennui Je n'pense qu'à rouler, je n'pense qu'à rouler Je n'pense qu'à rouler, je n'pense qu'à rouler Faire du liquide mais c'est Dieu qui donne Faire du liquide mais c'est Dieu qui donne Je n'pense qu'à rouler, je n'pense qu'à rouler Je n'pense qu'à rouler, je n'pense qu'à rouler Faire du liquide mais c'est Dieu qui donne Faire du liquide mais On fait des choses, woh, woh, woh, woh Woh, woh, woh, woh, woh, woh, woh, woh Je n'pense qu'à rouler, je n'pense qu'à rouler Je n'pense qu'à rouler, je n'pense qu'à rouler Je n'pense qu'à rouler, je n'pense qu'à rouler Je n'pense qu'à rouler</t>
+          <t>Je n'pense qu'à rouler, je n'pense qu'à rouler Je n'pense qu'à rouler, je n'pense qu'à rouler Je n'pense qu'à rouler, je n'pense qu'à rouler Je n'pense qu'à rouler Le soir, sur l'autoroute, j'suis rempli de doutes Parlez, parlez, parlez, parlez, j'en ai rien à foutre rien à foutre, rien à foutre Le soir, je n'pense qu'à rouler et je vois le temps s'écouler Donc j'fais toujours les choses en loucedé en loucedé, en loucedé En espérant qu'ils finissent bouche bée Je n'aurai plus rien à prouver quand le succès, je l'aurai trouvé Je n'pense qu'à rouler, je n'pense qu'à rouler Je n'pense qu'à rouler, je n'pense qu'à rouler Faire du liquide mais c'est Dieu qui donne Faire du liquide mais c'est Dieu qui donne Je n'pense qu'à rouler, je n'pense qu'à rouler Je n'pense qu'à rouler, je n'pense qu'à rouler Faire du liquide mais c'est Dieu qui donne Faire du liquide mais On fait des choses, woh, woh, woh, woh Woh, woh, woh, woh, woh, woh, woh, woh Yeah yeah J'écris seul dans la nuit, sombre mélodie, j'vais te briser le cur, yeah, pour qu'tu m'oublies J'aurai plein d'ennemis et ça, toute ma vie, beaucoup trop d'ennemis et ça, toute ma vie Ne m'appelle pas mon frère, il n'y a rien qui nous lie, finir pauvre dans le tieks, j'en ai pas très envie Je fais c'que j'ai à faire, j'ai pas b'soin ton avis, si j'te ken sans cesse, c'est pour combler l'ennui Je n'pense qu'à rouler, je n'pense qu'à rouler Je n'pense qu'à rouler, je n'pense qu'à rouler Faire du liquide mais c'est Dieu qui donne Faire du liquide mais c'est Dieu qui donne Je n'pense qu'à rouler, je n'pense qu'à rouler Je n'pense qu'à rouler, je n'pense qu'à rouler Faire du liquide mais c'est Dieu qui donne Faire du liquide mais On fait des choses, woh, woh, woh, woh Woh, woh, woh, woh, woh, woh, woh, woh Je n'pense qu'à rouler, je n'pense qu'à rouler Je n'pense qu'à rouler, je n'pense qu'à rouler Je n'pense qu'à rouler, je n'pense qu'à rouler Je n'pense qu'à rouler</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Hey, zoin Zoinguinzoin Ok Dans l'game, y a que des hommes pourtant y a masse de strings J'suis dans leurs joyeuses fêtes avec le masque de Scream Zoin J'ferais sûrement pas ce style si j'voulais max de streams Pourtant c'est moi qui tue mon frère qui masque le crime Hey J'vais les chasser comme Wisigoths Wisigoths Eux, c'est des merdes, des mini crottes, j'visite leurs chattes comme j'visite grottes Tiens Tous les ans, j'esquive Saint-Valentin, j'préfère la barbarie Hey Entouré d'négros comme Valentin mais moi c'est ma famille J'écoute tous tes mots mais tes actions m'disent trop qui t'es Go, go, go, go J'aime trop l'indépendance, boy, j'aime trop DistroKider Zoin J'avais que huit piges, dans ma tirelire, que quatre dolls Et mon bre-chi devenait dur devant clips des Pussycat Dolls, zoin J'te pardonne pas l'passé mais j'ai besoin d'toi pour l'business Comme un juif qui va au taff dans train SNCF J'vois que gratteur ramène ses fesses, on s'ra jamais amis Même si on vit les mêmes épreuves, les mêmes détresses Depuis p'tit, les idées claires, j'détruis l'game en six éclairs Les principes et les valeurs, ça vaut plus rien comme six éthers Certains négros ont vu leurs couilles pousser depuis Paid in Full Pareil pour les babtous et ça depuis Peaky Blinders You might also like Dans l'game, y a que des hommes pourtant y a masse de strings Masse de strings J'suis dans leurs joyeuses fêtes avec le masque de Scream Ok J'ferais sûrement pas ce style si j'voulais max de streams Zoin Pourtant c'est moi qui tue mon frère qui masque le crime Gang, gang, gang Eh l'videur, t'es con ou quoi ? Tes règles de merde sont des erreurs Pourquoi venir accompagné si j'veux draguer à l'intérieur ? Dis-moi Fuck les polythéistes, moi, j'crois en Dieu, pas Osiris Les histoires d'amour m'ont vite déçu comme Roddy Rich J'suis dans l'temps additionnel, j'sors du circuit traditionnel Le manque d'argent se soustrait mais les problèmes s'additionnèrent Toujours Solo dans l'équipe, fuck recruter tel joueur Fuck, fuck, fuck Change ta couche avant de vouloir être un game changer Ok J'mets des gifles dans leurs mères, appelle-moi Bud Spencer Depuis gosse, j'suis une erreur, j'suis comme un bug serveur Une tracklist à plus d'dix feats, c'est pour cacher les lacunes Leur mentalité m'dégoûte comme une meuf quand j'éjacule Y a des snakes dans l'tieks, y a d'la haine dans l'sexe On est en guerre car t'as ma pièce dans l'bec Le vendredi, y a tellement d'merdes qui sortent On dirait qu'ils ont tous pris des laxatifs de toutes sortes Allez zoin Dans l'game, y a que des hommes pourtant y a masse de strings Masse de strings J'suis dans leurs joyeuses fêtes avec le masque de Scream Ok J'ferais sûrement pas ce style si j'voulais max de streams Zoin Pourtant c'est moi qui tue mon frère qui masque le crime Frère qui masque le crime 4 putain d'0.4 Zoin Zoinguinzoin Pour les blesser, pas b'soin d'un joint 400</t>
+          <t>Hey, zoin Zoinguinzoin Ok Dans l'game, y a que des hommes pourtant y a masse de strings J'suis dans leurs joyeuses fêtes avec le masque de Scream Zoin J'ferais sûrement pas ce style si j'voulais max de streams Pourtant c'est moi qui tue mon frère qui masque le crime Hey J'vais les chasser comme Wisigoths Wisigoths Eux, c'est des merdes, des mini crottes, j'visite leurs chattes comme j'visite grottes Tiens Tous les ans, j'esquive Saint-Valentin, j'préfère la barbarie Hey Entouré d'négros comme Valentin mais moi c'est ma famille J'écoute tous tes mots mais tes actions m'disent trop qui t'es Go, go, go, go J'aime trop l'indépendance, boy, j'aime trop DistroKider Zoin J'avais que huit piges, dans ma tirelire, que quatre dolls Et mon bre-chi devenait dur devant clips des Pussycat Dolls, zoin J'te pardonne pas l'passé mais j'ai besoin d'toi pour l'business Comme un juif qui va au taff dans train SNCF J'vois que gratteur ramène ses fesses, on s'ra jamais amis Même si on vit les mêmes épreuves, les mêmes détresses Depuis p'tit, les idées claires, j'détruis l'game en six éclairs Les principes et les valeurs, ça vaut plus rien comme six éthers Certains négros ont vu leurs couilles pousser depuis Paid in Full Pareil pour les babtous et ça depuis Peaky Blinders Dans l'game, y a que des hommes pourtant y a masse de strings Masse de strings J'suis dans leurs joyeuses fêtes avec le masque de Scream Ok J'ferais sûrement pas ce style si j'voulais max de streams Zoin Pourtant c'est moi qui tue mon frère qui masque le crime Gang, gang, gang Eh l'videur, t'es con ou quoi ? Tes règles de merde sont des erreurs Pourquoi venir accompagné si j'veux draguer à l'intérieur ? Dis-moi Fuck les polythéistes, moi, j'crois en Dieu, pas Osiris Les histoires d'amour m'ont vite déçu comme Roddy Rich J'suis dans l'temps additionnel, j'sors du circuit traditionnel Le manque d'argent se soustrait mais les problèmes s'additionnèrent Toujours Solo dans l'équipe, fuck recruter tel joueur Fuck, fuck, fuck Change ta couche avant de vouloir être un game changer Ok J'mets des gifles dans leurs mères, appelle-moi Bud Spencer Depuis gosse, j'suis une erreur, j'suis comme un bug serveur Une tracklist à plus d'dix feats, c'est pour cacher les lacunes Leur mentalité m'dégoûte comme une meuf quand j'éjacule Y a des snakes dans l'tieks, y a d'la haine dans l'sexe On est en guerre car t'as ma pièce dans l'bec Le vendredi, y a tellement d'merdes qui sortent On dirait qu'ils ont tous pris des laxatifs de toutes sortes Allez zoin Dans l'game, y a que des hommes pourtant y a masse de strings Masse de strings J'suis dans leurs joyeuses fêtes avec le masque de Scream Ok J'ferais sûrement pas ce style si j'voulais max de streams Zoin Pourtant c'est moi qui tue mon frère qui masque le crime Frère qui masque le crime 4 putain d'0.4 Zoin Zoinguinzoin Pour les blesser, pas b'soin d'un joint 400</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Billy ! Chrysler ! On est 2 sur le bateau mon frère... Tyeah tyeah, tyeah, tyeah Je fais sa pour Shana, on s'mélange pas nous ! Allez ferme ta gueule ! KID ! Négro je suis le meilleur, quiconque je peux affronter J'suis ambidextre bâtard ! j'me lève toujours du bon pieds, Tu me recherche partout meme dans la chatte a ta soeur Le rap a parkinson sert toi en comme vibromasseur, M'attendent pose tour eiffel , becane de cross me reveille, Personne croyais en moi avant que mon talent se révéle Ne sont pas meilleur que nous n'arrive pas à joindre les 2 bouts, Négro j'suis trop haut pour me sucer il faut te mettre debout Peu de rappeur dans ma lignée , j'veux le khalys du quatar Franco sénégalais, comme le rallye j'suis Paris - Dakar On est 2 sur le bateau, grand pere regarde de là haut Je les appellent Oussama tous leurs projets tombe à l'eau, Fais gaffe sur qui tu tire oriente bien ton viseur, je regarde pas Derrière je n'aurai même pas de rétroviseur Tinquiète on va t'aider, aucun humain ne s'enterre seul Billy, Chrysler, futur du rap en personne ! Préjugés coupables comme mara l'état nous condamne, Bat l'couilles si je suis seul tant que je suis en haut de la montagne C'est qui je vous laisse devinez, prodige de villiers J'me ferai pas oublier, je suis venu pour faire du billets ! Je ferai tout ça pour Shana, je ferai ça pour shana, Négro tu de la mala, mais t'es 0 t'es moula T'es 0 t'es moula, ma fille ne suis pas mes pas J'vais réussir je ferai en sorte que tu es ce que je n'ai pas You might also like Mon empire en construction, mais pas le pieds sur mon chantier Pour passage radio tu suces comme ta grand mère sans dentier Sur le trône je viens m'asseoir, sang de tolard Frère j'descend d'un pulaar, qui m'a connu au parloir Il croyais que jétais mort, crier déjà victoire Quelques années plus tard, petit réécris l'histoire Tu crois que t'es le meilleur, comme tu crois que t'es soeurs sont pucelles Rappeur font du lèche vitrine comme toutes ces putes de Bruxelles Puissant, rapide comme Usain, mais rien est acquis J'fais l'amour et la guerre j'baise en treillis kaki Taff qu'avec bon payeur, number one player Si j'crèvent dites a ma fille que j'étais le meilleur Leurs sons sortent des waters, j'avance avec goûts amer T'es l'enfant de la rue, moi j'la baise, donc je baise ta mère ? C'est ça qu'tu veux m'dire, c'est ça qu'tu veux m'dire ? J'suis sur bateau gagnant négro, crois pas que tu peux venir ! Préjugés coupables comme mara l'état nous condamne, Bat l'couilles si je suis seul tant que je suis en haut de la montagne C'est qui je vous laisse devinez, prodige de villiers J'me ferai pas oublier, je suis venu pour faire du billets ! Je ferai tout ça pour Shana, je ferai ça pour shana, Négro tu de la mala, mais t'es 0 t'es moula T'es 0 t'es moula, ma fille ne suis pas mes pas J'vais réussir je ferai en sorte que tu es ce que je n'ai pas Vert jaune rouge avec étoiles, 50 sénégal J'suis connu ou pas connu tant que j'ai de l'argent ça m'est égal T'envoi des piques nous on t'enterre, me mettent des coups qui me sonne guerre Tu donne ta chatte a tout le monde ? Tu seras la femme a sonne-per Avec mes srab paré en temps de guerre, on monte tu fais le contraire On gagne du temps et puis toi t'en perd, j'coopere qu'avec mes compere J'suis 1er jamais secondaire, t'as le temps d'mourir si t'attend qu'on perdent J'suis black white panther, plutard j'veux black carte bancaire Négro pas de maille sans nerf J'tafferai le temps qu'il faudra Vous baiserez pas ma carriere elle n'ira pas sous vos draps Ta mere toi et tes contrats et tes maisons de disques Mon pere m'avais prevenu le chemin sera long fils Un par un j'vais les baiser, j'en ai rien a ciré Mon passé m'a scié, maintent j'ai coeur d'acier Moi j'aimerai bien t'y voir, solide comme de l'ivoire Pas de chaine d'esclave ni d'ancetres noir dans mon livre d'histoire</t>
+          <t>Billy ! Chrysler ! On est 2 sur le bateau mon frère... Tyeah tyeah, tyeah, tyeah Je fais sa pour Shana, on s'mélange pas nous ! Allez ferme ta gueule ! KID ! Négro je suis le meilleur, quiconque je peux affronter J'suis ambidextre bâtard ! j'me lève toujours du bon pieds, Tu me recherche partout meme dans la chatte a ta soeur Le rap a parkinson sert toi en comme vibromasseur, M'attendent pose tour eiffel , becane de cross me reveille, Personne croyais en moi avant que mon talent se révéle Ne sont pas meilleur que nous n'arrive pas à joindre les 2 bouts, Négro j'suis trop haut pour me sucer il faut te mettre debout Peu de rappeur dans ma lignée , j'veux le khalys du quatar Franco sénégalais, comme le rallye j'suis Paris - Dakar On est 2 sur le bateau, grand pere regarde de là haut Je les appellent Oussama tous leurs projets tombe à l'eau, Fais gaffe sur qui tu tire oriente bien ton viseur, je regarde pas Derrière je n'aurai même pas de rétroviseur Tinquiète on va t'aider, aucun humain ne s'enterre seul Billy, Chrysler, futur du rap en personne ! Préjugés coupables comme mara l'état nous condamne, Bat l'couilles si je suis seul tant que je suis en haut de la montagne C'est qui je vous laisse devinez, prodige de villiers J'me ferai pas oublier, je suis venu pour faire du billets ! Je ferai tout ça pour Shana, je ferai ça pour shana, Négro tu de la mala, mais t'es 0 t'es moula T'es 0 t'es moula, ma fille ne suis pas mes pas J'vais réussir je ferai en sorte que tu es ce que je n'ai pas Mon empire en construction, mais pas le pieds sur mon chantier Pour passage radio tu suces comme ta grand mère sans dentier Sur le trône je viens m'asseoir, sang de tolard Frère j'descend d'un pulaar, qui m'a connu au parloir Il croyais que jétais mort, crier déjà victoire Quelques années plus tard, petit réécris l'histoire Tu crois que t'es le meilleur, comme tu crois que t'es soeurs sont pucelles Rappeur font du lèche vitrine comme toutes ces putes de Bruxelles Puissant, rapide comme Usain, mais rien est acquis J'fais l'amour et la guerre j'baise en treillis kaki Taff qu'avec bon payeur, number one player Si j'crèvent dites a ma fille que j'étais le meilleur Leurs sons sortent des waters, j'avance avec goûts amer T'es l'enfant de la rue, moi j'la baise, donc je baise ta mère ? C'est ça qu'tu veux m'dire, c'est ça qu'tu veux m'dire ? J'suis sur bateau gagnant négro, crois pas que tu peux venir ! Préjugés coupables comme mara l'état nous condamne, Bat l'couilles si je suis seul tant que je suis en haut de la montagne C'est qui je vous laisse devinez, prodige de villiers J'me ferai pas oublier, je suis venu pour faire du billets ! Je ferai tout ça pour Shana, je ferai ça pour shana, Négro tu de la mala, mais t'es 0 t'es moula T'es 0 t'es moula, ma fille ne suis pas mes pas J'vais réussir je ferai en sorte que tu es ce que je n'ai pas Vert jaune rouge avec étoiles, 50 sénégal J'suis connu ou pas connu tant que j'ai de l'argent ça m'est égal T'envoi des piques nous on t'enterre, me mettent des coups qui me sonne guerre Tu donne ta chatte a tout le monde ? Tu seras la femme a sonne-per Avec mes srab paré en temps de guerre, on monte tu fais le contraire On gagne du temps et puis toi t'en perd, j'coopere qu'avec mes compere J'suis 1er jamais secondaire, t'as le temps d'mourir si t'attend qu'on perdent J'suis black white panther, plutard j'veux black carte bancaire Négro pas de maille sans nerf J'tafferai le temps qu'il faudra Vous baiserez pas ma carriere elle n'ira pas sous vos draps Ta mere toi et tes contrats et tes maisons de disques Mon pere m'avais prevenu le chemin sera long fils Un par un j'vais les baiser, j'en ai rien a ciré Mon passé m'a scié, maintent j'ai coeur d'acier Moi j'aimerai bien t'y voir, solide comme de l'ivoire Pas de chaine d'esclave ni d'ancetres noir dans mon livre d'histoire</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>J'écoute Clemenza, j'laisse les flingues, j'prends les cannellonis Monde rempli de pédophiles, rempli de calomnies Être métis c'est une dualité, c'est être au milieu d'Léopold Sédar Senghor et d'Léopold II T'inquiète pas, fusil à pompe scotché en-dessous du bas d'caisse L'objectif c'est d'rester vrai, j'm'en tape si l'audimat baisse Même si j'deviens riche, dis-toi qu'j'pèse 21 grammes Même si j'pèse, dis-toi qu'j'n'aime qu'une seule femme Même si j'baise Mes tentations sont cruelles, me d'mandent en duel J'ai plus rien, j'ai carrément perdu mon auréole J'suis dans l'ciel avec les aurores boréales J'arrive calibré avec la touffe de Snoop dans Gin and Juice Les hommes partent, les balles restent Contre ces gens sans principe, j'suis l'antidote Fuck les keufs noirs, fuck Ace Anderson dans Funky Cops Ils savent comment j'pense, comment j'chante Style est bête et méchant, style cru, ça t'enchante Bicrave son âme au diable ça n'paye pas assez Donc, j'rappe pas pour ta putain sur l'siège passager Ils savent comment j'pense, comment j'chante Style est bête et méchant, style cru, ça t'enchante Bicrave son âme au diable ça n'paye pas assez Donc, j'rappe pas pour ta putain sur l'siège passager You might also like Faut m'prendre au premier degré On court après l'argent pour finir dans des trous Qu'ont la forme de nos billets, tu vois c'que j'veux dire ? Il m'faut des kichtas, des chèques et Lily-Rose Depp Et histoire d'me faire plaisir, un p'tit lance-roquettes Un putain d'tueur né, pour déstresser faut que j'kill Cette vie est tellement moche, pour la kiffer, faut que j'tise Tu prends trop d'place comme Pierre Ménès au CFC J'suis l'prochain d'après mes senseis, j'marque pas de CSC Si tu t'sens trop les pousser, j'vais viser vers tes ailes Les plus gros dealers vendent pas d'drogue, ils vendent des données personnelles J'aime quand j'fais d'l'argent, que tout s'passe bien et sans litige J'ai perdu mon âme quand mon daron a pris huit piges Ambitieux, parfois vicieux, j'veux être maître de mon art Et cracher sur leur bif si je veux, où je veux, quand je veux, quand je veux Nos vies sont des chansons remplies de fausses notes J'ai charbonné seul non-stop, donc fuck l'auto-stop Ils savent comment j'pense, comment j'chante Style est bête et méchant, style cru, ça t'enchante Bicrave son âme au diable ça n'paye pas assez Donc, j'rappe pas pour ta putain sur l'siège passager Ils savent comment j'pense, comment j'chante Style est bête et méchant, style cru, ça t'enchante Bicrave son âme au diable ça n'paye pas assez Donc, j'rappe pas pour ta putain sur l'siège passager</t>
+          <t>J'écoute Clemenza, j'laisse les flingues, j'prends les cannellonis Monde rempli de pédophiles, rempli de calomnies Être métis c'est une dualité, c'est être au milieu d'Léopold Sédar Senghor et d'Léopold II T'inquiète pas, fusil à pompe scotché en-dessous du bas d'caisse L'objectif c'est d'rester vrai, j'm'en tape si l'audimat baisse Même si j'deviens riche, dis-toi qu'j'pèse 21 grammes Même si j'pèse, dis-toi qu'j'n'aime qu'une seule femme Même si j'baise Mes tentations sont cruelles, me d'mandent en duel J'ai plus rien, j'ai carrément perdu mon auréole J'suis dans l'ciel avec les aurores boréales J'arrive calibré avec la touffe de Snoop dans Gin and Juice Les hommes partent, les balles restent Contre ces gens sans principe, j'suis l'antidote Fuck les keufs noirs, fuck Ace Anderson dans Funky Cops Ils savent comment j'pense, comment j'chante Style est bête et méchant, style cru, ça t'enchante Bicrave son âme au diable ça n'paye pas assez Donc, j'rappe pas pour ta putain sur l'siège passager Ils savent comment j'pense, comment j'chante Style est bête et méchant, style cru, ça t'enchante Bicrave son âme au diable ça n'paye pas assez Donc, j'rappe pas pour ta putain sur l'siège passager Faut m'prendre au premier degré On court après l'argent pour finir dans des trous Qu'ont la forme de nos billets, tu vois c'que j'veux dire ? Il m'faut des kichtas, des chèques et Lily-Rose Depp Et histoire d'me faire plaisir, un p'tit lance-roquettes Un putain d'tueur né, pour déstresser faut que j'kill Cette vie est tellement moche, pour la kiffer, faut que j'tise Tu prends trop d'place comme Pierre Ménès au CFC J'suis l'prochain d'après mes senseis, j'marque pas de CSC Si tu t'sens trop les pousser, j'vais viser vers tes ailes Les plus gros dealers vendent pas d'drogue, ils vendent des données personnelles J'aime quand j'fais d'l'argent, que tout s'passe bien et sans litige J'ai perdu mon âme quand mon daron a pris huit piges Ambitieux, parfois vicieux, j'veux être maître de mon art Et cracher sur leur bif si je veux, où je veux, quand je veux, quand je veux Nos vies sont des chansons remplies de fausses notes J'ai charbonné seul non-stop, donc fuck l'auto-stop Ils savent comment j'pense, comment j'chante Style est bête et méchant, style cru, ça t'enchante Bicrave son âme au diable ça n'paye pas assez Donc, j'rappe pas pour ta putain sur l'siège passager Ils savent comment j'pense, comment j'chante Style est bête et méchant, style cru, ça t'enchante Bicrave son âme au diable ça n'paye pas assez Donc, j'rappe pas pour ta putain sur l'siège passager</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Hey Killer comme dans Scream bang Là pour l'argent pas d'fioritures, pas d'pétasses en string jamais Ta carrière en VHS, pour t'montrer qu't'es HS gars J'essaie de reste tranquille, parce que chaque péché s'paie on paie J'suis leur fléau J'suis l'dernier vrai n hey Mental CEO zoin Mais peu d'entre eux sont réglos grahh La vie pourrait être belle ouais, ressembler à Zendaya wouh Il faut qu'mes frères aimnt Lous, il faut qu'mes frères aiment Aya obligé J'ai rgard froid sans chaud, j'fais gaffe au choc thermique j'fais gaffe Si j'pose le genou à terre, j'le fais comme Kaepernick fort J'm'en branle de l'audimat ouais Faut qu'j'roule dans Audi mate ok Pour être comme 404 le 4 Faut être autodidacte le 4 Des armes tous les jours woah Pas d'larmes sur mes joues bang J'sais qu'l'honneur et l'respect valent plein d'Jimmy Choo Jimmy Jimmy On m'entend jamais comme ces cris à Brazzaville jamais On m'entend jamais comme ces cris en Palestine jamais Les pauvres n'ont jamais eu l'droit d'faire du bruit poto han Au silence est réduit le peuple poto han Les pauvres n'ont jamais eu l'droit d'faire du bruit poto han Au silence est réduit le peuple poto han You might also like Toute l'histoire est bouleversante parce que ce qui gouvernent mentent comprennent pas c'que mes frères ressentent Tout l'argent qu'j'ai à faire, j'vais l'faire ici, j'vais l'faire easy fort Aucun remord, aucune peur aucun, aucune confiance, cur de grizzli Aucun doute sur c'que j'suis, sur c'que j'vis, sur c'que j'vise non non Aucun doute sur c'que j'dis, sur c'que j'lis, sur c'que j'mise tou-tou-tou-tou Le meilleur businessman, c'est celui qui garde son client Ces bâtards n'aiment pas mon esprit, j'ai celui d'un garçon brillant J'ai celui d'un n érudit, j'le forge quand j'étudie Et si j'ai or, diamants et rubis, réunis j'réussis J'regarde les écrits dans l'ciel regarde, cer-per c'est confidentiel cer-per C'que j'fais c'est luxueux, c'est riche, c'est présidentiel tu captes Des armes tous les jours woah Pas d'larmes sur mes joues no J'sais qu'l'honneur et l'respect valent plein d'Jimmy Choo Jimmy Jimmy On m'entend jamais comme ces cris à Brazzaville jamais On m'entend jamais comme ces cris en Palestine jamais Les pauvres n'ont jamais eu l'droit d'faire du bruit poto han Au silence est réduit le peuple poto han Les pauvres n'ont jamais eu l'droit d'faire du bruit poto han Au silence est réduit le peuple poto han Tou-tou-tou-tou On m'entend jamais, comme ces cris en Palestine Comme ces cris à Brazzaville Le 4 Silence, le silence 400, ok Hey, hey</t>
+          <t>Hey Killer comme dans Scream bang Là pour l'argent pas d'fioritures, pas d'pétasses en string jamais Ta carrière en VHS, pour t'montrer qu't'es HS gars J'essaie de reste tranquille, parce que chaque péché s'paie on paie J'suis leur fléau J'suis l'dernier vrai n hey Mental CEO zoin Mais peu d'entre eux sont réglos grahh La vie pourrait être belle ouais, ressembler à Zendaya wouh Il faut qu'mes frères aimnt Lous, il faut qu'mes frères aiment Aya obligé J'ai rgard froid sans chaud, j'fais gaffe au choc thermique j'fais gaffe Si j'pose le genou à terre, j'le fais comme Kaepernick fort J'm'en branle de l'audimat ouais Faut qu'j'roule dans Audi mate ok Pour être comme 404 le 4 Faut être autodidacte le 4 Des armes tous les jours woah Pas d'larmes sur mes joues bang J'sais qu'l'honneur et l'respect valent plein d'Jimmy Choo Jimmy Jimmy On m'entend jamais comme ces cris à Brazzaville jamais On m'entend jamais comme ces cris en Palestine jamais Les pauvres n'ont jamais eu l'droit d'faire du bruit poto han Au silence est réduit le peuple poto han Les pauvres n'ont jamais eu l'droit d'faire du bruit poto han Au silence est réduit le peuple poto han Toute l'histoire est bouleversante parce que ce qui gouvernent mentent comprennent pas c'que mes frères ressentent Tout l'argent qu'j'ai à faire, j'vais l'faire ici, j'vais l'faire easy fort Aucun remord, aucune peur aucun, aucune confiance, cur de grizzli Aucun doute sur c'que j'suis, sur c'que j'vis, sur c'que j'vise non non Aucun doute sur c'que j'dis, sur c'que j'lis, sur c'que j'mise tou-tou-tou-tou Le meilleur businessman, c'est celui qui garde son client Ces bâtards n'aiment pas mon esprit, j'ai celui d'un garçon brillant J'ai celui d'un n érudit, j'le forge quand j'étudie Et si j'ai or, diamants et rubis, réunis j'réussis J'regarde les écrits dans l'ciel regarde, cer-per c'est confidentiel cer-per C'que j'fais c'est luxueux, c'est riche, c'est présidentiel tu captes Des armes tous les jours woah Pas d'larmes sur mes joues no J'sais qu'l'honneur et l'respect valent plein d'Jimmy Choo Jimmy Jimmy On m'entend jamais comme ces cris à Brazzaville jamais On m'entend jamais comme ces cris en Palestine jamais Les pauvres n'ont jamais eu l'droit d'faire du bruit poto han Au silence est réduit le peuple poto han Les pauvres n'ont jamais eu l'droit d'faire du bruit poto han Au silence est réduit le peuple poto han Tou-tou-tou-tou On m'entend jamais, comme ces cris en Palestine Comme ces cris à Brazzaville Le 4 Silence, le silence 400, ok Hey, hey</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Hey J'te rends service, t'oublie, crache dans main qui t'nourrit, j'récolte pomme pourrie, j'lève yeux vers ciel tout gris Des mecs me détestent, me connaissent à peine, elle pense à m'aimer, moi, j'pense à la ken Tu penses à la mort, moi, j'pense à la tienne, j'suis toujours méfiant quand j'te rends visite Déficit donc ils m'plébiscitent, demain, on vivra, demain, on verra J'pense à mon état, tu n'penses qu'au pe-ra mais quelques ttes-cha, c'est tout c'que t'auras J'te tire dans les yeux, j'espère que t'as thunes dans ta mutuelle J'regarde vers les cieux, c'est c'qui m'attend au bout du tunnel J'parlais d'Marilyn, j'parlais d'Monroe, j'parlais pas d'Manson Appelle-moi Néo, j'esquive les balles en mode slow-motion J'ai tout c'qu'il te faut, j'ai armurerie pour buter les faux Gros, j'suis sans visage, pas d'face ID sur mon téléphone, périmètre, y a v'là les putes, v'là les kilomètres Si j't'insulte, c'est vrai, je n'suis pas l'genre de mec qui regretteYou might also like</t>
+          <t>Hey J'te rends service, t'oublie, crache dans main qui t'nourrit, j'récolte pomme pourrie, j'lève yeux vers ciel tout gris Des mecs me détestent, me connaissent à peine, elle pense à m'aimer, moi, j'pense à la ken Tu penses à la mort, moi, j'pense à la tienne, j'suis toujours méfiant quand j'te rends visite Déficit donc ils m'plébiscitent, demain, on vivra, demain, on verra J'pense à mon état, tu n'penses qu'au pe-ra mais quelques ttes-cha, c'est tout c'que t'auras J'te tire dans les yeux, j'espère que t'as thunes dans ta mutuelle J'regarde vers les cieux, c'est c'qui m'attend au bout du tunnel J'parlais d'Marilyn, j'parlais d'Monroe, j'parlais pas d'Manson Appelle-moi Néo, j'esquive les balles en mode slow-motion J'ai tout c'qu'il te faut, j'ai armurerie pour buter les faux Gros, j'suis sans visage, pas d'face ID sur mon téléphone, périmètre, y a v'là les putes, v'là les kilomètres Si j't'insulte, c'est vrai, je n'suis pas l'genre de mec qui regrette</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>J'me suis fait braquer par des amis d'enfance Quand tu montes, on veut te faire fort, c'est ça la vie en France À part deux, trois vrais frères, j'ai pas d'assos aux pattes Un côté sociologue, un côté sociopathe ouais Au bord de la douce mer, on s'sent bien quand on y est on s'sent très bien Sorti de ma douce mère avec un canon scié J'instaure la dictature et le pillage de villes Cur rempli d'cicatrices comme le visage de Seal Le strict minimum sans excédent Le meilleur de tous ces négros et d'tous ces blancs Talentueux, mais peu d'reconnaissance comme un noir sous Elvis J'avais la trique devant les billets d'banque ou devant Brooke Davis Faut qu'j'touche la France et les pays limitrophes 2005, j'ai dix ans, j'imite Booba, j'imite Rohff L'Afrique est tellement pauvre, j'crois qu'ils sont maudits là-bas C'est normal, ils croient aux sorcelleries et en Mami Wata normal Les médias parlent sur nous, ils connaissent pas nos vies On tire, on braque, on vend, mais on viole pas nos filles J'écris avec le sang des ennemis, tout est quadrilatère Y a deux-trois familles riches qu'ont quadrillé la Terre Sueur froide frôle mon épiderme Quand j'pense à la mort, quand j'pense à la morgue Rien qu'le temps me tacle à la gorge Les pédophiles, j'les étrangle avec leur chapelet J'exauce le souhait d'Nessbeal Y a pas que sport, musique ou crime Solo dans l'noir contre moi-même, comme ça que j'me recueille Nous, on finira sous-terre, gros, on brûlera pas le cercueil jamais d'la vie Ils comprennent pas, moi j'fais même plus ça pour l'argent J'ai consulté ma putain d'fin dans l'agenda You might also like Faut qu'j'fasse l'argent, faut qu'j'fasse mes plaques Sociologue et sociopathe Mon sol est blanc, mon ciel est black mon ciel est noir, Sociologue et sociopathe Faut qu'j'fasse l'argent, faut qu'j'fasse mes plaques Sociologue et sociopathe Mon sol est blanc, mon ciel est black mon ciel est noir, Sociologue sociologue et sociopathe zoin</t>
+          <t>J'me suis fait braquer par des amis d'enfance Quand tu montes, on veut te faire fort, c'est ça la vie en France À part deux, trois vrais frères, j'ai pas d'assos aux pattes Un côté sociologue, un côté sociopathe ouais Au bord de la douce mer, on s'sent bien quand on y est on s'sent très bien Sorti de ma douce mère avec un canon scié J'instaure la dictature et le pillage de villes Cur rempli d'cicatrices comme le visage de Seal Le strict minimum sans excédent Le meilleur de tous ces négros et d'tous ces blancs Talentueux, mais peu d'reconnaissance comme un noir sous Elvis J'avais la trique devant les billets d'banque ou devant Brooke Davis Faut qu'j'touche la France et les pays limitrophes 2005, j'ai dix ans, j'imite Booba, j'imite Rohff L'Afrique est tellement pauvre, j'crois qu'ils sont maudits là-bas C'est normal, ils croient aux sorcelleries et en Mami Wata normal Les médias parlent sur nous, ils connaissent pas nos vies On tire, on braque, on vend, mais on viole pas nos filles J'écris avec le sang des ennemis, tout est quadrilatère Y a deux-trois familles riches qu'ont quadrillé la Terre Sueur froide frôle mon épiderme Quand j'pense à la mort, quand j'pense à la morgue Rien qu'le temps me tacle à la gorge Les pédophiles, j'les étrangle avec leur chapelet J'exauce le souhait d'Nessbeal Y a pas que sport, musique ou crime Solo dans l'noir contre moi-même, comme ça que j'me recueille Nous, on finira sous-terre, gros, on brûlera pas le cercueil jamais d'la vie Ils comprennent pas, moi j'fais même plus ça pour l'argent J'ai consulté ma putain d'fin dans l'agenda Faut qu'j'fasse l'argent, faut qu'j'fasse mes plaques Sociologue et sociopathe Mon sol est blanc, mon ciel est black mon ciel est noir, Sociologue et sociopathe Faut qu'j'fasse l'argent, faut qu'j'fasse mes plaques Sociologue et sociopathe Mon sol est blanc, mon ciel est black mon ciel est noir, Sociologue sociologue et sociopathe zoin</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>- Salut 404 ! - Ouais, bien ou quoi ? - Jai grave aimé ton concert - Ah cimer, cest lourd. SALE - Moi aussi, jfais du rap - Ah ouais ? - Ya moyen jte fais un ptit truc là ? - Jai pas trop le temps gros - Et après, on prend une photo - Vas-y, vas-y, vas-y... - Écoute Sur la joue, jai larme de rage ah ouais, jverse ma haine dans prise dotages ray Jsuis trop haut, après moi ya plus détage, leurs chattes sont larges donc jmy faufile Jsuis dans les DM de leurs copines Anonyme, sans photo d'profil et quand j'les baise, elles sont satisfaites Elles ont leur keumé au bout du fil, jai un pote à moi qui sappelle Julien, j'le regarde bizarre quand il est près dmes gosses ouais tu d'viens che-lou gros Jai quelques centimes dans mes poches mais j'fais croire que jsuis riche à tous mes proches c'pas bien ça 404, jme rtrouve dans tes sons, tes si sombre, jcrois quon est pareils euh j'sais pas trop hein Tu veux voir, tiens mon téléphone, y a des photos dcadavres dans lappareil ah gros t'es bizarre Et figure-toi que jsuis aussi beatmaker, jvais tenvoyer des prods incroyables sale Comme toi, jaime pas la zumba, ils méritent tous de mourir par noyade t'y vas un peu fort là Et j'le dis à tous mes potes Écoutez 404, cest lui, le boss ah merci Comme tu las dis, jme suis marié, jai égorgé la meuf à nuits de noces You might also like Jsors du show et jrencontre sombre fan, sombre fan sombre Notif' dans mes DM, sombre fan, sombre fan dose Des meufs menvoient leurs chattes, sombre fan, sombre fan hey Jparle aux rappeurs français, sombre fan, sombre fan sombre fan Jsors du show et jrencontre sombre fan, sombre fan sombre, sombre Notif' dans mes DM, sombre fan, sombre fan sombre fan Des meufs menvoient leurs chattes, sombre fan, sombre fan c'est d'la merde Jparle aux rappeurs français, sombre fan, sombre fan par contre, moi, j'ai un truc à dire, j'ai un truc à dire Alors déjà, jcomprends rien du tout et jpeux vous dire que jnaime pas du tout Bigflo et Oli sont des vrais rappeurs, ont des lyrics et sont proches de nous si vous voulez Tes sataniste et tes misogyne, tes trop vulgaire, cest du rap didiot hey Tu fais le thug, genre tes dans la street, tu fais un mètre et quatorze kilos De toute façon, je vais militer, ça fait qum'irriter Pas dhumilité, tas rien mérité, cest la vérité Puis ton concert, il puait la merde ahh De toute façon, yavait 4 personnes Ah moi, jte ldis, je nreviendrai plus t'as qu'à pas revenir Cest mon pote qui ma ramené ici, ta musique est inadmissible Pour la peine, jirai sur ta chaîne et dis-toi bien que jvais commenter ça on s'en bat les couilles Il faut qules gens sachent comment tes, cque tu revendiques dans tes couplets ta gueule Avec ton rap de pseudo-racaille, hors de question qumes enfants técoutent Cest pas pour toi, va donc faire du zouk On scasse dici, on reprend la route Jsors du show et jrencontre sombre fan, sombre fan sombre Notif' dans mes DM, sombre fan, sombre fan dose Des meufs menvoient leurs chattes, sombre fan, sombre fan hey Jparle aux rappeurs français, sombre fan, sombre fan sombre fan Jsors du show et jrencontre sombre fan, sombre fan sombre, sombre Notif' dans mes DM, sombre fan, sombre fan sombre fan Des meufs menvoient leurs chattes, sombre fan, sombre fan hey Jparle aux rappeurs français, sombre fan, sombre fan hey</t>
+          <t>- Salut 404 ! - Ouais, bien ou quoi ? - Jai grave aimé ton concert - Ah cimer, cest lourd. SALE - Moi aussi, jfais du rap - Ah ouais ? - Ya moyen jte fais un ptit truc là ? - Jai pas trop le temps gros - Et après, on prend une photo - Vas-y, vas-y, vas-y... - Écoute Sur la joue, jai larme de rage ah ouais, jverse ma haine dans prise dotages ray Jsuis trop haut, après moi ya plus détage, leurs chattes sont larges donc jmy faufile Jsuis dans les DM de leurs copines Anonyme, sans photo d'profil et quand j'les baise, elles sont satisfaites Elles ont leur keumé au bout du fil, jai un pote à moi qui sappelle Julien, j'le regarde bizarre quand il est près dmes gosses ouais tu d'viens che-lou gros Jai quelques centimes dans mes poches mais j'fais croire que jsuis riche à tous mes proches c'pas bien ça 404, jme rtrouve dans tes sons, tes si sombre, jcrois quon est pareils euh j'sais pas trop hein Tu veux voir, tiens mon téléphone, y a des photos dcadavres dans lappareil ah gros t'es bizarre Et figure-toi que jsuis aussi beatmaker, jvais tenvoyer des prods incroyables sale Comme toi, jaime pas la zumba, ils méritent tous de mourir par noyade t'y vas un peu fort là Et j'le dis à tous mes potes Écoutez 404, cest lui, le boss ah merci Comme tu las dis, jme suis marié, jai égorgé la meuf à nuits de noces Jsors du show et jrencontre sombre fan, sombre fan sombre Notif' dans mes DM, sombre fan, sombre fan dose Des meufs menvoient leurs chattes, sombre fan, sombre fan hey Jparle aux rappeurs français, sombre fan, sombre fan sombre fan Jsors du show et jrencontre sombre fan, sombre fan sombre, sombre Notif' dans mes DM, sombre fan, sombre fan sombre fan Des meufs menvoient leurs chattes, sombre fan, sombre fan c'est d'la merde Jparle aux rappeurs français, sombre fan, sombre fan par contre, moi, j'ai un truc à dire, j'ai un truc à dire Alors déjà, jcomprends rien du tout et jpeux vous dire que jnaime pas du tout Bigflo et Oli sont des vrais rappeurs, ont des lyrics et sont proches de nous si vous voulez Tes sataniste et tes misogyne, tes trop vulgaire, cest du rap didiot hey Tu fais le thug, genre tes dans la street, tu fais un mètre et quatorze kilos De toute façon, je vais militer, ça fait qum'irriter Pas dhumilité, tas rien mérité, cest la vérité Puis ton concert, il puait la merde ahh De toute façon, yavait 4 personnes Ah moi, jte ldis, je nreviendrai plus t'as qu'à pas revenir Cest mon pote qui ma ramené ici, ta musique est inadmissible Pour la peine, jirai sur ta chaîne et dis-toi bien que jvais commenter ça on s'en bat les couilles Il faut qules gens sachent comment tes, cque tu revendiques dans tes couplets ta gueule Avec ton rap de pseudo-racaille, hors de question qumes enfants técoutent Cest pas pour toi, va donc faire du zouk On scasse dici, on reprend la route Jsors du show et jrencontre sombre fan, sombre fan sombre Notif' dans mes DM, sombre fan, sombre fan dose Des meufs menvoient leurs chattes, sombre fan, sombre fan hey Jparle aux rappeurs français, sombre fan, sombre fan sombre fan Jsors du show et jrencontre sombre fan, sombre fan sombre, sombre Notif' dans mes DM, sombre fan, sombre fan sombre fan Des meufs menvoient leurs chattes, sombre fan, sombre fan hey Jparle aux rappeurs français, sombre fan, sombre fan hey</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ok, ok, ok, ok Ok, ok, ok, ok Zoin, zoin, zoin, zoin Oh, oh, oh, oh, oh, oh, oh, oh 4-0-4 Dans ce projet, je n'dirai pas gros mots, stop, va niquer ta mère hop Elle est folle quand elle est déf' donc j'ai rempli le verre bitch Partout, je vois Lucifer même sur panneau publicitaire Y a de quoi devenir suicidaire mais j'ai mental de fer fort J'vous promets d'être moins grossier, faut qu'j'évite le procès T'es là, t'ouvres ton gosier mais tu n'as aucun dossier Les gens qu'étaient vrais deviennent des faux donc tout est faussé Et même dans mon propre train de vie, tu m'verras frauder Tu m'as drogué d'amour, j'crois j'vais faire une OD 4-0-4 error, le message est codé C'est dead, ceux d'en face couperont les veines Flow galactique comme Eden, paraît qu'la misère est belle C'est c'qu'a chanté PNL Q-QLF J'distribue des headshots, pas d'chatte Faut des chiffres dans l'chèque Je te dirais que j'ai rien si j'ai du biff dans l'bec La gloire passe et je la mate sans cesse You might also like Hey, j'ai très peu de frères, j'vais quand même partir en guerre À la recherche de billets verts, tous les jours, j'attends la paye Treillis militaire, j'vais finir six pieds sous terre Et j'vais emmener tous mes compères, si je saigne, tu saignes J'assumerai mes torts si j'arrive devant la mort Tout noir sera le décor mais no pain, no gain Regarde le système, j'suis esclave sans chaînes J'essaye d'avancer mais les 'blèmes s'enchaînent Je compte les décès, quand je suis blessé J'me réconforte auprès d'un fessier, monsieur l'officier Ne m'aime pas trop car je suis bronzé mais moi, j'lui conseille De prendre congé avant de retuer un mec du quartier Mon cur est seul sur le sol, pas de fège-sol Pas de do-ré-mi-fa-sol, noir comme à Kingston X comme Malcolm, seigneur dis-nous J'sais pas qui nous aide nous, j'sais pas qui nous aime nous Y a de quoi être fou, zoin Et j'ai plus que 200 visions, tu vois c'que j'veux dire ? Même le golf, j'le pratique bande de pédales, tu vois c'que j'veux dire ? J'arrive sur le terrain d'golf en hélicoptère, han</t>
+          <t>Ok, ok, ok, ok Ok, ok, ok, ok Zoin, zoin, zoin, zoin Oh, oh, oh, oh, oh, oh, oh, oh 4-0-4 Dans ce projet, je n'dirai pas gros mots, stop, va niquer ta mère hop Elle est folle quand elle est déf' donc j'ai rempli le verre bitch Partout, je vois Lucifer même sur panneau publicitaire Y a de quoi devenir suicidaire mais j'ai mental de fer fort J'vous promets d'être moins grossier, faut qu'j'évite le procès T'es là, t'ouvres ton gosier mais tu n'as aucun dossier Les gens qu'étaient vrais deviennent des faux donc tout est faussé Et même dans mon propre train de vie, tu m'verras frauder Tu m'as drogué d'amour, j'crois j'vais faire une OD 4-0-4 error, le message est codé C'est dead, ceux d'en face couperont les veines Flow galactique comme Eden, paraît qu'la misère est belle C'est c'qu'a chanté PNL Q-QLF J'distribue des headshots, pas d'chatte Faut des chiffres dans l'chèque Je te dirais que j'ai rien si j'ai du biff dans l'bec La gloire passe et je la mate sans cesse Hey, j'ai très peu de frères, j'vais quand même partir en guerre À la recherche de billets verts, tous les jours, j'attends la paye Treillis militaire, j'vais finir six pieds sous terre Et j'vais emmener tous mes compères, si je saigne, tu saignes J'assumerai mes torts si j'arrive devant la mort Tout noir sera le décor mais no pain, no gain Regarde le système, j'suis esclave sans chaînes J'essaye d'avancer mais les 'blèmes s'enchaînent Je compte les décès, quand je suis blessé J'me réconforte auprès d'un fessier, monsieur l'officier Ne m'aime pas trop car je suis bronzé mais moi, j'lui conseille De prendre congé avant de retuer un mec du quartier Mon cur est seul sur le sol, pas de fège-sol Pas de do-ré-mi-fa-sol, noir comme à Kingston X comme Malcolm, seigneur dis-nous J'sais pas qui nous aide nous, j'sais pas qui nous aime nous Y a de quoi être fou, zoin Et j'ai plus que 200 visions, tu vois c'que j'veux dire ? Même le golf, j'le pratique bande de pédales, tu vois c'que j'veux dire ? J'arrive sur le terrain d'golf en hélicoptère, han</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street VLB cest ma street Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street VLB cest ma street Yo, vrais reconnaissent Kid Billy Sur la route du succès jfais des wheelies Jarriverai pas dans lrap en catimini Jbaise le rap français de midi à minuit Jlui dis qui veut niquer Kid Billy ? Peut-être que jvais massagir en vieillissant Maintenant que jsuis devenu plus fort Ils deviennent obéissants De mes ennemis je naime que le sang Je tuerai bébés, adultes et adolescents Kid, Kid, Kid Gang You might also like Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street VLB cest ma street Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street VLB cest ma street Mon cur nest plus là, il est en cendres La misère et la tess sortent ensemble Le mensonge et la chance se ressemblent Par le Mal aimés, négros se rassemblent Jvais crever tout seul négro, seuls les vrais me follow Équipe enracinée, MC ton sang cest de leau Belle est la victoire, si tu mènes une vie dNoir Jaime pas voir mes ennemis, jme regarde pas dans lmiroir Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street VLB cest ma street Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street VLB cest ma street Négro ma fille me ressemble Ya que ma Shanna dans lKid Gang Qui veut niquer Kid Billy? Qui veut niquer Kid Billy? Jsuis dans lfutur il me semble Je ne donne rien en échange Qui veut niquer Kid Billy? Qui veut niquer Kid Billy?</t>
+          <t>Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street VLB cest ma street Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street VLB cest ma street Yo, vrais reconnaissent Kid Billy Sur la route du succès jfais des wheelies Jarriverai pas dans lrap en catimini Jbaise le rap français de midi à minuit Jlui dis qui veut niquer Kid Billy ? Peut-être que jvais massagir en vieillissant Maintenant que jsuis devenu plus fort Ils deviennent obéissants De mes ennemis je naime que le sang Je tuerai bébés, adultes et adolescents Kid, Kid, Kid Gang Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street VLB cest ma street Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street VLB cest ma street Mon cur nest plus là, il est en cendres La misère et la tess sortent ensemble Le mensonge et la chance se ressemblent Par le Mal aimés, négros se rassemblent Jvais crever tout seul négro, seuls les vrais me follow Équipe enracinée, MC ton sang cest de leau Belle est la victoire, si tu mènes une vie dNoir Jaime pas voir mes ennemis, jme regarde pas dans lmiroir Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street VLB cest ma street Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien dans ma street Négro marche bien Négro marche bien dans ma street Négro marche bien dans ma street VLB cest ma street Négro ma fille me ressemble Ya que ma Shanna dans lKid Gang Qui veut niquer Kid Billy? Qui veut niquer Kid Billy? Jsuis dans lfutur il me semble Je ne donne rien en échange Qui veut niquer Kid Billy? Qui veut niquer Kid Billy?</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Switch BlackSkinsBeat BlackSkinsBeat Le rap prend cher dans maison close, maison close, yeah J'veux plus de gosses, donc j'baise des putes en ménopause, yeah Pour des euros, soyons fâchés, j'ai l'esprit d'un roi sans couronne Vivons heureux, vivons cachés, donc je t'enferme dans le sous-sol Tu n'mérites pas d'Uber, je te baise dans le heetch On a beau te dire d'te taire, faut quand même que tu snitches Je kiffe cette planète Terre, faut quand même que je switch Billy, n'sois pas honnête, faut qu'tu triches pour être riche Ton ciel, c'est mon sol Je fais rimer voyelles, consonnes, comme ça que je me console Têtus que nous sommes, j'ai pas d'argent mais j'consomme Cette salope me suce, obligé de faire des monologues, wallaye J'ai plein d'ennemis, je les shoote comme KD J'ai plein d'ennemis, je les shoote comme KD Et j'suis dans l'coin, j'suis dans l'coin Et j'suis dans l'coin, j'suis dans l'coin Et je switche, et je switche Et je switche, et je switche J'ai plein d'ennemis, je les shoote comme KD J'ai plein d'ennemis, je les shoote comme KD You might also like Hey, tout est moins rose, tout est morose, pas d'eau de rose Bite de val-che, monte sur moi comme une amazone L'enfer et l'paradis, c'est Crips contre Blood Y a pas d'amour, y a pas de kiss, pas de hug J'suis le cauchemar de tes rêves Quand je glisse entre tes lèvres J'cherche l'inspi', jécoute Three-Six J'bois du sky, pas de 8-6 Vends ta mère pour un X6 Tout est vrai, rien n'est fictif Le cul des morts pendant l'éclipse À cur ouvert chez le légiste Plus tard, pute tu r'mets en ligne dans mon bolide Le chibre est solide, j'te doggyne et puis j'rembobine Ici, le pouvoir a la couleur du caramel Pas d'sentiments, j'suis dans un de-mon parallèle, hey, hey J'ai plein d'ennemis, je les shoote comme KD J'ai plein d'ennemis, je les shoote comme KD Et j'suis dans l'coin, j'suis dans l'coin Et j'suis dans l'coin, j'suis dans l'coin Et je switche, et je switche Et je switche, et je switche J'ai plein d'ennemis, je les shoote comme KD J'ai plein d'ennemis, je les shoote comme KD 404</t>
+          <t>Switch BlackSkinsBeat BlackSkinsBeat Le rap prend cher dans maison close, maison close, yeah J'veux plus de gosses, donc j'baise des putes en ménopause, yeah Pour des euros, soyons fâchés, j'ai l'esprit d'un roi sans couronne Vivons heureux, vivons cachés, donc je t'enferme dans le sous-sol Tu n'mérites pas d'Uber, je te baise dans le heetch On a beau te dire d'te taire, faut quand même que tu snitches Je kiffe cette planète Terre, faut quand même que je switch Billy, n'sois pas honnête, faut qu'tu triches pour être riche Ton ciel, c'est mon sol Je fais rimer voyelles, consonnes, comme ça que je me console Têtus que nous sommes, j'ai pas d'argent mais j'consomme Cette salope me suce, obligé de faire des monologues, wallaye J'ai plein d'ennemis, je les shoote comme KD J'ai plein d'ennemis, je les shoote comme KD Et j'suis dans l'coin, j'suis dans l'coin Et j'suis dans l'coin, j'suis dans l'coin Et je switche, et je switche Et je switche, et je switche J'ai plein d'ennemis, je les shoote comme KD J'ai plein d'ennemis, je les shoote comme KD Hey, tout est moins rose, tout est morose, pas d'eau de rose Bite de val-che, monte sur moi comme une amazone L'enfer et l'paradis, c'est Crips contre Blood Y a pas d'amour, y a pas de kiss, pas de hug J'suis le cauchemar de tes rêves Quand je glisse entre tes lèvres J'cherche l'inspi', jécoute Three-Six J'bois du sky, pas de 8-6 Vends ta mère pour un X6 Tout est vrai, rien n'est fictif Le cul des morts pendant l'éclipse À cur ouvert chez le légiste Plus tard, pute tu r'mets en ligne dans mon bolide Le chibre est solide, j'te doggyne et puis j'rembobine Ici, le pouvoir a la couleur du caramel Pas d'sentiments, j'suis dans un de-mon parallèle, hey, hey J'ai plein d'ennemis, je les shoote comme KD J'ai plein d'ennemis, je les shoote comme KD Et j'suis dans l'coin, j'suis dans l'coin Et j'suis dans l'coin, j'suis dans l'coin Et je switche, et je switche Et je switche, et je switche J'ai plein d'ennemis, je les shoote comme KD J'ai plein d'ennemis, je les shoote comme KD 404</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>J'veux pas me réveiller même quand sonne le réveil Avec moi, le temps n'cesse de jouer le rebelle Je regarde l'horloge quitte à devenir fou À n'importe quelle heure, j'suis toujours dans l'flou J'ai tellement peur de mourir demain J'ai des choses à perdre comme chaque être humain La plupart du temps, je suis serein dans mes phrasés Mais mon avenir est entre ses mains Le temps, le temps Le temps, le temps Le temps, le temps Le temps, le temps Je n'ai pas la maîtrise dorénavant Je n'ai pas la maîtrise, ouais ouais, je n'ai pas la maîtrise, ouais ouais J'ai compris qu'j'étais animal lors d'relations sexuelles J'ai compris qu'les écrits restent et pas la gestuelle J'ai mental de dix ans d'âge, j'suis pas trop sentimental J'suis loin d'être immoral comme l'élite occidentale J's'rai nouveau en Enfer, est-c'qu'il y aura un bizutage ? Mon avenir se dessine mais je ne vois que gribouillages Ne calcule pas trop l'ennemi, fais belek à l'entourage Plus foi en l'Humanité mais la musique me soulage Face aux cris des hommes, y a pas que l'arme qu'est silencieuse On demandera pardon au Seigneur si l'on peut Respecte-moi que je roule en Lambo', en Clio 2 J'ai laissé mes sentiments mais je dois continuer sans eux Parfois, le silence peut créer des mythes Trop de surveillance peut créer des bitchs J'ai passé mon enfance à admirer les vitres Réussites licites, illicites, j'te félicite You might also like x2 Le temps, le temps Le temps, le temps Le temps, le temps Le temps, le temps Je n'ai pas la maîtrise dorénavant Je n'ai pas la maîtrise, ouais ouais, je n'ai pas la maîtrise, ouais ouais</t>
+          <t>J'veux pas me réveiller même quand sonne le réveil Avec moi, le temps n'cesse de jouer le rebelle Je regarde l'horloge quitte à devenir fou À n'importe quelle heure, j'suis toujours dans l'flou J'ai tellement peur de mourir demain J'ai des choses à perdre comme chaque être humain La plupart du temps, je suis serein dans mes phrasés Mais mon avenir est entre ses mains Le temps, le temps Le temps, le temps Le temps, le temps Le temps, le temps Je n'ai pas la maîtrise dorénavant Je n'ai pas la maîtrise, ouais ouais, je n'ai pas la maîtrise, ouais ouais J'ai compris qu'j'étais animal lors d'relations sexuelles J'ai compris qu'les écrits restent et pas la gestuelle J'ai mental de dix ans d'âge, j'suis pas trop sentimental J'suis loin d'être immoral comme l'élite occidentale J's'rai nouveau en Enfer, est-c'qu'il y aura un bizutage ? Mon avenir se dessine mais je ne vois que gribouillages Ne calcule pas trop l'ennemi, fais belek à l'entourage Plus foi en l'Humanité mais la musique me soulage Face aux cris des hommes, y a pas que l'arme qu'est silencieuse On demandera pardon au Seigneur si l'on peut Respecte-moi que je roule en Lambo', en Clio 2 J'ai laissé mes sentiments mais je dois continuer sans eux Parfois, le silence peut créer des mythes Trop de surveillance peut créer des bitchs J'ai passé mon enfance à admirer les vitres Réussites licites, illicites, j'te félicite x2 Le temps, le temps Le temps, le temps Le temps, le temps Le temps, le temps Je n'ai pas la maîtrise dorénavant Je n'ai pas la maîtrise, ouais ouais, je n'ai pas la maîtrise, ouais ouais</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Hey, hey piou, piou, piou, hey, hey La D, la D, la D La D, la D, la D woh 404Billy, Hitxchi 95, 93 Cur se noie à la surface, y a quoi ? Y a quoi ? Y a quoi ? Y a quoi ? En Lacoste dans l'Classe A oula, vaillant Le cur se noie à la surface, y a quoi y a quoi ? ? J'vois qui dans la glace, en Lacoste dans l'Classe A Tous les pions peuvent être déplacés, c'qu'il s'est passé pas important, futur parlera pour moi Peu importe leur passé, je sais qu'je les dépasserai Et j'oublie pas, j'étais pas seul, y avait depuis l'début 16, on l'fait, j'vais vendre la C au phone J'donnerai du te-shi aux vrais, toutes leurs beuh, elles viennent d'Espagne Ils disent qu'ils ont de l'Hollandaise, on réfléchit, on fait, avant, j'réfléchis pas Si tu touches au gang, doute pas trop, j'suis dans mon coin, j'ai pas d'patron Ça s'tuera entre frères, à la cité, c'est Game of Thrones J'avais tout calculé, j'crois qu'j'suis comme Jimmy Neutron J'enchaîne les gros dorés, j'rappe bien comme 404Billy J'viens d'Sevran la zone, fait baisé comme Villiers-l'-Bel J'fais disparaître les kil' chez la copine Virginie Et va voir sous risée si tu veux voir comment j'fais On fait pas c'qu'il demande, tout est noir mais c'est quel monde ? J'voulais la vie, j'ai vu la mort On dit qu'la terre est grande mais la tour aussi est grande Celui qui la contrôle, il parle fort J'suis gentil et pourtant, j'ai mis la cagoule et les gants C'est dur d's'en sortir dans la zone J'sais plus qui sont les hommes, eh, j'vois qu'des hypocrites qui sont démasqués T'es pas comme nous t'es pas du gang You might also like Yeah, un flash, trois pétasses, bre-som comme Shotas Fuck les paillettes ou strass, pour l'biff, j'ai d'l'audace Tout doucement, j'y vais, deux douilles, j'me sens criblé DA Uzi, S.E, Villiers, terrain souvent miné Silence, j'ai des pétasses en freelance Business, monnaie, finance, j'créé ma propre science Aucune preuve de brillance, Rocco, ma référence Que des clés d'bras - levrette, comme ça que j'te fiance Poulette suce ou alors roulette russe pour ma mort, faut être plus Pour les croire, faut être dupe Pour percer, faut être belle, faut être pute Choisis l'stud', où bien t'perdre dans le stup' J'viens dans bas, j'viens d'la zup' Y a Celsius zéro, froid comme sub zero Ton équipe vaut zéro comme la brigade ferro' J'ai la recette ghetto, y a pas d'peut-être, pelo Villiers low cost négro, 9.3 2.7.0, zouin On fait pas c'qu'il demande, tout est noir mais c'est quel monde ? J'voulais la vie, j'ai vu la mort On dit qu'la terre est grande mais la tour aussi est grande Celui qui la contrôle, il parle fort J'suis gentil et pourtant, j'ai mis la cagoule et les gants C'est dur d's'en sortir dans la zone J'sais plus qui sont les hommes, eh, j'vois qu'des hypocrites qui sont démasqués T'es pas comme nous t'es pas du gang</t>
+          <t>Hey, hey piou, piou, piou, hey, hey La D, la D, la D La D, la D, la D woh 404Billy, Hitxchi 95, 93 Cur se noie à la surface, y a quoi ? Y a quoi ? Y a quoi ? Y a quoi ? En Lacoste dans l'Classe A oula, vaillant Le cur se noie à la surface, y a quoi y a quoi ? ? J'vois qui dans la glace, en Lacoste dans l'Classe A Tous les pions peuvent être déplacés, c'qu'il s'est passé pas important, futur parlera pour moi Peu importe leur passé, je sais qu'je les dépasserai Et j'oublie pas, j'étais pas seul, y avait depuis l'début 16, on l'fait, j'vais vendre la C au phone J'donnerai du te-shi aux vrais, toutes leurs beuh, elles viennent d'Espagne Ils disent qu'ils ont de l'Hollandaise, on réfléchit, on fait, avant, j'réfléchis pas Si tu touches au gang, doute pas trop, j'suis dans mon coin, j'ai pas d'patron Ça s'tuera entre frères, à la cité, c'est Game of Thrones J'avais tout calculé, j'crois qu'j'suis comme Jimmy Neutron J'enchaîne les gros dorés, j'rappe bien comme 404Billy J'viens d'Sevran la zone, fait baisé comme Villiers-l'-Bel J'fais disparaître les kil' chez la copine Virginie Et va voir sous risée si tu veux voir comment j'fais On fait pas c'qu'il demande, tout est noir mais c'est quel monde ? J'voulais la vie, j'ai vu la mort On dit qu'la terre est grande mais la tour aussi est grande Celui qui la contrôle, il parle fort J'suis gentil et pourtant, j'ai mis la cagoule et les gants C'est dur d's'en sortir dans la zone J'sais plus qui sont les hommes, eh, j'vois qu'des hypocrites qui sont démasqués T'es pas comme nous t'es pas du gang Yeah, un flash, trois pétasses, bre-som comme Shotas Fuck les paillettes ou strass, pour l'biff, j'ai d'l'audace Tout doucement, j'y vais, deux douilles, j'me sens criblé DA Uzi, S.E, Villiers, terrain souvent miné Silence, j'ai des pétasses en freelance Business, monnaie, finance, j'créé ma propre science Aucune preuve de brillance, Rocco, ma référence Que des clés d'bras - levrette, comme ça que j'te fiance Poulette suce ou alors roulette russe pour ma mort, faut être plus Pour les croire, faut être dupe Pour percer, faut être belle, faut être pute Choisis l'stud', où bien t'perdre dans le stup' J'viens dans bas, j'viens d'la zup' Y a Celsius zéro, froid comme sub zero Ton équipe vaut zéro comme la brigade ferro' J'ai la recette ghetto, y a pas d'peut-être, pelo Villiers low cost négro, 9.3 2.7.0, zouin On fait pas c'qu'il demande, tout est noir mais c'est quel monde ? J'voulais la vie, j'ai vu la mort On dit qu'la terre est grande mais la tour aussi est grande Celui qui la contrôle, il parle fort J'suis gentil et pourtant, j'ai mis la cagoule et les gants C'est dur d's'en sortir dans la zone J'sais plus qui sont les hommes, eh, j'vois qu'des hypocrites qui sont démasqués T'es pas comme nous t'es pas du gang</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>404 Dans leurs chattes, uniquement dans leurs chattes Dans mes poches j'avais un billet d'cinq, deux pièces de deux J'avais neuf balles sur moi comme Fifty, gros j'étais broke Broke Maintenant j'connais la gagne, j'sais aussi c'est quoi quand on perd J'connais J'ai dormi dans un immeuble rempli d'rats sur Auber' Ils ont d'la chance, quand ils sortent du stud', ils rentrent chez leurs mères Oh P'tit plat sur la table, p'tit lit bien fait, pourquoi ils me parlent de guerre What? J'avais pas l'brevet, cette femme est v'nue, le ventre arrondi Enceinte Pour poser mes sons, j'devrais descendre, le soir sur Bondy J'm'en souviens, boy J'me r'connais pas en eux Jamais, plus j'les écoute, plus j'aime mon rap Fort Plus j'connais les hommes, plus j'aime mes liasses Tou-tou-touh J'suis l'méchant le plus détestable Ouais L'ennemi d'Optimus Prime, j'optimise mon prime Zoin Dehors c'est la guerre, c'est rare qu'les civils gagnent Très rare Ils s'prennent des balles dans l'il, s'font étrangler comme Ciryl Gane Les squats J'oublie c'qui m'choque Poh, poh, j'prends deux-trois shots Ouh J'mets K.O. tout l'monde on veut pas m'donner l'title shot Bah ouais Mon objectif c'est d'devenir un grand Monsieur Quand ma fille regarde ce monde, j'mets juste ma main d'vant ses yeux J'mets juste ma main Elles m'cassent les couilles, elle m'font des crises par message Mes deux salopes s'embrouillent comme Crystal et Shay Ah-ah-ah On m'aime pas trop parce que j'parle un peu trop français Un peu trop À chaque punchline, j'suis à deux doigts du procès Eppsito, tu peux pas dire qu't'es l'meilleur rappeur Non Si tous mes p'tits EPs sont meilleurs qu'ton album Ouf J'rappe comme si j'avais un cancer, j'ai rien à perdre, j'te jure La vie m'fait du charme, j'ai verge dure devant ses vergetures On fait pas face aux mêmes embrouilles, face au même goon 404 biatch dans l'hôtel room, j'échange quand l'autre elle rouile Rah Tu veux pas y croire comme une meuf bien qui s'doigte J'n'ai aucun clan, y'a que mon ange du bien qui est d'droite J'te l'ai dit Tu veux un sneak peek, j'ai qu'une vision comme Slick Rick Fort Que des ondes sismiques, en un mois j'ai pris six SMICs Zoin Goin Zoin Elle passe de faire la meuf pieuse à balancer son score Body-count Elle passe de déhancher son corps à balancer son porc Tchoin Tu rejoindras jamais l'label, t'es pas passé aux sélections Ton rappeur touche le pourcentage de Kanye West aux élections J'fais les choses à l'envers, hiver coloré, été noir Faux combat, j'm'en bas la race que les égyptiens étaient noirs 404 dans son portable, possède des rimes insupportables On m'a même pété avec, on m'a condamné pour port d'armes J'n'ai plus aucun modèle depuis l'début des temps modernes, négro Personne à l'abri d'un pic, personne n'a l'totem, négro Personne Vu qu'j'ai dit négro les blancs n'peuvent pas chanter mon texte Non, moi j'm'en bas les couilles, t'inquiète, j'ai capté l'contexte La nation n'a qu'une seule couleur, mes principes sont en sécurité Fuck ces seins qui tombent et tous ces culs ridés Ces culs ridés Sur certains sujets, j'n'ai pas les mêmes positions qu'hier C'est comme le sexe, un jour c'est levrette, l'autre position cuillère Ils s'prennent pour des stars mais, sont qu'des rats d'laboratoire J'ai récup' tous mes masters, sans payer d'clause libératoire You might also like Fin, allez dire à ces soi-disant kickeurs, qui font des Grünt, j'sais pas quoi des freestyles, mon album il arrive, ressentez la pression, ça va vous botter l'cul Zoin Goin Zoin Kidvillain Industry, rien d'autre 404, grah</t>
+          <t>404 Dans leurs chattes, uniquement dans leurs chattes Dans mes poches j'avais un billet d'cinq, deux pièces de deux J'avais neuf balles sur moi comme Fifty, gros j'étais broke Broke Maintenant j'connais la gagne, j'sais aussi c'est quoi quand on perd J'connais J'ai dormi dans un immeuble rempli d'rats sur Auber' Ils ont d'la chance, quand ils sortent du stud', ils rentrent chez leurs mères Oh P'tit plat sur la table, p'tit lit bien fait, pourquoi ils me parlent de guerre What? J'avais pas l'brevet, cette femme est v'nue, le ventre arrondi Enceinte Pour poser mes sons, j'devrais descendre, le soir sur Bondy J'm'en souviens, boy J'me r'connais pas en eux Jamais, plus j'les écoute, plus j'aime mon rap Fort Plus j'connais les hommes, plus j'aime mes liasses Tou-tou-touh J'suis l'méchant le plus détestable Ouais L'ennemi d'Optimus Prime, j'optimise mon prime Zoin Dehors c'est la guerre, c'est rare qu'les civils gagnent Très rare Ils s'prennent des balles dans l'il, s'font étrangler comme Ciryl Gane Les squats J'oublie c'qui m'choque Poh, poh, j'prends deux-trois shots Ouh J'mets K.O. tout l'monde on veut pas m'donner l'title shot Bah ouais Mon objectif c'est d'devenir un grand Monsieur Quand ma fille regarde ce monde, j'mets juste ma main d'vant ses yeux J'mets juste ma main Elles m'cassent les couilles, elle m'font des crises par message Mes deux salopes s'embrouillent comme Crystal et Shay Ah-ah-ah On m'aime pas trop parce que j'parle un peu trop français Un peu trop À chaque punchline, j'suis à deux doigts du procès Eppsito, tu peux pas dire qu't'es l'meilleur rappeur Non Si tous mes p'tits EPs sont meilleurs qu'ton album Ouf J'rappe comme si j'avais un cancer, j'ai rien à perdre, j'te jure La vie m'fait du charme, j'ai verge dure devant ses vergetures On fait pas face aux mêmes embrouilles, face au même goon 404 biatch dans l'hôtel room, j'échange quand l'autre elle rouile Rah Tu veux pas y croire comme une meuf bien qui s'doigte J'n'ai aucun clan, y'a que mon ange du bien qui est d'droite J'te l'ai dit Tu veux un sneak peek, j'ai qu'une vision comme Slick Rick Fort Que des ondes sismiques, en un mois j'ai pris six SMICs Zoin Goin Zoin Elle passe de faire la meuf pieuse à balancer son score Body-count Elle passe de déhancher son corps à balancer son porc Tchoin Tu rejoindras jamais l'label, t'es pas passé aux sélections Ton rappeur touche le pourcentage de Kanye West aux élections J'fais les choses à l'envers, hiver coloré, été noir Faux combat, j'm'en bas la race que les égyptiens étaient noirs 404 dans son portable, possède des rimes insupportables On m'a même pété avec, on m'a condamné pour port d'armes J'n'ai plus aucun modèle depuis l'début des temps modernes, négro Personne à l'abri d'un pic, personne n'a l'totem, négro Personne Vu qu'j'ai dit négro les blancs n'peuvent pas chanter mon texte Non, moi j'm'en bas les couilles, t'inquiète, j'ai capté l'contexte La nation n'a qu'une seule couleur, mes principes sont en sécurité Fuck ces seins qui tombent et tous ces culs ridés Ces culs ridés Sur certains sujets, j'n'ai pas les mêmes positions qu'hier C'est comme le sexe, un jour c'est levrette, l'autre position cuillère Ils s'prennent pour des stars mais, sont qu'des rats d'laboratoire J'ai récup' tous mes masters, sans payer d'clause libératoire Fin, allez dire à ces soi-disant kickeurs, qui font des Grünt, j'sais pas quoi des freestyles, mon album il arrive, ressentez la pression, ça va vous botter l'cul Zoin Goin Zoin Kidvillain Industry, rien d'autre 404, grah</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Les vrais négros manquent à l'appel Parole du Sheitan dans l'oreille Il n'y a que l'argent qui nous mène Et que le destin qui nous sème Je n'ressens plus rien quand je saigne Je ne fais pas d'excès de zèle Sang d'être humain dans la teille Numéro d'démon dans mon tel' J'suis dans les ténèbres dans mon dél' J'fais des rituels dans l'autel J'attends qu'le bonheur m'appelle Je vois créatures dans le ciel Toujours humble, jamais hautain Toujours courageux, jamais honteux Laissez-nous faire ce que l'on veut Laissez-nous faire l'argent qu'on peut Mon cur sombre qui me guide 404, c'est la guilde Condamné côté obscur J'ai le futur d'Anakin Si leur triangle s'illumine Ils voudront mon âme et son tarot Que la juge libère Faro Qu'il y ait pas d'négro sur le carreau Entouré d'morts, j'fais des selfies Depuis tit-pe, j'fais des envieux Mec, dans la street, j'ai des ennemis Je suis né sur champ d'bataille Jusqu'à ma mort, je reste ici Cur en cendre dans mon cercueil Que du bonheur, j'ai pas sept vies You might also like Billets verts et mauves sont dans mes poches direct Billets verts et mauves sont dans mes poches direct J'vais les tuer tous les jours, faut pas qu'j'y reste J'vais les tuer tous les jours, faut pas qu'j'y reste Billets verts et mauves sont dans mes poches direct Billets verts et mauves sont dans mes poches direct J'vais les tuer tous les jours, faut pas qu'j'y reste J'vais les tuer tous les jours, tous les jours La cocaïne se mélange à ta morve bang J'vais tous les baiser dans l'ordre Tu peux pas me stopper, j'ai ma horde J'ai gagné la guerre, on s'retrouve à la morgue Ça sert à rien d'crier mayday Pris de peur, les nerfs tendus On m'parle de paix, j'réponds ouais, ouais Les ennemis finissent pendus, hey La Tour Eiffel, j'la vois que briller car je vis que la nuit J'coupe des têtes pour me satisfaire Le reste du temps, c'est pour combler l'ennui Y'a que mon nom sur les petits pots à la banque de sperme Pour du bif, à la Simon Sterne, j'ai la vision terne L'être humain est rempli d'vices Pas de peine, j'les baise all day Je revis tous les jours, fils Donc tous les jours, c'est mon birthday J'écoute pas c'que disent les chroniques Souvent sincères, peu ironiques Je crée le temps, j'suis méthodique Si j'réussis, tout est logique J'te fais du sale dans ton registre Je vois le trône briller dans mon iris Pas bien-faisant comme Osiris Y'a que dans mes rêves que je suis riche Avec mon cerveau, je fais la guerre Tu n'verras pas le portrait de mon arme De toute façon, mes yeux sont en vert Tu n'verras pas le reflet de mon âme Billets verts et mauves sont dans mes poches direct Billets verts et mauves sont dans mes poches direct J'vais les tuer tous les jours, faut pas qu'j'y reste J'vais les tuer tous les jours, faut pas qu'j'y reste Billets verts et mauves sont dans mes poches direct Billets verts et mauves sont dans mes poches direct J'vais les tuer tous les jours, faut pas qu'j'y reste J'vais les tuer tous les jours, tous les jours</t>
+          <t>Les vrais négros manquent à l'appel Parole du Sheitan dans l'oreille Il n'y a que l'argent qui nous mène Et que le destin qui nous sème Je n'ressens plus rien quand je saigne Je ne fais pas d'excès de zèle Sang d'être humain dans la teille Numéro d'démon dans mon tel' J'suis dans les ténèbres dans mon dél' J'fais des rituels dans l'autel J'attends qu'le bonheur m'appelle Je vois créatures dans le ciel Toujours humble, jamais hautain Toujours courageux, jamais honteux Laissez-nous faire ce que l'on veut Laissez-nous faire l'argent qu'on peut Mon cur sombre qui me guide 404, c'est la guilde Condamné côté obscur J'ai le futur d'Anakin Si leur triangle s'illumine Ils voudront mon âme et son tarot Que la juge libère Faro Qu'il y ait pas d'négro sur le carreau Entouré d'morts, j'fais des selfies Depuis tit-pe, j'fais des envieux Mec, dans la street, j'ai des ennemis Je suis né sur champ d'bataille Jusqu'à ma mort, je reste ici Cur en cendre dans mon cercueil Que du bonheur, j'ai pas sept vies Billets verts et mauves sont dans mes poches direct Billets verts et mauves sont dans mes poches direct J'vais les tuer tous les jours, faut pas qu'j'y reste J'vais les tuer tous les jours, faut pas qu'j'y reste Billets verts et mauves sont dans mes poches direct Billets verts et mauves sont dans mes poches direct J'vais les tuer tous les jours, faut pas qu'j'y reste J'vais les tuer tous les jours, tous les jours La cocaïne se mélange à ta morve bang J'vais tous les baiser dans l'ordre Tu peux pas me stopper, j'ai ma horde J'ai gagné la guerre, on s'retrouve à la morgue Ça sert à rien d'crier mayday Pris de peur, les nerfs tendus On m'parle de paix, j'réponds ouais, ouais Les ennemis finissent pendus, hey La Tour Eiffel, j'la vois que briller car je vis que la nuit J'coupe des têtes pour me satisfaire Le reste du temps, c'est pour combler l'ennui Y'a que mon nom sur les petits pots à la banque de sperme Pour du bif, à la Simon Sterne, j'ai la vision terne L'être humain est rempli d'vices Pas de peine, j'les baise all day Je revis tous les jours, fils Donc tous les jours, c'est mon birthday J'écoute pas c'que disent les chroniques Souvent sincères, peu ironiques Je crée le temps, j'suis méthodique Si j'réussis, tout est logique J'te fais du sale dans ton registre Je vois le trône briller dans mon iris Pas bien-faisant comme Osiris Y'a que dans mes rêves que je suis riche Avec mon cerveau, je fais la guerre Tu n'verras pas le portrait de mon arme De toute façon, mes yeux sont en vert Tu n'verras pas le reflet de mon âme Billets verts et mauves sont dans mes poches direct Billets verts et mauves sont dans mes poches direct J'vais les tuer tous les jours, faut pas qu'j'y reste J'vais les tuer tous les jours, faut pas qu'j'y reste Billets verts et mauves sont dans mes poches direct Billets verts et mauves sont dans mes poches direct J'vais les tuer tous les jours, faut pas qu'j'y reste J'vais les tuer tous les jours, tous les jours</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Y a pas de peut-être, tu vas écarter les cuisses direct direct, direct Pour eux, l'négro toujours deuxième comme Trivette Chuck Norris Tu vaux rien, jt'enlève la vie au rasoir Gillette J'plaide la folie, jsors du procès, j'fais des pirouettes yeah yeah Ramène-moi Rihanna, j'ai fait plein d'viagra, tu suces mal, j'sens tes dents, t'as flow de piranha aïe J'vais r'pêcher Oussama, au cas où si y a dra, on fait de largent, tes en boîte, tu danses le funaná farceur Faudrait la mettre sur l'trottoir mais cette pétasse fait des siennes hey Nan, jte laisserai pas de pourboire, t'as pas assez fait la chienne Cherché partout la poucave mais c'n'était que mon GSM ding-ding Quand un jeune de cité meurt, ça npasse pas sur BFM jamais, jamais Les riches veulent aller au Paradis en hélico' Haineux parle mais ne me verra plus qu'en vidéo Woh, hey, woh, hey, woh, hey, woh, hey Les riches veulent aller au Paradis en hélico' Haineux parle mais ne me verra plus qu'en vidéo bâtard Woh, hey, woh, hey, woh, hey, woh, hey Boîte de Paname, résidus d'cocaïne dans les chiottes, v'là les geush, v'là les escorts Hyper blindées sont les portes, tous nos péchés, on les porte m'a mit dans les cordes mais j'suis sauvé par le gong ding-dong Trop tard pour jeter l'éponge ding-dong, toujours plongé dans mes songes Très hostile, jamais je n'renonce très hostile, jamais je n'renonce T'es has-been comme le rap qui dénonce mais tout ça est illusoire comme les rêves que j'fais dans plumard C'est maintenant qu'j'écris l'histoire qu'ces merdes vont raconter plus tard ces merdes, ces merdes Air Max, T-Max in favelas plaît aux pétasses vroum, vroum, hélas, j'suis las, je ne côtoie pas les feignasses jamais, jamais Chaque mouvement, sache que l'mauvais il te piste mauvais il, j'vis dans un monde où les filles de joie sont tristes snif, snif You might also like Les riches veulent aller au Paradis en hélico' Haineux parle mais ne me verra plus qu'en vidéo Woh, hey, woh, hey, woh, hey, woh, hey Les riches veulent aller au Paradis en hélico' Haineux parle mais ne me verra plus qu'en vidéo bâtard Woh, hey, woh, hey, woh, hey, woh, hey</t>
+          <t>Y a pas de peut-être, tu vas écarter les cuisses direct direct, direct Pour eux, l'négro toujours deuxième comme Trivette Chuck Norris Tu vaux rien, jt'enlève la vie au rasoir Gillette J'plaide la folie, jsors du procès, j'fais des pirouettes yeah yeah Ramène-moi Rihanna, j'ai fait plein d'viagra, tu suces mal, j'sens tes dents, t'as flow de piranha aïe J'vais r'pêcher Oussama, au cas où si y a dra, on fait de largent, tes en boîte, tu danses le funaná farceur Faudrait la mettre sur l'trottoir mais cette pétasse fait des siennes hey Nan, jte laisserai pas de pourboire, t'as pas assez fait la chienne Cherché partout la poucave mais c'n'était que mon GSM ding-ding Quand un jeune de cité meurt, ça npasse pas sur BFM jamais, jamais Les riches veulent aller au Paradis en hélico' Haineux parle mais ne me verra plus qu'en vidéo Woh, hey, woh, hey, woh, hey, woh, hey Les riches veulent aller au Paradis en hélico' Haineux parle mais ne me verra plus qu'en vidéo bâtard Woh, hey, woh, hey, woh, hey, woh, hey Boîte de Paname, résidus d'cocaïne dans les chiottes, v'là les geush, v'là les escorts Hyper blindées sont les portes, tous nos péchés, on les porte m'a mit dans les cordes mais j'suis sauvé par le gong ding-dong Trop tard pour jeter l'éponge ding-dong, toujours plongé dans mes songes Très hostile, jamais je n'renonce très hostile, jamais je n'renonce T'es has-been comme le rap qui dénonce mais tout ça est illusoire comme les rêves que j'fais dans plumard C'est maintenant qu'j'écris l'histoire qu'ces merdes vont raconter plus tard ces merdes, ces merdes Air Max, T-Max in favelas plaît aux pétasses vroum, vroum, hélas, j'suis las, je ne côtoie pas les feignasses jamais, jamais Chaque mouvement, sache que l'mauvais il te piste mauvais il, j'vis dans un monde où les filles de joie sont tristes snif, snif Les riches veulent aller au Paradis en hélico' Haineux parle mais ne me verra plus qu'en vidéo Woh, hey, woh, hey, woh, hey, woh, hey Les riches veulent aller au Paradis en hélico' Haineux parle mais ne me verra plus qu'en vidéo bâtard Woh, hey, woh, hey, woh, hey, woh, hey</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>4.0.4 Billy Ikaz Bitch, fais l'aumône, glisse sur mon cône spliff Nique sur le trône, vices que je prône J'suis plus dans le hall nan nan, j'n'ai pas joué de rôle nan nan J'ai jeté ta rose fuck, j'préfère billets mauves j'préfère J'suis v'nu pour les tuer-er-er, pour trouver la paix-aix-aix Elle m'a dit J'suis blessée-ée-ée, rien n'sert de rappeler-er-er Donc j'en ai baisé d'autres fuck, j'en ai doggyné-é-é C'est vrai qu'j'ai fait des fautes ouais, j'ai rien regretté-é-é J'rode dans la ciudad, dans la ciudad, tu peux vérifier J'vois des putains d'suceurs, plein de suceurs qui me salissaient Bastos dans l'abdomen, c'est c'qu'il me faut pour marquer l'essai J'suis contre les hypocrites et les pétasses, j'les ai blacklisté fuck Tout est sombre dans le tunnel, bitch Tout est vrai, tout est réel, bitch tout est réel Dans ce monde, tout est cruel, bitch tout est cruel Ambitieux, j'baise les plus vieilles, bitch cougar gang J'fais de mieux en mieux, y a beaucoup d'envieux, j'pense à mon biff j'pense à mon bif J'fais de mieux en mieux, y a beaucoup d'envieux, j'pense à mon biff je pense qu'à ça Tout est sombre dans le tunnel tout est sombre, bitch tout est sombre Ambitieux, j'baise les plus vieilles, bitch cougar gang You might also like Monsieur l'agent, la bicrave n'est qu'du commerce c'est qu'du commerce Vivre et mourir pour des billets jaunes comme Homer Homer Simpson J'encule commères qui s'affolèrent, tout plein d'colère dans la molaire En roue arrière, sous le tonnerre, là je tolère y a que des loups Au commissariat, ils me questionnèrent mais je mythonnère ils me questionnèrent C'est moi l'poète, j'emmerde Baudelaire, j'emmerde Voltaire fuck et fuck J'emmerde Molière, fuck et fuck rien n'est scolaire sheesh, sheesh Place au paradis sur Terre vaut bien trop chère J'rode dans la ciudad, dans la ciudad, tu peux vérifier J'vois des putains d'suceurs, plein de suceurs qui me salissaient Bastos dans l'abdomen, c'est c'qu'il me faut pour marquer l'essai J'suis contre les hypocrites et les pétasses, j'les ai blacklisté fuck Tout est sombre dans le tunnel, bitch Tout est vrai, tout est réel, bitch tout est réel Dans ce monde, tout est cruel, bitch tout est cruel Ambitieux, j'baise les plus vieilles, bitch cougar gang J'fais de mieux en mieux, y a beaucoup d'envieux, j'pense à mon biff j'pense à mon bif J'fais de mieux en mieux, y a beaucoup d'envieux, j'pense à mon biff je pense qu'à ça Tout est sombre dans le tunnel tout est sombre, bitch tout est sombre Ambitieux, j'baise les plus vieilles, bitch cougar gang Y a que des loups</t>
+          <t>4.0.4 Billy Ikaz Bitch, fais l'aumône, glisse sur mon cône spliff Nique sur le trône, vices que je prône J'suis plus dans le hall nan nan, j'n'ai pas joué de rôle nan nan J'ai jeté ta rose fuck, j'préfère billets mauves j'préfère J'suis v'nu pour les tuer-er-er, pour trouver la paix-aix-aix Elle m'a dit J'suis blessée-ée-ée, rien n'sert de rappeler-er-er Donc j'en ai baisé d'autres fuck, j'en ai doggyné-é-é C'est vrai qu'j'ai fait des fautes ouais, j'ai rien regretté-é-é J'rode dans la ciudad, dans la ciudad, tu peux vérifier J'vois des putains d'suceurs, plein de suceurs qui me salissaient Bastos dans l'abdomen, c'est c'qu'il me faut pour marquer l'essai J'suis contre les hypocrites et les pétasses, j'les ai blacklisté fuck Tout est sombre dans le tunnel, bitch Tout est vrai, tout est réel, bitch tout est réel Dans ce monde, tout est cruel, bitch tout est cruel Ambitieux, j'baise les plus vieilles, bitch cougar gang J'fais de mieux en mieux, y a beaucoup d'envieux, j'pense à mon biff j'pense à mon bif J'fais de mieux en mieux, y a beaucoup d'envieux, j'pense à mon biff je pense qu'à ça Tout est sombre dans le tunnel tout est sombre, bitch tout est sombre Ambitieux, j'baise les plus vieilles, bitch cougar gang Monsieur l'agent, la bicrave n'est qu'du commerce c'est qu'du commerce Vivre et mourir pour des billets jaunes comme Homer Homer Simpson J'encule commères qui s'affolèrent, tout plein d'colère dans la molaire En roue arrière, sous le tonnerre, là je tolère y a que des loups Au commissariat, ils me questionnèrent mais je mythonnère ils me questionnèrent C'est moi l'poète, j'emmerde Baudelaire, j'emmerde Voltaire fuck et fuck J'emmerde Molière, fuck et fuck rien n'est scolaire sheesh, sheesh Place au paradis sur Terre vaut bien trop chère J'rode dans la ciudad, dans la ciudad, tu peux vérifier J'vois des putains d'suceurs, plein de suceurs qui me salissaient Bastos dans l'abdomen, c'est c'qu'il me faut pour marquer l'essai J'suis contre les hypocrites et les pétasses, j'les ai blacklisté fuck Tout est sombre dans le tunnel, bitch Tout est vrai, tout est réel, bitch tout est réel Dans ce monde, tout est cruel, bitch tout est cruel Ambitieux, j'baise les plus vieilles, bitch cougar gang J'fais de mieux en mieux, y a beaucoup d'envieux, j'pense à mon biff j'pense à mon bif J'fais de mieux en mieux, y a beaucoup d'envieux, j'pense à mon biff je pense qu'à ça Tout est sombre dans le tunnel tout est sombre, bitch tout est sombre Ambitieux, j'baise les plus vieilles, bitch cougar gang Y a que des loups</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Dose Quatre zéro quatre Billy, hey Hey, hey Han J'esquive le temps comme Keanu Reaves Le diable m'entraîne, m'enchaîne et me dit de lâcher prise Ceux qui fixent les lois, j'vous demande de m'laisser libre Bientôt j'vais mourir solo, j'vous demande de m'laisser vivre Pas d'roses dans mon cercueil, que des épines j'ai plusieurs ennemis Vulgaire est mon lexique, han, juste une question d'éthique, han Si je perce dans le game, j'serai en osmose et en symbiose Que d'la , pas d'autres choses, fait en sorte que je reigne, hey V.L.B Quatre zéro quatre Hey Est victorieux et qui de nous Dans l'industrie que des loups, plus de curs que des sous Il n'y aura jamais d'justice pour nous J'ai pas d'or, pas d'chaîne J'ai la mentale d'Avon Barksdale, rappeur lasse-deg rap pour la Sacem J'aime tant ma fille, j'pourrais perdre la vue Les djinns sont toujours à l'affut Comprendront que je viens du ciel, le rap mort dans un sac poubelle Je suis pauvre à part ça tout beigne Le sang coule dans mon corps tout maigre Mon rap thug est encore tout frêle, hey Est-ce que Dieu veut qu'je parle de lui Je sais pas, j'te raconte ma vie Je taffe dur, je n'aime pas l'acquis Se demandent Billy parle à qui Je parle seul juste avant la nuit Nan, je n'suis pas dans les temps, je crée le temps Je les laisse entre eux dans leur business érotique J'écris mes textes en hiéroglyphes Les jaloux maigrissent, sont émotifs Fais l'film, tu mattes la redif' Il n'y a qu'un seul numéro 10 La police ne vient pas dans nos lotis' J'suis artiste comme Redding Otis J'rap comme un mec de ke-New Yor' J'viens niquer cette fille la queue dehors Garde ton argent, tu m'auras pas Nique ta grand-mère, je veux que l'or, heyYou might also like</t>
+          <t>Dose Quatre zéro quatre Billy, hey Hey, hey Han J'esquive le temps comme Keanu Reaves Le diable m'entraîne, m'enchaîne et me dit de lâcher prise Ceux qui fixent les lois, j'vous demande de m'laisser libre Bientôt j'vais mourir solo, j'vous demande de m'laisser vivre Pas d'roses dans mon cercueil, que des épines j'ai plusieurs ennemis Vulgaire est mon lexique, han, juste une question d'éthique, han Si je perce dans le game, j'serai en osmose et en symbiose Que d'la , pas d'autres choses, fait en sorte que je reigne, hey V.L.B Quatre zéro quatre Hey Est victorieux et qui de nous Dans l'industrie que des loups, plus de curs que des sous Il n'y aura jamais d'justice pour nous J'ai pas d'or, pas d'chaîne J'ai la mentale d'Avon Barksdale, rappeur lasse-deg rap pour la Sacem J'aime tant ma fille, j'pourrais perdre la vue Les djinns sont toujours à l'affut Comprendront que je viens du ciel, le rap mort dans un sac poubelle Je suis pauvre à part ça tout beigne Le sang coule dans mon corps tout maigre Mon rap thug est encore tout frêle, hey Est-ce que Dieu veut qu'je parle de lui Je sais pas, j'te raconte ma vie Je taffe dur, je n'aime pas l'acquis Se demandent Billy parle à qui Je parle seul juste avant la nuit Nan, je n'suis pas dans les temps, je crée le temps Je les laisse entre eux dans leur business érotique J'écris mes textes en hiéroglyphes Les jaloux maigrissent, sont émotifs Fais l'film, tu mattes la redif' Il n'y a qu'un seul numéro 10 La police ne vient pas dans nos lotis' J'suis artiste comme Redding Otis J'rap comme un mec de ke-New Yor' J'viens niquer cette fille la queue dehors Garde ton argent, tu m'auras pas Nique ta grand-mère, je veux que l'or, hey</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Hey 404 Hey, quand le ciel se ternit hey Que le sale est permis dose Personne ne te fait signe bang, bang Quand la zer séternise chiche J'verse ma haine dans mon whisky Mélange de race, pour eux, j'suis qu'un bâtard J'crois en Dieu, j'mise rien sur le hasard hey Le bruit des balles est l'seul langage universel J'remue terre, ciel sur les ondes hertziennes wouh Vulgaire, arrogance que j'aime Mon fils Ryan a le sang des Sayan super Sayan Tu veux être dans mon univers ? Monte dans la fusée Ariane Gros, ramène ton flow, moi, j'vais ramener l'mien j'vais ramener l'mien On t'a déjà dit Rapper vite, c'est pas rapper bien, tchoin tchoin, tchoin J'vais leur faire vivre un cauchemar, aller loin aller loin Moi, j'prends mon cachet, j'me barre, allez zoin allez zouin Hey Négro, plus rien n'est rose, négro, plus rien n'est rose plus rien n'est rose J'vais rentrer au casse-bélier, je vois qu'les portes sont closes bang, bang Négro, plus rien n'est rose, négro, plus rien n'est rose plus rien n'est rose Bats les couilles, j'arrive grossier, j'ai pas soigné mes proses hey, hey Négro, plus rien n'est rose, négro, plus rien n'est rose plus rien n'est rose J'vais rentrer au casse-bélier, je vois qu'les portes sont closes bang, bang Négro, plus rien n'est rose, négro, plus rien n'est rose plus rien n'est rose Bats les couilles, j'arrive grossier, j'ai pas soigné mes proses hey, hey You might also like J'vais infliger des hématomes à l'Hexagone allez zouin Y a pas d'friendzone, suce mes balls suce mes balls Toute ma vie encore remplie de chutes Rap français encore rempli de putes Flow écrit toujours à l'état brut Têtu, j'vais mourir avec ma lutte Regarde mal, c'est l'drame drame Juré, promis, homie promis Ici, c'est pas l'monde joyeux de Rolie, Polie, Holie fuck Même ceux au-dessus de nous sont soumis aux crimes commis Dans la vie, trois choses essentielles money, money, money Y a plein de gens qui m'en veulent, j'suis qu'un petit morveux J'suis bipolaire j'insulte toute ta famille et t'souhaite les meilleurs vux hey, hey Tu peux m'souhaiter bonne année, de toute façon, j'suis condamné Je suis cramé, j'ai pas vu l'bonheur depuis des années dose, dose Négro, plus rien n'est rose, négro, plus rien n'est rose plus rien n'est rose J'vais rentrer au casse-bélier, je vois qu'les portes sont closes bang, bang Négro, plus rien n'est rose, négro, plus rien n'est rose 404 Bats les couilles, j'arrive grossier, j'ai pas soigné mes proses hey, hey Négro, plus rien n'est rose, négro, plus rien n'est rose plus rien n'est rose J'vais rentrer au casse-bélier, je vois qu'les portes sont closes bang, bang Négro, plus rien n'est rose, négro, plus rien n'est rose plus rien n'est rose Bats les couilles, j'arrive grossier, j'ai pas soigné mes proses</t>
+          <t>Hey 404 Hey, quand le ciel se ternit hey Que le sale est permis dose Personne ne te fait signe bang, bang Quand la zer séternise chiche J'verse ma haine dans mon whisky Mélange de race, pour eux, j'suis qu'un bâtard J'crois en Dieu, j'mise rien sur le hasard hey Le bruit des balles est l'seul langage universel J'remue terre, ciel sur les ondes hertziennes wouh Vulgaire, arrogance que j'aime Mon fils Ryan a le sang des Sayan super Sayan Tu veux être dans mon univers ? Monte dans la fusée Ariane Gros, ramène ton flow, moi, j'vais ramener l'mien j'vais ramener l'mien On t'a déjà dit Rapper vite, c'est pas rapper bien, tchoin tchoin, tchoin J'vais leur faire vivre un cauchemar, aller loin aller loin Moi, j'prends mon cachet, j'me barre, allez zoin allez zouin Hey Négro, plus rien n'est rose, négro, plus rien n'est rose plus rien n'est rose J'vais rentrer au casse-bélier, je vois qu'les portes sont closes bang, bang Négro, plus rien n'est rose, négro, plus rien n'est rose plus rien n'est rose Bats les couilles, j'arrive grossier, j'ai pas soigné mes proses hey, hey Négro, plus rien n'est rose, négro, plus rien n'est rose plus rien n'est rose J'vais rentrer au casse-bélier, je vois qu'les portes sont closes bang, bang Négro, plus rien n'est rose, négro, plus rien n'est rose plus rien n'est rose Bats les couilles, j'arrive grossier, j'ai pas soigné mes proses hey, hey J'vais infliger des hématomes à l'Hexagone allez zouin Y a pas d'friendzone, suce mes balls suce mes balls Toute ma vie encore remplie de chutes Rap français encore rempli de putes Flow écrit toujours à l'état brut Têtu, j'vais mourir avec ma lutte Regarde mal, c'est l'drame drame Juré, promis, homie promis Ici, c'est pas l'monde joyeux de Rolie, Polie, Holie fuck Même ceux au-dessus de nous sont soumis aux crimes commis Dans la vie, trois choses essentielles money, money, money Y a plein de gens qui m'en veulent, j'suis qu'un petit morveux J'suis bipolaire j'insulte toute ta famille et t'souhaite les meilleurs vux hey, hey Tu peux m'souhaiter bonne année, de toute façon, j'suis condamné Je suis cramé, j'ai pas vu l'bonheur depuis des années dose, dose Négro, plus rien n'est rose, négro, plus rien n'est rose plus rien n'est rose J'vais rentrer au casse-bélier, je vois qu'les portes sont closes bang, bang Négro, plus rien n'est rose, négro, plus rien n'est rose 404 Bats les couilles, j'arrive grossier, j'ai pas soigné mes proses hey, hey Négro, plus rien n'est rose, négro, plus rien n'est rose plus rien n'est rose J'vais rentrer au casse-bélier, je vois qu'les portes sont closes bang, bang Négro, plus rien n'est rose, négro, plus rien n'est rose plus rien n'est rose Bats les couilles, j'arrive grossier, j'ai pas soigné mes proses</t>
         </is>
       </c>
     </row>
